--- a/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>HINOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>37711</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>37346</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18010300</v>
+        <v>16866900</v>
       </c>
       <c r="E8" s="3">
-        <v>16707300</v>
+        <v>18406600</v>
       </c>
       <c r="F8" s="3">
-        <v>15305000</v>
+        <v>17074900</v>
       </c>
       <c r="G8" s="3">
-        <v>15867000</v>
+        <v>15641800</v>
       </c>
       <c r="H8" s="3">
-        <v>15319400</v>
+        <v>16216100</v>
       </c>
       <c r="I8" s="3">
-        <v>15449100</v>
+        <v>15656400</v>
       </c>
       <c r="J8" s="3">
+        <v>15789000</v>
+      </c>
+      <c r="K8" s="3">
         <v>7729400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6858100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15220200</v>
+        <v>14329200</v>
       </c>
       <c r="E9" s="3">
-        <v>14020800</v>
+        <v>15555100</v>
       </c>
       <c r="F9" s="3">
-        <v>12826800</v>
+        <v>14329300</v>
       </c>
       <c r="G9" s="3">
-        <v>13189400</v>
+        <v>13109000</v>
       </c>
       <c r="H9" s="3">
-        <v>12633000</v>
+        <v>13479600</v>
       </c>
       <c r="I9" s="3">
-        <v>12812400</v>
+        <v>12911000</v>
       </c>
       <c r="J9" s="3">
+        <v>13094300</v>
+      </c>
+      <c r="K9" s="3">
         <v>6556000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5772600</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2790100</v>
+        <v>2537700</v>
       </c>
       <c r="E10" s="3">
-        <v>2686500</v>
+        <v>2851500</v>
       </c>
       <c r="F10" s="3">
-        <v>2478200</v>
+        <v>2745600</v>
       </c>
       <c r="G10" s="3">
-        <v>2677500</v>
+        <v>2532700</v>
       </c>
       <c r="H10" s="3">
-        <v>2686300</v>
+        <v>2736400</v>
       </c>
       <c r="I10" s="3">
-        <v>2636700</v>
+        <v>2745400</v>
       </c>
       <c r="J10" s="3">
+        <v>2694800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1173400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1085500</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>17200</v>
+        <v>2500</v>
       </c>
       <c r="E14" s="3">
-        <v>14500</v>
+        <v>17600</v>
       </c>
       <c r="F14" s="3">
-        <v>4400</v>
+        <v>14800</v>
       </c>
       <c r="G14" s="3">
-        <v>-5800</v>
+        <v>4500</v>
       </c>
       <c r="H14" s="3">
-        <v>18300</v>
+        <v>-6000</v>
       </c>
       <c r="I14" s="3">
-        <v>-13600</v>
+        <v>18700</v>
       </c>
       <c r="J14" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="K14" s="3">
         <v>70800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3100</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17239300</v>
+        <v>16359800</v>
       </c>
       <c r="E17" s="3">
-        <v>15991500</v>
+        <v>17618600</v>
       </c>
       <c r="F17" s="3">
-        <v>14662400</v>
+        <v>16343300</v>
       </c>
       <c r="G17" s="3">
-        <v>14967700</v>
+        <v>14985000</v>
       </c>
       <c r="H17" s="3">
-        <v>14378500</v>
+        <v>15297000</v>
       </c>
       <c r="I17" s="3">
-        <v>14415800</v>
+        <v>14694800</v>
       </c>
       <c r="J17" s="3">
+        <v>14732900</v>
+      </c>
+      <c r="K17" s="3">
         <v>7625800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6779900</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>771000</v>
+        <v>507100</v>
       </c>
       <c r="E18" s="3">
-        <v>715800</v>
+        <v>788000</v>
       </c>
       <c r="F18" s="3">
-        <v>642600</v>
+        <v>731500</v>
       </c>
       <c r="G18" s="3">
-        <v>899300</v>
+        <v>656800</v>
       </c>
       <c r="H18" s="3">
-        <v>940900</v>
+        <v>919100</v>
       </c>
       <c r="I18" s="3">
-        <v>1033400</v>
+        <v>961600</v>
       </c>
       <c r="J18" s="3">
+        <v>1056100</v>
+      </c>
+      <c r="K18" s="3">
         <v>103600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>78200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>32600</v>
+        <v>27100</v>
       </c>
       <c r="E20" s="3">
-        <v>70400</v>
+        <v>33400</v>
       </c>
       <c r="F20" s="3">
-        <v>55700</v>
+        <v>71900</v>
       </c>
       <c r="G20" s="3">
-        <v>41500</v>
+        <v>56900</v>
       </c>
       <c r="H20" s="3">
-        <v>55600</v>
+        <v>42400</v>
       </c>
       <c r="I20" s="3">
-        <v>36100</v>
+        <v>56800</v>
       </c>
       <c r="J20" s="3">
+        <v>36900</v>
+      </c>
+      <c r="K20" s="3">
         <v>43200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>136500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1336900</v>
+        <v>1072500</v>
       </c>
       <c r="E21" s="3">
-        <v>1319600</v>
+        <v>1364600</v>
       </c>
       <c r="F21" s="3">
-        <v>1163800</v>
+        <v>1346800</v>
       </c>
       <c r="G21" s="3">
-        <v>1390000</v>
+        <v>1187800</v>
       </c>
       <c r="H21" s="3">
-        <v>1397000</v>
+        <v>1419100</v>
       </c>
       <c r="I21" s="3">
-        <v>1475000</v>
+        <v>1426400</v>
       </c>
       <c r="J21" s="3">
+        <v>1506100</v>
+      </c>
+      <c r="K21" s="3">
         <v>433600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>502300</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>53500</v>
+        <v>60700</v>
       </c>
       <c r="E22" s="3">
-        <v>43200</v>
+        <v>54700</v>
       </c>
       <c r="F22" s="3">
-        <v>43100</v>
+        <v>44200</v>
       </c>
       <c r="G22" s="3">
-        <v>60100</v>
+        <v>44100</v>
       </c>
       <c r="H22" s="3">
-        <v>58100</v>
+        <v>61500</v>
       </c>
       <c r="I22" s="3">
-        <v>47400</v>
+        <v>59400</v>
       </c>
       <c r="J22" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K22" s="3">
         <v>33800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>57600</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>750100</v>
+        <v>473500</v>
       </c>
       <c r="E23" s="3">
-        <v>742900</v>
+        <v>766600</v>
       </c>
       <c r="F23" s="3">
-        <v>655200</v>
+        <v>759200</v>
       </c>
       <c r="G23" s="3">
-        <v>880700</v>
+        <v>669600</v>
       </c>
       <c r="H23" s="3">
-        <v>938400</v>
+        <v>900000</v>
       </c>
       <c r="I23" s="3">
-        <v>1022100</v>
+        <v>959000</v>
       </c>
       <c r="J23" s="3">
+        <v>1044500</v>
+      </c>
+      <c r="K23" s="3">
         <v>113000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>157000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>195500</v>
+        <v>150800</v>
       </c>
       <c r="E24" s="3">
-        <v>214900</v>
+        <v>199800</v>
       </c>
       <c r="F24" s="3">
-        <v>156100</v>
+        <v>219700</v>
       </c>
       <c r="G24" s="3">
-        <v>262100</v>
+        <v>159600</v>
       </c>
       <c r="H24" s="3">
-        <v>219300</v>
+        <v>267900</v>
       </c>
       <c r="I24" s="3">
-        <v>136000</v>
+        <v>224100</v>
       </c>
       <c r="J24" s="3">
+        <v>139000</v>
+      </c>
+      <c r="K24" s="3">
         <v>63000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>85200</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>554600</v>
+        <v>322700</v>
       </c>
       <c r="E26" s="3">
-        <v>528000</v>
+        <v>566800</v>
       </c>
       <c r="F26" s="3">
-        <v>499000</v>
+        <v>539600</v>
       </c>
       <c r="G26" s="3">
-        <v>618500</v>
+        <v>510000</v>
       </c>
       <c r="H26" s="3">
-        <v>719100</v>
+        <v>632100</v>
       </c>
       <c r="I26" s="3">
-        <v>886100</v>
+        <v>734900</v>
       </c>
       <c r="J26" s="3">
+        <v>905600</v>
+      </c>
+      <c r="K26" s="3">
         <v>50000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>71800</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>499100</v>
+        <v>292300</v>
       </c>
       <c r="E27" s="3">
-        <v>466900</v>
+        <v>510100</v>
       </c>
       <c r="F27" s="3">
-        <v>449100</v>
+        <v>477100</v>
       </c>
       <c r="G27" s="3">
-        <v>592000</v>
+        <v>459000</v>
       </c>
       <c r="H27" s="3">
-        <v>677200</v>
+        <v>605100</v>
       </c>
       <c r="I27" s="3">
-        <v>810200</v>
+        <v>692100</v>
       </c>
       <c r="J27" s="3">
+        <v>828000</v>
+      </c>
+      <c r="K27" s="3">
         <v>45100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>75700</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-32600</v>
+        <v>-27100</v>
       </c>
       <c r="E32" s="3">
-        <v>-70400</v>
+        <v>-33400</v>
       </c>
       <c r="F32" s="3">
-        <v>-55700</v>
+        <v>-71900</v>
       </c>
       <c r="G32" s="3">
-        <v>-41500</v>
+        <v>-56900</v>
       </c>
       <c r="H32" s="3">
-        <v>-55600</v>
+        <v>-42400</v>
       </c>
       <c r="I32" s="3">
-        <v>-36100</v>
+        <v>-56800</v>
       </c>
       <c r="J32" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-43200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-136500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>499100</v>
+        <v>292300</v>
       </c>
       <c r="E33" s="3">
-        <v>466900</v>
+        <v>510100</v>
       </c>
       <c r="F33" s="3">
-        <v>449100</v>
+        <v>477100</v>
       </c>
       <c r="G33" s="3">
-        <v>592000</v>
+        <v>459000</v>
       </c>
       <c r="H33" s="3">
-        <v>677200</v>
+        <v>605100</v>
       </c>
       <c r="I33" s="3">
-        <v>810200</v>
+        <v>692100</v>
       </c>
       <c r="J33" s="3">
+        <v>828000</v>
+      </c>
+      <c r="K33" s="3">
         <v>45100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>75700</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>499100</v>
+        <v>292300</v>
       </c>
       <c r="E35" s="3">
-        <v>466900</v>
+        <v>510100</v>
       </c>
       <c r="F35" s="3">
-        <v>449100</v>
+        <v>477100</v>
       </c>
       <c r="G35" s="3">
-        <v>592000</v>
+        <v>459000</v>
       </c>
       <c r="H35" s="3">
-        <v>677200</v>
+        <v>605100</v>
       </c>
       <c r="I35" s="3">
-        <v>810200</v>
+        <v>692100</v>
       </c>
       <c r="J35" s="3">
+        <v>828000</v>
+      </c>
+      <c r="K35" s="3">
         <v>45100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>75700</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>37711</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>37346</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,8 +1645,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1569,269 +1655,296 @@
         <v>377200</v>
       </c>
       <c r="E41" s="3">
-        <v>411100</v>
+        <v>385100</v>
       </c>
       <c r="F41" s="3">
-        <v>292200</v>
+        <v>419700</v>
       </c>
       <c r="G41" s="3">
-        <v>315200</v>
+        <v>298300</v>
       </c>
       <c r="H41" s="3">
-        <v>328200</v>
+        <v>321800</v>
       </c>
       <c r="I41" s="3">
-        <v>406700</v>
+        <v>335000</v>
       </c>
       <c r="J41" s="3">
+        <v>415200</v>
+      </c>
+      <c r="K41" s="3">
         <v>394900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>337900</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>22300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>96700</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3478400</v>
+        <v>2992000</v>
       </c>
       <c r="E43" s="3">
-        <v>3267200</v>
+        <v>3551100</v>
       </c>
       <c r="F43" s="3">
-        <v>2834200</v>
+        <v>3335500</v>
       </c>
       <c r="G43" s="3">
-        <v>2538900</v>
+        <v>2893400</v>
       </c>
       <c r="H43" s="3">
-        <v>2692500</v>
+        <v>2592000</v>
       </c>
       <c r="I43" s="3">
-        <v>2558200</v>
+        <v>2748700</v>
       </c>
       <c r="J43" s="3">
+        <v>2611700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1891500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2053700</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2386300</v>
+        <v>2431900</v>
       </c>
       <c r="E44" s="3">
-        <v>2204500</v>
+        <v>2436200</v>
       </c>
       <c r="F44" s="3">
-        <v>1850700</v>
+        <v>2250500</v>
       </c>
       <c r="G44" s="3">
-        <v>1744600</v>
+        <v>1889400</v>
       </c>
       <c r="H44" s="3">
-        <v>1822700</v>
+        <v>1781100</v>
       </c>
       <c r="I44" s="3">
-        <v>1413200</v>
+        <v>1860800</v>
       </c>
       <c r="J44" s="3">
+        <v>1442800</v>
+      </c>
+      <c r="K44" s="3">
         <v>594900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>653200</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>413800</v>
+        <v>330700</v>
       </c>
       <c r="E45" s="3">
-        <v>783800</v>
+        <v>422400</v>
       </c>
       <c r="F45" s="3">
-        <v>641100</v>
+        <v>800200</v>
       </c>
       <c r="G45" s="3">
-        <v>645300</v>
+        <v>654500</v>
       </c>
       <c r="H45" s="3">
-        <v>593200</v>
+        <v>658800</v>
       </c>
       <c r="I45" s="3">
-        <v>626100</v>
+        <v>605600</v>
       </c>
       <c r="J45" s="3">
+        <v>639200</v>
+      </c>
+      <c r="K45" s="3">
         <v>224600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>206500</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6655700</v>
+        <v>6131800</v>
       </c>
       <c r="E46" s="3">
-        <v>6199200</v>
+        <v>6794800</v>
       </c>
       <c r="F46" s="3">
-        <v>5618100</v>
+        <v>6328800</v>
       </c>
       <c r="G46" s="3">
-        <v>5244000</v>
+        <v>5735600</v>
       </c>
       <c r="H46" s="3">
-        <v>5436500</v>
+        <v>5353600</v>
       </c>
       <c r="I46" s="3">
-        <v>5004200</v>
+        <v>5550200</v>
       </c>
       <c r="J46" s="3">
+        <v>5108800</v>
+      </c>
+      <c r="K46" s="3">
         <v>3128200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3348100</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1052600</v>
+        <v>1008100</v>
       </c>
       <c r="E47" s="3">
-        <v>2128900</v>
+        <v>1074600</v>
       </c>
       <c r="F47" s="3">
-        <v>988300</v>
+        <v>2173400</v>
       </c>
       <c r="G47" s="3">
-        <v>933100</v>
+        <v>1009000</v>
       </c>
       <c r="H47" s="3">
-        <v>1138900</v>
+        <v>952600</v>
       </c>
       <c r="I47" s="3">
-        <v>903100</v>
+        <v>1162700</v>
       </c>
       <c r="J47" s="3">
+        <v>922000</v>
+      </c>
+      <c r="K47" s="3">
         <v>609200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>598300</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3941300</v>
+        <v>4038800</v>
       </c>
       <c r="E48" s="3">
-        <v>4422300</v>
+        <v>4023700</v>
       </c>
       <c r="F48" s="3">
-        <v>3863900</v>
+        <v>4514700</v>
       </c>
       <c r="G48" s="3">
-        <v>3621400</v>
+        <v>3944700</v>
       </c>
       <c r="H48" s="3">
-        <v>3305000</v>
+        <v>3697100</v>
       </c>
       <c r="I48" s="3">
-        <v>2980500</v>
+        <v>3374100</v>
       </c>
       <c r="J48" s="3">
+        <v>3042800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2854700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2935000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>214700</v>
+        <v>249700</v>
       </c>
       <c r="E49" s="3">
-        <v>384700</v>
+        <v>219200</v>
       </c>
       <c r="F49" s="3">
-        <v>192800</v>
+        <v>392800</v>
       </c>
       <c r="G49" s="3">
-        <v>199100</v>
+        <v>196800</v>
       </c>
       <c r="H49" s="3">
-        <v>185100</v>
+        <v>203300</v>
       </c>
       <c r="I49" s="3">
-        <v>159900</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+        <v>188900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>163200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>369200</v>
+        <v>404400</v>
       </c>
       <c r="E52" s="3">
-        <v>354500</v>
+        <v>376900</v>
       </c>
       <c r="F52" s="3">
-        <v>175600</v>
+        <v>361900</v>
       </c>
       <c r="G52" s="3">
-        <v>182200</v>
+        <v>179300</v>
       </c>
       <c r="H52" s="3">
-        <v>153500</v>
+        <v>186000</v>
       </c>
       <c r="I52" s="3">
-        <v>127900</v>
-      </c>
-      <c r="J52" s="3" t="s">
+        <v>156700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>130600</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12233500</v>
+        <v>11832700</v>
       </c>
       <c r="E54" s="3">
-        <v>11690500</v>
+        <v>12489200</v>
       </c>
       <c r="F54" s="3">
-        <v>10838800</v>
+        <v>11934800</v>
       </c>
       <c r="G54" s="3">
-        <v>10179800</v>
+        <v>11065300</v>
       </c>
       <c r="H54" s="3">
-        <v>10218900</v>
+        <v>10392600</v>
       </c>
       <c r="I54" s="3">
-        <v>9175600</v>
+        <v>10432500</v>
       </c>
       <c r="J54" s="3">
+        <v>9367400</v>
+      </c>
+      <c r="K54" s="3">
         <v>6542600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6900400</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2567300</v>
+        <v>2220100</v>
       </c>
       <c r="E57" s="3">
-        <v>2790700</v>
+        <v>2621000</v>
       </c>
       <c r="F57" s="3">
-        <v>2411600</v>
+        <v>2849100</v>
       </c>
       <c r="G57" s="3">
-        <v>2304900</v>
+        <v>2462000</v>
       </c>
       <c r="H57" s="3">
-        <v>2389300</v>
+        <v>2353100</v>
       </c>
       <c r="I57" s="3">
-        <v>2249700</v>
+        <v>2439300</v>
       </c>
       <c r="J57" s="3">
+        <v>2296700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1021200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>875200</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1845900</v>
+        <v>1785900</v>
       </c>
       <c r="E58" s="3">
-        <v>1554900</v>
+        <v>1884500</v>
       </c>
       <c r="F58" s="3">
-        <v>1428000</v>
+        <v>1587400</v>
       </c>
       <c r="G58" s="3">
-        <v>1036300</v>
+        <v>1457900</v>
       </c>
       <c r="H58" s="3">
-        <v>1157900</v>
+        <v>1057900</v>
       </c>
       <c r="I58" s="3">
-        <v>1164300</v>
+        <v>1182100</v>
       </c>
       <c r="J58" s="3">
+        <v>1188700</v>
+      </c>
+      <c r="K58" s="3">
         <v>2635100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2947700</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1429500</v>
+        <v>1276300</v>
       </c>
       <c r="E59" s="3">
-        <v>1640700</v>
+        <v>1459400</v>
       </c>
       <c r="F59" s="3">
-        <v>1261100</v>
+        <v>1674900</v>
       </c>
       <c r="G59" s="3">
-        <v>1361600</v>
+        <v>1287400</v>
       </c>
       <c r="H59" s="3">
-        <v>1308100</v>
+        <v>1390100</v>
       </c>
       <c r="I59" s="3">
-        <v>1289700</v>
+        <v>1335500</v>
       </c>
       <c r="J59" s="3">
+        <v>1316600</v>
+      </c>
+      <c r="K59" s="3">
         <v>505900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>452800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5842700</v>
+        <v>5282300</v>
       </c>
       <c r="E60" s="3">
-        <v>5726500</v>
+        <v>5964900</v>
       </c>
       <c r="F60" s="3">
-        <v>5100700</v>
+        <v>5846200</v>
       </c>
       <c r="G60" s="3">
-        <v>4702800</v>
+        <v>5207300</v>
       </c>
       <c r="H60" s="3">
-        <v>4855400</v>
+        <v>4801100</v>
       </c>
       <c r="I60" s="3">
-        <v>4703700</v>
+        <v>4956800</v>
       </c>
       <c r="J60" s="3">
+        <v>4802000</v>
+      </c>
+      <c r="K60" s="3">
         <v>4162300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4275700</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>360100</v>
+        <v>197100</v>
       </c>
       <c r="E61" s="3">
-        <v>115700</v>
+        <v>367600</v>
       </c>
       <c r="F61" s="3">
-        <v>346300</v>
+        <v>118100</v>
       </c>
       <c r="G61" s="3">
-        <v>410300</v>
+        <v>353500</v>
       </c>
       <c r="H61" s="3">
-        <v>371400</v>
+        <v>418900</v>
       </c>
       <c r="I61" s="3">
-        <v>296300</v>
+        <v>379200</v>
       </c>
       <c r="J61" s="3">
+        <v>302500</v>
+      </c>
+      <c r="K61" s="3">
         <v>200900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>372200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>608900</v>
+        <v>853300</v>
       </c>
       <c r="E62" s="3">
-        <v>834300</v>
+        <v>621600</v>
       </c>
       <c r="F62" s="3">
-        <v>729400</v>
+        <v>851700</v>
       </c>
       <c r="G62" s="3">
-        <v>759000</v>
+        <v>744600</v>
       </c>
       <c r="H62" s="3">
-        <v>761900</v>
+        <v>774900</v>
       </c>
       <c r="I62" s="3">
-        <v>725100</v>
+        <v>777800</v>
       </c>
       <c r="J62" s="3">
+        <v>740300</v>
+      </c>
+      <c r="K62" s="3">
         <v>477800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>534200</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7300800</v>
+        <v>6801200</v>
       </c>
       <c r="E66" s="3">
-        <v>7123800</v>
+        <v>7453400</v>
       </c>
       <c r="F66" s="3">
-        <v>6608800</v>
+        <v>7272700</v>
       </c>
       <c r="G66" s="3">
-        <v>6275500</v>
+        <v>6746900</v>
       </c>
       <c r="H66" s="3">
-        <v>6411000</v>
+        <v>6406600</v>
       </c>
       <c r="I66" s="3">
-        <v>6082500</v>
+        <v>6545000</v>
       </c>
       <c r="J66" s="3">
+        <v>6209600</v>
+      </c>
+      <c r="K66" s="3">
         <v>4910300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5270800</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3412300</v>
+        <v>3626400</v>
       </c>
       <c r="E72" s="3">
-        <v>3072600</v>
+        <v>3483600</v>
       </c>
       <c r="F72" s="3">
-        <v>2752800</v>
+        <v>3136800</v>
       </c>
       <c r="G72" s="3">
-        <v>2455300</v>
+        <v>2810300</v>
       </c>
       <c r="H72" s="3">
-        <v>2082400</v>
+        <v>2506600</v>
       </c>
       <c r="I72" s="3">
-        <v>1611200</v>
+        <v>2125900</v>
       </c>
       <c r="J72" s="3">
+        <v>1644900</v>
+      </c>
+      <c r="K72" s="3">
         <v>273100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>254400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4932700</v>
+        <v>5031500</v>
       </c>
       <c r="E76" s="3">
-        <v>4566700</v>
+        <v>5035800</v>
       </c>
       <c r="F76" s="3">
-        <v>4230000</v>
+        <v>4662200</v>
       </c>
       <c r="G76" s="3">
-        <v>3904300</v>
+        <v>4318400</v>
       </c>
       <c r="H76" s="3">
-        <v>3807900</v>
+        <v>3985900</v>
       </c>
       <c r="I76" s="3">
-        <v>3093100</v>
+        <v>3887500</v>
       </c>
       <c r="J76" s="3">
+        <v>3157800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1632300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1629600</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>37711</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>37346</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>499100</v>
+        <v>292300</v>
       </c>
       <c r="E81" s="3">
-        <v>466900</v>
+        <v>510100</v>
       </c>
       <c r="F81" s="3">
-        <v>449100</v>
+        <v>477100</v>
       </c>
       <c r="G81" s="3">
-        <v>592000</v>
+        <v>459000</v>
       </c>
       <c r="H81" s="3">
-        <v>677200</v>
+        <v>605100</v>
       </c>
       <c r="I81" s="3">
-        <v>810200</v>
+        <v>692100</v>
       </c>
       <c r="J81" s="3">
+        <v>828000</v>
+      </c>
+      <c r="K81" s="3">
         <v>45100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>75700</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>532100</v>
+        <v>538900</v>
       </c>
       <c r="E83" s="3">
-        <v>532300</v>
+        <v>543800</v>
       </c>
       <c r="F83" s="3">
-        <v>464500</v>
+        <v>544000</v>
       </c>
       <c r="G83" s="3">
-        <v>448300</v>
+        <v>474700</v>
       </c>
       <c r="H83" s="3">
-        <v>399600</v>
+        <v>458100</v>
       </c>
       <c r="I83" s="3">
-        <v>404700</v>
+        <v>408400</v>
       </c>
       <c r="J83" s="3">
+        <v>413600</v>
+      </c>
+      <c r="K83" s="3">
         <v>286200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>287300</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>435400</v>
+        <v>884200</v>
       </c>
       <c r="E89" s="3">
-        <v>786000</v>
+        <v>445000</v>
       </c>
       <c r="F89" s="3">
-        <v>688600</v>
+        <v>803300</v>
       </c>
       <c r="G89" s="3">
-        <v>1012300</v>
+        <v>703800</v>
       </c>
       <c r="H89" s="3">
-        <v>706800</v>
+        <v>1034600</v>
       </c>
       <c r="I89" s="3">
-        <v>1299300</v>
+        <v>722400</v>
       </c>
       <c r="J89" s="3">
+        <v>1327900</v>
+      </c>
+      <c r="K89" s="3">
         <v>763400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>535700</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-535700</v>
+        <v>-560900</v>
       </c>
       <c r="E91" s="3">
-        <v>-546200</v>
+        <v>-547500</v>
       </c>
       <c r="F91" s="3">
-        <v>-798800</v>
+        <v>-558200</v>
       </c>
       <c r="G91" s="3">
-        <v>-719100</v>
+        <v>-816400</v>
       </c>
       <c r="H91" s="3">
-        <v>-615100</v>
+        <v>-734900</v>
       </c>
       <c r="I91" s="3">
-        <v>-527100</v>
+        <v>-628700</v>
       </c>
       <c r="J91" s="3">
+        <v>-538700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-272200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-166600</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-657100</v>
+        <v>-622500</v>
       </c>
       <c r="E94" s="3">
-        <v>-570700</v>
+        <v>-671500</v>
       </c>
       <c r="F94" s="3">
-        <v>-841600</v>
+        <v>-583200</v>
       </c>
       <c r="G94" s="3">
-        <v>-797100</v>
+        <v>-860100</v>
       </c>
       <c r="H94" s="3">
-        <v>-681800</v>
+        <v>-814600</v>
       </c>
       <c r="I94" s="3">
-        <v>-561900</v>
+        <v>-696900</v>
       </c>
       <c r="J94" s="3">
+        <v>-574200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-218300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7400</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-151300</v>
+        <v>-149300</v>
       </c>
       <c r="E96" s="3">
-        <v>-146000</v>
+        <v>-154700</v>
       </c>
       <c r="F96" s="3">
-        <v>-151200</v>
+        <v>-149300</v>
       </c>
       <c r="G96" s="3">
-        <v>-218900</v>
+        <v>-154500</v>
       </c>
       <c r="H96" s="3">
-        <v>-197900</v>
+        <v>-223700</v>
       </c>
       <c r="I96" s="3">
-        <v>-171600</v>
+        <v>-202200</v>
       </c>
       <c r="J96" s="3">
+        <v>-175300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-26100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>190000</v>
+        <v>-262400</v>
       </c>
       <c r="E100" s="3">
-        <v>-85900</v>
+        <v>194200</v>
       </c>
       <c r="F100" s="3">
-        <v>158700</v>
+        <v>-87800</v>
       </c>
       <c r="G100" s="3">
-        <v>-201100</v>
+        <v>162200</v>
       </c>
       <c r="H100" s="3">
-        <v>-237900</v>
+        <v>-205500</v>
       </c>
       <c r="I100" s="3">
-        <v>-451900</v>
+        <v>-243100</v>
       </c>
       <c r="J100" s="3">
+        <v>-461800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-489600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-577300</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3800</v>
+        <v>-7600</v>
       </c>
       <c r="E101" s="3">
-        <v>-7200</v>
+        <v>-3900</v>
       </c>
       <c r="F101" s="3">
-        <v>-31500</v>
+        <v>-7300</v>
       </c>
       <c r="G101" s="3">
-        <v>-28800</v>
+        <v>-32200</v>
       </c>
       <c r="H101" s="3">
-        <v>13400</v>
+        <v>-29400</v>
       </c>
       <c r="I101" s="3">
-        <v>5000</v>
+        <v>13700</v>
       </c>
       <c r="J101" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7600</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-35400</v>
+        <v>-8200</v>
       </c>
       <c r="E102" s="3">
-        <v>122300</v>
+        <v>-36200</v>
       </c>
       <c r="F102" s="3">
-        <v>-25700</v>
+        <v>125000</v>
       </c>
       <c r="G102" s="3">
-        <v>-14600</v>
+        <v>-26200</v>
       </c>
       <c r="H102" s="3">
-        <v>-199600</v>
+        <v>-14900</v>
       </c>
       <c r="I102" s="3">
-        <v>290600</v>
+        <v>-203900</v>
       </c>
       <c r="J102" s="3">
+        <v>297000</v>
+      </c>
+      <c r="K102" s="3">
         <v>55100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-41500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16866900</v>
+        <v>17139200</v>
       </c>
       <c r="E8" s="3">
-        <v>18406600</v>
+        <v>18703800</v>
       </c>
       <c r="F8" s="3">
-        <v>17074900</v>
+        <v>17350600</v>
       </c>
       <c r="G8" s="3">
-        <v>15641800</v>
+        <v>15894300</v>
       </c>
       <c r="H8" s="3">
-        <v>16216100</v>
+        <v>16477900</v>
       </c>
       <c r="I8" s="3">
-        <v>15656400</v>
+        <v>15909200</v>
       </c>
       <c r="J8" s="3">
-        <v>15789000</v>
+        <v>16044000</v>
       </c>
       <c r="K8" s="3">
         <v>7729400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14329200</v>
+        <v>14560500</v>
       </c>
       <c r="E9" s="3">
-        <v>15555100</v>
+        <v>15806300</v>
       </c>
       <c r="F9" s="3">
-        <v>14329300</v>
+        <v>14560600</v>
       </c>
       <c r="G9" s="3">
-        <v>13109000</v>
+        <v>13320700</v>
       </c>
       <c r="H9" s="3">
-        <v>13479600</v>
+        <v>13697300</v>
       </c>
       <c r="I9" s="3">
-        <v>12911000</v>
+        <v>13119400</v>
       </c>
       <c r="J9" s="3">
-        <v>13094300</v>
+        <v>13305700</v>
       </c>
       <c r="K9" s="3">
         <v>6556000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2537700</v>
+        <v>2578700</v>
       </c>
       <c r="E10" s="3">
-        <v>2851500</v>
+        <v>2897500</v>
       </c>
       <c r="F10" s="3">
-        <v>2745600</v>
+        <v>2789900</v>
       </c>
       <c r="G10" s="3">
-        <v>2532700</v>
+        <v>2573600</v>
       </c>
       <c r="H10" s="3">
-        <v>2736400</v>
+        <v>2780600</v>
       </c>
       <c r="I10" s="3">
-        <v>2745400</v>
+        <v>2789800</v>
       </c>
       <c r="J10" s="3">
-        <v>2694800</v>
+        <v>2738300</v>
       </c>
       <c r="K10" s="3">
         <v>1173400</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E14" s="3">
-        <v>17600</v>
+        <v>17900</v>
       </c>
       <c r="F14" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="G14" s="3">
         <v>4500</v>
       </c>
       <c r="H14" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="I14" s="3">
-        <v>18700</v>
+        <v>19000</v>
       </c>
       <c r="J14" s="3">
-        <v>-13900</v>
+        <v>-14100</v>
       </c>
       <c r="K14" s="3">
         <v>70800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16359800</v>
+        <v>16623900</v>
       </c>
       <c r="E17" s="3">
-        <v>17618600</v>
+        <v>17903100</v>
       </c>
       <c r="F17" s="3">
-        <v>16343300</v>
+        <v>16607200</v>
       </c>
       <c r="G17" s="3">
-        <v>14985000</v>
+        <v>15226900</v>
       </c>
       <c r="H17" s="3">
-        <v>15297000</v>
+        <v>15544000</v>
       </c>
       <c r="I17" s="3">
-        <v>14694800</v>
+        <v>14932100</v>
       </c>
       <c r="J17" s="3">
-        <v>14732900</v>
+        <v>14970800</v>
       </c>
       <c r="K17" s="3">
         <v>7625800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>507100</v>
+        <v>515300</v>
       </c>
       <c r="E18" s="3">
-        <v>788000</v>
+        <v>800700</v>
       </c>
       <c r="F18" s="3">
-        <v>731500</v>
+        <v>743300</v>
       </c>
       <c r="G18" s="3">
-        <v>656800</v>
+        <v>667400</v>
       </c>
       <c r="H18" s="3">
-        <v>919100</v>
+        <v>933900</v>
       </c>
       <c r="I18" s="3">
-        <v>961600</v>
+        <v>977100</v>
       </c>
       <c r="J18" s="3">
-        <v>1056100</v>
+        <v>1073100</v>
       </c>
       <c r="K18" s="3">
         <v>103600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>27100</v>
+        <v>27500</v>
       </c>
       <c r="E20" s="3">
-        <v>33400</v>
+        <v>33900</v>
       </c>
       <c r="F20" s="3">
-        <v>71900</v>
+        <v>73100</v>
       </c>
       <c r="G20" s="3">
-        <v>56900</v>
+        <v>57800</v>
       </c>
       <c r="H20" s="3">
-        <v>42400</v>
+        <v>43100</v>
       </c>
       <c r="I20" s="3">
-        <v>56800</v>
+        <v>57700</v>
       </c>
       <c r="J20" s="3">
-        <v>36900</v>
+        <v>37400</v>
       </c>
       <c r="K20" s="3">
         <v>43200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1072500</v>
+        <v>1088100</v>
       </c>
       <c r="E21" s="3">
-        <v>1364600</v>
+        <v>1384900</v>
       </c>
       <c r="F21" s="3">
-        <v>1346800</v>
+        <v>1366800</v>
       </c>
       <c r="G21" s="3">
-        <v>1187800</v>
+        <v>1205500</v>
       </c>
       <c r="H21" s="3">
-        <v>1419100</v>
+        <v>1440600</v>
       </c>
       <c r="I21" s="3">
-        <v>1426400</v>
+        <v>1448100</v>
       </c>
       <c r="J21" s="3">
-        <v>1506100</v>
+        <v>1529100</v>
       </c>
       <c r="K21" s="3">
         <v>433600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>60700</v>
+        <v>61600</v>
       </c>
       <c r="E22" s="3">
-        <v>54700</v>
+        <v>55600</v>
       </c>
       <c r="F22" s="3">
-        <v>44200</v>
+        <v>44900</v>
       </c>
       <c r="G22" s="3">
-        <v>44100</v>
+        <v>44800</v>
       </c>
       <c r="H22" s="3">
-        <v>61500</v>
+        <v>62400</v>
       </c>
       <c r="I22" s="3">
-        <v>59400</v>
+        <v>60400</v>
       </c>
       <c r="J22" s="3">
-        <v>48400</v>
+        <v>49200</v>
       </c>
       <c r="K22" s="3">
         <v>33800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>473500</v>
+        <v>481200</v>
       </c>
       <c r="E23" s="3">
-        <v>766600</v>
+        <v>779000</v>
       </c>
       <c r="F23" s="3">
-        <v>759200</v>
+        <v>771500</v>
       </c>
       <c r="G23" s="3">
-        <v>669600</v>
+        <v>680400</v>
       </c>
       <c r="H23" s="3">
-        <v>900000</v>
+        <v>914600</v>
       </c>
       <c r="I23" s="3">
-        <v>959000</v>
+        <v>974500</v>
       </c>
       <c r="J23" s="3">
-        <v>1044500</v>
+        <v>1061400</v>
       </c>
       <c r="K23" s="3">
         <v>113000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>150800</v>
+        <v>153200</v>
       </c>
       <c r="E24" s="3">
-        <v>199800</v>
+        <v>203100</v>
       </c>
       <c r="F24" s="3">
-        <v>219700</v>
+        <v>223200</v>
       </c>
       <c r="G24" s="3">
-        <v>159600</v>
+        <v>162200</v>
       </c>
       <c r="H24" s="3">
-        <v>267900</v>
+        <v>272200</v>
       </c>
       <c r="I24" s="3">
-        <v>224100</v>
+        <v>227700</v>
       </c>
       <c r="J24" s="3">
-        <v>139000</v>
+        <v>141200</v>
       </c>
       <c r="K24" s="3">
         <v>63000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>322700</v>
+        <v>327900</v>
       </c>
       <c r="E26" s="3">
-        <v>566800</v>
+        <v>575900</v>
       </c>
       <c r="F26" s="3">
-        <v>539600</v>
+        <v>548300</v>
       </c>
       <c r="G26" s="3">
-        <v>510000</v>
+        <v>518200</v>
       </c>
       <c r="H26" s="3">
-        <v>632100</v>
+        <v>642300</v>
       </c>
       <c r="I26" s="3">
-        <v>734900</v>
+        <v>746800</v>
       </c>
       <c r="J26" s="3">
-        <v>905600</v>
+        <v>920200</v>
       </c>
       <c r="K26" s="3">
         <v>50000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>292300</v>
+        <v>297000</v>
       </c>
       <c r="E27" s="3">
-        <v>510100</v>
+        <v>518300</v>
       </c>
       <c r="F27" s="3">
-        <v>477100</v>
+        <v>484800</v>
       </c>
       <c r="G27" s="3">
-        <v>459000</v>
+        <v>466400</v>
       </c>
       <c r="H27" s="3">
-        <v>605100</v>
+        <v>614800</v>
       </c>
       <c r="I27" s="3">
-        <v>692100</v>
+        <v>703300</v>
       </c>
       <c r="J27" s="3">
-        <v>828000</v>
+        <v>841400</v>
       </c>
       <c r="K27" s="3">
         <v>45100</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-27100</v>
+        <v>-27500</v>
       </c>
       <c r="E32" s="3">
-        <v>-33400</v>
+        <v>-33900</v>
       </c>
       <c r="F32" s="3">
-        <v>-71900</v>
+        <v>-73100</v>
       </c>
       <c r="G32" s="3">
-        <v>-56900</v>
+        <v>-57800</v>
       </c>
       <c r="H32" s="3">
-        <v>-42400</v>
+        <v>-43100</v>
       </c>
       <c r="I32" s="3">
-        <v>-56800</v>
+        <v>-57700</v>
       </c>
       <c r="J32" s="3">
-        <v>-36900</v>
+        <v>-37400</v>
       </c>
       <c r="K32" s="3">
         <v>-43200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>292300</v>
+        <v>297000</v>
       </c>
       <c r="E33" s="3">
-        <v>510100</v>
+        <v>518300</v>
       </c>
       <c r="F33" s="3">
-        <v>477100</v>
+        <v>484800</v>
       </c>
       <c r="G33" s="3">
-        <v>459000</v>
+        <v>466400</v>
       </c>
       <c r="H33" s="3">
-        <v>605100</v>
+        <v>614800</v>
       </c>
       <c r="I33" s="3">
-        <v>692100</v>
+        <v>703300</v>
       </c>
       <c r="J33" s="3">
-        <v>828000</v>
+        <v>841400</v>
       </c>
       <c r="K33" s="3">
         <v>45100</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>292300</v>
+        <v>297000</v>
       </c>
       <c r="E35" s="3">
-        <v>510100</v>
+        <v>518300</v>
       </c>
       <c r="F35" s="3">
-        <v>477100</v>
+        <v>484800</v>
       </c>
       <c r="G35" s="3">
-        <v>459000</v>
+        <v>466400</v>
       </c>
       <c r="H35" s="3">
-        <v>605100</v>
+        <v>614800</v>
       </c>
       <c r="I35" s="3">
-        <v>692100</v>
+        <v>703300</v>
       </c>
       <c r="J35" s="3">
-        <v>828000</v>
+        <v>841400</v>
       </c>
       <c r="K35" s="3">
         <v>45100</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>377200</v>
+        <v>383700</v>
       </c>
       <c r="E41" s="3">
-        <v>385100</v>
+        <v>391700</v>
       </c>
       <c r="F41" s="3">
-        <v>419700</v>
+        <v>426900</v>
       </c>
       <c r="G41" s="3">
-        <v>298300</v>
+        <v>303400</v>
       </c>
       <c r="H41" s="3">
-        <v>321800</v>
+        <v>327300</v>
       </c>
       <c r="I41" s="3">
-        <v>335000</v>
+        <v>340800</v>
       </c>
       <c r="J41" s="3">
-        <v>415200</v>
+        <v>422300</v>
       </c>
       <c r="K41" s="3">
         <v>394900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2992000</v>
+        <v>3043600</v>
       </c>
       <c r="E43" s="3">
-        <v>3551100</v>
+        <v>3612400</v>
       </c>
       <c r="F43" s="3">
-        <v>3335500</v>
+        <v>3393000</v>
       </c>
       <c r="G43" s="3">
-        <v>2893400</v>
+        <v>2943300</v>
       </c>
       <c r="H43" s="3">
-        <v>2592000</v>
+        <v>2636600</v>
       </c>
       <c r="I43" s="3">
-        <v>2748700</v>
+        <v>2796100</v>
       </c>
       <c r="J43" s="3">
-        <v>2611700</v>
+        <v>2656700</v>
       </c>
       <c r="K43" s="3">
         <v>1891500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2431900</v>
+        <v>2473800</v>
       </c>
       <c r="E44" s="3">
-        <v>2436200</v>
+        <v>2478200</v>
       </c>
       <c r="F44" s="3">
-        <v>2250500</v>
+        <v>2289300</v>
       </c>
       <c r="G44" s="3">
-        <v>1889400</v>
+        <v>1922000</v>
       </c>
       <c r="H44" s="3">
-        <v>1781100</v>
+        <v>1811800</v>
       </c>
       <c r="I44" s="3">
-        <v>1860800</v>
+        <v>1892800</v>
       </c>
       <c r="J44" s="3">
-        <v>1442800</v>
+        <v>1467600</v>
       </c>
       <c r="K44" s="3">
         <v>594900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>330700</v>
+        <v>336400</v>
       </c>
       <c r="E45" s="3">
-        <v>422400</v>
+        <v>429700</v>
       </c>
       <c r="F45" s="3">
-        <v>800200</v>
+        <v>814000</v>
       </c>
       <c r="G45" s="3">
-        <v>654500</v>
+        <v>665800</v>
       </c>
       <c r="H45" s="3">
-        <v>658800</v>
+        <v>670100</v>
       </c>
       <c r="I45" s="3">
-        <v>605600</v>
+        <v>616100</v>
       </c>
       <c r="J45" s="3">
-        <v>639200</v>
+        <v>650200</v>
       </c>
       <c r="K45" s="3">
         <v>224600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6131800</v>
+        <v>6237500</v>
       </c>
       <c r="E46" s="3">
-        <v>6794800</v>
+        <v>6912000</v>
       </c>
       <c r="F46" s="3">
-        <v>6328800</v>
+        <v>6437900</v>
       </c>
       <c r="G46" s="3">
-        <v>5735600</v>
+        <v>5834400</v>
       </c>
       <c r="H46" s="3">
-        <v>5353600</v>
+        <v>5445900</v>
       </c>
       <c r="I46" s="3">
-        <v>5550200</v>
+        <v>5645900</v>
       </c>
       <c r="J46" s="3">
-        <v>5108800</v>
+        <v>5196900</v>
       </c>
       <c r="K46" s="3">
         <v>3128200</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1008100</v>
+        <v>1025500</v>
       </c>
       <c r="E47" s="3">
-        <v>1074600</v>
+        <v>1093100</v>
       </c>
       <c r="F47" s="3">
-        <v>2173400</v>
+        <v>2210900</v>
       </c>
       <c r="G47" s="3">
-        <v>1009000</v>
+        <v>1026400</v>
       </c>
       <c r="H47" s="3">
-        <v>952600</v>
+        <v>969000</v>
       </c>
       <c r="I47" s="3">
-        <v>1162700</v>
+        <v>1182700</v>
       </c>
       <c r="J47" s="3">
-        <v>922000</v>
+        <v>937900</v>
       </c>
       <c r="K47" s="3">
         <v>609200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4038800</v>
+        <v>4108400</v>
       </c>
       <c r="E48" s="3">
-        <v>4023700</v>
+        <v>4093100</v>
       </c>
       <c r="F48" s="3">
-        <v>4514700</v>
+        <v>4592600</v>
       </c>
       <c r="G48" s="3">
-        <v>3944700</v>
+        <v>4012700</v>
       </c>
       <c r="H48" s="3">
-        <v>3697100</v>
+        <v>3760900</v>
       </c>
       <c r="I48" s="3">
-        <v>3374100</v>
+        <v>3432300</v>
       </c>
       <c r="J48" s="3">
-        <v>3042800</v>
+        <v>3095200</v>
       </c>
       <c r="K48" s="3">
         <v>2854700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>249700</v>
+        <v>254000</v>
       </c>
       <c r="E49" s="3">
-        <v>219200</v>
+        <v>223000</v>
       </c>
       <c r="F49" s="3">
-        <v>392800</v>
+        <v>399600</v>
       </c>
       <c r="G49" s="3">
-        <v>196800</v>
+        <v>200200</v>
       </c>
       <c r="H49" s="3">
-        <v>203300</v>
+        <v>206800</v>
       </c>
       <c r="I49" s="3">
-        <v>188900</v>
+        <v>192200</v>
       </c>
       <c r="J49" s="3">
-        <v>163200</v>
+        <v>166000</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>404400</v>
+        <v>411400</v>
       </c>
       <c r="E52" s="3">
-        <v>376900</v>
+        <v>383400</v>
       </c>
       <c r="F52" s="3">
-        <v>361900</v>
+        <v>368200</v>
       </c>
       <c r="G52" s="3">
-        <v>179300</v>
+        <v>182400</v>
       </c>
       <c r="H52" s="3">
-        <v>186000</v>
+        <v>189200</v>
       </c>
       <c r="I52" s="3">
-        <v>156700</v>
+        <v>159400</v>
       </c>
       <c r="J52" s="3">
-        <v>130600</v>
+        <v>132800</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11832700</v>
+        <v>12036800</v>
       </c>
       <c r="E54" s="3">
-        <v>12489200</v>
+        <v>12704600</v>
       </c>
       <c r="F54" s="3">
-        <v>11934800</v>
+        <v>12140600</v>
       </c>
       <c r="G54" s="3">
-        <v>11065300</v>
+        <v>11256100</v>
       </c>
       <c r="H54" s="3">
-        <v>10392600</v>
+        <v>10571700</v>
       </c>
       <c r="I54" s="3">
-        <v>10432500</v>
+        <v>10612400</v>
       </c>
       <c r="J54" s="3">
-        <v>9367400</v>
+        <v>9528900</v>
       </c>
       <c r="K54" s="3">
         <v>6542600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2220100</v>
+        <v>2258400</v>
       </c>
       <c r="E57" s="3">
-        <v>2621000</v>
+        <v>2666200</v>
       </c>
       <c r="F57" s="3">
-        <v>2849100</v>
+        <v>2898200</v>
       </c>
       <c r="G57" s="3">
-        <v>2462000</v>
+        <v>2504500</v>
       </c>
       <c r="H57" s="3">
-        <v>2353100</v>
+        <v>2393700</v>
       </c>
       <c r="I57" s="3">
-        <v>2439300</v>
+        <v>2481300</v>
       </c>
       <c r="J57" s="3">
-        <v>2296700</v>
+        <v>2336300</v>
       </c>
       <c r="K57" s="3">
         <v>1021200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1785900</v>
+        <v>1816700</v>
       </c>
       <c r="E58" s="3">
-        <v>1884500</v>
+        <v>1917000</v>
       </c>
       <c r="F58" s="3">
-        <v>1587400</v>
+        <v>1614700</v>
       </c>
       <c r="G58" s="3">
-        <v>1457900</v>
+        <v>1483000</v>
       </c>
       <c r="H58" s="3">
-        <v>1057900</v>
+        <v>1076200</v>
       </c>
       <c r="I58" s="3">
-        <v>1182100</v>
+        <v>1202500</v>
       </c>
       <c r="J58" s="3">
-        <v>1188700</v>
+        <v>1209200</v>
       </c>
       <c r="K58" s="3">
         <v>2635100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1276300</v>
+        <v>1298300</v>
       </c>
       <c r="E59" s="3">
-        <v>1459400</v>
+        <v>1484500</v>
       </c>
       <c r="F59" s="3">
-        <v>1674900</v>
+        <v>1703800</v>
       </c>
       <c r="G59" s="3">
-        <v>1287400</v>
+        <v>1309600</v>
       </c>
       <c r="H59" s="3">
-        <v>1390100</v>
+        <v>1414100</v>
       </c>
       <c r="I59" s="3">
-        <v>1335500</v>
+        <v>1358500</v>
       </c>
       <c r="J59" s="3">
-        <v>1316600</v>
+        <v>1339300</v>
       </c>
       <c r="K59" s="3">
         <v>505900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5282300</v>
+        <v>5373400</v>
       </c>
       <c r="E60" s="3">
-        <v>5964900</v>
+        <v>6067700</v>
       </c>
       <c r="F60" s="3">
-        <v>5846200</v>
+        <v>5947000</v>
       </c>
       <c r="G60" s="3">
-        <v>5207300</v>
+        <v>5297100</v>
       </c>
       <c r="H60" s="3">
-        <v>4801100</v>
+        <v>4883900</v>
       </c>
       <c r="I60" s="3">
-        <v>4956800</v>
+        <v>5042300</v>
       </c>
       <c r="J60" s="3">
-        <v>4802000</v>
+        <v>4884800</v>
       </c>
       <c r="K60" s="3">
         <v>4162300</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>197100</v>
+        <v>200500</v>
       </c>
       <c r="E61" s="3">
-        <v>367600</v>
+        <v>373900</v>
       </c>
       <c r="F61" s="3">
-        <v>118100</v>
+        <v>120200</v>
       </c>
       <c r="G61" s="3">
-        <v>353500</v>
+        <v>359600</v>
       </c>
       <c r="H61" s="3">
-        <v>418900</v>
+        <v>426100</v>
       </c>
       <c r="I61" s="3">
-        <v>379200</v>
+        <v>385700</v>
       </c>
       <c r="J61" s="3">
-        <v>302500</v>
+        <v>307700</v>
       </c>
       <c r="K61" s="3">
         <v>200900</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>853300</v>
+        <v>868000</v>
       </c>
       <c r="E62" s="3">
-        <v>621600</v>
+        <v>632300</v>
       </c>
       <c r="F62" s="3">
-        <v>851700</v>
+        <v>866400</v>
       </c>
       <c r="G62" s="3">
-        <v>744600</v>
+        <v>757500</v>
       </c>
       <c r="H62" s="3">
-        <v>774900</v>
+        <v>788200</v>
       </c>
       <c r="I62" s="3">
-        <v>777800</v>
+        <v>791300</v>
       </c>
       <c r="J62" s="3">
-        <v>740300</v>
+        <v>753100</v>
       </c>
       <c r="K62" s="3">
         <v>477800</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6801200</v>
+        <v>6918500</v>
       </c>
       <c r="E66" s="3">
-        <v>7453400</v>
+        <v>7581900</v>
       </c>
       <c r="F66" s="3">
-        <v>7272700</v>
+        <v>7398100</v>
       </c>
       <c r="G66" s="3">
-        <v>6746900</v>
+        <v>6863300</v>
       </c>
       <c r="H66" s="3">
-        <v>6406600</v>
+        <v>6517100</v>
       </c>
       <c r="I66" s="3">
-        <v>6545000</v>
+        <v>6657900</v>
       </c>
       <c r="J66" s="3">
-        <v>6209600</v>
+        <v>6316700</v>
       </c>
       <c r="K66" s="3">
         <v>4910300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3626400</v>
+        <v>3689000</v>
       </c>
       <c r="E72" s="3">
-        <v>3483600</v>
+        <v>3543700</v>
       </c>
       <c r="F72" s="3">
-        <v>3136800</v>
+        <v>3190900</v>
       </c>
       <c r="G72" s="3">
-        <v>2810300</v>
+        <v>2858800</v>
       </c>
       <c r="H72" s="3">
-        <v>2506600</v>
+        <v>2549800</v>
       </c>
       <c r="I72" s="3">
-        <v>2125900</v>
+        <v>2162500</v>
       </c>
       <c r="J72" s="3">
-        <v>1644900</v>
+        <v>1673300</v>
       </c>
       <c r="K72" s="3">
         <v>273100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5031500</v>
+        <v>5118300</v>
       </c>
       <c r="E76" s="3">
-        <v>5035800</v>
+        <v>5122600</v>
       </c>
       <c r="F76" s="3">
-        <v>4662200</v>
+        <v>4742500</v>
       </c>
       <c r="G76" s="3">
-        <v>4318400</v>
+        <v>4392800</v>
       </c>
       <c r="H76" s="3">
-        <v>3985900</v>
+        <v>4054600</v>
       </c>
       <c r="I76" s="3">
-        <v>3887500</v>
+        <v>3954500</v>
       </c>
       <c r="J76" s="3">
-        <v>3157800</v>
+        <v>3212200</v>
       </c>
       <c r="K76" s="3">
         <v>1632300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>292300</v>
+        <v>297000</v>
       </c>
       <c r="E81" s="3">
-        <v>510100</v>
+        <v>518300</v>
       </c>
       <c r="F81" s="3">
-        <v>477100</v>
+        <v>484800</v>
       </c>
       <c r="G81" s="3">
-        <v>459000</v>
+        <v>466400</v>
       </c>
       <c r="H81" s="3">
-        <v>605100</v>
+        <v>614800</v>
       </c>
       <c r="I81" s="3">
-        <v>692100</v>
+        <v>703300</v>
       </c>
       <c r="J81" s="3">
-        <v>828000</v>
+        <v>841400</v>
       </c>
       <c r="K81" s="3">
         <v>45100</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>538900</v>
+        <v>547600</v>
       </c>
       <c r="E83" s="3">
-        <v>543800</v>
+        <v>552600</v>
       </c>
       <c r="F83" s="3">
-        <v>544000</v>
+        <v>552800</v>
       </c>
       <c r="G83" s="3">
-        <v>474700</v>
+        <v>482400</v>
       </c>
       <c r="H83" s="3">
-        <v>458100</v>
+        <v>465500</v>
       </c>
       <c r="I83" s="3">
-        <v>408400</v>
+        <v>415000</v>
       </c>
       <c r="J83" s="3">
-        <v>413600</v>
+        <v>420300</v>
       </c>
       <c r="K83" s="3">
         <v>286200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>884200</v>
+        <v>898500</v>
       </c>
       <c r="E89" s="3">
-        <v>445000</v>
+        <v>452200</v>
       </c>
       <c r="F89" s="3">
-        <v>803300</v>
+        <v>816300</v>
       </c>
       <c r="G89" s="3">
-        <v>703800</v>
+        <v>715200</v>
       </c>
       <c r="H89" s="3">
-        <v>1034600</v>
+        <v>1051300</v>
       </c>
       <c r="I89" s="3">
-        <v>722400</v>
+        <v>734000</v>
       </c>
       <c r="J89" s="3">
-        <v>1327900</v>
+        <v>1349400</v>
       </c>
       <c r="K89" s="3">
         <v>763400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-560900</v>
+        <v>-570000</v>
       </c>
       <c r="E91" s="3">
-        <v>-547500</v>
+        <v>-556400</v>
       </c>
       <c r="F91" s="3">
-        <v>-558200</v>
+        <v>-567200</v>
       </c>
       <c r="G91" s="3">
-        <v>-816400</v>
+        <v>-829600</v>
       </c>
       <c r="H91" s="3">
-        <v>-734900</v>
+        <v>-746800</v>
       </c>
       <c r="I91" s="3">
-        <v>-628700</v>
+        <v>-638800</v>
       </c>
       <c r="J91" s="3">
-        <v>-538700</v>
+        <v>-547400</v>
       </c>
       <c r="K91" s="3">
         <v>-272200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-622500</v>
+        <v>-632500</v>
       </c>
       <c r="E94" s="3">
-        <v>-671500</v>
+        <v>-682400</v>
       </c>
       <c r="F94" s="3">
-        <v>-583200</v>
+        <v>-592700</v>
       </c>
       <c r="G94" s="3">
-        <v>-860100</v>
+        <v>-874000</v>
       </c>
       <c r="H94" s="3">
-        <v>-814600</v>
+        <v>-827700</v>
       </c>
       <c r="I94" s="3">
-        <v>-696900</v>
+        <v>-708100</v>
       </c>
       <c r="J94" s="3">
-        <v>-574200</v>
+        <v>-583500</v>
       </c>
       <c r="K94" s="3">
         <v>-218300</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-149300</v>
+        <v>-151700</v>
       </c>
       <c r="E96" s="3">
-        <v>-154700</v>
+        <v>-157100</v>
       </c>
       <c r="F96" s="3">
-        <v>-149300</v>
+        <v>-151700</v>
       </c>
       <c r="G96" s="3">
-        <v>-154500</v>
+        <v>-157000</v>
       </c>
       <c r="H96" s="3">
-        <v>-223700</v>
+        <v>-227300</v>
       </c>
       <c r="I96" s="3">
-        <v>-202200</v>
+        <v>-205500</v>
       </c>
       <c r="J96" s="3">
-        <v>-175300</v>
+        <v>-178200</v>
       </c>
       <c r="K96" s="3">
         <v>-26100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-262400</v>
+        <v>-266600</v>
       </c>
       <c r="E100" s="3">
-        <v>194200</v>
+        <v>197300</v>
       </c>
       <c r="F100" s="3">
-        <v>-87800</v>
+        <v>-89200</v>
       </c>
       <c r="G100" s="3">
-        <v>162200</v>
+        <v>164800</v>
       </c>
       <c r="H100" s="3">
-        <v>-205500</v>
+        <v>-208800</v>
       </c>
       <c r="I100" s="3">
-        <v>-243100</v>
+        <v>-247000</v>
       </c>
       <c r="J100" s="3">
-        <v>-461800</v>
+        <v>-469300</v>
       </c>
       <c r="K100" s="3">
         <v>-489600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="E101" s="3">
         <v>-3900</v>
       </c>
       <c r="F101" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="G101" s="3">
-        <v>-32200</v>
+        <v>-32700</v>
       </c>
       <c r="H101" s="3">
-        <v>-29400</v>
+        <v>-29900</v>
       </c>
       <c r="I101" s="3">
-        <v>13700</v>
+        <v>13900</v>
       </c>
       <c r="J101" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="K101" s="3">
         <v>-400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="E102" s="3">
-        <v>-36200</v>
+        <v>-36800</v>
       </c>
       <c r="F102" s="3">
-        <v>125000</v>
+        <v>127000</v>
       </c>
       <c r="G102" s="3">
-        <v>-26200</v>
+        <v>-26700</v>
       </c>
       <c r="H102" s="3">
-        <v>-14900</v>
+        <v>-15200</v>
       </c>
       <c r="I102" s="3">
-        <v>-203900</v>
+        <v>-207200</v>
       </c>
       <c r="J102" s="3">
-        <v>297000</v>
+        <v>301800</v>
       </c>
       <c r="K102" s="3">
         <v>55100</v>

--- a/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17139200</v>
+        <v>17447900</v>
       </c>
       <c r="E8" s="3">
-        <v>18703800</v>
+        <v>19040600</v>
       </c>
       <c r="F8" s="3">
-        <v>17350600</v>
+        <v>17663000</v>
       </c>
       <c r="G8" s="3">
-        <v>15894300</v>
+        <v>16180500</v>
       </c>
       <c r="H8" s="3">
-        <v>16477900</v>
+        <v>16774600</v>
       </c>
       <c r="I8" s="3">
-        <v>15909200</v>
+        <v>16195700</v>
       </c>
       <c r="J8" s="3">
-        <v>16044000</v>
+        <v>16332900</v>
       </c>
       <c r="K8" s="3">
         <v>7729400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14560500</v>
+        <v>14822800</v>
       </c>
       <c r="E9" s="3">
-        <v>15806300</v>
+        <v>16090900</v>
       </c>
       <c r="F9" s="3">
-        <v>14560600</v>
+        <v>14822800</v>
       </c>
       <c r="G9" s="3">
-        <v>13320700</v>
+        <v>13560600</v>
       </c>
       <c r="H9" s="3">
-        <v>13697300</v>
+        <v>13944000</v>
       </c>
       <c r="I9" s="3">
-        <v>13119400</v>
+        <v>13355700</v>
       </c>
       <c r="J9" s="3">
-        <v>13305700</v>
+        <v>13545300</v>
       </c>
       <c r="K9" s="3">
         <v>6556000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2578700</v>
+        <v>2625100</v>
       </c>
       <c r="E10" s="3">
-        <v>2897500</v>
+        <v>2949700</v>
       </c>
       <c r="F10" s="3">
-        <v>2789900</v>
+        <v>2840200</v>
       </c>
       <c r="G10" s="3">
-        <v>2573600</v>
+        <v>2620000</v>
       </c>
       <c r="H10" s="3">
-        <v>2780600</v>
+        <v>2830700</v>
       </c>
       <c r="I10" s="3">
-        <v>2789800</v>
+        <v>2840000</v>
       </c>
       <c r="J10" s="3">
-        <v>2738300</v>
+        <v>2787600</v>
       </c>
       <c r="K10" s="3">
         <v>1173400</v>
@@ -900,22 +900,22 @@
         <v>2600</v>
       </c>
       <c r="E14" s="3">
-        <v>17900</v>
+        <v>18200</v>
       </c>
       <c r="F14" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="G14" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H14" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="I14" s="3">
-        <v>19000</v>
+        <v>19300</v>
       </c>
       <c r="J14" s="3">
-        <v>-14100</v>
+        <v>-14400</v>
       </c>
       <c r="K14" s="3">
         <v>70800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16623900</v>
+        <v>16923300</v>
       </c>
       <c r="E17" s="3">
-        <v>17903100</v>
+        <v>18225500</v>
       </c>
       <c r="F17" s="3">
-        <v>16607200</v>
+        <v>16906300</v>
       </c>
       <c r="G17" s="3">
-        <v>15226900</v>
+        <v>15501100</v>
       </c>
       <c r="H17" s="3">
-        <v>15544000</v>
+        <v>15823900</v>
       </c>
       <c r="I17" s="3">
-        <v>14932100</v>
+        <v>15201000</v>
       </c>
       <c r="J17" s="3">
-        <v>14970800</v>
+        <v>15240400</v>
       </c>
       <c r="K17" s="3">
         <v>7625800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>515300</v>
+        <v>524600</v>
       </c>
       <c r="E18" s="3">
-        <v>800700</v>
+        <v>815100</v>
       </c>
       <c r="F18" s="3">
-        <v>743300</v>
+        <v>756700</v>
       </c>
       <c r="G18" s="3">
-        <v>667400</v>
+        <v>679400</v>
       </c>
       <c r="H18" s="3">
-        <v>933900</v>
+        <v>950700</v>
       </c>
       <c r="I18" s="3">
-        <v>977100</v>
+        <v>994700</v>
       </c>
       <c r="J18" s="3">
-        <v>1073100</v>
+        <v>1092500</v>
       </c>
       <c r="K18" s="3">
         <v>103600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>27500</v>
+        <v>28000</v>
       </c>
       <c r="E20" s="3">
-        <v>33900</v>
+        <v>34500</v>
       </c>
       <c r="F20" s="3">
-        <v>73100</v>
+        <v>74400</v>
       </c>
       <c r="G20" s="3">
-        <v>57800</v>
+        <v>58800</v>
       </c>
       <c r="H20" s="3">
-        <v>43100</v>
+        <v>43900</v>
       </c>
       <c r="I20" s="3">
-        <v>57700</v>
+        <v>58800</v>
       </c>
       <c r="J20" s="3">
-        <v>37400</v>
+        <v>38100</v>
       </c>
       <c r="K20" s="3">
         <v>43200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1088100</v>
+        <v>1108900</v>
       </c>
       <c r="E21" s="3">
-        <v>1384900</v>
+        <v>1411000</v>
       </c>
       <c r="F21" s="3">
-        <v>1366800</v>
+        <v>1392700</v>
       </c>
       <c r="G21" s="3">
-        <v>1205500</v>
+        <v>1228300</v>
       </c>
       <c r="H21" s="3">
-        <v>1440600</v>
+        <v>1467500</v>
       </c>
       <c r="I21" s="3">
-        <v>1448100</v>
+        <v>1475100</v>
       </c>
       <c r="J21" s="3">
-        <v>1529100</v>
+        <v>1557500</v>
       </c>
       <c r="K21" s="3">
         <v>433600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>61600</v>
+        <v>62700</v>
       </c>
       <c r="E22" s="3">
-        <v>55600</v>
+        <v>56600</v>
       </c>
       <c r="F22" s="3">
-        <v>44900</v>
+        <v>45700</v>
       </c>
       <c r="G22" s="3">
-        <v>44800</v>
+        <v>45600</v>
       </c>
       <c r="H22" s="3">
-        <v>62400</v>
+        <v>63600</v>
       </c>
       <c r="I22" s="3">
-        <v>60400</v>
+        <v>61400</v>
       </c>
       <c r="J22" s="3">
-        <v>49200</v>
+        <v>50100</v>
       </c>
       <c r="K22" s="3">
         <v>33800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>481200</v>
+        <v>489900</v>
       </c>
       <c r="E23" s="3">
-        <v>779000</v>
+        <v>793000</v>
       </c>
       <c r="F23" s="3">
-        <v>771500</v>
+        <v>785400</v>
       </c>
       <c r="G23" s="3">
-        <v>680400</v>
+        <v>692600</v>
       </c>
       <c r="H23" s="3">
-        <v>914600</v>
+        <v>931000</v>
       </c>
       <c r="I23" s="3">
-        <v>974500</v>
+        <v>992100</v>
       </c>
       <c r="J23" s="3">
-        <v>1061400</v>
+        <v>1080500</v>
       </c>
       <c r="K23" s="3">
         <v>113000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>153200</v>
+        <v>156000</v>
       </c>
       <c r="E24" s="3">
-        <v>203100</v>
+        <v>206700</v>
       </c>
       <c r="F24" s="3">
-        <v>223200</v>
+        <v>227200</v>
       </c>
       <c r="G24" s="3">
-        <v>162200</v>
+        <v>165100</v>
       </c>
       <c r="H24" s="3">
-        <v>272200</v>
+        <v>277100</v>
       </c>
       <c r="I24" s="3">
-        <v>227700</v>
+        <v>231800</v>
       </c>
       <c r="J24" s="3">
-        <v>141200</v>
+        <v>143700</v>
       </c>
       <c r="K24" s="3">
         <v>63000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>327900</v>
+        <v>333900</v>
       </c>
       <c r="E26" s="3">
-        <v>575900</v>
+        <v>586300</v>
       </c>
       <c r="F26" s="3">
-        <v>548300</v>
+        <v>558200</v>
       </c>
       <c r="G26" s="3">
-        <v>518200</v>
+        <v>527600</v>
       </c>
       <c r="H26" s="3">
-        <v>642300</v>
+        <v>653900</v>
       </c>
       <c r="I26" s="3">
-        <v>746800</v>
+        <v>760200</v>
       </c>
       <c r="J26" s="3">
-        <v>920200</v>
+        <v>936800</v>
       </c>
       <c r="K26" s="3">
         <v>50000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>297000</v>
+        <v>302400</v>
       </c>
       <c r="E27" s="3">
-        <v>518300</v>
+        <v>527700</v>
       </c>
       <c r="F27" s="3">
-        <v>484800</v>
+        <v>493600</v>
       </c>
       <c r="G27" s="3">
-        <v>466400</v>
+        <v>474800</v>
       </c>
       <c r="H27" s="3">
-        <v>614800</v>
+        <v>625900</v>
       </c>
       <c r="I27" s="3">
-        <v>703300</v>
+        <v>715900</v>
       </c>
       <c r="J27" s="3">
-        <v>841400</v>
+        <v>856500</v>
       </c>
       <c r="K27" s="3">
         <v>45100</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-27500</v>
+        <v>-28000</v>
       </c>
       <c r="E32" s="3">
-        <v>-33900</v>
+        <v>-34500</v>
       </c>
       <c r="F32" s="3">
-        <v>-73100</v>
+        <v>-74400</v>
       </c>
       <c r="G32" s="3">
-        <v>-57800</v>
+        <v>-58800</v>
       </c>
       <c r="H32" s="3">
-        <v>-43100</v>
+        <v>-43900</v>
       </c>
       <c r="I32" s="3">
-        <v>-57700</v>
+        <v>-58800</v>
       </c>
       <c r="J32" s="3">
-        <v>-37400</v>
+        <v>-38100</v>
       </c>
       <c r="K32" s="3">
         <v>-43200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>297000</v>
+        <v>302400</v>
       </c>
       <c r="E33" s="3">
-        <v>518300</v>
+        <v>527700</v>
       </c>
       <c r="F33" s="3">
-        <v>484800</v>
+        <v>493600</v>
       </c>
       <c r="G33" s="3">
-        <v>466400</v>
+        <v>474800</v>
       </c>
       <c r="H33" s="3">
-        <v>614800</v>
+        <v>625900</v>
       </c>
       <c r="I33" s="3">
-        <v>703300</v>
+        <v>715900</v>
       </c>
       <c r="J33" s="3">
-        <v>841400</v>
+        <v>856500</v>
       </c>
       <c r="K33" s="3">
         <v>45100</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>297000</v>
+        <v>302400</v>
       </c>
       <c r="E35" s="3">
-        <v>518300</v>
+        <v>527700</v>
       </c>
       <c r="F35" s="3">
-        <v>484800</v>
+        <v>493600</v>
       </c>
       <c r="G35" s="3">
-        <v>466400</v>
+        <v>474800</v>
       </c>
       <c r="H35" s="3">
-        <v>614800</v>
+        <v>625900</v>
       </c>
       <c r="I35" s="3">
-        <v>703300</v>
+        <v>715900</v>
       </c>
       <c r="J35" s="3">
-        <v>841400</v>
+        <v>856500</v>
       </c>
       <c r="K35" s="3">
         <v>45100</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>383700</v>
+        <v>390600</v>
       </c>
       <c r="E41" s="3">
-        <v>391700</v>
+        <v>398700</v>
       </c>
       <c r="F41" s="3">
-        <v>426900</v>
+        <v>434600</v>
       </c>
       <c r="G41" s="3">
-        <v>303400</v>
+        <v>308900</v>
       </c>
       <c r="H41" s="3">
-        <v>327300</v>
+        <v>333200</v>
       </c>
       <c r="I41" s="3">
-        <v>340800</v>
+        <v>347000</v>
       </c>
       <c r="J41" s="3">
-        <v>422300</v>
+        <v>429900</v>
       </c>
       <c r="K41" s="3">
         <v>394900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3043600</v>
+        <v>3098400</v>
       </c>
       <c r="E43" s="3">
-        <v>3612400</v>
+        <v>3677400</v>
       </c>
       <c r="F43" s="3">
-        <v>3393000</v>
+        <v>3454100</v>
       </c>
       <c r="G43" s="3">
-        <v>2943300</v>
+        <v>2996300</v>
       </c>
       <c r="H43" s="3">
-        <v>2636600</v>
+        <v>2684100</v>
       </c>
       <c r="I43" s="3">
-        <v>2796100</v>
+        <v>2846500</v>
       </c>
       <c r="J43" s="3">
-        <v>2656700</v>
+        <v>2704600</v>
       </c>
       <c r="K43" s="3">
         <v>1891500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2473800</v>
+        <v>2518300</v>
       </c>
       <c r="E44" s="3">
-        <v>2478200</v>
+        <v>2522800</v>
       </c>
       <c r="F44" s="3">
-        <v>2289300</v>
+        <v>2330600</v>
       </c>
       <c r="G44" s="3">
-        <v>1922000</v>
+        <v>1956600</v>
       </c>
       <c r="H44" s="3">
-        <v>1811800</v>
+        <v>1844400</v>
       </c>
       <c r="I44" s="3">
-        <v>1892800</v>
+        <v>1926900</v>
       </c>
       <c r="J44" s="3">
-        <v>1467600</v>
+        <v>1494100</v>
       </c>
       <c r="K44" s="3">
         <v>594900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>336400</v>
+        <v>342500</v>
       </c>
       <c r="E45" s="3">
-        <v>429700</v>
+        <v>437500</v>
       </c>
       <c r="F45" s="3">
-        <v>814000</v>
+        <v>828600</v>
       </c>
       <c r="G45" s="3">
-        <v>665800</v>
+        <v>677800</v>
       </c>
       <c r="H45" s="3">
-        <v>670100</v>
+        <v>682200</v>
       </c>
       <c r="I45" s="3">
-        <v>616100</v>
+        <v>627200</v>
       </c>
       <c r="J45" s="3">
-        <v>650200</v>
+        <v>662000</v>
       </c>
       <c r="K45" s="3">
         <v>224600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6237500</v>
+        <v>6349800</v>
       </c>
       <c r="E46" s="3">
-        <v>6912000</v>
+        <v>7036500</v>
       </c>
       <c r="F46" s="3">
-        <v>6437900</v>
+        <v>6553900</v>
       </c>
       <c r="G46" s="3">
-        <v>5834400</v>
+        <v>5939500</v>
       </c>
       <c r="H46" s="3">
-        <v>5445900</v>
+        <v>5544000</v>
       </c>
       <c r="I46" s="3">
-        <v>5645900</v>
+        <v>5747500</v>
       </c>
       <c r="J46" s="3">
-        <v>5196900</v>
+        <v>5290500</v>
       </c>
       <c r="K46" s="3">
         <v>3128200</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1025500</v>
+        <v>1043900</v>
       </c>
       <c r="E47" s="3">
-        <v>1093100</v>
+        <v>1112800</v>
       </c>
       <c r="F47" s="3">
-        <v>2210900</v>
+        <v>2250700</v>
       </c>
       <c r="G47" s="3">
-        <v>1026400</v>
+        <v>1044800</v>
       </c>
       <c r="H47" s="3">
-        <v>969000</v>
+        <v>986500</v>
       </c>
       <c r="I47" s="3">
-        <v>1182700</v>
+        <v>1204000</v>
       </c>
       <c r="J47" s="3">
-        <v>937900</v>
+        <v>954800</v>
       </c>
       <c r="K47" s="3">
         <v>609200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4108400</v>
+        <v>4182400</v>
       </c>
       <c r="E48" s="3">
-        <v>4093100</v>
+        <v>4166800</v>
       </c>
       <c r="F48" s="3">
-        <v>4592600</v>
+        <v>4675300</v>
       </c>
       <c r="G48" s="3">
-        <v>4012700</v>
+        <v>4085000</v>
       </c>
       <c r="H48" s="3">
-        <v>3760900</v>
+        <v>3828600</v>
       </c>
       <c r="I48" s="3">
-        <v>3432300</v>
+        <v>3494100</v>
       </c>
       <c r="J48" s="3">
-        <v>3095200</v>
+        <v>3151000</v>
       </c>
       <c r="K48" s="3">
         <v>2854700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>254000</v>
+        <v>258500</v>
       </c>
       <c r="E49" s="3">
-        <v>223000</v>
+        <v>227000</v>
       </c>
       <c r="F49" s="3">
-        <v>399600</v>
+        <v>406800</v>
       </c>
       <c r="G49" s="3">
-        <v>200200</v>
+        <v>203800</v>
       </c>
       <c r="H49" s="3">
-        <v>206800</v>
+        <v>210500</v>
       </c>
       <c r="I49" s="3">
-        <v>192200</v>
+        <v>195600</v>
       </c>
       <c r="J49" s="3">
-        <v>166000</v>
+        <v>169000</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>411400</v>
+        <v>418800</v>
       </c>
       <c r="E52" s="3">
-        <v>383400</v>
+        <v>390300</v>
       </c>
       <c r="F52" s="3">
-        <v>368200</v>
+        <v>374800</v>
       </c>
       <c r="G52" s="3">
-        <v>182400</v>
+        <v>185600</v>
       </c>
       <c r="H52" s="3">
-        <v>189200</v>
+        <v>192600</v>
       </c>
       <c r="I52" s="3">
-        <v>159400</v>
+        <v>162200</v>
       </c>
       <c r="J52" s="3">
-        <v>132800</v>
+        <v>135200</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12036800</v>
+        <v>12253500</v>
       </c>
       <c r="E54" s="3">
-        <v>12704600</v>
+        <v>12933300</v>
       </c>
       <c r="F54" s="3">
-        <v>12140600</v>
+        <v>12359200</v>
       </c>
       <c r="G54" s="3">
-        <v>11256100</v>
+        <v>11458800</v>
       </c>
       <c r="H54" s="3">
-        <v>10571700</v>
+        <v>10762100</v>
       </c>
       <c r="I54" s="3">
-        <v>10612400</v>
+        <v>10803500</v>
       </c>
       <c r="J54" s="3">
-        <v>9528900</v>
+        <v>9700500</v>
       </c>
       <c r="K54" s="3">
         <v>6542600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2258400</v>
+        <v>2299000</v>
       </c>
       <c r="E57" s="3">
-        <v>2666200</v>
+        <v>2714200</v>
       </c>
       <c r="F57" s="3">
-        <v>2898200</v>
+        <v>2950400</v>
       </c>
       <c r="G57" s="3">
-        <v>2504500</v>
+        <v>2549600</v>
       </c>
       <c r="H57" s="3">
-        <v>2393700</v>
+        <v>2436800</v>
       </c>
       <c r="I57" s="3">
-        <v>2481300</v>
+        <v>2526000</v>
       </c>
       <c r="J57" s="3">
-        <v>2336300</v>
+        <v>2378400</v>
       </c>
       <c r="K57" s="3">
         <v>1021200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1816700</v>
+        <v>1849400</v>
       </c>
       <c r="E58" s="3">
-        <v>1917000</v>
+        <v>1951500</v>
       </c>
       <c r="F58" s="3">
-        <v>1614700</v>
+        <v>1643800</v>
       </c>
       <c r="G58" s="3">
-        <v>1483000</v>
+        <v>1509700</v>
       </c>
       <c r="H58" s="3">
-        <v>1076200</v>
+        <v>1095500</v>
       </c>
       <c r="I58" s="3">
-        <v>1202500</v>
+        <v>1224100</v>
       </c>
       <c r="J58" s="3">
-        <v>1209200</v>
+        <v>1231000</v>
       </c>
       <c r="K58" s="3">
         <v>2635100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1298300</v>
+        <v>1321700</v>
       </c>
       <c r="E59" s="3">
-        <v>1484500</v>
+        <v>1511300</v>
       </c>
       <c r="F59" s="3">
-        <v>1703800</v>
+        <v>1734500</v>
       </c>
       <c r="G59" s="3">
-        <v>1309600</v>
+        <v>1333200</v>
       </c>
       <c r="H59" s="3">
-        <v>1414100</v>
+        <v>1439500</v>
       </c>
       <c r="I59" s="3">
-        <v>1358500</v>
+        <v>1383000</v>
       </c>
       <c r="J59" s="3">
-        <v>1339300</v>
+        <v>1363400</v>
       </c>
       <c r="K59" s="3">
         <v>505900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5373400</v>
+        <v>5470100</v>
       </c>
       <c r="E60" s="3">
-        <v>6067700</v>
+        <v>6177000</v>
       </c>
       <c r="F60" s="3">
-        <v>5947000</v>
+        <v>6054100</v>
       </c>
       <c r="G60" s="3">
-        <v>5297100</v>
+        <v>5392500</v>
       </c>
       <c r="H60" s="3">
-        <v>4883900</v>
+        <v>4971800</v>
       </c>
       <c r="I60" s="3">
-        <v>5042300</v>
+        <v>5133100</v>
       </c>
       <c r="J60" s="3">
-        <v>4884800</v>
+        <v>4972800</v>
       </c>
       <c r="K60" s="3">
         <v>4162300</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200500</v>
+        <v>204100</v>
       </c>
       <c r="E61" s="3">
-        <v>373900</v>
+        <v>380700</v>
       </c>
       <c r="F61" s="3">
-        <v>120200</v>
+        <v>122300</v>
       </c>
       <c r="G61" s="3">
-        <v>359600</v>
+        <v>366100</v>
       </c>
       <c r="H61" s="3">
-        <v>426100</v>
+        <v>433800</v>
       </c>
       <c r="I61" s="3">
-        <v>385700</v>
+        <v>392700</v>
       </c>
       <c r="J61" s="3">
-        <v>307700</v>
+        <v>313200</v>
       </c>
       <c r="K61" s="3">
         <v>200900</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>868000</v>
+        <v>883700</v>
       </c>
       <c r="E62" s="3">
-        <v>632300</v>
+        <v>643700</v>
       </c>
       <c r="F62" s="3">
-        <v>866400</v>
+        <v>882000</v>
       </c>
       <c r="G62" s="3">
-        <v>757500</v>
+        <v>771100</v>
       </c>
       <c r="H62" s="3">
-        <v>788200</v>
+        <v>802400</v>
       </c>
       <c r="I62" s="3">
-        <v>791300</v>
+        <v>805500</v>
       </c>
       <c r="J62" s="3">
-        <v>753100</v>
+        <v>766600</v>
       </c>
       <c r="K62" s="3">
         <v>477800</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6918500</v>
+        <v>7043100</v>
       </c>
       <c r="E66" s="3">
-        <v>7581900</v>
+        <v>7718500</v>
       </c>
       <c r="F66" s="3">
-        <v>7398100</v>
+        <v>7531300</v>
       </c>
       <c r="G66" s="3">
-        <v>6863300</v>
+        <v>6986900</v>
       </c>
       <c r="H66" s="3">
-        <v>6517100</v>
+        <v>6634500</v>
       </c>
       <c r="I66" s="3">
-        <v>6657900</v>
+        <v>6777800</v>
       </c>
       <c r="J66" s="3">
-        <v>6316700</v>
+        <v>6430400</v>
       </c>
       <c r="K66" s="3">
         <v>4910300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3689000</v>
+        <v>3755400</v>
       </c>
       <c r="E72" s="3">
-        <v>3543700</v>
+        <v>3607500</v>
       </c>
       <c r="F72" s="3">
-        <v>3190900</v>
+        <v>3248400</v>
       </c>
       <c r="G72" s="3">
-        <v>2858800</v>
+        <v>2910200</v>
       </c>
       <c r="H72" s="3">
-        <v>2549800</v>
+        <v>2595700</v>
       </c>
       <c r="I72" s="3">
-        <v>2162500</v>
+        <v>2201500</v>
       </c>
       <c r="J72" s="3">
-        <v>1673300</v>
+        <v>1703400</v>
       </c>
       <c r="K72" s="3">
         <v>273100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5118300</v>
+        <v>5210400</v>
       </c>
       <c r="E76" s="3">
-        <v>5122600</v>
+        <v>5214900</v>
       </c>
       <c r="F76" s="3">
-        <v>4742500</v>
+        <v>4827900</v>
       </c>
       <c r="G76" s="3">
-        <v>4392800</v>
+        <v>4471900</v>
       </c>
       <c r="H76" s="3">
-        <v>4054600</v>
+        <v>4127700</v>
       </c>
       <c r="I76" s="3">
-        <v>3954500</v>
+        <v>4025700</v>
       </c>
       <c r="J76" s="3">
-        <v>3212200</v>
+        <v>3270100</v>
       </c>
       <c r="K76" s="3">
         <v>1632300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>297000</v>
+        <v>302400</v>
       </c>
       <c r="E81" s="3">
-        <v>518300</v>
+        <v>527700</v>
       </c>
       <c r="F81" s="3">
-        <v>484800</v>
+        <v>493600</v>
       </c>
       <c r="G81" s="3">
-        <v>466400</v>
+        <v>474800</v>
       </c>
       <c r="H81" s="3">
-        <v>614800</v>
+        <v>625900</v>
       </c>
       <c r="I81" s="3">
-        <v>703300</v>
+        <v>715900</v>
       </c>
       <c r="J81" s="3">
-        <v>841400</v>
+        <v>856500</v>
       </c>
       <c r="K81" s="3">
         <v>45100</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>547600</v>
+        <v>557500</v>
       </c>
       <c r="E83" s="3">
-        <v>552600</v>
+        <v>562600</v>
       </c>
       <c r="F83" s="3">
-        <v>552800</v>
+        <v>562800</v>
       </c>
       <c r="G83" s="3">
-        <v>482400</v>
+        <v>491000</v>
       </c>
       <c r="H83" s="3">
-        <v>465500</v>
+        <v>473900</v>
       </c>
       <c r="I83" s="3">
-        <v>415000</v>
+        <v>422400</v>
       </c>
       <c r="J83" s="3">
-        <v>420300</v>
+        <v>427800</v>
       </c>
       <c r="K83" s="3">
         <v>286200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>898500</v>
+        <v>914600</v>
       </c>
       <c r="E89" s="3">
-        <v>452200</v>
+        <v>460300</v>
       </c>
       <c r="F89" s="3">
-        <v>816300</v>
+        <v>831000</v>
       </c>
       <c r="G89" s="3">
-        <v>715200</v>
+        <v>728000</v>
       </c>
       <c r="H89" s="3">
-        <v>1051300</v>
+        <v>1070200</v>
       </c>
       <c r="I89" s="3">
-        <v>734000</v>
+        <v>747200</v>
       </c>
       <c r="J89" s="3">
-        <v>1349400</v>
+        <v>1373700</v>
       </c>
       <c r="K89" s="3">
         <v>763400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-570000</v>
+        <v>-580300</v>
       </c>
       <c r="E91" s="3">
-        <v>-556400</v>
+        <v>-566400</v>
       </c>
       <c r="F91" s="3">
-        <v>-567200</v>
+        <v>-577400</v>
       </c>
       <c r="G91" s="3">
-        <v>-829600</v>
+        <v>-844500</v>
       </c>
       <c r="H91" s="3">
-        <v>-746800</v>
+        <v>-760200</v>
       </c>
       <c r="I91" s="3">
-        <v>-638800</v>
+        <v>-650300</v>
       </c>
       <c r="J91" s="3">
-        <v>-547400</v>
+        <v>-557300</v>
       </c>
       <c r="K91" s="3">
         <v>-272200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-632500</v>
+        <v>-643900</v>
       </c>
       <c r="E94" s="3">
-        <v>-682400</v>
+        <v>-694600</v>
       </c>
       <c r="F94" s="3">
-        <v>-592700</v>
+        <v>-603300</v>
       </c>
       <c r="G94" s="3">
-        <v>-874000</v>
+        <v>-889700</v>
       </c>
       <c r="H94" s="3">
-        <v>-827700</v>
+        <v>-842700</v>
       </c>
       <c r="I94" s="3">
-        <v>-708100</v>
+        <v>-720900</v>
       </c>
       <c r="J94" s="3">
-        <v>-583500</v>
+        <v>-594000</v>
       </c>
       <c r="K94" s="3">
         <v>-218300</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-151700</v>
+        <v>-154500</v>
       </c>
       <c r="E96" s="3">
-        <v>-157100</v>
+        <v>-160000</v>
       </c>
       <c r="F96" s="3">
-        <v>-151700</v>
+        <v>-154400</v>
       </c>
       <c r="G96" s="3">
-        <v>-157000</v>
+        <v>-159800</v>
       </c>
       <c r="H96" s="3">
-        <v>-227300</v>
+        <v>-231400</v>
       </c>
       <c r="I96" s="3">
-        <v>-205500</v>
+        <v>-209200</v>
       </c>
       <c r="J96" s="3">
-        <v>-178200</v>
+        <v>-181400</v>
       </c>
       <c r="K96" s="3">
         <v>-26100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-266600</v>
+        <v>-271400</v>
       </c>
       <c r="E100" s="3">
-        <v>197300</v>
+        <v>200900</v>
       </c>
       <c r="F100" s="3">
-        <v>-89200</v>
+        <v>-90800</v>
       </c>
       <c r="G100" s="3">
-        <v>164800</v>
+        <v>167800</v>
       </c>
       <c r="H100" s="3">
-        <v>-208800</v>
+        <v>-212600</v>
       </c>
       <c r="I100" s="3">
-        <v>-247000</v>
+        <v>-251500</v>
       </c>
       <c r="J100" s="3">
-        <v>-469300</v>
+        <v>-477700</v>
       </c>
       <c r="K100" s="3">
         <v>-489600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7700</v>
+        <v>-7800</v>
       </c>
       <c r="E101" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="F101" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="G101" s="3">
-        <v>-32700</v>
+        <v>-33300</v>
       </c>
       <c r="H101" s="3">
-        <v>-29900</v>
+        <v>-30500</v>
       </c>
       <c r="I101" s="3">
-        <v>13900</v>
+        <v>14100</v>
       </c>
       <c r="J101" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="K101" s="3">
         <v>-400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8400</v>
+        <v>-8500</v>
       </c>
       <c r="E102" s="3">
-        <v>-36800</v>
+        <v>-37400</v>
       </c>
       <c r="F102" s="3">
-        <v>127000</v>
+        <v>129300</v>
       </c>
       <c r="G102" s="3">
-        <v>-26700</v>
+        <v>-27100</v>
       </c>
       <c r="H102" s="3">
-        <v>-15200</v>
+        <v>-15500</v>
       </c>
       <c r="I102" s="3">
-        <v>-207200</v>
+        <v>-211000</v>
       </c>
       <c r="J102" s="3">
-        <v>301800</v>
+        <v>307200</v>
       </c>
       <c r="K102" s="3">
         <v>55100</v>

--- a/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17447900</v>
+        <v>16630900</v>
       </c>
       <c r="E8" s="3">
-        <v>19040600</v>
+        <v>18149000</v>
       </c>
       <c r="F8" s="3">
-        <v>17663000</v>
+        <v>16835900</v>
       </c>
       <c r="G8" s="3">
-        <v>16180500</v>
+        <v>15422900</v>
       </c>
       <c r="H8" s="3">
-        <v>16774600</v>
+        <v>15989100</v>
       </c>
       <c r="I8" s="3">
-        <v>16195700</v>
+        <v>15437300</v>
       </c>
       <c r="J8" s="3">
-        <v>16332900</v>
+        <v>15568100</v>
       </c>
       <c r="K8" s="3">
         <v>7729400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14822800</v>
+        <v>14128700</v>
       </c>
       <c r="E9" s="3">
-        <v>16090900</v>
+        <v>15337400</v>
       </c>
       <c r="F9" s="3">
-        <v>14822800</v>
+        <v>14128700</v>
       </c>
       <c r="G9" s="3">
-        <v>13560600</v>
+        <v>12925600</v>
       </c>
       <c r="H9" s="3">
-        <v>13944000</v>
+        <v>13291000</v>
       </c>
       <c r="I9" s="3">
-        <v>13355700</v>
+        <v>12730300</v>
       </c>
       <c r="J9" s="3">
-        <v>13545300</v>
+        <v>12911000</v>
       </c>
       <c r="K9" s="3">
         <v>6556000</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2625100</v>
+        <v>2502200</v>
       </c>
       <c r="E10" s="3">
-        <v>2949700</v>
+        <v>2811600</v>
       </c>
       <c r="F10" s="3">
-        <v>2840200</v>
+        <v>2707200</v>
       </c>
       <c r="G10" s="3">
-        <v>2620000</v>
+        <v>2497300</v>
       </c>
       <c r="H10" s="3">
-        <v>2830700</v>
+        <v>2698100</v>
       </c>
       <c r="I10" s="3">
-        <v>2840000</v>
+        <v>2707000</v>
       </c>
       <c r="J10" s="3">
-        <v>2787600</v>
+        <v>2657000</v>
       </c>
       <c r="K10" s="3">
         <v>1173400</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E14" s="3">
-        <v>18200</v>
+        <v>17400</v>
       </c>
       <c r="F14" s="3">
-        <v>15300</v>
+        <v>14600</v>
       </c>
       <c r="G14" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="H14" s="3">
-        <v>-6200</v>
+        <v>-5900</v>
       </c>
       <c r="I14" s="3">
-        <v>19300</v>
+        <v>18400</v>
       </c>
       <c r="J14" s="3">
-        <v>-14400</v>
+        <v>-13700</v>
       </c>
       <c r="K14" s="3">
         <v>70800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16923300</v>
+        <v>16130800</v>
       </c>
       <c r="E17" s="3">
-        <v>18225500</v>
+        <v>17372000</v>
       </c>
       <c r="F17" s="3">
-        <v>16906300</v>
+        <v>16114600</v>
       </c>
       <c r="G17" s="3">
-        <v>15501100</v>
+        <v>14775300</v>
       </c>
       <c r="H17" s="3">
-        <v>15823900</v>
+        <v>15083000</v>
       </c>
       <c r="I17" s="3">
-        <v>15201000</v>
+        <v>14489200</v>
       </c>
       <c r="J17" s="3">
-        <v>15240400</v>
+        <v>14526800</v>
       </c>
       <c r="K17" s="3">
         <v>7625800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>524600</v>
+        <v>500000</v>
       </c>
       <c r="E18" s="3">
-        <v>815100</v>
+        <v>777000</v>
       </c>
       <c r="F18" s="3">
-        <v>756700</v>
+        <v>721300</v>
       </c>
       <c r="G18" s="3">
-        <v>679400</v>
+        <v>647600</v>
       </c>
       <c r="H18" s="3">
-        <v>950700</v>
+        <v>906200</v>
       </c>
       <c r="I18" s="3">
-        <v>994700</v>
+        <v>948200</v>
       </c>
       <c r="J18" s="3">
-        <v>1092500</v>
+        <v>1041300</v>
       </c>
       <c r="K18" s="3">
         <v>103600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>28000</v>
+        <v>26700</v>
       </c>
       <c r="E20" s="3">
-        <v>34500</v>
+        <v>32900</v>
       </c>
       <c r="F20" s="3">
-        <v>74400</v>
+        <v>70900</v>
       </c>
       <c r="G20" s="3">
-        <v>58800</v>
+        <v>56100</v>
       </c>
       <c r="H20" s="3">
-        <v>43900</v>
+        <v>41800</v>
       </c>
       <c r="I20" s="3">
-        <v>58800</v>
+        <v>56000</v>
       </c>
       <c r="J20" s="3">
-        <v>38100</v>
+        <v>36300</v>
       </c>
       <c r="K20" s="3">
         <v>43200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1108900</v>
+        <v>1060400</v>
       </c>
       <c r="E21" s="3">
-        <v>1411000</v>
+        <v>1348400</v>
       </c>
       <c r="F21" s="3">
-        <v>1392700</v>
+        <v>1330900</v>
       </c>
       <c r="G21" s="3">
-        <v>1228300</v>
+        <v>1173800</v>
       </c>
       <c r="H21" s="3">
-        <v>1467500</v>
+        <v>1401700</v>
       </c>
       <c r="I21" s="3">
-        <v>1475100</v>
+        <v>1408600</v>
       </c>
       <c r="J21" s="3">
-        <v>1557500</v>
+        <v>1487200</v>
       </c>
       <c r="K21" s="3">
         <v>433600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>62700</v>
+        <v>59800</v>
       </c>
       <c r="E22" s="3">
-        <v>56600</v>
+        <v>53900</v>
       </c>
       <c r="F22" s="3">
-        <v>45700</v>
+        <v>43600</v>
       </c>
       <c r="G22" s="3">
-        <v>45600</v>
+        <v>43500</v>
       </c>
       <c r="H22" s="3">
-        <v>63600</v>
+        <v>60600</v>
       </c>
       <c r="I22" s="3">
-        <v>61400</v>
+        <v>58600</v>
       </c>
       <c r="J22" s="3">
-        <v>50100</v>
+        <v>47700</v>
       </c>
       <c r="K22" s="3">
         <v>33800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>489900</v>
+        <v>466900</v>
       </c>
       <c r="E23" s="3">
-        <v>793000</v>
+        <v>755900</v>
       </c>
       <c r="F23" s="3">
-        <v>785400</v>
+        <v>748600</v>
       </c>
       <c r="G23" s="3">
-        <v>692600</v>
+        <v>660200</v>
       </c>
       <c r="H23" s="3">
-        <v>931000</v>
+        <v>887400</v>
       </c>
       <c r="I23" s="3">
-        <v>992100</v>
+        <v>945600</v>
       </c>
       <c r="J23" s="3">
-        <v>1080500</v>
+        <v>1029900</v>
       </c>
       <c r="K23" s="3">
         <v>113000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>156000</v>
+        <v>148700</v>
       </c>
       <c r="E24" s="3">
-        <v>206700</v>
+        <v>197000</v>
       </c>
       <c r="F24" s="3">
-        <v>227200</v>
+        <v>216600</v>
       </c>
       <c r="G24" s="3">
-        <v>165100</v>
+        <v>157300</v>
       </c>
       <c r="H24" s="3">
-        <v>277100</v>
+        <v>264200</v>
       </c>
       <c r="I24" s="3">
-        <v>231800</v>
+        <v>221000</v>
       </c>
       <c r="J24" s="3">
-        <v>143700</v>
+        <v>137000</v>
       </c>
       <c r="K24" s="3">
         <v>63000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>333900</v>
+        <v>318200</v>
       </c>
       <c r="E26" s="3">
-        <v>586300</v>
+        <v>558900</v>
       </c>
       <c r="F26" s="3">
-        <v>558200</v>
+        <v>532000</v>
       </c>
       <c r="G26" s="3">
-        <v>527600</v>
+        <v>502900</v>
       </c>
       <c r="H26" s="3">
-        <v>653900</v>
+        <v>623300</v>
       </c>
       <c r="I26" s="3">
-        <v>760200</v>
+        <v>724600</v>
       </c>
       <c r="J26" s="3">
-        <v>936800</v>
+        <v>892900</v>
       </c>
       <c r="K26" s="3">
         <v>50000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>302400</v>
+        <v>288200</v>
       </c>
       <c r="E27" s="3">
-        <v>527700</v>
+        <v>503000</v>
       </c>
       <c r="F27" s="3">
-        <v>493600</v>
+        <v>470500</v>
       </c>
       <c r="G27" s="3">
-        <v>474800</v>
+        <v>452600</v>
       </c>
       <c r="H27" s="3">
-        <v>625900</v>
+        <v>596600</v>
       </c>
       <c r="I27" s="3">
-        <v>715900</v>
+        <v>682400</v>
       </c>
       <c r="J27" s="3">
-        <v>856500</v>
+        <v>816400</v>
       </c>
       <c r="K27" s="3">
         <v>45100</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-28000</v>
+        <v>-26700</v>
       </c>
       <c r="E32" s="3">
-        <v>-34500</v>
+        <v>-32900</v>
       </c>
       <c r="F32" s="3">
-        <v>-74400</v>
+        <v>-70900</v>
       </c>
       <c r="G32" s="3">
-        <v>-58800</v>
+        <v>-56100</v>
       </c>
       <c r="H32" s="3">
-        <v>-43900</v>
+        <v>-41800</v>
       </c>
       <c r="I32" s="3">
-        <v>-58800</v>
+        <v>-56000</v>
       </c>
       <c r="J32" s="3">
-        <v>-38100</v>
+        <v>-36300</v>
       </c>
       <c r="K32" s="3">
         <v>-43200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>302400</v>
+        <v>288200</v>
       </c>
       <c r="E33" s="3">
-        <v>527700</v>
+        <v>503000</v>
       </c>
       <c r="F33" s="3">
-        <v>493600</v>
+        <v>470500</v>
       </c>
       <c r="G33" s="3">
-        <v>474800</v>
+        <v>452600</v>
       </c>
       <c r="H33" s="3">
-        <v>625900</v>
+        <v>596600</v>
       </c>
       <c r="I33" s="3">
-        <v>715900</v>
+        <v>682400</v>
       </c>
       <c r="J33" s="3">
-        <v>856500</v>
+        <v>816400</v>
       </c>
       <c r="K33" s="3">
         <v>45100</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>302400</v>
+        <v>288200</v>
       </c>
       <c r="E35" s="3">
-        <v>527700</v>
+        <v>503000</v>
       </c>
       <c r="F35" s="3">
-        <v>493600</v>
+        <v>470500</v>
       </c>
       <c r="G35" s="3">
-        <v>474800</v>
+        <v>452600</v>
       </c>
       <c r="H35" s="3">
-        <v>625900</v>
+        <v>596600</v>
       </c>
       <c r="I35" s="3">
-        <v>715900</v>
+        <v>682400</v>
       </c>
       <c r="J35" s="3">
-        <v>856500</v>
+        <v>816400</v>
       </c>
       <c r="K35" s="3">
         <v>45100</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>390600</v>
+        <v>372300</v>
       </c>
       <c r="E41" s="3">
-        <v>398700</v>
+        <v>380100</v>
       </c>
       <c r="F41" s="3">
-        <v>434600</v>
+        <v>414300</v>
       </c>
       <c r="G41" s="3">
-        <v>308900</v>
+        <v>294400</v>
       </c>
       <c r="H41" s="3">
-        <v>333200</v>
+        <v>317600</v>
       </c>
       <c r="I41" s="3">
-        <v>347000</v>
+        <v>330700</v>
       </c>
       <c r="J41" s="3">
-        <v>429900</v>
+        <v>409800</v>
       </c>
       <c r="K41" s="3">
         <v>394900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3098400</v>
+        <v>2953300</v>
       </c>
       <c r="E43" s="3">
-        <v>3677400</v>
+        <v>3505200</v>
       </c>
       <c r="F43" s="3">
-        <v>3454100</v>
+        <v>3292400</v>
       </c>
       <c r="G43" s="3">
-        <v>2996300</v>
+        <v>2856000</v>
       </c>
       <c r="H43" s="3">
-        <v>2684100</v>
+        <v>2558400</v>
       </c>
       <c r="I43" s="3">
-        <v>2846500</v>
+        <v>2713200</v>
       </c>
       <c r="J43" s="3">
-        <v>2704600</v>
+        <v>2577900</v>
       </c>
       <c r="K43" s="3">
         <v>1891500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2518300</v>
+        <v>2400400</v>
       </c>
       <c r="E44" s="3">
-        <v>2522800</v>
+        <v>2404700</v>
       </c>
       <c r="F44" s="3">
-        <v>2330600</v>
+        <v>2221400</v>
       </c>
       <c r="G44" s="3">
-        <v>1956600</v>
+        <v>1864900</v>
       </c>
       <c r="H44" s="3">
-        <v>1844400</v>
+        <v>1758100</v>
       </c>
       <c r="I44" s="3">
-        <v>1926900</v>
+        <v>1836700</v>
       </c>
       <c r="J44" s="3">
-        <v>1494100</v>
+        <v>1424100</v>
       </c>
       <c r="K44" s="3">
         <v>594900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>342500</v>
+        <v>326400</v>
       </c>
       <c r="E45" s="3">
-        <v>437500</v>
+        <v>417000</v>
       </c>
       <c r="F45" s="3">
-        <v>828600</v>
+        <v>594700</v>
       </c>
       <c r="G45" s="3">
-        <v>677800</v>
+        <v>646000</v>
       </c>
       <c r="H45" s="3">
-        <v>682200</v>
+        <v>650300</v>
       </c>
       <c r="I45" s="3">
-        <v>627200</v>
+        <v>597800</v>
       </c>
       <c r="J45" s="3">
-        <v>662000</v>
+        <v>631000</v>
       </c>
       <c r="K45" s="3">
         <v>224600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6349800</v>
+        <v>6052500</v>
       </c>
       <c r="E46" s="3">
-        <v>7036500</v>
+        <v>6707000</v>
       </c>
       <c r="F46" s="3">
-        <v>6553900</v>
+        <v>6247000</v>
       </c>
       <c r="G46" s="3">
-        <v>5939500</v>
+        <v>5661400</v>
       </c>
       <c r="H46" s="3">
-        <v>5544000</v>
+        <v>5284400</v>
       </c>
       <c r="I46" s="3">
-        <v>5747500</v>
+        <v>5478400</v>
       </c>
       <c r="J46" s="3">
-        <v>5290500</v>
+        <v>5042800</v>
       </c>
       <c r="K46" s="3">
         <v>3128200</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1043900</v>
+        <v>995000</v>
       </c>
       <c r="E47" s="3">
-        <v>1112800</v>
+        <v>1060700</v>
       </c>
       <c r="F47" s="3">
-        <v>2250700</v>
+        <v>2145300</v>
       </c>
       <c r="G47" s="3">
-        <v>1044800</v>
+        <v>995900</v>
       </c>
       <c r="H47" s="3">
-        <v>986500</v>
+        <v>940300</v>
       </c>
       <c r="I47" s="3">
-        <v>1204000</v>
+        <v>1147700</v>
       </c>
       <c r="J47" s="3">
-        <v>954800</v>
+        <v>910100</v>
       </c>
       <c r="K47" s="3">
         <v>609200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4182400</v>
+        <v>3986600</v>
       </c>
       <c r="E48" s="3">
-        <v>4166800</v>
+        <v>3971700</v>
       </c>
       <c r="F48" s="3">
-        <v>4675300</v>
+        <v>4456400</v>
       </c>
       <c r="G48" s="3">
-        <v>4085000</v>
+        <v>3893700</v>
       </c>
       <c r="H48" s="3">
-        <v>3828600</v>
+        <v>3649300</v>
       </c>
       <c r="I48" s="3">
-        <v>3494100</v>
+        <v>3330400</v>
       </c>
       <c r="J48" s="3">
-        <v>3151000</v>
+        <v>3003400</v>
       </c>
       <c r="K48" s="3">
         <v>2854700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>258500</v>
+        <v>246400</v>
       </c>
       <c r="E49" s="3">
-        <v>227000</v>
+        <v>216400</v>
       </c>
       <c r="F49" s="3">
-        <v>406800</v>
+        <v>387700</v>
       </c>
       <c r="G49" s="3">
-        <v>203800</v>
+        <v>194300</v>
       </c>
       <c r="H49" s="3">
-        <v>210500</v>
+        <v>200600</v>
       </c>
       <c r="I49" s="3">
-        <v>195600</v>
+        <v>186500</v>
       </c>
       <c r="J49" s="3">
-        <v>169000</v>
+        <v>161100</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>418800</v>
+        <v>399200</v>
       </c>
       <c r="E52" s="3">
-        <v>390300</v>
+        <v>372000</v>
       </c>
       <c r="F52" s="3">
-        <v>374800</v>
+        <v>352500</v>
       </c>
       <c r="G52" s="3">
-        <v>185600</v>
+        <v>177000</v>
       </c>
       <c r="H52" s="3">
-        <v>192600</v>
+        <v>183600</v>
       </c>
       <c r="I52" s="3">
-        <v>162200</v>
+        <v>154600</v>
       </c>
       <c r="J52" s="3">
-        <v>135200</v>
+        <v>128900</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12253500</v>
+        <v>11679700</v>
       </c>
       <c r="E54" s="3">
-        <v>12933300</v>
+        <v>12327700</v>
       </c>
       <c r="F54" s="3">
-        <v>12359200</v>
+        <v>11780500</v>
       </c>
       <c r="G54" s="3">
-        <v>11458800</v>
+        <v>10922200</v>
       </c>
       <c r="H54" s="3">
-        <v>10762100</v>
+        <v>10258200</v>
       </c>
       <c r="I54" s="3">
-        <v>10803500</v>
+        <v>10297600</v>
       </c>
       <c r="J54" s="3">
-        <v>9700500</v>
+        <v>9246300</v>
       </c>
       <c r="K54" s="3">
         <v>6542600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2299000</v>
+        <v>2191400</v>
       </c>
       <c r="E57" s="3">
-        <v>2714200</v>
+        <v>2587100</v>
       </c>
       <c r="F57" s="3">
-        <v>2950400</v>
+        <v>2812200</v>
       </c>
       <c r="G57" s="3">
-        <v>2549600</v>
+        <v>2430200</v>
       </c>
       <c r="H57" s="3">
-        <v>2436800</v>
+        <v>2322700</v>
       </c>
       <c r="I57" s="3">
-        <v>2526000</v>
+        <v>2407700</v>
       </c>
       <c r="J57" s="3">
-        <v>2378400</v>
+        <v>2267000</v>
       </c>
       <c r="K57" s="3">
         <v>1021200</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1849400</v>
+        <v>1762800</v>
       </c>
       <c r="E58" s="3">
-        <v>1951500</v>
+        <v>1860100</v>
       </c>
       <c r="F58" s="3">
-        <v>1643800</v>
+        <v>1566800</v>
       </c>
       <c r="G58" s="3">
-        <v>1509700</v>
+        <v>1439000</v>
       </c>
       <c r="H58" s="3">
-        <v>1095500</v>
+        <v>1044200</v>
       </c>
       <c r="I58" s="3">
-        <v>1224100</v>
+        <v>1166800</v>
       </c>
       <c r="J58" s="3">
-        <v>1231000</v>
+        <v>1173300</v>
       </c>
       <c r="K58" s="3">
         <v>2635100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1321700</v>
+        <v>1259800</v>
       </c>
       <c r="E59" s="3">
-        <v>1511300</v>
+        <v>1440500</v>
       </c>
       <c r="F59" s="3">
-        <v>1734500</v>
+        <v>1459200</v>
       </c>
       <c r="G59" s="3">
-        <v>1333200</v>
+        <v>1270800</v>
       </c>
       <c r="H59" s="3">
-        <v>1439500</v>
+        <v>1372100</v>
       </c>
       <c r="I59" s="3">
-        <v>1383000</v>
+        <v>1318200</v>
       </c>
       <c r="J59" s="3">
-        <v>1363400</v>
+        <v>1299600</v>
       </c>
       <c r="K59" s="3">
         <v>505900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5470100</v>
+        <v>5214000</v>
       </c>
       <c r="E60" s="3">
-        <v>6177000</v>
+        <v>5887700</v>
       </c>
       <c r="F60" s="3">
-        <v>6054100</v>
+        <v>5770600</v>
       </c>
       <c r="G60" s="3">
-        <v>5392500</v>
+        <v>5140000</v>
       </c>
       <c r="H60" s="3">
-        <v>4971800</v>
+        <v>4739000</v>
       </c>
       <c r="I60" s="3">
-        <v>5133100</v>
+        <v>4892700</v>
       </c>
       <c r="J60" s="3">
-        <v>4972800</v>
+        <v>4739900</v>
       </c>
       <c r="K60" s="3">
         <v>4162300</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>204100</v>
+        <v>194500</v>
       </c>
       <c r="E61" s="3">
-        <v>380700</v>
+        <v>362800</v>
       </c>
       <c r="F61" s="3">
-        <v>122300</v>
+        <v>283200</v>
       </c>
       <c r="G61" s="3">
-        <v>366100</v>
+        <v>349000</v>
       </c>
       <c r="H61" s="3">
-        <v>433800</v>
+        <v>413400</v>
       </c>
       <c r="I61" s="3">
-        <v>392700</v>
+        <v>374300</v>
       </c>
       <c r="J61" s="3">
-        <v>313200</v>
+        <v>298600</v>
       </c>
       <c r="K61" s="3">
         <v>200900</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>883700</v>
+        <v>842300</v>
       </c>
       <c r="E62" s="3">
-        <v>643700</v>
+        <v>613600</v>
       </c>
       <c r="F62" s="3">
-        <v>882000</v>
+        <v>662700</v>
       </c>
       <c r="G62" s="3">
-        <v>771100</v>
+        <v>735000</v>
       </c>
       <c r="H62" s="3">
-        <v>802400</v>
+        <v>764900</v>
       </c>
       <c r="I62" s="3">
-        <v>805500</v>
+        <v>767800</v>
       </c>
       <c r="J62" s="3">
-        <v>766600</v>
+        <v>730700</v>
       </c>
       <c r="K62" s="3">
         <v>477800</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7043100</v>
+        <v>6713300</v>
       </c>
       <c r="E66" s="3">
-        <v>7718500</v>
+        <v>7357000</v>
       </c>
       <c r="F66" s="3">
-        <v>7531300</v>
+        <v>7178600</v>
       </c>
       <c r="G66" s="3">
-        <v>6986900</v>
+        <v>6659700</v>
       </c>
       <c r="H66" s="3">
-        <v>6634500</v>
+        <v>6323800</v>
       </c>
       <c r="I66" s="3">
-        <v>6777800</v>
+        <v>6460400</v>
       </c>
       <c r="J66" s="3">
-        <v>6430400</v>
+        <v>6129300</v>
       </c>
       <c r="K66" s="3">
         <v>4910300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3755400</v>
+        <v>3579600</v>
       </c>
       <c r="E72" s="3">
-        <v>3607500</v>
+        <v>3438600</v>
       </c>
       <c r="F72" s="3">
-        <v>3248400</v>
+        <v>3096300</v>
       </c>
       <c r="G72" s="3">
-        <v>2910200</v>
+        <v>2774000</v>
       </c>
       <c r="H72" s="3">
-        <v>2595700</v>
+        <v>2474200</v>
       </c>
       <c r="I72" s="3">
-        <v>2201500</v>
+        <v>2098400</v>
       </c>
       <c r="J72" s="3">
-        <v>1703400</v>
+        <v>1623600</v>
       </c>
       <c r="K72" s="3">
         <v>273100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5210400</v>
+        <v>4966500</v>
       </c>
       <c r="E76" s="3">
-        <v>5214900</v>
+        <v>4970700</v>
       </c>
       <c r="F76" s="3">
-        <v>4827900</v>
+        <v>4601900</v>
       </c>
       <c r="G76" s="3">
-        <v>4471900</v>
+        <v>4262500</v>
       </c>
       <c r="H76" s="3">
-        <v>4127700</v>
+        <v>3934400</v>
       </c>
       <c r="I76" s="3">
-        <v>4025700</v>
+        <v>3837200</v>
       </c>
       <c r="J76" s="3">
-        <v>3270100</v>
+        <v>3116900</v>
       </c>
       <c r="K76" s="3">
         <v>1632300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>302400</v>
+        <v>288200</v>
       </c>
       <c r="E81" s="3">
-        <v>527700</v>
+        <v>503000</v>
       </c>
       <c r="F81" s="3">
-        <v>493600</v>
+        <v>470500</v>
       </c>
       <c r="G81" s="3">
-        <v>474800</v>
+        <v>452600</v>
       </c>
       <c r="H81" s="3">
-        <v>625900</v>
+        <v>596600</v>
       </c>
       <c r="I81" s="3">
-        <v>715900</v>
+        <v>682400</v>
       </c>
       <c r="J81" s="3">
-        <v>856500</v>
+        <v>816400</v>
       </c>
       <c r="K81" s="3">
         <v>45100</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>557500</v>
+        <v>531400</v>
       </c>
       <c r="E83" s="3">
-        <v>562600</v>
+        <v>536200</v>
       </c>
       <c r="F83" s="3">
-        <v>562800</v>
+        <v>536400</v>
       </c>
       <c r="G83" s="3">
-        <v>491000</v>
+        <v>468000</v>
       </c>
       <c r="H83" s="3">
-        <v>473900</v>
+        <v>451700</v>
       </c>
       <c r="I83" s="3">
-        <v>422400</v>
+        <v>402600</v>
       </c>
       <c r="J83" s="3">
-        <v>427800</v>
+        <v>407800</v>
       </c>
       <c r="K83" s="3">
         <v>286200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>914600</v>
+        <v>871800</v>
       </c>
       <c r="E89" s="3">
-        <v>460300</v>
+        <v>438800</v>
       </c>
       <c r="F89" s="3">
-        <v>831000</v>
+        <v>792100</v>
       </c>
       <c r="G89" s="3">
-        <v>728000</v>
+        <v>693900</v>
       </c>
       <c r="H89" s="3">
-        <v>1070200</v>
+        <v>1020100</v>
       </c>
       <c r="I89" s="3">
-        <v>747200</v>
+        <v>712200</v>
       </c>
       <c r="J89" s="3">
-        <v>1373700</v>
+        <v>1309300</v>
       </c>
       <c r="K89" s="3">
         <v>763400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-580300</v>
+        <v>-553100</v>
       </c>
       <c r="E91" s="3">
-        <v>-566400</v>
+        <v>-539900</v>
       </c>
       <c r="F91" s="3">
-        <v>-577400</v>
+        <v>-550400</v>
       </c>
       <c r="G91" s="3">
-        <v>-844500</v>
+        <v>-805000</v>
       </c>
       <c r="H91" s="3">
-        <v>-760200</v>
+        <v>-724600</v>
       </c>
       <c r="I91" s="3">
-        <v>-650300</v>
+        <v>-619900</v>
       </c>
       <c r="J91" s="3">
-        <v>-557300</v>
+        <v>-531200</v>
       </c>
       <c r="K91" s="3">
         <v>-272200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-643900</v>
+        <v>-613800</v>
       </c>
       <c r="E94" s="3">
-        <v>-694600</v>
+        <v>-662100</v>
       </c>
       <c r="F94" s="3">
-        <v>-603300</v>
+        <v>-575100</v>
       </c>
       <c r="G94" s="3">
-        <v>-889700</v>
+        <v>-848100</v>
       </c>
       <c r="H94" s="3">
-        <v>-842700</v>
+        <v>-803200</v>
       </c>
       <c r="I94" s="3">
-        <v>-720900</v>
+        <v>-687100</v>
       </c>
       <c r="J94" s="3">
-        <v>-594000</v>
+        <v>-566200</v>
       </c>
       <c r="K94" s="3">
         <v>-218300</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-154500</v>
+        <v>-147200</v>
       </c>
       <c r="E96" s="3">
-        <v>-160000</v>
+        <v>-152500</v>
       </c>
       <c r="F96" s="3">
-        <v>-154400</v>
+        <v>-147200</v>
       </c>
       <c r="G96" s="3">
-        <v>-159800</v>
+        <v>-152400</v>
       </c>
       <c r="H96" s="3">
-        <v>-231400</v>
+        <v>-220600</v>
       </c>
       <c r="I96" s="3">
-        <v>-209200</v>
+        <v>-199400</v>
       </c>
       <c r="J96" s="3">
-        <v>-181400</v>
+        <v>-172900</v>
       </c>
       <c r="K96" s="3">
         <v>-26100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-271400</v>
+        <v>-258700</v>
       </c>
       <c r="E100" s="3">
-        <v>200900</v>
+        <v>191500</v>
       </c>
       <c r="F100" s="3">
-        <v>-90800</v>
+        <v>-86500</v>
       </c>
       <c r="G100" s="3">
-        <v>167800</v>
+        <v>159900</v>
       </c>
       <c r="H100" s="3">
-        <v>-212600</v>
+        <v>-202600</v>
       </c>
       <c r="I100" s="3">
-        <v>-251500</v>
+        <v>-239700</v>
       </c>
       <c r="J100" s="3">
-        <v>-477700</v>
+        <v>-455400</v>
       </c>
       <c r="K100" s="3">
         <v>-489600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7800</v>
+        <v>-7500</v>
       </c>
       <c r="E101" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="F101" s="3">
-        <v>-7600</v>
+        <v>-7200</v>
       </c>
       <c r="G101" s="3">
-        <v>-33300</v>
+        <v>-31700</v>
       </c>
       <c r="H101" s="3">
-        <v>-30500</v>
+        <v>-29000</v>
       </c>
       <c r="I101" s="3">
-        <v>14100</v>
+        <v>13500</v>
       </c>
       <c r="J101" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="K101" s="3">
         <v>-400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8500</v>
+        <v>-8100</v>
       </c>
       <c r="E102" s="3">
-        <v>-37400</v>
+        <v>-35700</v>
       </c>
       <c r="F102" s="3">
-        <v>129300</v>
+        <v>123200</v>
       </c>
       <c r="G102" s="3">
-        <v>-27100</v>
+        <v>-25900</v>
       </c>
       <c r="H102" s="3">
-        <v>-15500</v>
+        <v>-14700</v>
       </c>
       <c r="I102" s="3">
-        <v>-211000</v>
+        <v>-201100</v>
       </c>
       <c r="J102" s="3">
-        <v>307200</v>
+        <v>292800</v>
       </c>
       <c r="K102" s="3">
         <v>55100</v>

--- a/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>HINOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>37711</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>37346</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16630900</v>
+        <v>13770700</v>
       </c>
       <c r="E8" s="3">
-        <v>18149000</v>
+        <v>16685300</v>
       </c>
       <c r="F8" s="3">
-        <v>16835900</v>
+        <v>18208400</v>
       </c>
       <c r="G8" s="3">
-        <v>15422900</v>
+        <v>16891100</v>
       </c>
       <c r="H8" s="3">
-        <v>15989100</v>
+        <v>15473400</v>
       </c>
       <c r="I8" s="3">
-        <v>15437300</v>
+        <v>16041500</v>
       </c>
       <c r="J8" s="3">
+        <v>15487900</v>
+      </c>
+      <c r="K8" s="3">
         <v>15568100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7729400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6858100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14128700</v>
+        <v>11814700</v>
       </c>
       <c r="E9" s="3">
-        <v>15337400</v>
+        <v>14174900</v>
       </c>
       <c r="F9" s="3">
-        <v>14128700</v>
+        <v>15387700</v>
       </c>
       <c r="G9" s="3">
-        <v>12925600</v>
+        <v>14175000</v>
       </c>
       <c r="H9" s="3">
-        <v>13291000</v>
+        <v>12967900</v>
       </c>
       <c r="I9" s="3">
-        <v>12730300</v>
+        <v>13334500</v>
       </c>
       <c r="J9" s="3">
+        <v>12772000</v>
+      </c>
+      <c r="K9" s="3">
         <v>12911000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6556000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5772600</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2502200</v>
+        <v>1955900</v>
       </c>
       <c r="E10" s="3">
-        <v>2811600</v>
+        <v>2510400</v>
       </c>
       <c r="F10" s="3">
-        <v>2707200</v>
+        <v>2820800</v>
       </c>
       <c r="G10" s="3">
-        <v>2497300</v>
+        <v>2716000</v>
       </c>
       <c r="H10" s="3">
-        <v>2698100</v>
+        <v>2505500</v>
       </c>
       <c r="I10" s="3">
         <v>2707000</v>
       </c>
       <c r="J10" s="3">
+        <v>2715900</v>
+      </c>
+      <c r="K10" s="3">
         <v>2657000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1173400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1085500</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>136700</v>
+      </c>
+      <c r="E14" s="3">
         <v>2500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>17400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-5900</v>
       </c>
-      <c r="I14" s="3">
-        <v>18400</v>
-      </c>
       <c r="J14" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K14" s="3">
         <v>-13700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>70800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3100</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16130800</v>
+        <v>13794800</v>
       </c>
       <c r="E17" s="3">
-        <v>17372000</v>
+        <v>16183700</v>
       </c>
       <c r="F17" s="3">
-        <v>16114600</v>
+        <v>17428900</v>
       </c>
       <c r="G17" s="3">
-        <v>14775300</v>
+        <v>16167400</v>
       </c>
       <c r="H17" s="3">
-        <v>15083000</v>
+        <v>14823700</v>
       </c>
       <c r="I17" s="3">
-        <v>14489200</v>
+        <v>15132400</v>
       </c>
       <c r="J17" s="3">
+        <v>14536600</v>
+      </c>
+      <c r="K17" s="3">
         <v>14526800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7625800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6779900</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>500000</v>
+        <v>-24100</v>
       </c>
       <c r="E18" s="3">
-        <v>777000</v>
+        <v>501700</v>
       </c>
       <c r="F18" s="3">
-        <v>721300</v>
+        <v>779500</v>
       </c>
       <c r="G18" s="3">
-        <v>647600</v>
+        <v>723600</v>
       </c>
       <c r="H18" s="3">
-        <v>906200</v>
+        <v>649700</v>
       </c>
       <c r="I18" s="3">
-        <v>948200</v>
+        <v>909200</v>
       </c>
       <c r="J18" s="3">
+        <v>951300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1041300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>103600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>78200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>26700</v>
+        <v>44500</v>
       </c>
       <c r="E20" s="3">
-        <v>32900</v>
+        <v>26800</v>
       </c>
       <c r="F20" s="3">
-        <v>70900</v>
+        <v>33000</v>
       </c>
       <c r="G20" s="3">
-        <v>56100</v>
+        <v>71100</v>
       </c>
       <c r="H20" s="3">
-        <v>41800</v>
+        <v>56300</v>
       </c>
       <c r="I20" s="3">
-        <v>56000</v>
+        <v>42000</v>
       </c>
       <c r="J20" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K20" s="3">
         <v>36300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>43200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>136500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1060400</v>
+        <v>524200</v>
       </c>
       <c r="E21" s="3">
-        <v>1348400</v>
+        <v>1062100</v>
       </c>
       <c r="F21" s="3">
-        <v>1330900</v>
+        <v>1351000</v>
       </c>
       <c r="G21" s="3">
-        <v>1173800</v>
+        <v>1333500</v>
       </c>
       <c r="H21" s="3">
-        <v>1401700</v>
+        <v>1176100</v>
       </c>
       <c r="I21" s="3">
-        <v>1408600</v>
+        <v>1404800</v>
       </c>
       <c r="J21" s="3">
+        <v>1411900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1487200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>433600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>502300</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>59800</v>
+        <v>37700</v>
       </c>
       <c r="E22" s="3">
-        <v>53900</v>
+        <v>60000</v>
       </c>
       <c r="F22" s="3">
+        <v>54100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>43700</v>
+      </c>
+      <c r="H22" s="3">
         <v>43600</v>
       </c>
-      <c r="G22" s="3">
-        <v>43500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>60600</v>
-      </c>
       <c r="I22" s="3">
-        <v>58600</v>
+        <v>60800</v>
       </c>
       <c r="J22" s="3">
+        <v>58800</v>
+      </c>
+      <c r="K22" s="3">
         <v>47700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>57600</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>466900</v>
+        <v>-17300</v>
       </c>
       <c r="E23" s="3">
-        <v>755900</v>
+        <v>468400</v>
       </c>
       <c r="F23" s="3">
-        <v>748600</v>
+        <v>758400</v>
       </c>
       <c r="G23" s="3">
-        <v>660200</v>
+        <v>751100</v>
       </c>
       <c r="H23" s="3">
-        <v>887400</v>
+        <v>662400</v>
       </c>
       <c r="I23" s="3">
-        <v>945600</v>
+        <v>890300</v>
       </c>
       <c r="J23" s="3">
+        <v>948700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1029900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>113000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>157000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>148700</v>
+        <v>40600</v>
       </c>
       <c r="E24" s="3">
-        <v>197000</v>
+        <v>149200</v>
       </c>
       <c r="F24" s="3">
-        <v>216600</v>
+        <v>197700</v>
       </c>
       <c r="G24" s="3">
-        <v>157300</v>
+        <v>217300</v>
       </c>
       <c r="H24" s="3">
-        <v>264200</v>
+        <v>157900</v>
       </c>
       <c r="I24" s="3">
-        <v>221000</v>
+        <v>265000</v>
       </c>
       <c r="J24" s="3">
+        <v>221700</v>
+      </c>
+      <c r="K24" s="3">
         <v>137000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>63000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>85200</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>318200</v>
+        <v>-57900</v>
       </c>
       <c r="E26" s="3">
-        <v>558900</v>
+        <v>319300</v>
       </c>
       <c r="F26" s="3">
-        <v>532000</v>
+        <v>560700</v>
       </c>
       <c r="G26" s="3">
-        <v>502900</v>
+        <v>533800</v>
       </c>
       <c r="H26" s="3">
-        <v>623300</v>
+        <v>504500</v>
       </c>
       <c r="I26" s="3">
-        <v>724600</v>
+        <v>625300</v>
       </c>
       <c r="J26" s="3">
+        <v>727000</v>
+      </c>
+      <c r="K26" s="3">
         <v>892900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>50000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>71800</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>288200</v>
+        <v>-68800</v>
       </c>
       <c r="E27" s="3">
-        <v>503000</v>
+        <v>289200</v>
       </c>
       <c r="F27" s="3">
-        <v>470500</v>
+        <v>504600</v>
       </c>
       <c r="G27" s="3">
-        <v>452600</v>
+        <v>472000</v>
       </c>
       <c r="H27" s="3">
-        <v>596600</v>
+        <v>454100</v>
       </c>
       <c r="I27" s="3">
-        <v>682400</v>
+        <v>598500</v>
       </c>
       <c r="J27" s="3">
+        <v>684700</v>
+      </c>
+      <c r="K27" s="3">
         <v>816400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>45100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>75700</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-26700</v>
+        <v>-44500</v>
       </c>
       <c r="E32" s="3">
-        <v>-32900</v>
+        <v>-26800</v>
       </c>
       <c r="F32" s="3">
-        <v>-70900</v>
+        <v>-33000</v>
       </c>
       <c r="G32" s="3">
-        <v>-56100</v>
+        <v>-71100</v>
       </c>
       <c r="H32" s="3">
-        <v>-41800</v>
+        <v>-56300</v>
       </c>
       <c r="I32" s="3">
-        <v>-56000</v>
+        <v>-42000</v>
       </c>
       <c r="J32" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-36300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-43200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-136500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>288200</v>
+        <v>-68800</v>
       </c>
       <c r="E33" s="3">
-        <v>503000</v>
+        <v>289200</v>
       </c>
       <c r="F33" s="3">
-        <v>470500</v>
+        <v>504600</v>
       </c>
       <c r="G33" s="3">
-        <v>452600</v>
+        <v>472000</v>
       </c>
       <c r="H33" s="3">
-        <v>596600</v>
+        <v>454100</v>
       </c>
       <c r="I33" s="3">
-        <v>682400</v>
+        <v>598500</v>
       </c>
       <c r="J33" s="3">
+        <v>684700</v>
+      </c>
+      <c r="K33" s="3">
         <v>816400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>45100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>75700</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>288200</v>
+        <v>-68800</v>
       </c>
       <c r="E35" s="3">
-        <v>503000</v>
+        <v>289200</v>
       </c>
       <c r="F35" s="3">
-        <v>470500</v>
+        <v>504600</v>
       </c>
       <c r="G35" s="3">
-        <v>452600</v>
+        <v>472000</v>
       </c>
       <c r="H35" s="3">
-        <v>596600</v>
+        <v>454100</v>
       </c>
       <c r="I35" s="3">
-        <v>682400</v>
+        <v>598500</v>
       </c>
       <c r="J35" s="3">
+        <v>684700</v>
+      </c>
+      <c r="K35" s="3">
         <v>816400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>45100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>75700</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>37711</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>37346</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>372300</v>
+        <v>516400</v>
       </c>
       <c r="E41" s="3">
-        <v>380100</v>
+        <v>373500</v>
       </c>
       <c r="F41" s="3">
-        <v>414300</v>
+        <v>381300</v>
       </c>
       <c r="G41" s="3">
-        <v>294400</v>
+        <v>415600</v>
       </c>
       <c r="H41" s="3">
-        <v>317600</v>
+        <v>295400</v>
       </c>
       <c r="I41" s="3">
-        <v>330700</v>
+        <v>318600</v>
       </c>
       <c r="J41" s="3">
+        <v>331800</v>
+      </c>
+      <c r="K41" s="3">
         <v>409800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>394900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>337900</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1706,245 +1795,269 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>22300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>96700</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2953300</v>
+        <v>2975100</v>
       </c>
       <c r="E43" s="3">
-        <v>3505200</v>
+        <v>2963000</v>
       </c>
       <c r="F43" s="3">
-        <v>3292400</v>
+        <v>3516700</v>
       </c>
       <c r="G43" s="3">
-        <v>2856000</v>
+        <v>3303200</v>
       </c>
       <c r="H43" s="3">
-        <v>2558400</v>
+        <v>2865300</v>
       </c>
       <c r="I43" s="3">
-        <v>2713200</v>
+        <v>2566800</v>
       </c>
       <c r="J43" s="3">
+        <v>2722100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2577900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1891500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2053700</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2400400</v>
+        <v>1844100</v>
       </c>
       <c r="E44" s="3">
-        <v>2404700</v>
+        <v>2408300</v>
       </c>
       <c r="F44" s="3">
-        <v>2221400</v>
+        <v>2412600</v>
       </c>
       <c r="G44" s="3">
-        <v>1864900</v>
+        <v>2228700</v>
       </c>
       <c r="H44" s="3">
-        <v>1758100</v>
+        <v>1871100</v>
       </c>
       <c r="I44" s="3">
-        <v>1836700</v>
+        <v>1763800</v>
       </c>
       <c r="J44" s="3">
+        <v>1842700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1424100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>594900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>653200</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>326400</v>
+        <v>257800</v>
       </c>
       <c r="E45" s="3">
-        <v>417000</v>
+        <v>327500</v>
       </c>
       <c r="F45" s="3">
-        <v>594700</v>
+        <v>418300</v>
       </c>
       <c r="G45" s="3">
-        <v>646000</v>
+        <v>596600</v>
       </c>
       <c r="H45" s="3">
-        <v>650300</v>
+        <v>648100</v>
       </c>
       <c r="I45" s="3">
-        <v>597800</v>
+        <v>652400</v>
       </c>
       <c r="J45" s="3">
+        <v>599800</v>
+      </c>
+      <c r="K45" s="3">
         <v>631000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>224600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>206500</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6052500</v>
+        <v>5593300</v>
       </c>
       <c r="E46" s="3">
-        <v>6707000</v>
+        <v>6072300</v>
       </c>
       <c r="F46" s="3">
-        <v>6247000</v>
+        <v>6728900</v>
       </c>
       <c r="G46" s="3">
-        <v>5661400</v>
+        <v>6267400</v>
       </c>
       <c r="H46" s="3">
-        <v>5284400</v>
+        <v>5679900</v>
       </c>
       <c r="I46" s="3">
-        <v>5478400</v>
+        <v>5301700</v>
       </c>
       <c r="J46" s="3">
+        <v>5496300</v>
+      </c>
+      <c r="K46" s="3">
         <v>5042800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3128200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3348100</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>995000</v>
+        <v>1142300</v>
       </c>
       <c r="E47" s="3">
-        <v>1060700</v>
+        <v>998300</v>
       </c>
       <c r="F47" s="3">
-        <v>2145300</v>
+        <v>1064200</v>
       </c>
       <c r="G47" s="3">
-        <v>995900</v>
+        <v>2152300</v>
       </c>
       <c r="H47" s="3">
-        <v>940300</v>
+        <v>999200</v>
       </c>
       <c r="I47" s="3">
-        <v>1147700</v>
+        <v>943400</v>
       </c>
       <c r="J47" s="3">
+        <v>1151400</v>
+      </c>
+      <c r="K47" s="3">
         <v>910100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>609200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>598300</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3986600</v>
+        <v>3998400</v>
       </c>
       <c r="E48" s="3">
-        <v>3971700</v>
+        <v>3999600</v>
       </c>
       <c r="F48" s="3">
-        <v>4456400</v>
+        <v>3984700</v>
       </c>
       <c r="G48" s="3">
-        <v>3893700</v>
+        <v>4471000</v>
       </c>
       <c r="H48" s="3">
-        <v>3649300</v>
+        <v>3906400</v>
       </c>
       <c r="I48" s="3">
-        <v>3330400</v>
+        <v>3661300</v>
       </c>
       <c r="J48" s="3">
+        <v>3341400</v>
+      </c>
+      <c r="K48" s="3">
         <v>3003400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2854700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2935000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>246400</v>
+        <v>247400</v>
       </c>
       <c r="E49" s="3">
-        <v>216400</v>
+        <v>247200</v>
       </c>
       <c r="F49" s="3">
-        <v>387700</v>
+        <v>217100</v>
       </c>
       <c r="G49" s="3">
-        <v>194300</v>
+        <v>389000</v>
       </c>
       <c r="H49" s="3">
-        <v>200600</v>
+        <v>194900</v>
       </c>
       <c r="I49" s="3">
-        <v>186500</v>
+        <v>201300</v>
       </c>
       <c r="J49" s="3">
+        <v>187100</v>
+      </c>
+      <c r="K49" s="3">
         <v>161100</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>399200</v>
+        <v>335900</v>
       </c>
       <c r="E52" s="3">
-        <v>372000</v>
+        <v>400500</v>
       </c>
       <c r="F52" s="3">
-        <v>352500</v>
+        <v>373300</v>
       </c>
       <c r="G52" s="3">
-        <v>177000</v>
+        <v>353700</v>
       </c>
       <c r="H52" s="3">
-        <v>183600</v>
+        <v>177500</v>
       </c>
       <c r="I52" s="3">
-        <v>154600</v>
+        <v>184200</v>
       </c>
       <c r="J52" s="3">
+        <v>155200</v>
+      </c>
+      <c r="K52" s="3">
         <v>128900</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11679700</v>
+        <v>11317400</v>
       </c>
       <c r="E54" s="3">
-        <v>12327700</v>
+        <v>11718000</v>
       </c>
       <c r="F54" s="3">
-        <v>11780500</v>
+        <v>12368100</v>
       </c>
       <c r="G54" s="3">
-        <v>10922200</v>
+        <v>11819100</v>
       </c>
       <c r="H54" s="3">
-        <v>10258200</v>
+        <v>10958000</v>
       </c>
       <c r="I54" s="3">
-        <v>10297600</v>
+        <v>10291800</v>
       </c>
       <c r="J54" s="3">
+        <v>10331400</v>
+      </c>
+      <c r="K54" s="3">
         <v>9246300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6542600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6900400</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2191400</v>
+        <v>2107500</v>
       </c>
       <c r="E57" s="3">
-        <v>2587100</v>
+        <v>2198500</v>
       </c>
       <c r="F57" s="3">
-        <v>2812200</v>
+        <v>2595600</v>
       </c>
       <c r="G57" s="3">
-        <v>2430200</v>
+        <v>2821400</v>
       </c>
       <c r="H57" s="3">
-        <v>2322700</v>
+        <v>2438200</v>
       </c>
       <c r="I57" s="3">
-        <v>2407700</v>
+        <v>2330300</v>
       </c>
       <c r="J57" s="3">
+        <v>2415600</v>
+      </c>
+      <c r="K57" s="3">
         <v>2267000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1021200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>875200</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1762800</v>
+        <v>1523000</v>
       </c>
       <c r="E58" s="3">
-        <v>1860100</v>
+        <v>1768600</v>
       </c>
       <c r="F58" s="3">
-        <v>1566800</v>
+        <v>1866200</v>
       </c>
       <c r="G58" s="3">
-        <v>1439000</v>
+        <v>1572000</v>
       </c>
       <c r="H58" s="3">
-        <v>1044200</v>
+        <v>1443700</v>
       </c>
       <c r="I58" s="3">
-        <v>1166800</v>
+        <v>1047700</v>
       </c>
       <c r="J58" s="3">
+        <v>1170600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1173300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2635100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2947700</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1259800</v>
+        <v>1205300</v>
       </c>
       <c r="E59" s="3">
-        <v>1440500</v>
+        <v>1263900</v>
       </c>
       <c r="F59" s="3">
-        <v>1459200</v>
+        <v>1445200</v>
       </c>
       <c r="G59" s="3">
-        <v>1270800</v>
+        <v>1464000</v>
       </c>
       <c r="H59" s="3">
-        <v>1372100</v>
+        <v>1274900</v>
       </c>
       <c r="I59" s="3">
-        <v>1318200</v>
+        <v>1376600</v>
       </c>
       <c r="J59" s="3">
+        <v>1322500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1299600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>505900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>452800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5214000</v>
+        <v>4835900</v>
       </c>
       <c r="E60" s="3">
-        <v>5887700</v>
+        <v>5231000</v>
       </c>
       <c r="F60" s="3">
-        <v>5770600</v>
+        <v>5907000</v>
       </c>
       <c r="G60" s="3">
-        <v>5140000</v>
+        <v>5789500</v>
       </c>
       <c r="H60" s="3">
-        <v>4739000</v>
+        <v>5156800</v>
       </c>
       <c r="I60" s="3">
-        <v>4892700</v>
+        <v>4754500</v>
       </c>
       <c r="J60" s="3">
+        <v>4908800</v>
+      </c>
+      <c r="K60" s="3">
         <v>4739900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4162300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4275700</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>194500</v>
+        <v>150800</v>
       </c>
       <c r="E61" s="3">
-        <v>362800</v>
+        <v>195200</v>
       </c>
       <c r="F61" s="3">
-        <v>283200</v>
+        <v>364000</v>
       </c>
       <c r="G61" s="3">
-        <v>349000</v>
+        <v>284100</v>
       </c>
       <c r="H61" s="3">
-        <v>413400</v>
+        <v>350100</v>
       </c>
       <c r="I61" s="3">
-        <v>374300</v>
+        <v>414800</v>
       </c>
       <c r="J61" s="3">
+        <v>375500</v>
+      </c>
+      <c r="K61" s="3">
         <v>298600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>200900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>372200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>842300</v>
+        <v>772000</v>
       </c>
       <c r="E62" s="3">
-        <v>613600</v>
+        <v>845000</v>
       </c>
       <c r="F62" s="3">
-        <v>662700</v>
+        <v>615600</v>
       </c>
       <c r="G62" s="3">
-        <v>735000</v>
+        <v>664800</v>
       </c>
       <c r="H62" s="3">
-        <v>764900</v>
+        <v>737400</v>
       </c>
       <c r="I62" s="3">
-        <v>767800</v>
+        <v>767400</v>
       </c>
       <c r="J62" s="3">
+        <v>770300</v>
+      </c>
+      <c r="K62" s="3">
         <v>730700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>477800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>534200</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6713300</v>
+        <v>6223900</v>
       </c>
       <c r="E66" s="3">
-        <v>7357000</v>
+        <v>6735300</v>
       </c>
       <c r="F66" s="3">
-        <v>7178600</v>
+        <v>7381100</v>
       </c>
       <c r="G66" s="3">
-        <v>6659700</v>
+        <v>7202100</v>
       </c>
       <c r="H66" s="3">
-        <v>6323800</v>
+        <v>6681500</v>
       </c>
       <c r="I66" s="3">
-        <v>6460400</v>
+        <v>6344500</v>
       </c>
       <c r="J66" s="3">
+        <v>6481600</v>
+      </c>
+      <c r="K66" s="3">
         <v>6129300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4910300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5270800</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3579600</v>
+        <v>3459100</v>
       </c>
       <c r="E72" s="3">
-        <v>3438600</v>
+        <v>3591300</v>
       </c>
       <c r="F72" s="3">
-        <v>3096300</v>
+        <v>3449800</v>
       </c>
       <c r="G72" s="3">
-        <v>2774000</v>
+        <v>3106400</v>
       </c>
       <c r="H72" s="3">
-        <v>2474200</v>
+        <v>2783000</v>
       </c>
       <c r="I72" s="3">
-        <v>2098400</v>
+        <v>2482300</v>
       </c>
       <c r="J72" s="3">
+        <v>2105300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1623600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>273100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>254400</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4966500</v>
+        <v>5093500</v>
       </c>
       <c r="E76" s="3">
-        <v>4970700</v>
+        <v>4982700</v>
       </c>
       <c r="F76" s="3">
-        <v>4601900</v>
+        <v>4987000</v>
       </c>
       <c r="G76" s="3">
-        <v>4262500</v>
+        <v>4616900</v>
       </c>
       <c r="H76" s="3">
-        <v>3934400</v>
+        <v>4276500</v>
       </c>
       <c r="I76" s="3">
-        <v>3837200</v>
+        <v>3947300</v>
       </c>
       <c r="J76" s="3">
+        <v>3849800</v>
+      </c>
+      <c r="K76" s="3">
         <v>3116900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1632300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1629600</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>37711</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>37346</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>288200</v>
+        <v>-68800</v>
       </c>
       <c r="E81" s="3">
-        <v>503000</v>
+        <v>289200</v>
       </c>
       <c r="F81" s="3">
-        <v>470500</v>
+        <v>504600</v>
       </c>
       <c r="G81" s="3">
-        <v>452600</v>
+        <v>472000</v>
       </c>
       <c r="H81" s="3">
-        <v>596600</v>
+        <v>454100</v>
       </c>
       <c r="I81" s="3">
-        <v>682400</v>
+        <v>598500</v>
       </c>
       <c r="J81" s="3">
+        <v>684700</v>
+      </c>
+      <c r="K81" s="3">
         <v>816400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>45100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>75700</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>531400</v>
+        <v>503200</v>
       </c>
       <c r="E83" s="3">
-        <v>536200</v>
+        <v>533100</v>
       </c>
       <c r="F83" s="3">
-        <v>536400</v>
+        <v>538000</v>
       </c>
       <c r="G83" s="3">
-        <v>468000</v>
+        <v>538200</v>
       </c>
       <c r="H83" s="3">
-        <v>451700</v>
+        <v>469600</v>
       </c>
       <c r="I83" s="3">
-        <v>402600</v>
+        <v>453200</v>
       </c>
       <c r="J83" s="3">
+        <v>404000</v>
+      </c>
+      <c r="K83" s="3">
         <v>407800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>286200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>287300</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>871800</v>
+        <v>996500</v>
       </c>
       <c r="E89" s="3">
-        <v>438800</v>
+        <v>874700</v>
       </c>
       <c r="F89" s="3">
-        <v>792100</v>
+        <v>440200</v>
       </c>
       <c r="G89" s="3">
-        <v>693900</v>
+        <v>794700</v>
       </c>
       <c r="H89" s="3">
-        <v>1020100</v>
+        <v>696200</v>
       </c>
       <c r="I89" s="3">
-        <v>712200</v>
+        <v>1023400</v>
       </c>
       <c r="J89" s="3">
+        <v>714600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1309300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>763400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>535700</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-553100</v>
+        <v>-463300</v>
       </c>
       <c r="E91" s="3">
-        <v>-539900</v>
+        <v>-554900</v>
       </c>
       <c r="F91" s="3">
-        <v>-550400</v>
+        <v>-541600</v>
       </c>
       <c r="G91" s="3">
-        <v>-805000</v>
+        <v>-552200</v>
       </c>
       <c r="H91" s="3">
-        <v>-724600</v>
+        <v>-807600</v>
       </c>
       <c r="I91" s="3">
-        <v>-619900</v>
+        <v>-727000</v>
       </c>
       <c r="J91" s="3">
+        <v>-621900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-531200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-272200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-166600</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-613800</v>
+        <v>-516600</v>
       </c>
       <c r="E94" s="3">
-        <v>-662100</v>
+        <v>-615800</v>
       </c>
       <c r="F94" s="3">
-        <v>-575100</v>
+        <v>-664300</v>
       </c>
       <c r="G94" s="3">
-        <v>-848100</v>
+        <v>-577000</v>
       </c>
       <c r="H94" s="3">
-        <v>-803200</v>
+        <v>-850800</v>
       </c>
       <c r="I94" s="3">
-        <v>-687100</v>
+        <v>-805800</v>
       </c>
       <c r="J94" s="3">
+        <v>-689400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-566200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-218300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7400</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-147200</v>
+        <v>-63300</v>
       </c>
       <c r="E96" s="3">
-        <v>-152500</v>
+        <v>-147700</v>
       </c>
       <c r="F96" s="3">
-        <v>-147200</v>
+        <v>-153000</v>
       </c>
       <c r="G96" s="3">
-        <v>-152400</v>
+        <v>-147700</v>
       </c>
       <c r="H96" s="3">
-        <v>-220600</v>
+        <v>-152900</v>
       </c>
       <c r="I96" s="3">
-        <v>-199400</v>
+        <v>-221300</v>
       </c>
       <c r="J96" s="3">
+        <v>-200000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-172900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-26100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-258700</v>
+        <v>-353000</v>
       </c>
       <c r="E100" s="3">
-        <v>191500</v>
+        <v>-259600</v>
       </c>
       <c r="F100" s="3">
-        <v>-86500</v>
+        <v>192100</v>
       </c>
       <c r="G100" s="3">
-        <v>159900</v>
+        <v>-86800</v>
       </c>
       <c r="H100" s="3">
-        <v>-202600</v>
+        <v>160500</v>
       </c>
       <c r="I100" s="3">
-        <v>-239700</v>
+        <v>-203300</v>
       </c>
       <c r="J100" s="3">
+        <v>-240500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-455400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-489600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-577300</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-7200</v>
       </c>
-      <c r="G101" s="3">
-        <v>-31700</v>
-      </c>
       <c r="H101" s="3">
-        <v>-29000</v>
+        <v>-31800</v>
       </c>
       <c r="I101" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="J101" s="3">
         <v>13500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7600</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8100</v>
+        <v>136500</v>
       </c>
       <c r="E102" s="3">
-        <v>-35700</v>
+        <v>-8200</v>
       </c>
       <c r="F102" s="3">
-        <v>123200</v>
+        <v>-35800</v>
       </c>
       <c r="G102" s="3">
-        <v>-25900</v>
+        <v>123600</v>
       </c>
       <c r="H102" s="3">
-        <v>-14700</v>
+        <v>-26000</v>
       </c>
       <c r="I102" s="3">
-        <v>-201100</v>
+        <v>-14800</v>
       </c>
       <c r="J102" s="3">
+        <v>-201700</v>
+      </c>
+      <c r="K102" s="3">
         <v>292800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>55100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-41500</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13770700</v>
+        <v>13650800</v>
       </c>
       <c r="E8" s="3">
-        <v>16685300</v>
+        <v>16540100</v>
       </c>
       <c r="F8" s="3">
-        <v>18208400</v>
+        <v>18049900</v>
       </c>
       <c r="G8" s="3">
-        <v>16891100</v>
+        <v>16744000</v>
       </c>
       <c r="H8" s="3">
-        <v>15473400</v>
+        <v>15338700</v>
       </c>
       <c r="I8" s="3">
-        <v>16041500</v>
+        <v>15901900</v>
       </c>
       <c r="J8" s="3">
-        <v>15487900</v>
+        <v>15353100</v>
       </c>
       <c r="K8" s="3">
         <v>15568100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11814700</v>
+        <v>11711900</v>
       </c>
       <c r="E9" s="3">
-        <v>14174900</v>
+        <v>14051500</v>
       </c>
       <c r="F9" s="3">
-        <v>15387700</v>
+        <v>15253700</v>
       </c>
       <c r="G9" s="3">
-        <v>14175000</v>
+        <v>14051600</v>
       </c>
       <c r="H9" s="3">
-        <v>12967900</v>
+        <v>12855000</v>
       </c>
       <c r="I9" s="3">
-        <v>13334500</v>
+        <v>13218500</v>
       </c>
       <c r="J9" s="3">
-        <v>12772000</v>
+        <v>12660800</v>
       </c>
       <c r="K9" s="3">
         <v>12911000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1955900</v>
+        <v>1938900</v>
       </c>
       <c r="E10" s="3">
-        <v>2510400</v>
+        <v>2488500</v>
       </c>
       <c r="F10" s="3">
-        <v>2820800</v>
+        <v>2796200</v>
       </c>
       <c r="G10" s="3">
-        <v>2716000</v>
+        <v>2692400</v>
       </c>
       <c r="H10" s="3">
-        <v>2505500</v>
+        <v>2483700</v>
       </c>
       <c r="I10" s="3">
-        <v>2707000</v>
+        <v>2683400</v>
       </c>
       <c r="J10" s="3">
-        <v>2715900</v>
+        <v>2692300</v>
       </c>
       <c r="K10" s="3">
         <v>2657000</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>136700</v>
+        <v>135500</v>
       </c>
       <c r="E14" s="3">
         <v>2500</v>
       </c>
       <c r="F14" s="3">
-        <v>17400</v>
+        <v>17300</v>
       </c>
       <c r="G14" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="H14" s="3">
         <v>4400</v>
       </c>
       <c r="I14" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="J14" s="3">
-        <v>18500</v>
+        <v>18300</v>
       </c>
       <c r="K14" s="3">
         <v>-13700</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13794800</v>
+        <v>13674700</v>
       </c>
       <c r="E17" s="3">
-        <v>16183700</v>
+        <v>16042800</v>
       </c>
       <c r="F17" s="3">
-        <v>17428900</v>
+        <v>17277200</v>
       </c>
       <c r="G17" s="3">
-        <v>16167400</v>
+        <v>16026700</v>
       </c>
       <c r="H17" s="3">
-        <v>14823700</v>
+        <v>14694600</v>
       </c>
       <c r="I17" s="3">
-        <v>15132400</v>
+        <v>15000600</v>
       </c>
       <c r="J17" s="3">
-        <v>14536600</v>
+        <v>14410100</v>
       </c>
       <c r="K17" s="3">
         <v>14526800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-24100</v>
+        <v>-23900</v>
       </c>
       <c r="E18" s="3">
-        <v>501700</v>
+        <v>497300</v>
       </c>
       <c r="F18" s="3">
-        <v>779500</v>
+        <v>772700</v>
       </c>
       <c r="G18" s="3">
-        <v>723600</v>
+        <v>717300</v>
       </c>
       <c r="H18" s="3">
-        <v>649700</v>
+        <v>644100</v>
       </c>
       <c r="I18" s="3">
-        <v>909200</v>
+        <v>901200</v>
       </c>
       <c r="J18" s="3">
-        <v>951300</v>
+        <v>943000</v>
       </c>
       <c r="K18" s="3">
         <v>1041300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>44500</v>
+        <v>44100</v>
       </c>
       <c r="E20" s="3">
-        <v>26800</v>
+        <v>26500</v>
       </c>
       <c r="F20" s="3">
-        <v>33000</v>
+        <v>32700</v>
       </c>
       <c r="G20" s="3">
-        <v>71100</v>
+        <v>70500</v>
       </c>
       <c r="H20" s="3">
-        <v>56300</v>
+        <v>55800</v>
       </c>
       <c r="I20" s="3">
-        <v>42000</v>
+        <v>41600</v>
       </c>
       <c r="J20" s="3">
-        <v>56200</v>
+        <v>55700</v>
       </c>
       <c r="K20" s="3">
         <v>36300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>524200</v>
+        <v>519100</v>
       </c>
       <c r="E21" s="3">
-        <v>1062100</v>
+        <v>1052300</v>
       </c>
       <c r="F21" s="3">
-        <v>1351000</v>
+        <v>1338700</v>
       </c>
       <c r="G21" s="3">
-        <v>1333500</v>
+        <v>1321300</v>
       </c>
       <c r="H21" s="3">
-        <v>1176100</v>
+        <v>1165300</v>
       </c>
       <c r="I21" s="3">
-        <v>1404800</v>
+        <v>1392100</v>
       </c>
       <c r="J21" s="3">
-        <v>1411900</v>
+        <v>1399200</v>
       </c>
       <c r="K21" s="3">
         <v>1487200</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>37700</v>
+        <v>37400</v>
       </c>
       <c r="E22" s="3">
-        <v>60000</v>
+        <v>59500</v>
       </c>
       <c r="F22" s="3">
-        <v>54100</v>
+        <v>53600</v>
       </c>
       <c r="G22" s="3">
-        <v>43700</v>
+        <v>43300</v>
       </c>
       <c r="H22" s="3">
-        <v>43600</v>
+        <v>43200</v>
       </c>
       <c r="I22" s="3">
-        <v>60800</v>
+        <v>60300</v>
       </c>
       <c r="J22" s="3">
-        <v>58800</v>
+        <v>58200</v>
       </c>
       <c r="K22" s="3">
         <v>47700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-17300</v>
+        <v>-17200</v>
       </c>
       <c r="E23" s="3">
-        <v>468400</v>
+        <v>464400</v>
       </c>
       <c r="F23" s="3">
-        <v>758400</v>
+        <v>751800</v>
       </c>
       <c r="G23" s="3">
-        <v>751100</v>
+        <v>744500</v>
       </c>
       <c r="H23" s="3">
-        <v>662400</v>
+        <v>656600</v>
       </c>
       <c r="I23" s="3">
-        <v>890300</v>
+        <v>882600</v>
       </c>
       <c r="J23" s="3">
-        <v>948700</v>
+        <v>940500</v>
       </c>
       <c r="K23" s="3">
         <v>1029900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40600</v>
+        <v>40200</v>
       </c>
       <c r="E24" s="3">
-        <v>149200</v>
+        <v>147900</v>
       </c>
       <c r="F24" s="3">
-        <v>197700</v>
+        <v>196000</v>
       </c>
       <c r="G24" s="3">
-        <v>217300</v>
+        <v>215400</v>
       </c>
       <c r="H24" s="3">
-        <v>157900</v>
+        <v>156500</v>
       </c>
       <c r="I24" s="3">
-        <v>265000</v>
+        <v>262700</v>
       </c>
       <c r="J24" s="3">
-        <v>221700</v>
+        <v>219800</v>
       </c>
       <c r="K24" s="3">
         <v>137000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-57900</v>
+        <v>-57400</v>
       </c>
       <c r="E26" s="3">
-        <v>319300</v>
+        <v>316500</v>
       </c>
       <c r="F26" s="3">
-        <v>560700</v>
+        <v>555800</v>
       </c>
       <c r="G26" s="3">
-        <v>533800</v>
+        <v>529100</v>
       </c>
       <c r="H26" s="3">
-        <v>504500</v>
+        <v>500100</v>
       </c>
       <c r="I26" s="3">
-        <v>625300</v>
+        <v>619900</v>
       </c>
       <c r="J26" s="3">
-        <v>727000</v>
+        <v>720700</v>
       </c>
       <c r="K26" s="3">
         <v>892900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-68800</v>
+        <v>-68200</v>
       </c>
       <c r="E27" s="3">
-        <v>289200</v>
+        <v>286700</v>
       </c>
       <c r="F27" s="3">
-        <v>504600</v>
+        <v>500200</v>
       </c>
       <c r="G27" s="3">
-        <v>472000</v>
+        <v>467900</v>
       </c>
       <c r="H27" s="3">
-        <v>454100</v>
+        <v>450100</v>
       </c>
       <c r="I27" s="3">
-        <v>598500</v>
+        <v>593300</v>
       </c>
       <c r="J27" s="3">
-        <v>684700</v>
+        <v>678700</v>
       </c>
       <c r="K27" s="3">
         <v>816400</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-44500</v>
+        <v>-44100</v>
       </c>
       <c r="E32" s="3">
-        <v>-26800</v>
+        <v>-26500</v>
       </c>
       <c r="F32" s="3">
-        <v>-33000</v>
+        <v>-32700</v>
       </c>
       <c r="G32" s="3">
-        <v>-71100</v>
+        <v>-70500</v>
       </c>
       <c r="H32" s="3">
-        <v>-56300</v>
+        <v>-55800</v>
       </c>
       <c r="I32" s="3">
-        <v>-42000</v>
+        <v>-41600</v>
       </c>
       <c r="J32" s="3">
-        <v>-56200</v>
+        <v>-55700</v>
       </c>
       <c r="K32" s="3">
         <v>-36300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-68800</v>
+        <v>-68200</v>
       </c>
       <c r="E33" s="3">
-        <v>289200</v>
+        <v>286700</v>
       </c>
       <c r="F33" s="3">
-        <v>504600</v>
+        <v>500200</v>
       </c>
       <c r="G33" s="3">
-        <v>472000</v>
+        <v>467900</v>
       </c>
       <c r="H33" s="3">
-        <v>454100</v>
+        <v>450100</v>
       </c>
       <c r="I33" s="3">
-        <v>598500</v>
+        <v>593300</v>
       </c>
       <c r="J33" s="3">
-        <v>684700</v>
+        <v>678700</v>
       </c>
       <c r="K33" s="3">
         <v>816400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-68800</v>
+        <v>-68200</v>
       </c>
       <c r="E35" s="3">
-        <v>289200</v>
+        <v>286700</v>
       </c>
       <c r="F35" s="3">
-        <v>504600</v>
+        <v>500200</v>
       </c>
       <c r="G35" s="3">
-        <v>472000</v>
+        <v>467900</v>
       </c>
       <c r="H35" s="3">
-        <v>454100</v>
+        <v>450100</v>
       </c>
       <c r="I35" s="3">
-        <v>598500</v>
+        <v>593300</v>
       </c>
       <c r="J35" s="3">
-        <v>684700</v>
+        <v>678700</v>
       </c>
       <c r="K35" s="3">
         <v>816400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>516400</v>
+        <v>511900</v>
       </c>
       <c r="E41" s="3">
-        <v>373500</v>
+        <v>370300</v>
       </c>
       <c r="F41" s="3">
-        <v>381300</v>
+        <v>378000</v>
       </c>
       <c r="G41" s="3">
-        <v>415600</v>
+        <v>412000</v>
       </c>
       <c r="H41" s="3">
-        <v>295400</v>
+        <v>292800</v>
       </c>
       <c r="I41" s="3">
-        <v>318600</v>
+        <v>315900</v>
       </c>
       <c r="J41" s="3">
-        <v>331800</v>
+        <v>328900</v>
       </c>
       <c r="K41" s="3">
         <v>409800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2975100</v>
+        <v>2949200</v>
       </c>
       <c r="E43" s="3">
-        <v>2963000</v>
+        <v>2937200</v>
       </c>
       <c r="F43" s="3">
-        <v>3516700</v>
+        <v>3486100</v>
       </c>
       <c r="G43" s="3">
-        <v>3303200</v>
+        <v>3274400</v>
       </c>
       <c r="H43" s="3">
-        <v>2865300</v>
+        <v>2840400</v>
       </c>
       <c r="I43" s="3">
-        <v>2566800</v>
+        <v>2544500</v>
       </c>
       <c r="J43" s="3">
-        <v>2722100</v>
+        <v>2698400</v>
       </c>
       <c r="K43" s="3">
         <v>2577900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1844100</v>
+        <v>1828000</v>
       </c>
       <c r="E44" s="3">
-        <v>2408300</v>
+        <v>2387300</v>
       </c>
       <c r="F44" s="3">
-        <v>2412600</v>
+        <v>2391600</v>
       </c>
       <c r="G44" s="3">
-        <v>2228700</v>
+        <v>2209300</v>
       </c>
       <c r="H44" s="3">
-        <v>1871100</v>
+        <v>1854800</v>
       </c>
       <c r="I44" s="3">
-        <v>1763800</v>
+        <v>1748500</v>
       </c>
       <c r="J44" s="3">
-        <v>1842700</v>
+        <v>1826700</v>
       </c>
       <c r="K44" s="3">
         <v>1424100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>257800</v>
+        <v>255500</v>
       </c>
       <c r="E45" s="3">
-        <v>327500</v>
+        <v>324600</v>
       </c>
       <c r="F45" s="3">
-        <v>418300</v>
+        <v>414700</v>
       </c>
       <c r="G45" s="3">
-        <v>596600</v>
+        <v>591400</v>
       </c>
       <c r="H45" s="3">
-        <v>648100</v>
+        <v>642500</v>
       </c>
       <c r="I45" s="3">
-        <v>652400</v>
+        <v>646700</v>
       </c>
       <c r="J45" s="3">
-        <v>599800</v>
+        <v>594500</v>
       </c>
       <c r="K45" s="3">
         <v>631000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5593300</v>
+        <v>5544600</v>
       </c>
       <c r="E46" s="3">
-        <v>6072300</v>
+        <v>6019500</v>
       </c>
       <c r="F46" s="3">
-        <v>6728900</v>
+        <v>6670400</v>
       </c>
       <c r="G46" s="3">
-        <v>6267400</v>
+        <v>6212900</v>
       </c>
       <c r="H46" s="3">
-        <v>5679900</v>
+        <v>5630500</v>
       </c>
       <c r="I46" s="3">
-        <v>5301700</v>
+        <v>5255500</v>
       </c>
       <c r="J46" s="3">
-        <v>5496300</v>
+        <v>5448500</v>
       </c>
       <c r="K46" s="3">
         <v>5042800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1142300</v>
+        <v>1132400</v>
       </c>
       <c r="E47" s="3">
-        <v>998300</v>
+        <v>989600</v>
       </c>
       <c r="F47" s="3">
-        <v>1064200</v>
+        <v>1054900</v>
       </c>
       <c r="G47" s="3">
-        <v>2152300</v>
+        <v>2133600</v>
       </c>
       <c r="H47" s="3">
-        <v>999200</v>
+        <v>990500</v>
       </c>
       <c r="I47" s="3">
-        <v>943400</v>
+        <v>935100</v>
       </c>
       <c r="J47" s="3">
-        <v>1151400</v>
+        <v>1141400</v>
       </c>
       <c r="K47" s="3">
         <v>910100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3998400</v>
+        <v>3963600</v>
       </c>
       <c r="E48" s="3">
-        <v>3999600</v>
+        <v>3964800</v>
       </c>
       <c r="F48" s="3">
-        <v>3984700</v>
+        <v>3950000</v>
       </c>
       <c r="G48" s="3">
-        <v>4471000</v>
+        <v>4432100</v>
       </c>
       <c r="H48" s="3">
-        <v>3906400</v>
+        <v>3872400</v>
       </c>
       <c r="I48" s="3">
-        <v>3661300</v>
+        <v>3629400</v>
       </c>
       <c r="J48" s="3">
-        <v>3341400</v>
+        <v>3312300</v>
       </c>
       <c r="K48" s="3">
         <v>3003400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>247400</v>
+        <v>245200</v>
       </c>
       <c r="E49" s="3">
-        <v>247200</v>
+        <v>245100</v>
       </c>
       <c r="F49" s="3">
-        <v>217100</v>
+        <v>215200</v>
       </c>
       <c r="G49" s="3">
-        <v>389000</v>
+        <v>385600</v>
       </c>
       <c r="H49" s="3">
-        <v>194900</v>
+        <v>193200</v>
       </c>
       <c r="I49" s="3">
-        <v>201300</v>
+        <v>199500</v>
       </c>
       <c r="J49" s="3">
-        <v>187100</v>
+        <v>185500</v>
       </c>
       <c r="K49" s="3">
         <v>161100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>335900</v>
+        <v>333000</v>
       </c>
       <c r="E52" s="3">
-        <v>400500</v>
+        <v>397000</v>
       </c>
       <c r="F52" s="3">
-        <v>373300</v>
+        <v>370000</v>
       </c>
       <c r="G52" s="3">
-        <v>353700</v>
+        <v>350600</v>
       </c>
       <c r="H52" s="3">
-        <v>177500</v>
+        <v>176000</v>
       </c>
       <c r="I52" s="3">
-        <v>184200</v>
+        <v>182600</v>
       </c>
       <c r="J52" s="3">
-        <v>155200</v>
+        <v>153800</v>
       </c>
       <c r="K52" s="3">
         <v>128900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11317400</v>
+        <v>11218900</v>
       </c>
       <c r="E54" s="3">
-        <v>11718000</v>
+        <v>11616000</v>
       </c>
       <c r="F54" s="3">
-        <v>12368100</v>
+        <v>12260400</v>
       </c>
       <c r="G54" s="3">
-        <v>11819100</v>
+        <v>11716200</v>
       </c>
       <c r="H54" s="3">
-        <v>10958000</v>
+        <v>10862600</v>
       </c>
       <c r="I54" s="3">
-        <v>10291800</v>
+        <v>10202200</v>
       </c>
       <c r="J54" s="3">
-        <v>10331400</v>
+        <v>10241400</v>
       </c>
       <c r="K54" s="3">
         <v>9246300</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2107500</v>
+        <v>2089200</v>
       </c>
       <c r="E57" s="3">
-        <v>2198500</v>
+        <v>2179400</v>
       </c>
       <c r="F57" s="3">
-        <v>2595600</v>
+        <v>2573000</v>
       </c>
       <c r="G57" s="3">
-        <v>2821400</v>
+        <v>2796900</v>
       </c>
       <c r="H57" s="3">
-        <v>2438200</v>
+        <v>2416900</v>
       </c>
       <c r="I57" s="3">
-        <v>2330300</v>
+        <v>2310000</v>
       </c>
       <c r="J57" s="3">
-        <v>2415600</v>
+        <v>2394600</v>
       </c>
       <c r="K57" s="3">
         <v>2267000</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1523000</v>
+        <v>1509800</v>
       </c>
       <c r="E58" s="3">
-        <v>1768600</v>
+        <v>1753200</v>
       </c>
       <c r="F58" s="3">
-        <v>1866200</v>
+        <v>1850000</v>
       </c>
       <c r="G58" s="3">
-        <v>1572000</v>
+        <v>1558300</v>
       </c>
       <c r="H58" s="3">
-        <v>1443700</v>
+        <v>1431200</v>
       </c>
       <c r="I58" s="3">
-        <v>1047700</v>
+        <v>1038500</v>
       </c>
       <c r="J58" s="3">
-        <v>1170600</v>
+        <v>1160400</v>
       </c>
       <c r="K58" s="3">
         <v>1173300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1205300</v>
+        <v>1194800</v>
       </c>
       <c r="E59" s="3">
-        <v>1263900</v>
+        <v>1252900</v>
       </c>
       <c r="F59" s="3">
-        <v>1445200</v>
+        <v>1432600</v>
       </c>
       <c r="G59" s="3">
-        <v>1464000</v>
+        <v>1451200</v>
       </c>
       <c r="H59" s="3">
-        <v>1274900</v>
+        <v>1263800</v>
       </c>
       <c r="I59" s="3">
-        <v>1376600</v>
+        <v>1364600</v>
       </c>
       <c r="J59" s="3">
-        <v>1322500</v>
+        <v>1311000</v>
       </c>
       <c r="K59" s="3">
         <v>1299600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4835900</v>
+        <v>4793800</v>
       </c>
       <c r="E60" s="3">
-        <v>5231000</v>
+        <v>5185500</v>
       </c>
       <c r="F60" s="3">
-        <v>5907000</v>
+        <v>5855600</v>
       </c>
       <c r="G60" s="3">
-        <v>5789500</v>
+        <v>5739100</v>
       </c>
       <c r="H60" s="3">
-        <v>5156800</v>
+        <v>5111900</v>
       </c>
       <c r="I60" s="3">
-        <v>4754500</v>
+        <v>4713200</v>
       </c>
       <c r="J60" s="3">
-        <v>4908800</v>
+        <v>4866000</v>
       </c>
       <c r="K60" s="3">
         <v>4739900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>150800</v>
+        <v>149500</v>
       </c>
       <c r="E61" s="3">
-        <v>195200</v>
+        <v>193500</v>
       </c>
       <c r="F61" s="3">
-        <v>364000</v>
+        <v>360800</v>
       </c>
       <c r="G61" s="3">
-        <v>284100</v>
+        <v>281600</v>
       </c>
       <c r="H61" s="3">
-        <v>350100</v>
+        <v>347000</v>
       </c>
       <c r="I61" s="3">
-        <v>414800</v>
+        <v>411200</v>
       </c>
       <c r="J61" s="3">
-        <v>375500</v>
+        <v>372300</v>
       </c>
       <c r="K61" s="3">
         <v>298600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>772000</v>
+        <v>765200</v>
       </c>
       <c r="E62" s="3">
-        <v>845000</v>
+        <v>837700</v>
       </c>
       <c r="F62" s="3">
-        <v>615600</v>
+        <v>610200</v>
       </c>
       <c r="G62" s="3">
-        <v>664800</v>
+        <v>659000</v>
       </c>
       <c r="H62" s="3">
-        <v>737400</v>
+        <v>731000</v>
       </c>
       <c r="I62" s="3">
-        <v>767400</v>
+        <v>760700</v>
       </c>
       <c r="J62" s="3">
-        <v>770300</v>
+        <v>763600</v>
       </c>
       <c r="K62" s="3">
         <v>730700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6223900</v>
+        <v>6169700</v>
       </c>
       <c r="E66" s="3">
-        <v>6735300</v>
+        <v>6676600</v>
       </c>
       <c r="F66" s="3">
-        <v>7381100</v>
+        <v>7316900</v>
       </c>
       <c r="G66" s="3">
-        <v>7202100</v>
+        <v>7139500</v>
       </c>
       <c r="H66" s="3">
-        <v>6681500</v>
+        <v>6623400</v>
       </c>
       <c r="I66" s="3">
-        <v>6344500</v>
+        <v>6289300</v>
       </c>
       <c r="J66" s="3">
-        <v>6481600</v>
+        <v>6425100</v>
       </c>
       <c r="K66" s="3">
         <v>6129300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3459100</v>
+        <v>3429000</v>
       </c>
       <c r="E72" s="3">
-        <v>3591300</v>
+        <v>3560000</v>
       </c>
       <c r="F72" s="3">
-        <v>3449800</v>
+        <v>3419800</v>
       </c>
       <c r="G72" s="3">
-        <v>3106400</v>
+        <v>3079400</v>
       </c>
       <c r="H72" s="3">
-        <v>2783000</v>
+        <v>2758800</v>
       </c>
       <c r="I72" s="3">
-        <v>2482300</v>
+        <v>2460700</v>
       </c>
       <c r="J72" s="3">
-        <v>2105300</v>
+        <v>2086900</v>
       </c>
       <c r="K72" s="3">
         <v>1623600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5093500</v>
+        <v>5049200</v>
       </c>
       <c r="E76" s="3">
-        <v>4982700</v>
+        <v>4939300</v>
       </c>
       <c r="F76" s="3">
-        <v>4987000</v>
+        <v>4943500</v>
       </c>
       <c r="G76" s="3">
-        <v>4616900</v>
+        <v>4576700</v>
       </c>
       <c r="H76" s="3">
-        <v>4276500</v>
+        <v>4239300</v>
       </c>
       <c r="I76" s="3">
-        <v>3947300</v>
+        <v>3912900</v>
       </c>
       <c r="J76" s="3">
-        <v>3849800</v>
+        <v>3816300</v>
       </c>
       <c r="K76" s="3">
         <v>3116900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-68800</v>
+        <v>-68200</v>
       </c>
       <c r="E81" s="3">
-        <v>289200</v>
+        <v>286700</v>
       </c>
       <c r="F81" s="3">
-        <v>504600</v>
+        <v>500200</v>
       </c>
       <c r="G81" s="3">
-        <v>472000</v>
+        <v>467900</v>
       </c>
       <c r="H81" s="3">
-        <v>454100</v>
+        <v>450100</v>
       </c>
       <c r="I81" s="3">
-        <v>598500</v>
+        <v>593300</v>
       </c>
       <c r="J81" s="3">
-        <v>684700</v>
+        <v>678700</v>
       </c>
       <c r="K81" s="3">
         <v>816400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>503200</v>
+        <v>498800</v>
       </c>
       <c r="E83" s="3">
-        <v>533100</v>
+        <v>528500</v>
       </c>
       <c r="F83" s="3">
-        <v>538000</v>
+        <v>533300</v>
       </c>
       <c r="G83" s="3">
-        <v>538200</v>
+        <v>533500</v>
       </c>
       <c r="H83" s="3">
-        <v>469600</v>
+        <v>465500</v>
       </c>
       <c r="I83" s="3">
-        <v>453200</v>
+        <v>449300</v>
       </c>
       <c r="J83" s="3">
-        <v>404000</v>
+        <v>400400</v>
       </c>
       <c r="K83" s="3">
         <v>407800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>996500</v>
+        <v>987800</v>
       </c>
       <c r="E89" s="3">
-        <v>874700</v>
+        <v>867100</v>
       </c>
       <c r="F89" s="3">
-        <v>440200</v>
+        <v>436400</v>
       </c>
       <c r="G89" s="3">
-        <v>794700</v>
+        <v>787800</v>
       </c>
       <c r="H89" s="3">
-        <v>696200</v>
+        <v>690200</v>
       </c>
       <c r="I89" s="3">
-        <v>1023400</v>
+        <v>1014500</v>
       </c>
       <c r="J89" s="3">
-        <v>714600</v>
+        <v>708400</v>
       </c>
       <c r="K89" s="3">
         <v>1309300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-463300</v>
+        <v>-459200</v>
       </c>
       <c r="E91" s="3">
-        <v>-554900</v>
+        <v>-550100</v>
       </c>
       <c r="F91" s="3">
-        <v>-541600</v>
+        <v>-536900</v>
       </c>
       <c r="G91" s="3">
-        <v>-552200</v>
+        <v>-547400</v>
       </c>
       <c r="H91" s="3">
-        <v>-807600</v>
+        <v>-800600</v>
       </c>
       <c r="I91" s="3">
-        <v>-727000</v>
+        <v>-720700</v>
       </c>
       <c r="J91" s="3">
-        <v>-621900</v>
+        <v>-616500</v>
       </c>
       <c r="K91" s="3">
         <v>-531200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-516600</v>
+        <v>-512100</v>
       </c>
       <c r="E94" s="3">
-        <v>-615800</v>
+        <v>-610400</v>
       </c>
       <c r="F94" s="3">
-        <v>-664300</v>
+        <v>-658500</v>
       </c>
       <c r="G94" s="3">
-        <v>-577000</v>
+        <v>-571900</v>
       </c>
       <c r="H94" s="3">
-        <v>-850800</v>
+        <v>-843400</v>
       </c>
       <c r="I94" s="3">
-        <v>-805800</v>
+        <v>-798800</v>
       </c>
       <c r="J94" s="3">
-        <v>-689400</v>
+        <v>-683400</v>
       </c>
       <c r="K94" s="3">
         <v>-566200</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-63300</v>
+        <v>-62800</v>
       </c>
       <c r="E96" s="3">
-        <v>-147700</v>
+        <v>-146400</v>
       </c>
       <c r="F96" s="3">
-        <v>-153000</v>
+        <v>-151700</v>
       </c>
       <c r="G96" s="3">
-        <v>-147700</v>
+        <v>-146400</v>
       </c>
       <c r="H96" s="3">
-        <v>-152900</v>
+        <v>-151500</v>
       </c>
       <c r="I96" s="3">
-        <v>-221300</v>
+        <v>-219400</v>
       </c>
       <c r="J96" s="3">
-        <v>-200000</v>
+        <v>-198300</v>
       </c>
       <c r="K96" s="3">
         <v>-172900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-353000</v>
+        <v>-349900</v>
       </c>
       <c r="E100" s="3">
-        <v>-259600</v>
+        <v>-257300</v>
       </c>
       <c r="F100" s="3">
-        <v>192100</v>
+        <v>190400</v>
       </c>
       <c r="G100" s="3">
-        <v>-86800</v>
+        <v>-86100</v>
       </c>
       <c r="H100" s="3">
-        <v>160500</v>
+        <v>159100</v>
       </c>
       <c r="I100" s="3">
-        <v>-203300</v>
+        <v>-201500</v>
       </c>
       <c r="J100" s="3">
-        <v>-240500</v>
+        <v>-238400</v>
       </c>
       <c r="K100" s="3">
         <v>-455400</v>
@@ -3711,10 +3711,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="E101" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="F101" s="3">
         <v>-3800</v>
@@ -3723,13 +3723,13 @@
         <v>-7200</v>
       </c>
       <c r="H101" s="3">
-        <v>-31800</v>
+        <v>-31500</v>
       </c>
       <c r="I101" s="3">
-        <v>-29100</v>
+        <v>-28900</v>
       </c>
       <c r="J101" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="K101" s="3">
         <v>5000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>136500</v>
+        <v>135400</v>
       </c>
       <c r="E102" s="3">
-        <v>-8200</v>
+        <v>-8100</v>
       </c>
       <c r="F102" s="3">
-        <v>-35800</v>
+        <v>-35500</v>
       </c>
       <c r="G102" s="3">
-        <v>123600</v>
+        <v>122600</v>
       </c>
       <c r="H102" s="3">
-        <v>-26000</v>
+        <v>-25700</v>
       </c>
       <c r="I102" s="3">
-        <v>-14800</v>
+        <v>-14700</v>
       </c>
       <c r="J102" s="3">
-        <v>-201700</v>
+        <v>-200000</v>
       </c>
       <c r="K102" s="3">
         <v>292800</v>

--- a/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13650800</v>
+        <v>13201300</v>
       </c>
       <c r="E8" s="3">
-        <v>16540100</v>
+        <v>15995400</v>
       </c>
       <c r="F8" s="3">
-        <v>18049900</v>
+        <v>17455500</v>
       </c>
       <c r="G8" s="3">
-        <v>16744000</v>
+        <v>16192600</v>
       </c>
       <c r="H8" s="3">
-        <v>15338700</v>
+        <v>14833600</v>
       </c>
       <c r="I8" s="3">
-        <v>15901900</v>
+        <v>15378200</v>
       </c>
       <c r="J8" s="3">
-        <v>15353100</v>
+        <v>14847500</v>
       </c>
       <c r="K8" s="3">
         <v>15568100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11711900</v>
+        <v>11326200</v>
       </c>
       <c r="E9" s="3">
-        <v>14051500</v>
+        <v>13588800</v>
       </c>
       <c r="F9" s="3">
-        <v>15253700</v>
+        <v>14751400</v>
       </c>
       <c r="G9" s="3">
-        <v>14051600</v>
+        <v>13588900</v>
       </c>
       <c r="H9" s="3">
-        <v>12855000</v>
+        <v>12431700</v>
       </c>
       <c r="I9" s="3">
-        <v>13218500</v>
+        <v>12783200</v>
       </c>
       <c r="J9" s="3">
-        <v>12660800</v>
+        <v>12243900</v>
       </c>
       <c r="K9" s="3">
         <v>12911000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1938900</v>
+        <v>1875100</v>
       </c>
       <c r="E10" s="3">
-        <v>2488500</v>
+        <v>2406600</v>
       </c>
       <c r="F10" s="3">
-        <v>2796200</v>
+        <v>2704100</v>
       </c>
       <c r="G10" s="3">
-        <v>2692400</v>
+        <v>2603700</v>
       </c>
       <c r="H10" s="3">
-        <v>2483700</v>
+        <v>2401900</v>
       </c>
       <c r="I10" s="3">
-        <v>2683400</v>
+        <v>2595000</v>
       </c>
       <c r="J10" s="3">
-        <v>2692300</v>
+        <v>2603600</v>
       </c>
       <c r="K10" s="3">
         <v>2657000</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>135500</v>
+        <v>131000</v>
       </c>
       <c r="E14" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F14" s="3">
-        <v>17300</v>
+        <v>16700</v>
       </c>
       <c r="G14" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="H14" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="I14" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="J14" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="K14" s="3">
         <v>-13700</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13674700</v>
+        <v>13224400</v>
       </c>
       <c r="E17" s="3">
-        <v>16042800</v>
+        <v>15514500</v>
       </c>
       <c r="F17" s="3">
-        <v>17277200</v>
+        <v>16708300</v>
       </c>
       <c r="G17" s="3">
-        <v>16026700</v>
+        <v>15498900</v>
       </c>
       <c r="H17" s="3">
-        <v>14694600</v>
+        <v>14210700</v>
       </c>
       <c r="I17" s="3">
-        <v>15000600</v>
+        <v>14506600</v>
       </c>
       <c r="J17" s="3">
-        <v>14410100</v>
+        <v>13935600</v>
       </c>
       <c r="K17" s="3">
         <v>14526800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-23900</v>
+        <v>-23100</v>
       </c>
       <c r="E18" s="3">
-        <v>497300</v>
+        <v>480900</v>
       </c>
       <c r="F18" s="3">
-        <v>772700</v>
+        <v>747300</v>
       </c>
       <c r="G18" s="3">
-        <v>717300</v>
+        <v>693700</v>
       </c>
       <c r="H18" s="3">
-        <v>644100</v>
+        <v>622800</v>
       </c>
       <c r="I18" s="3">
-        <v>901200</v>
+        <v>871600</v>
       </c>
       <c r="J18" s="3">
-        <v>943000</v>
+        <v>911900</v>
       </c>
       <c r="K18" s="3">
         <v>1041300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>44100</v>
+        <v>42700</v>
       </c>
       <c r="E20" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="F20" s="3">
-        <v>32700</v>
+        <v>31600</v>
       </c>
       <c r="G20" s="3">
-        <v>70500</v>
+        <v>68200</v>
       </c>
       <c r="H20" s="3">
-        <v>55800</v>
+        <v>53900</v>
       </c>
       <c r="I20" s="3">
-        <v>41600</v>
+        <v>40200</v>
       </c>
       <c r="J20" s="3">
-        <v>55700</v>
+        <v>53900</v>
       </c>
       <c r="K20" s="3">
         <v>36300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>519100</v>
+        <v>503100</v>
       </c>
       <c r="E21" s="3">
-        <v>1052300</v>
+        <v>1018800</v>
       </c>
       <c r="F21" s="3">
-        <v>1338700</v>
+        <v>1295800</v>
       </c>
       <c r="G21" s="3">
-        <v>1321300</v>
+        <v>1279000</v>
       </c>
       <c r="H21" s="3">
-        <v>1165300</v>
+        <v>1128000</v>
       </c>
       <c r="I21" s="3">
-        <v>1392100</v>
+        <v>1347300</v>
       </c>
       <c r="J21" s="3">
-        <v>1399200</v>
+        <v>1354000</v>
       </c>
       <c r="K21" s="3">
         <v>1487200</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>37400</v>
+        <v>36200</v>
       </c>
       <c r="E22" s="3">
-        <v>59500</v>
+        <v>57500</v>
       </c>
       <c r="F22" s="3">
-        <v>53600</v>
+        <v>51900</v>
       </c>
       <c r="G22" s="3">
-        <v>43300</v>
+        <v>41900</v>
       </c>
       <c r="H22" s="3">
-        <v>43200</v>
+        <v>41800</v>
       </c>
       <c r="I22" s="3">
-        <v>60300</v>
+        <v>58300</v>
       </c>
       <c r="J22" s="3">
-        <v>58200</v>
+        <v>56300</v>
       </c>
       <c r="K22" s="3">
         <v>47700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-17200</v>
+        <v>-16600</v>
       </c>
       <c r="E23" s="3">
-        <v>464400</v>
+        <v>449100</v>
       </c>
       <c r="F23" s="3">
-        <v>751800</v>
+        <v>727000</v>
       </c>
       <c r="G23" s="3">
-        <v>744500</v>
+        <v>720000</v>
       </c>
       <c r="H23" s="3">
-        <v>656600</v>
+        <v>635000</v>
       </c>
       <c r="I23" s="3">
-        <v>882600</v>
+        <v>853500</v>
       </c>
       <c r="J23" s="3">
-        <v>940500</v>
+        <v>909500</v>
       </c>
       <c r="K23" s="3">
         <v>1029900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40200</v>
+        <v>38900</v>
       </c>
       <c r="E24" s="3">
-        <v>147900</v>
+        <v>143000</v>
       </c>
       <c r="F24" s="3">
-        <v>196000</v>
+        <v>189500</v>
       </c>
       <c r="G24" s="3">
-        <v>215400</v>
+        <v>208300</v>
       </c>
       <c r="H24" s="3">
-        <v>156500</v>
+        <v>151300</v>
       </c>
       <c r="I24" s="3">
-        <v>262700</v>
+        <v>254100</v>
       </c>
       <c r="J24" s="3">
-        <v>219800</v>
+        <v>212500</v>
       </c>
       <c r="K24" s="3">
         <v>137000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-57400</v>
+        <v>-55500</v>
       </c>
       <c r="E26" s="3">
-        <v>316500</v>
+        <v>306100</v>
       </c>
       <c r="F26" s="3">
-        <v>555800</v>
+        <v>537500</v>
       </c>
       <c r="G26" s="3">
-        <v>529100</v>
+        <v>511700</v>
       </c>
       <c r="H26" s="3">
-        <v>500100</v>
+        <v>483700</v>
       </c>
       <c r="I26" s="3">
-        <v>619900</v>
+        <v>599500</v>
       </c>
       <c r="J26" s="3">
-        <v>720700</v>
+        <v>697000</v>
       </c>
       <c r="K26" s="3">
         <v>892900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-68200</v>
+        <v>-66000</v>
       </c>
       <c r="E27" s="3">
-        <v>286700</v>
+        <v>277200</v>
       </c>
       <c r="F27" s="3">
-        <v>500200</v>
+        <v>483700</v>
       </c>
       <c r="G27" s="3">
-        <v>467900</v>
+        <v>452500</v>
       </c>
       <c r="H27" s="3">
-        <v>450100</v>
+        <v>435300</v>
       </c>
       <c r="I27" s="3">
-        <v>593300</v>
+        <v>573800</v>
       </c>
       <c r="J27" s="3">
-        <v>678700</v>
+        <v>656300</v>
       </c>
       <c r="K27" s="3">
         <v>816400</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-44100</v>
+        <v>-42700</v>
       </c>
       <c r="E32" s="3">
-        <v>-26500</v>
+        <v>-25700</v>
       </c>
       <c r="F32" s="3">
-        <v>-32700</v>
+        <v>-31600</v>
       </c>
       <c r="G32" s="3">
-        <v>-70500</v>
+        <v>-68200</v>
       </c>
       <c r="H32" s="3">
-        <v>-55800</v>
+        <v>-53900</v>
       </c>
       <c r="I32" s="3">
-        <v>-41600</v>
+        <v>-40200</v>
       </c>
       <c r="J32" s="3">
-        <v>-55700</v>
+        <v>-53900</v>
       </c>
       <c r="K32" s="3">
         <v>-36300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-68200</v>
+        <v>-66000</v>
       </c>
       <c r="E33" s="3">
-        <v>286700</v>
+        <v>277200</v>
       </c>
       <c r="F33" s="3">
-        <v>500200</v>
+        <v>483700</v>
       </c>
       <c r="G33" s="3">
-        <v>467900</v>
+        <v>452500</v>
       </c>
       <c r="H33" s="3">
-        <v>450100</v>
+        <v>435300</v>
       </c>
       <c r="I33" s="3">
-        <v>593300</v>
+        <v>573800</v>
       </c>
       <c r="J33" s="3">
-        <v>678700</v>
+        <v>656300</v>
       </c>
       <c r="K33" s="3">
         <v>816400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-68200</v>
+        <v>-66000</v>
       </c>
       <c r="E35" s="3">
-        <v>286700</v>
+        <v>277200</v>
       </c>
       <c r="F35" s="3">
-        <v>500200</v>
+        <v>483700</v>
       </c>
       <c r="G35" s="3">
-        <v>467900</v>
+        <v>452500</v>
       </c>
       <c r="H35" s="3">
-        <v>450100</v>
+        <v>435300</v>
       </c>
       <c r="I35" s="3">
-        <v>593300</v>
+        <v>573800</v>
       </c>
       <c r="J35" s="3">
-        <v>678700</v>
+        <v>656300</v>
       </c>
       <c r="K35" s="3">
         <v>816400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>511900</v>
+        <v>495000</v>
       </c>
       <c r="E41" s="3">
-        <v>370300</v>
+        <v>358100</v>
       </c>
       <c r="F41" s="3">
-        <v>378000</v>
+        <v>365600</v>
       </c>
       <c r="G41" s="3">
-        <v>412000</v>
+        <v>398400</v>
       </c>
       <c r="H41" s="3">
-        <v>292800</v>
+        <v>283200</v>
       </c>
       <c r="I41" s="3">
-        <v>315900</v>
+        <v>305500</v>
       </c>
       <c r="J41" s="3">
-        <v>328900</v>
+        <v>318100</v>
       </c>
       <c r="K41" s="3">
         <v>409800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2949200</v>
+        <v>2852100</v>
       </c>
       <c r="E43" s="3">
-        <v>2937200</v>
+        <v>2840500</v>
       </c>
       <c r="F43" s="3">
-        <v>3486100</v>
+        <v>3371300</v>
       </c>
       <c r="G43" s="3">
-        <v>3274400</v>
+        <v>3166600</v>
       </c>
       <c r="H43" s="3">
-        <v>2840400</v>
+        <v>2746900</v>
       </c>
       <c r="I43" s="3">
-        <v>2544500</v>
+        <v>2460700</v>
       </c>
       <c r="J43" s="3">
-        <v>2698400</v>
+        <v>2609500</v>
       </c>
       <c r="K43" s="3">
         <v>2577900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1828000</v>
+        <v>1767800</v>
       </c>
       <c r="E44" s="3">
-        <v>2387300</v>
+        <v>2308700</v>
       </c>
       <c r="F44" s="3">
-        <v>2391600</v>
+        <v>2312800</v>
       </c>
       <c r="G44" s="3">
-        <v>2209300</v>
+        <v>2136600</v>
       </c>
       <c r="H44" s="3">
-        <v>1854800</v>
+        <v>1793700</v>
       </c>
       <c r="I44" s="3">
-        <v>1748500</v>
+        <v>1690900</v>
       </c>
       <c r="J44" s="3">
-        <v>1826700</v>
+        <v>1766500</v>
       </c>
       <c r="K44" s="3">
         <v>1424100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>255500</v>
+        <v>247100</v>
       </c>
       <c r="E45" s="3">
-        <v>324600</v>
+        <v>314000</v>
       </c>
       <c r="F45" s="3">
-        <v>414700</v>
+        <v>401000</v>
       </c>
       <c r="G45" s="3">
-        <v>591400</v>
+        <v>572000</v>
       </c>
       <c r="H45" s="3">
-        <v>642500</v>
+        <v>621300</v>
       </c>
       <c r="I45" s="3">
-        <v>646700</v>
+        <v>625400</v>
       </c>
       <c r="J45" s="3">
-        <v>594500</v>
+        <v>575000</v>
       </c>
       <c r="K45" s="3">
         <v>631000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5544600</v>
+        <v>5362000</v>
       </c>
       <c r="E46" s="3">
-        <v>6019500</v>
+        <v>5821200</v>
       </c>
       <c r="F46" s="3">
-        <v>6670400</v>
+        <v>6450700</v>
       </c>
       <c r="G46" s="3">
-        <v>6212900</v>
+        <v>6008300</v>
       </c>
       <c r="H46" s="3">
-        <v>5630500</v>
+        <v>5445100</v>
       </c>
       <c r="I46" s="3">
-        <v>5255500</v>
+        <v>5082400</v>
       </c>
       <c r="J46" s="3">
-        <v>5448500</v>
+        <v>5269100</v>
       </c>
       <c r="K46" s="3">
         <v>5042800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1132400</v>
+        <v>1095100</v>
       </c>
       <c r="E47" s="3">
-        <v>989600</v>
+        <v>957000</v>
       </c>
       <c r="F47" s="3">
-        <v>1054900</v>
+        <v>1020200</v>
       </c>
       <c r="G47" s="3">
-        <v>2133600</v>
+        <v>2063300</v>
       </c>
       <c r="H47" s="3">
-        <v>990500</v>
+        <v>957900</v>
       </c>
       <c r="I47" s="3">
-        <v>935100</v>
+        <v>904300</v>
       </c>
       <c r="J47" s="3">
-        <v>1141400</v>
+        <v>1103800</v>
       </c>
       <c r="K47" s="3">
         <v>910100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3963600</v>
+        <v>3833100</v>
       </c>
       <c r="E48" s="3">
-        <v>3964800</v>
+        <v>3834300</v>
       </c>
       <c r="F48" s="3">
-        <v>3950000</v>
+        <v>3819900</v>
       </c>
       <c r="G48" s="3">
-        <v>4432100</v>
+        <v>4286100</v>
       </c>
       <c r="H48" s="3">
-        <v>3872400</v>
+        <v>3744900</v>
       </c>
       <c r="I48" s="3">
-        <v>3629400</v>
+        <v>3509900</v>
       </c>
       <c r="J48" s="3">
-        <v>3312300</v>
+        <v>3203200</v>
       </c>
       <c r="K48" s="3">
         <v>3003400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>245200</v>
+        <v>237100</v>
       </c>
       <c r="E49" s="3">
-        <v>245100</v>
+        <v>237000</v>
       </c>
       <c r="F49" s="3">
-        <v>215200</v>
+        <v>208100</v>
       </c>
       <c r="G49" s="3">
-        <v>385600</v>
+        <v>372900</v>
       </c>
       <c r="H49" s="3">
-        <v>193200</v>
+        <v>186900</v>
       </c>
       <c r="I49" s="3">
-        <v>199500</v>
+        <v>193000</v>
       </c>
       <c r="J49" s="3">
-        <v>185500</v>
+        <v>179400</v>
       </c>
       <c r="K49" s="3">
         <v>161100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>333000</v>
+        <v>322100</v>
       </c>
       <c r="E52" s="3">
-        <v>397000</v>
+        <v>383900</v>
       </c>
       <c r="F52" s="3">
-        <v>370000</v>
+        <v>357800</v>
       </c>
       <c r="G52" s="3">
-        <v>350600</v>
+        <v>339100</v>
       </c>
       <c r="H52" s="3">
-        <v>176000</v>
+        <v>170200</v>
       </c>
       <c r="I52" s="3">
-        <v>182600</v>
+        <v>176600</v>
       </c>
       <c r="J52" s="3">
-        <v>153800</v>
+        <v>148700</v>
       </c>
       <c r="K52" s="3">
         <v>128900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11218900</v>
+        <v>10849500</v>
       </c>
       <c r="E54" s="3">
-        <v>11616000</v>
+        <v>11233500</v>
       </c>
       <c r="F54" s="3">
-        <v>12260400</v>
+        <v>11856700</v>
       </c>
       <c r="G54" s="3">
-        <v>11716200</v>
+        <v>11330400</v>
       </c>
       <c r="H54" s="3">
-        <v>10862600</v>
+        <v>10504900</v>
       </c>
       <c r="I54" s="3">
-        <v>10202200</v>
+        <v>9866200</v>
       </c>
       <c r="J54" s="3">
-        <v>10241400</v>
+        <v>9904200</v>
       </c>
       <c r="K54" s="3">
         <v>9246300</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2089200</v>
+        <v>2020400</v>
       </c>
       <c r="E57" s="3">
-        <v>2179400</v>
+        <v>2107600</v>
       </c>
       <c r="F57" s="3">
-        <v>2573000</v>
+        <v>2488200</v>
       </c>
       <c r="G57" s="3">
-        <v>2796900</v>
+        <v>2704800</v>
       </c>
       <c r="H57" s="3">
-        <v>2416900</v>
+        <v>2337300</v>
       </c>
       <c r="I57" s="3">
-        <v>2310000</v>
+        <v>2233900</v>
       </c>
       <c r="J57" s="3">
-        <v>2394600</v>
+        <v>2315700</v>
       </c>
       <c r="K57" s="3">
         <v>2267000</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1509800</v>
+        <v>1460000</v>
       </c>
       <c r="E58" s="3">
-        <v>1753200</v>
+        <v>1695400</v>
       </c>
       <c r="F58" s="3">
-        <v>1850000</v>
+        <v>1789100</v>
       </c>
       <c r="G58" s="3">
-        <v>1558300</v>
+        <v>1507000</v>
       </c>
       <c r="H58" s="3">
-        <v>1431200</v>
+        <v>1384000</v>
       </c>
       <c r="I58" s="3">
-        <v>1038500</v>
+        <v>1004300</v>
       </c>
       <c r="J58" s="3">
-        <v>1160400</v>
+        <v>1122200</v>
       </c>
       <c r="K58" s="3">
         <v>1173300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1194800</v>
+        <v>1155500</v>
       </c>
       <c r="E59" s="3">
-        <v>1252900</v>
+        <v>1211700</v>
       </c>
       <c r="F59" s="3">
-        <v>1432600</v>
+        <v>1385500</v>
       </c>
       <c r="G59" s="3">
-        <v>1451200</v>
+        <v>1403400</v>
       </c>
       <c r="H59" s="3">
-        <v>1263800</v>
+        <v>1222200</v>
       </c>
       <c r="I59" s="3">
-        <v>1364600</v>
+        <v>1319700</v>
       </c>
       <c r="J59" s="3">
-        <v>1311000</v>
+        <v>1267800</v>
       </c>
       <c r="K59" s="3">
         <v>1299600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4793800</v>
+        <v>4635900</v>
       </c>
       <c r="E60" s="3">
-        <v>5185500</v>
+        <v>5014700</v>
       </c>
       <c r="F60" s="3">
-        <v>5855600</v>
+        <v>5662800</v>
       </c>
       <c r="G60" s="3">
-        <v>5739100</v>
+        <v>5550100</v>
       </c>
       <c r="H60" s="3">
-        <v>5111900</v>
+        <v>4943600</v>
       </c>
       <c r="I60" s="3">
-        <v>4713200</v>
+        <v>4558000</v>
       </c>
       <c r="J60" s="3">
-        <v>4866000</v>
+        <v>4705800</v>
       </c>
       <c r="K60" s="3">
         <v>4739900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>149500</v>
+        <v>144600</v>
       </c>
       <c r="E61" s="3">
-        <v>193500</v>
+        <v>187100</v>
       </c>
       <c r="F61" s="3">
-        <v>360800</v>
+        <v>349000</v>
       </c>
       <c r="G61" s="3">
-        <v>281600</v>
+        <v>272300</v>
       </c>
       <c r="H61" s="3">
-        <v>347000</v>
+        <v>335600</v>
       </c>
       <c r="I61" s="3">
-        <v>411200</v>
+        <v>397600</v>
       </c>
       <c r="J61" s="3">
-        <v>372300</v>
+        <v>360000</v>
       </c>
       <c r="K61" s="3">
         <v>298600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>765200</v>
+        <v>740000</v>
       </c>
       <c r="E62" s="3">
-        <v>837700</v>
+        <v>810100</v>
       </c>
       <c r="F62" s="3">
-        <v>610200</v>
+        <v>590100</v>
       </c>
       <c r="G62" s="3">
-        <v>659000</v>
+        <v>637300</v>
       </c>
       <c r="H62" s="3">
-        <v>731000</v>
+        <v>706900</v>
       </c>
       <c r="I62" s="3">
-        <v>760700</v>
+        <v>735600</v>
       </c>
       <c r="J62" s="3">
-        <v>763600</v>
+        <v>738500</v>
       </c>
       <c r="K62" s="3">
         <v>730700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6169700</v>
+        <v>5966600</v>
       </c>
       <c r="E66" s="3">
-        <v>6676600</v>
+        <v>6456800</v>
       </c>
       <c r="F66" s="3">
-        <v>7316900</v>
+        <v>7075900</v>
       </c>
       <c r="G66" s="3">
-        <v>7139500</v>
+        <v>6904300</v>
       </c>
       <c r="H66" s="3">
-        <v>6623400</v>
+        <v>6405200</v>
       </c>
       <c r="I66" s="3">
-        <v>6289300</v>
+        <v>6082200</v>
       </c>
       <c r="J66" s="3">
-        <v>6425100</v>
+        <v>6213600</v>
       </c>
       <c r="K66" s="3">
         <v>6129300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3429000</v>
+        <v>3316100</v>
       </c>
       <c r="E72" s="3">
-        <v>3560000</v>
+        <v>3442800</v>
       </c>
       <c r="F72" s="3">
-        <v>3419800</v>
+        <v>3307200</v>
       </c>
       <c r="G72" s="3">
-        <v>3079400</v>
+        <v>2977900</v>
       </c>
       <c r="H72" s="3">
-        <v>2758800</v>
+        <v>2668000</v>
       </c>
       <c r="I72" s="3">
-        <v>2460700</v>
+        <v>2379600</v>
       </c>
       <c r="J72" s="3">
-        <v>2086900</v>
+        <v>2018200</v>
       </c>
       <c r="K72" s="3">
         <v>1623600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5049200</v>
+        <v>4882900</v>
       </c>
       <c r="E76" s="3">
-        <v>4939300</v>
+        <v>4776700</v>
       </c>
       <c r="F76" s="3">
-        <v>4943500</v>
+        <v>4780700</v>
       </c>
       <c r="G76" s="3">
-        <v>4576700</v>
+        <v>4426000</v>
       </c>
       <c r="H76" s="3">
-        <v>4239300</v>
+        <v>4099700</v>
       </c>
       <c r="I76" s="3">
-        <v>3912900</v>
+        <v>3784000</v>
       </c>
       <c r="J76" s="3">
-        <v>3816300</v>
+        <v>3690600</v>
       </c>
       <c r="K76" s="3">
         <v>3116900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-68200</v>
+        <v>-66000</v>
       </c>
       <c r="E81" s="3">
-        <v>286700</v>
+        <v>277200</v>
       </c>
       <c r="F81" s="3">
-        <v>500200</v>
+        <v>483700</v>
       </c>
       <c r="G81" s="3">
-        <v>467900</v>
+        <v>452500</v>
       </c>
       <c r="H81" s="3">
-        <v>450100</v>
+        <v>435300</v>
       </c>
       <c r="I81" s="3">
-        <v>593300</v>
+        <v>573800</v>
       </c>
       <c r="J81" s="3">
-        <v>678700</v>
+        <v>656300</v>
       </c>
       <c r="K81" s="3">
         <v>816400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>498800</v>
+        <v>482400</v>
       </c>
       <c r="E83" s="3">
-        <v>528500</v>
+        <v>511100</v>
       </c>
       <c r="F83" s="3">
-        <v>533300</v>
+        <v>515700</v>
       </c>
       <c r="G83" s="3">
-        <v>533500</v>
+        <v>515900</v>
       </c>
       <c r="H83" s="3">
-        <v>465500</v>
+        <v>450200</v>
       </c>
       <c r="I83" s="3">
-        <v>449300</v>
+        <v>434500</v>
       </c>
       <c r="J83" s="3">
-        <v>400400</v>
+        <v>387300</v>
       </c>
       <c r="K83" s="3">
         <v>407800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>987800</v>
+        <v>955300</v>
       </c>
       <c r="E89" s="3">
-        <v>867100</v>
+        <v>838500</v>
       </c>
       <c r="F89" s="3">
-        <v>436400</v>
+        <v>422000</v>
       </c>
       <c r="G89" s="3">
-        <v>787800</v>
+        <v>761800</v>
       </c>
       <c r="H89" s="3">
-        <v>690200</v>
+        <v>667400</v>
       </c>
       <c r="I89" s="3">
-        <v>1014500</v>
+        <v>981100</v>
       </c>
       <c r="J89" s="3">
-        <v>708400</v>
+        <v>685000</v>
       </c>
       <c r="K89" s="3">
         <v>1309300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-459200</v>
+        <v>-444100</v>
       </c>
       <c r="E91" s="3">
-        <v>-550100</v>
+        <v>-532000</v>
       </c>
       <c r="F91" s="3">
-        <v>-536900</v>
+        <v>-519200</v>
       </c>
       <c r="G91" s="3">
-        <v>-547400</v>
+        <v>-529400</v>
       </c>
       <c r="H91" s="3">
-        <v>-800600</v>
+        <v>-774200</v>
       </c>
       <c r="I91" s="3">
-        <v>-720700</v>
+        <v>-696900</v>
       </c>
       <c r="J91" s="3">
-        <v>-616500</v>
+        <v>-596200</v>
       </c>
       <c r="K91" s="3">
         <v>-531200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-512100</v>
+        <v>-495200</v>
       </c>
       <c r="E94" s="3">
-        <v>-610400</v>
+        <v>-590300</v>
       </c>
       <c r="F94" s="3">
-        <v>-658500</v>
+        <v>-636800</v>
       </c>
       <c r="G94" s="3">
-        <v>-571900</v>
+        <v>-553100</v>
       </c>
       <c r="H94" s="3">
-        <v>-843400</v>
+        <v>-815700</v>
       </c>
       <c r="I94" s="3">
-        <v>-798800</v>
+        <v>-772500</v>
       </c>
       <c r="J94" s="3">
-        <v>-683400</v>
+        <v>-660800</v>
       </c>
       <c r="K94" s="3">
         <v>-566200</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-62800</v>
+        <v>-60700</v>
       </c>
       <c r="E96" s="3">
-        <v>-146400</v>
+        <v>-141600</v>
       </c>
       <c r="F96" s="3">
-        <v>-151700</v>
+        <v>-146700</v>
       </c>
       <c r="G96" s="3">
-        <v>-146400</v>
+        <v>-141600</v>
       </c>
       <c r="H96" s="3">
-        <v>-151500</v>
+        <v>-146500</v>
       </c>
       <c r="I96" s="3">
-        <v>-219400</v>
+        <v>-212100</v>
       </c>
       <c r="J96" s="3">
-        <v>-198300</v>
+        <v>-191800</v>
       </c>
       <c r="K96" s="3">
         <v>-172900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-349900</v>
+        <v>-338400</v>
       </c>
       <c r="E100" s="3">
-        <v>-257300</v>
+        <v>-248800</v>
       </c>
       <c r="F100" s="3">
-        <v>190400</v>
+        <v>184100</v>
       </c>
       <c r="G100" s="3">
-        <v>-86100</v>
+        <v>-83200</v>
       </c>
       <c r="H100" s="3">
-        <v>159100</v>
+        <v>153800</v>
       </c>
       <c r="I100" s="3">
-        <v>-201500</v>
+        <v>-194900</v>
       </c>
       <c r="J100" s="3">
-        <v>-238400</v>
+        <v>-230500</v>
       </c>
       <c r="K100" s="3">
         <v>-455400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="E101" s="3">
-        <v>-7400</v>
+        <v>-7200</v>
       </c>
       <c r="F101" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="G101" s="3">
-        <v>-7200</v>
+        <v>-6900</v>
       </c>
       <c r="H101" s="3">
-        <v>-31500</v>
+        <v>-30500</v>
       </c>
       <c r="I101" s="3">
-        <v>-28900</v>
+        <v>-27900</v>
       </c>
       <c r="J101" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
       <c r="K101" s="3">
         <v>5000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>135400</v>
+        <v>130900</v>
       </c>
       <c r="E102" s="3">
-        <v>-8100</v>
+        <v>-7800</v>
       </c>
       <c r="F102" s="3">
-        <v>-35500</v>
+        <v>-34300</v>
       </c>
       <c r="G102" s="3">
-        <v>122600</v>
+        <v>118500</v>
       </c>
       <c r="H102" s="3">
-        <v>-25700</v>
+        <v>-24900</v>
       </c>
       <c r="I102" s="3">
-        <v>-14700</v>
+        <v>-14200</v>
       </c>
       <c r="J102" s="3">
-        <v>-200000</v>
+        <v>-193400</v>
       </c>
       <c r="K102" s="3">
         <v>292800</v>

--- a/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13201300</v>
+        <v>12781700</v>
       </c>
       <c r="E8" s="3">
-        <v>15995400</v>
+        <v>15487000</v>
       </c>
       <c r="F8" s="3">
-        <v>17455500</v>
+        <v>16900800</v>
       </c>
       <c r="G8" s="3">
-        <v>16192600</v>
+        <v>15678000</v>
       </c>
       <c r="H8" s="3">
-        <v>14833600</v>
+        <v>14362100</v>
       </c>
       <c r="I8" s="3">
-        <v>15378200</v>
+        <v>14889500</v>
       </c>
       <c r="J8" s="3">
-        <v>14847500</v>
+        <v>14375600</v>
       </c>
       <c r="K8" s="3">
         <v>15568100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11326200</v>
+        <v>10966200</v>
       </c>
       <c r="E9" s="3">
-        <v>13588800</v>
+        <v>13156900</v>
       </c>
       <c r="F9" s="3">
-        <v>14751400</v>
+        <v>14282600</v>
       </c>
       <c r="G9" s="3">
-        <v>13588900</v>
+        <v>13157000</v>
       </c>
       <c r="H9" s="3">
-        <v>12431700</v>
+        <v>12036600</v>
       </c>
       <c r="I9" s="3">
-        <v>12783200</v>
+        <v>12376900</v>
       </c>
       <c r="J9" s="3">
-        <v>12243900</v>
+        <v>11854700</v>
       </c>
       <c r="K9" s="3">
         <v>12911000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1875100</v>
+        <v>1815500</v>
       </c>
       <c r="E10" s="3">
-        <v>2406600</v>
+        <v>2330100</v>
       </c>
       <c r="F10" s="3">
-        <v>2704100</v>
+        <v>2618200</v>
       </c>
       <c r="G10" s="3">
-        <v>2603700</v>
+        <v>2521000</v>
       </c>
       <c r="H10" s="3">
-        <v>2401900</v>
+        <v>2325500</v>
       </c>
       <c r="I10" s="3">
-        <v>2595000</v>
+        <v>2512600</v>
       </c>
       <c r="J10" s="3">
-        <v>2603600</v>
+        <v>2520800</v>
       </c>
       <c r="K10" s="3">
         <v>2657000</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>131000</v>
+        <v>126900</v>
       </c>
       <c r="E14" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F14" s="3">
-        <v>16700</v>
+        <v>16200</v>
       </c>
       <c r="G14" s="3">
-        <v>14000</v>
+        <v>13600</v>
       </c>
       <c r="H14" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I14" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="J14" s="3">
-        <v>17700</v>
+        <v>17100</v>
       </c>
       <c r="K14" s="3">
         <v>-13700</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13224400</v>
+        <v>12804100</v>
       </c>
       <c r="E17" s="3">
-        <v>15514500</v>
+        <v>15021400</v>
       </c>
       <c r="F17" s="3">
-        <v>16708300</v>
+        <v>16177200</v>
       </c>
       <c r="G17" s="3">
-        <v>15498900</v>
+        <v>15006300</v>
       </c>
       <c r="H17" s="3">
-        <v>14210700</v>
+        <v>13759100</v>
       </c>
       <c r="I17" s="3">
-        <v>14506600</v>
+        <v>14045600</v>
       </c>
       <c r="J17" s="3">
-        <v>13935600</v>
+        <v>13492700</v>
       </c>
       <c r="K17" s="3">
         <v>14526800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-23100</v>
+        <v>-22400</v>
       </c>
       <c r="E18" s="3">
-        <v>480900</v>
+        <v>465600</v>
       </c>
       <c r="F18" s="3">
-        <v>747300</v>
+        <v>723500</v>
       </c>
       <c r="G18" s="3">
-        <v>693700</v>
+        <v>671700</v>
       </c>
       <c r="H18" s="3">
-        <v>622800</v>
+        <v>603100</v>
       </c>
       <c r="I18" s="3">
-        <v>871600</v>
+        <v>843900</v>
       </c>
       <c r="J18" s="3">
-        <v>911900</v>
+        <v>882900</v>
       </c>
       <c r="K18" s="3">
         <v>1041300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>42700</v>
+        <v>41300</v>
       </c>
       <c r="E20" s="3">
-        <v>25700</v>
+        <v>24900</v>
       </c>
       <c r="F20" s="3">
-        <v>31600</v>
+        <v>30600</v>
       </c>
       <c r="G20" s="3">
-        <v>68200</v>
+        <v>66000</v>
       </c>
       <c r="H20" s="3">
-        <v>53900</v>
+        <v>52200</v>
       </c>
       <c r="I20" s="3">
-        <v>40200</v>
+        <v>39000</v>
       </c>
       <c r="J20" s="3">
-        <v>53900</v>
+        <v>52200</v>
       </c>
       <c r="K20" s="3">
         <v>36300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>503100</v>
+        <v>491500</v>
       </c>
       <c r="E21" s="3">
-        <v>1018800</v>
+        <v>991100</v>
       </c>
       <c r="F21" s="3">
-        <v>1295800</v>
+        <v>1259300</v>
       </c>
       <c r="G21" s="3">
-        <v>1279000</v>
+        <v>1243100</v>
       </c>
       <c r="H21" s="3">
-        <v>1128000</v>
+        <v>1096300</v>
       </c>
       <c r="I21" s="3">
-        <v>1347300</v>
+        <v>1308400</v>
       </c>
       <c r="J21" s="3">
-        <v>1354000</v>
+        <v>1314500</v>
       </c>
       <c r="K21" s="3">
         <v>1487200</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>36200</v>
+        <v>35000</v>
       </c>
       <c r="E22" s="3">
-        <v>57500</v>
+        <v>55700</v>
       </c>
       <c r="F22" s="3">
-        <v>51900</v>
+        <v>50200</v>
       </c>
       <c r="G22" s="3">
-        <v>41900</v>
+        <v>40600</v>
       </c>
       <c r="H22" s="3">
-        <v>41800</v>
+        <v>40500</v>
       </c>
       <c r="I22" s="3">
-        <v>58300</v>
+        <v>56400</v>
       </c>
       <c r="J22" s="3">
-        <v>56300</v>
+        <v>54500</v>
       </c>
       <c r="K22" s="3">
         <v>47700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-16600</v>
+        <v>-16100</v>
       </c>
       <c r="E23" s="3">
-        <v>449100</v>
+        <v>434800</v>
       </c>
       <c r="F23" s="3">
-        <v>727000</v>
+        <v>703900</v>
       </c>
       <c r="G23" s="3">
-        <v>720000</v>
+        <v>697100</v>
       </c>
       <c r="H23" s="3">
-        <v>635000</v>
+        <v>614800</v>
       </c>
       <c r="I23" s="3">
-        <v>853500</v>
+        <v>826400</v>
       </c>
       <c r="J23" s="3">
-        <v>909500</v>
+        <v>880600</v>
       </c>
       <c r="K23" s="3">
         <v>1029900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>38900</v>
+        <v>37700</v>
       </c>
       <c r="E24" s="3">
-        <v>143000</v>
+        <v>138500</v>
       </c>
       <c r="F24" s="3">
-        <v>189500</v>
+        <v>183500</v>
       </c>
       <c r="G24" s="3">
-        <v>208300</v>
+        <v>201700</v>
       </c>
       <c r="H24" s="3">
-        <v>151300</v>
+        <v>146500</v>
       </c>
       <c r="I24" s="3">
-        <v>254100</v>
+        <v>246000</v>
       </c>
       <c r="J24" s="3">
-        <v>212500</v>
+        <v>205800</v>
       </c>
       <c r="K24" s="3">
         <v>137000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-55500</v>
+        <v>-53700</v>
       </c>
       <c r="E26" s="3">
-        <v>306100</v>
+        <v>296300</v>
       </c>
       <c r="F26" s="3">
-        <v>537500</v>
+        <v>520400</v>
       </c>
       <c r="G26" s="3">
-        <v>511700</v>
+        <v>495400</v>
       </c>
       <c r="H26" s="3">
-        <v>483700</v>
+        <v>468300</v>
       </c>
       <c r="I26" s="3">
-        <v>599500</v>
+        <v>580400</v>
       </c>
       <c r="J26" s="3">
-        <v>697000</v>
+        <v>674800</v>
       </c>
       <c r="K26" s="3">
         <v>892900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-66000</v>
+        <v>-63900</v>
       </c>
       <c r="E27" s="3">
-        <v>277200</v>
+        <v>268400</v>
       </c>
       <c r="F27" s="3">
-        <v>483700</v>
+        <v>468400</v>
       </c>
       <c r="G27" s="3">
-        <v>452500</v>
+        <v>438100</v>
       </c>
       <c r="H27" s="3">
-        <v>435300</v>
+        <v>421500</v>
       </c>
       <c r="I27" s="3">
-        <v>573800</v>
+        <v>555600</v>
       </c>
       <c r="J27" s="3">
-        <v>656300</v>
+        <v>635500</v>
       </c>
       <c r="K27" s="3">
         <v>816400</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-42700</v>
+        <v>-41300</v>
       </c>
       <c r="E32" s="3">
-        <v>-25700</v>
+        <v>-24900</v>
       </c>
       <c r="F32" s="3">
-        <v>-31600</v>
+        <v>-30600</v>
       </c>
       <c r="G32" s="3">
-        <v>-68200</v>
+        <v>-66000</v>
       </c>
       <c r="H32" s="3">
-        <v>-53900</v>
+        <v>-52200</v>
       </c>
       <c r="I32" s="3">
-        <v>-40200</v>
+        <v>-39000</v>
       </c>
       <c r="J32" s="3">
-        <v>-53900</v>
+        <v>-52200</v>
       </c>
       <c r="K32" s="3">
         <v>-36300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-66000</v>
+        <v>-63900</v>
       </c>
       <c r="E33" s="3">
-        <v>277200</v>
+        <v>268400</v>
       </c>
       <c r="F33" s="3">
-        <v>483700</v>
+        <v>468400</v>
       </c>
       <c r="G33" s="3">
-        <v>452500</v>
+        <v>438100</v>
       </c>
       <c r="H33" s="3">
-        <v>435300</v>
+        <v>421500</v>
       </c>
       <c r="I33" s="3">
-        <v>573800</v>
+        <v>555600</v>
       </c>
       <c r="J33" s="3">
-        <v>656300</v>
+        <v>635500</v>
       </c>
       <c r="K33" s="3">
         <v>816400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-66000</v>
+        <v>-63900</v>
       </c>
       <c r="E35" s="3">
-        <v>277200</v>
+        <v>268400</v>
       </c>
       <c r="F35" s="3">
-        <v>483700</v>
+        <v>468400</v>
       </c>
       <c r="G35" s="3">
-        <v>452500</v>
+        <v>438100</v>
       </c>
       <c r="H35" s="3">
-        <v>435300</v>
+        <v>421500</v>
       </c>
       <c r="I35" s="3">
-        <v>573800</v>
+        <v>555600</v>
       </c>
       <c r="J35" s="3">
-        <v>656300</v>
+        <v>635500</v>
       </c>
       <c r="K35" s="3">
         <v>816400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>495000</v>
+        <v>479300</v>
       </c>
       <c r="E41" s="3">
-        <v>358100</v>
+        <v>346700</v>
       </c>
       <c r="F41" s="3">
-        <v>365600</v>
+        <v>353900</v>
       </c>
       <c r="G41" s="3">
-        <v>398400</v>
+        <v>385800</v>
       </c>
       <c r="H41" s="3">
-        <v>283200</v>
+        <v>274200</v>
       </c>
       <c r="I41" s="3">
-        <v>305500</v>
+        <v>295800</v>
       </c>
       <c r="J41" s="3">
-        <v>318100</v>
+        <v>308000</v>
       </c>
       <c r="K41" s="3">
         <v>409800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2852100</v>
+        <v>2761500</v>
       </c>
       <c r="E43" s="3">
-        <v>2840500</v>
+        <v>2750200</v>
       </c>
       <c r="F43" s="3">
-        <v>3371300</v>
+        <v>3264100</v>
       </c>
       <c r="G43" s="3">
-        <v>3166600</v>
+        <v>3065900</v>
       </c>
       <c r="H43" s="3">
-        <v>2746900</v>
+        <v>2659600</v>
       </c>
       <c r="I43" s="3">
-        <v>2460700</v>
+        <v>2382500</v>
       </c>
       <c r="J43" s="3">
-        <v>2609500</v>
+        <v>2526600</v>
       </c>
       <c r="K43" s="3">
         <v>2577900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1767800</v>
+        <v>1711600</v>
       </c>
       <c r="E44" s="3">
-        <v>2308700</v>
+        <v>2235300</v>
       </c>
       <c r="F44" s="3">
-        <v>2312800</v>
+        <v>2239300</v>
       </c>
       <c r="G44" s="3">
-        <v>2136600</v>
+        <v>2068700</v>
       </c>
       <c r="H44" s="3">
-        <v>1793700</v>
+        <v>1736700</v>
       </c>
       <c r="I44" s="3">
-        <v>1690900</v>
+        <v>1637100</v>
       </c>
       <c r="J44" s="3">
-        <v>1766500</v>
+        <v>1710400</v>
       </c>
       <c r="K44" s="3">
         <v>1424100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>247100</v>
+        <v>239200</v>
       </c>
       <c r="E45" s="3">
-        <v>314000</v>
+        <v>304000</v>
       </c>
       <c r="F45" s="3">
-        <v>401000</v>
+        <v>388300</v>
       </c>
       <c r="G45" s="3">
-        <v>572000</v>
+        <v>553800</v>
       </c>
       <c r="H45" s="3">
-        <v>621300</v>
+        <v>601600</v>
       </c>
       <c r="I45" s="3">
-        <v>625400</v>
+        <v>605500</v>
       </c>
       <c r="J45" s="3">
-        <v>575000</v>
+        <v>556700</v>
       </c>
       <c r="K45" s="3">
         <v>631000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5362000</v>
+        <v>5191600</v>
       </c>
       <c r="E46" s="3">
-        <v>5821200</v>
+        <v>5636200</v>
       </c>
       <c r="F46" s="3">
-        <v>6450700</v>
+        <v>6245700</v>
       </c>
       <c r="G46" s="3">
-        <v>6008300</v>
+        <v>5817300</v>
       </c>
       <c r="H46" s="3">
-        <v>5445100</v>
+        <v>5272000</v>
       </c>
       <c r="I46" s="3">
-        <v>5082400</v>
+        <v>4920900</v>
       </c>
       <c r="J46" s="3">
-        <v>5269100</v>
+        <v>5101600</v>
       </c>
       <c r="K46" s="3">
         <v>5042800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1095100</v>
+        <v>1060300</v>
       </c>
       <c r="E47" s="3">
-        <v>957000</v>
+        <v>926600</v>
       </c>
       <c r="F47" s="3">
-        <v>1020200</v>
+        <v>987700</v>
       </c>
       <c r="G47" s="3">
-        <v>2063300</v>
+        <v>1997700</v>
       </c>
       <c r="H47" s="3">
-        <v>957900</v>
+        <v>927400</v>
       </c>
       <c r="I47" s="3">
-        <v>904300</v>
+        <v>875600</v>
       </c>
       <c r="J47" s="3">
-        <v>1103800</v>
+        <v>1068700</v>
       </c>
       <c r="K47" s="3">
         <v>910100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3833100</v>
+        <v>3711300</v>
       </c>
       <c r="E48" s="3">
-        <v>3834300</v>
+        <v>3712400</v>
       </c>
       <c r="F48" s="3">
-        <v>3819900</v>
+        <v>3698500</v>
       </c>
       <c r="G48" s="3">
-        <v>4286100</v>
+        <v>4149900</v>
       </c>
       <c r="H48" s="3">
-        <v>3744900</v>
+        <v>3625900</v>
       </c>
       <c r="I48" s="3">
-        <v>3509900</v>
+        <v>3398300</v>
       </c>
       <c r="J48" s="3">
-        <v>3203200</v>
+        <v>3101400</v>
       </c>
       <c r="K48" s="3">
         <v>3003400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>237100</v>
+        <v>229600</v>
       </c>
       <c r="E49" s="3">
-        <v>237000</v>
+        <v>229500</v>
       </c>
       <c r="F49" s="3">
-        <v>208100</v>
+        <v>201500</v>
       </c>
       <c r="G49" s="3">
-        <v>372900</v>
+        <v>361000</v>
       </c>
       <c r="H49" s="3">
-        <v>186900</v>
+        <v>180900</v>
       </c>
       <c r="I49" s="3">
-        <v>193000</v>
+        <v>186800</v>
       </c>
       <c r="J49" s="3">
-        <v>179400</v>
+        <v>173700</v>
       </c>
       <c r="K49" s="3">
         <v>161100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>322100</v>
+        <v>311800</v>
       </c>
       <c r="E52" s="3">
-        <v>383900</v>
+        <v>371700</v>
       </c>
       <c r="F52" s="3">
-        <v>357800</v>
+        <v>346400</v>
       </c>
       <c r="G52" s="3">
-        <v>339100</v>
+        <v>328300</v>
       </c>
       <c r="H52" s="3">
-        <v>170200</v>
+        <v>164800</v>
       </c>
       <c r="I52" s="3">
-        <v>176600</v>
+        <v>171000</v>
       </c>
       <c r="J52" s="3">
-        <v>148700</v>
+        <v>144000</v>
       </c>
       <c r="K52" s="3">
         <v>128900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10849500</v>
+        <v>10504700</v>
       </c>
       <c r="E54" s="3">
-        <v>11233500</v>
+        <v>10876400</v>
       </c>
       <c r="F54" s="3">
-        <v>11856700</v>
+        <v>11479900</v>
       </c>
       <c r="G54" s="3">
-        <v>11330400</v>
+        <v>10970300</v>
       </c>
       <c r="H54" s="3">
-        <v>10504900</v>
+        <v>10171000</v>
       </c>
       <c r="I54" s="3">
-        <v>9866200</v>
+        <v>9552600</v>
       </c>
       <c r="J54" s="3">
-        <v>9904200</v>
+        <v>9589400</v>
       </c>
       <c r="K54" s="3">
         <v>9246300</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2020400</v>
+        <v>1956200</v>
       </c>
       <c r="E57" s="3">
-        <v>2107600</v>
+        <v>2040600</v>
       </c>
       <c r="F57" s="3">
-        <v>2488200</v>
+        <v>2409200</v>
       </c>
       <c r="G57" s="3">
-        <v>2704800</v>
+        <v>2618800</v>
       </c>
       <c r="H57" s="3">
-        <v>2337300</v>
+        <v>2263100</v>
       </c>
       <c r="I57" s="3">
-        <v>2233900</v>
+        <v>2162900</v>
       </c>
       <c r="J57" s="3">
-        <v>2315700</v>
+        <v>2242100</v>
       </c>
       <c r="K57" s="3">
         <v>2267000</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1460000</v>
+        <v>1413600</v>
       </c>
       <c r="E58" s="3">
-        <v>1695400</v>
+        <v>1641600</v>
       </c>
       <c r="F58" s="3">
-        <v>1789100</v>
+        <v>1732200</v>
       </c>
       <c r="G58" s="3">
-        <v>1507000</v>
+        <v>1459100</v>
       </c>
       <c r="H58" s="3">
-        <v>1384000</v>
+        <v>1340000</v>
       </c>
       <c r="I58" s="3">
-        <v>1004300</v>
+        <v>972400</v>
       </c>
       <c r="J58" s="3">
-        <v>1122200</v>
+        <v>1086600</v>
       </c>
       <c r="K58" s="3">
         <v>1173300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1155500</v>
+        <v>1118800</v>
       </c>
       <c r="E59" s="3">
-        <v>1211700</v>
+        <v>1173200</v>
       </c>
       <c r="F59" s="3">
-        <v>1385500</v>
+        <v>1341400</v>
       </c>
       <c r="G59" s="3">
-        <v>1403400</v>
+        <v>1358800</v>
       </c>
       <c r="H59" s="3">
-        <v>1222200</v>
+        <v>1183400</v>
       </c>
       <c r="I59" s="3">
-        <v>1319700</v>
+        <v>1277800</v>
       </c>
       <c r="J59" s="3">
-        <v>1267800</v>
+        <v>1227500</v>
       </c>
       <c r="K59" s="3">
         <v>1299600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4635900</v>
+        <v>4488600</v>
       </c>
       <c r="E60" s="3">
-        <v>5014700</v>
+        <v>4855400</v>
       </c>
       <c r="F60" s="3">
-        <v>5662800</v>
+        <v>5482800</v>
       </c>
       <c r="G60" s="3">
-        <v>5550100</v>
+        <v>5373700</v>
       </c>
       <c r="H60" s="3">
-        <v>4943600</v>
+        <v>4786500</v>
       </c>
       <c r="I60" s="3">
-        <v>4558000</v>
+        <v>4413100</v>
       </c>
       <c r="J60" s="3">
-        <v>4705800</v>
+        <v>4556200</v>
       </c>
       <c r="K60" s="3">
         <v>4739900</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>144600</v>
+        <v>140000</v>
       </c>
       <c r="E61" s="3">
-        <v>187100</v>
+        <v>181200</v>
       </c>
       <c r="F61" s="3">
-        <v>349000</v>
+        <v>337900</v>
       </c>
       <c r="G61" s="3">
-        <v>272300</v>
+        <v>263700</v>
       </c>
       <c r="H61" s="3">
-        <v>335600</v>
+        <v>325000</v>
       </c>
       <c r="I61" s="3">
-        <v>397600</v>
+        <v>385000</v>
       </c>
       <c r="J61" s="3">
-        <v>360000</v>
+        <v>348600</v>
       </c>
       <c r="K61" s="3">
         <v>298600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>740000</v>
+        <v>716500</v>
       </c>
       <c r="E62" s="3">
-        <v>810100</v>
+        <v>784400</v>
       </c>
       <c r="F62" s="3">
-        <v>590100</v>
+        <v>571400</v>
       </c>
       <c r="G62" s="3">
-        <v>637300</v>
+        <v>617100</v>
       </c>
       <c r="H62" s="3">
-        <v>706900</v>
+        <v>684500</v>
       </c>
       <c r="I62" s="3">
-        <v>735600</v>
+        <v>712300</v>
       </c>
       <c r="J62" s="3">
-        <v>738500</v>
+        <v>715000</v>
       </c>
       <c r="K62" s="3">
         <v>730700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5966600</v>
+        <v>5776900</v>
       </c>
       <c r="E66" s="3">
-        <v>6456800</v>
+        <v>6251600</v>
       </c>
       <c r="F66" s="3">
-        <v>7075900</v>
+        <v>6851000</v>
       </c>
       <c r="G66" s="3">
-        <v>6904300</v>
+        <v>6684900</v>
       </c>
       <c r="H66" s="3">
-        <v>6405200</v>
+        <v>6201700</v>
       </c>
       <c r="I66" s="3">
-        <v>6082200</v>
+        <v>5888900</v>
       </c>
       <c r="J66" s="3">
-        <v>6213600</v>
+        <v>6016100</v>
       </c>
       <c r="K66" s="3">
         <v>6129300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3316100</v>
+        <v>3210700</v>
       </c>
       <c r="E72" s="3">
-        <v>3442800</v>
+        <v>3333400</v>
       </c>
       <c r="F72" s="3">
-        <v>3307200</v>
+        <v>3202100</v>
       </c>
       <c r="G72" s="3">
-        <v>2977900</v>
+        <v>2883300</v>
       </c>
       <c r="H72" s="3">
-        <v>2668000</v>
+        <v>2583200</v>
       </c>
       <c r="I72" s="3">
-        <v>2379600</v>
+        <v>2304000</v>
       </c>
       <c r="J72" s="3">
-        <v>2018200</v>
+        <v>1954100</v>
       </c>
       <c r="K72" s="3">
         <v>1623600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4882900</v>
+        <v>4727700</v>
       </c>
       <c r="E76" s="3">
-        <v>4776700</v>
+        <v>4624900</v>
       </c>
       <c r="F76" s="3">
-        <v>4780700</v>
+        <v>4628800</v>
       </c>
       <c r="G76" s="3">
-        <v>4426000</v>
+        <v>4285400</v>
       </c>
       <c r="H76" s="3">
-        <v>4099700</v>
+        <v>3969400</v>
       </c>
       <c r="I76" s="3">
-        <v>3784000</v>
+        <v>3663800</v>
       </c>
       <c r="J76" s="3">
-        <v>3690600</v>
+        <v>3573300</v>
       </c>
       <c r="K76" s="3">
         <v>3116900</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-66000</v>
+        <v>-63900</v>
       </c>
       <c r="E81" s="3">
-        <v>277200</v>
+        <v>268400</v>
       </c>
       <c r="F81" s="3">
-        <v>483700</v>
+        <v>468400</v>
       </c>
       <c r="G81" s="3">
-        <v>452500</v>
+        <v>438100</v>
       </c>
       <c r="H81" s="3">
-        <v>435300</v>
+        <v>421500</v>
       </c>
       <c r="I81" s="3">
-        <v>573800</v>
+        <v>555600</v>
       </c>
       <c r="J81" s="3">
-        <v>656300</v>
+        <v>635500</v>
       </c>
       <c r="K81" s="3">
         <v>816400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>482400</v>
+        <v>467100</v>
       </c>
       <c r="E83" s="3">
-        <v>511100</v>
+        <v>494800</v>
       </c>
       <c r="F83" s="3">
-        <v>515700</v>
+        <v>499300</v>
       </c>
       <c r="G83" s="3">
-        <v>515900</v>
+        <v>499500</v>
       </c>
       <c r="H83" s="3">
-        <v>450200</v>
+        <v>435900</v>
       </c>
       <c r="I83" s="3">
-        <v>434500</v>
+        <v>420600</v>
       </c>
       <c r="J83" s="3">
-        <v>387300</v>
+        <v>375000</v>
       </c>
       <c r="K83" s="3">
         <v>407800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>955300</v>
+        <v>924900</v>
       </c>
       <c r="E89" s="3">
-        <v>838500</v>
+        <v>811900</v>
       </c>
       <c r="F89" s="3">
-        <v>422000</v>
+        <v>408600</v>
       </c>
       <c r="G89" s="3">
-        <v>761800</v>
+        <v>737600</v>
       </c>
       <c r="H89" s="3">
-        <v>667400</v>
+        <v>646200</v>
       </c>
       <c r="I89" s="3">
-        <v>981100</v>
+        <v>949900</v>
       </c>
       <c r="J89" s="3">
-        <v>685000</v>
+        <v>663300</v>
       </c>
       <c r="K89" s="3">
         <v>1309300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-444100</v>
+        <v>-430000</v>
       </c>
       <c r="E91" s="3">
-        <v>-532000</v>
+        <v>-515000</v>
       </c>
       <c r="F91" s="3">
-        <v>-519200</v>
+        <v>-502700</v>
       </c>
       <c r="G91" s="3">
-        <v>-529400</v>
+        <v>-512500</v>
       </c>
       <c r="H91" s="3">
-        <v>-774200</v>
+        <v>-749600</v>
       </c>
       <c r="I91" s="3">
-        <v>-696900</v>
+        <v>-674800</v>
       </c>
       <c r="J91" s="3">
-        <v>-596200</v>
+        <v>-577200</v>
       </c>
       <c r="K91" s="3">
         <v>-531200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-495200</v>
+        <v>-479500</v>
       </c>
       <c r="E94" s="3">
-        <v>-590300</v>
+        <v>-571600</v>
       </c>
       <c r="F94" s="3">
-        <v>-636800</v>
+        <v>-616600</v>
       </c>
       <c r="G94" s="3">
-        <v>-553100</v>
+        <v>-535500</v>
       </c>
       <c r="H94" s="3">
-        <v>-815700</v>
+        <v>-789700</v>
       </c>
       <c r="I94" s="3">
-        <v>-772500</v>
+        <v>-748000</v>
       </c>
       <c r="J94" s="3">
-        <v>-660800</v>
+        <v>-639800</v>
       </c>
       <c r="K94" s="3">
         <v>-566200</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-60700</v>
+        <v>-58800</v>
       </c>
       <c r="E96" s="3">
-        <v>-141600</v>
+        <v>-137100</v>
       </c>
       <c r="F96" s="3">
-        <v>-146700</v>
+        <v>-142000</v>
       </c>
       <c r="G96" s="3">
-        <v>-141600</v>
+        <v>-137100</v>
       </c>
       <c r="H96" s="3">
-        <v>-146500</v>
+        <v>-141900</v>
       </c>
       <c r="I96" s="3">
-        <v>-212100</v>
+        <v>-205400</v>
       </c>
       <c r="J96" s="3">
-        <v>-191800</v>
+        <v>-185700</v>
       </c>
       <c r="K96" s="3">
         <v>-172900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-338400</v>
+        <v>-327600</v>
       </c>
       <c r="E100" s="3">
-        <v>-248800</v>
+        <v>-240900</v>
       </c>
       <c r="F100" s="3">
-        <v>184100</v>
+        <v>178300</v>
       </c>
       <c r="G100" s="3">
-        <v>-83200</v>
+        <v>-80600</v>
       </c>
       <c r="H100" s="3">
-        <v>153800</v>
+        <v>148900</v>
       </c>
       <c r="I100" s="3">
-        <v>-194900</v>
+        <v>-188700</v>
       </c>
       <c r="J100" s="3">
-        <v>-230500</v>
+        <v>-223200</v>
       </c>
       <c r="K100" s="3">
         <v>-455400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="E101" s="3">
-        <v>-7200</v>
+        <v>-7000</v>
       </c>
       <c r="F101" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="G101" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="H101" s="3">
-        <v>-30500</v>
+        <v>-29500</v>
       </c>
       <c r="I101" s="3">
-        <v>-27900</v>
+        <v>-27000</v>
       </c>
       <c r="J101" s="3">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="K101" s="3">
         <v>5000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>130900</v>
+        <v>126700</v>
       </c>
       <c r="E102" s="3">
-        <v>-7800</v>
+        <v>-7600</v>
       </c>
       <c r="F102" s="3">
-        <v>-34300</v>
+        <v>-33200</v>
       </c>
       <c r="G102" s="3">
-        <v>118500</v>
+        <v>114800</v>
       </c>
       <c r="H102" s="3">
-        <v>-24900</v>
+        <v>-24100</v>
       </c>
       <c r="I102" s="3">
-        <v>-14200</v>
+        <v>-13700</v>
       </c>
       <c r="J102" s="3">
-        <v>-193400</v>
+        <v>-187300</v>
       </c>
       <c r="K102" s="3">
         <v>292800</v>

--- a/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>HINOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>37711</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>37346</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12781700</v>
+        <v>11371100</v>
       </c>
       <c r="E8" s="3">
-        <v>15487000</v>
+        <v>11672900</v>
       </c>
       <c r="F8" s="3">
-        <v>16900800</v>
+        <v>14143500</v>
       </c>
       <c r="G8" s="3">
-        <v>15678000</v>
+        <v>15434600</v>
       </c>
       <c r="H8" s="3">
-        <v>14362100</v>
+        <v>14317900</v>
       </c>
       <c r="I8" s="3">
-        <v>14889500</v>
+        <v>13116200</v>
       </c>
       <c r="J8" s="3">
+        <v>13597800</v>
+      </c>
+      <c r="K8" s="3">
         <v>14375600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15568100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7729400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6858100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10966200</v>
+        <v>9419700</v>
       </c>
       <c r="E9" s="3">
-        <v>13156900</v>
+        <v>10014900</v>
       </c>
       <c r="F9" s="3">
-        <v>14282600</v>
+        <v>12015500</v>
       </c>
       <c r="G9" s="3">
-        <v>13157000</v>
+        <v>13043500</v>
       </c>
       <c r="H9" s="3">
-        <v>12036600</v>
+        <v>12015600</v>
       </c>
       <c r="I9" s="3">
-        <v>12376900</v>
+        <v>10992400</v>
       </c>
       <c r="J9" s="3">
+        <v>11303200</v>
+      </c>
+      <c r="K9" s="3">
         <v>11854700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12911000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6556000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5772600</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1815500</v>
+        <v>1951400</v>
       </c>
       <c r="E10" s="3">
-        <v>2330100</v>
+        <v>1658000</v>
       </c>
       <c r="F10" s="3">
-        <v>2618200</v>
+        <v>2128000</v>
       </c>
       <c r="G10" s="3">
-        <v>2521000</v>
+        <v>2391100</v>
       </c>
       <c r="H10" s="3">
-        <v>2325500</v>
+        <v>2302300</v>
       </c>
       <c r="I10" s="3">
-        <v>2512600</v>
+        <v>2123800</v>
       </c>
       <c r="J10" s="3">
+        <v>2294600</v>
+      </c>
+      <c r="K10" s="3">
         <v>2520800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2657000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1173400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1085500</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>126900</v>
+        <v>544900</v>
       </c>
       <c r="E14" s="3">
-        <v>2300</v>
+        <v>115900</v>
       </c>
       <c r="F14" s="3">
-        <v>16200</v>
+        <v>2100</v>
       </c>
       <c r="G14" s="3">
-        <v>13600</v>
+        <v>14800</v>
       </c>
       <c r="H14" s="3">
-        <v>4100</v>
+        <v>12400</v>
       </c>
       <c r="I14" s="3">
-        <v>-5500</v>
+        <v>3700</v>
       </c>
       <c r="J14" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K14" s="3">
         <v>17100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-13700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>70800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3100</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12804100</v>
+        <v>11652600</v>
       </c>
       <c r="E17" s="3">
-        <v>15021400</v>
+        <v>11693300</v>
       </c>
       <c r="F17" s="3">
-        <v>16177200</v>
+        <v>13718300</v>
       </c>
       <c r="G17" s="3">
-        <v>15006300</v>
+        <v>14773800</v>
       </c>
       <c r="H17" s="3">
-        <v>13759100</v>
+        <v>13704500</v>
       </c>
       <c r="I17" s="3">
-        <v>14045600</v>
+        <v>12565400</v>
       </c>
       <c r="J17" s="3">
+        <v>12827100</v>
+      </c>
+      <c r="K17" s="3">
         <v>13492700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14526800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7625800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6779900</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-22400</v>
+        <v>-281500</v>
       </c>
       <c r="E18" s="3">
-        <v>465600</v>
+        <v>-20400</v>
       </c>
       <c r="F18" s="3">
-        <v>723500</v>
+        <v>425200</v>
       </c>
       <c r="G18" s="3">
-        <v>671700</v>
+        <v>660700</v>
       </c>
       <c r="H18" s="3">
-        <v>603100</v>
+        <v>613400</v>
       </c>
       <c r="I18" s="3">
-        <v>843900</v>
+        <v>550700</v>
       </c>
       <c r="J18" s="3">
+        <v>770700</v>
+      </c>
+      <c r="K18" s="3">
         <v>882900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1041300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>103600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>78200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>41300</v>
+        <v>58400</v>
       </c>
       <c r="E20" s="3">
-        <v>24900</v>
+        <v>37800</v>
       </c>
       <c r="F20" s="3">
-        <v>30600</v>
+        <v>22700</v>
       </c>
       <c r="G20" s="3">
-        <v>66000</v>
+        <v>28000</v>
       </c>
       <c r="H20" s="3">
+        <v>60300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>47700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K20" s="3">
         <v>52200</v>
       </c>
-      <c r="I20" s="3">
-        <v>39000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>52200</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>36300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>43200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>136500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>491500</v>
+        <v>199500</v>
       </c>
       <c r="E21" s="3">
-        <v>991100</v>
+        <v>438400</v>
       </c>
       <c r="F21" s="3">
-        <v>1259300</v>
+        <v>894000</v>
       </c>
       <c r="G21" s="3">
-        <v>1243100</v>
+        <v>1138900</v>
       </c>
       <c r="H21" s="3">
-        <v>1096300</v>
+        <v>1124000</v>
       </c>
       <c r="I21" s="3">
-        <v>1308400</v>
+        <v>991400</v>
       </c>
       <c r="J21" s="3">
+        <v>1185500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1314500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1487200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>433600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>502300</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>35000</v>
+        <v>22200</v>
       </c>
       <c r="E22" s="3">
-        <v>55700</v>
+        <v>32000</v>
       </c>
       <c r="F22" s="3">
-        <v>50200</v>
+        <v>50900</v>
       </c>
       <c r="G22" s="3">
-        <v>40600</v>
+        <v>45900</v>
       </c>
       <c r="H22" s="3">
-        <v>40500</v>
+        <v>37100</v>
       </c>
       <c r="I22" s="3">
-        <v>56400</v>
+        <v>37000</v>
       </c>
       <c r="J22" s="3">
+        <v>51500</v>
+      </c>
+      <c r="K22" s="3">
         <v>54500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>47700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>33800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>57600</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-16100</v>
+        <v>-245300</v>
       </c>
       <c r="E23" s="3">
-        <v>434800</v>
+        <v>-14700</v>
       </c>
       <c r="F23" s="3">
-        <v>703900</v>
+        <v>397100</v>
       </c>
       <c r="G23" s="3">
-        <v>697100</v>
+        <v>642900</v>
       </c>
       <c r="H23" s="3">
-        <v>614800</v>
+        <v>636600</v>
       </c>
       <c r="I23" s="3">
-        <v>826400</v>
+        <v>561500</v>
       </c>
       <c r="J23" s="3">
+        <v>754700</v>
+      </c>
+      <c r="K23" s="3">
         <v>880600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1029900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>113000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>157000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37700</v>
+        <v>365000</v>
       </c>
       <c r="E24" s="3">
-        <v>138500</v>
+        <v>34400</v>
       </c>
       <c r="F24" s="3">
-        <v>183500</v>
+        <v>126500</v>
       </c>
       <c r="G24" s="3">
-        <v>201700</v>
+        <v>167600</v>
       </c>
       <c r="H24" s="3">
-        <v>146500</v>
+        <v>184200</v>
       </c>
       <c r="I24" s="3">
-        <v>246000</v>
+        <v>133800</v>
       </c>
       <c r="J24" s="3">
+        <v>224600</v>
+      </c>
+      <c r="K24" s="3">
         <v>205800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>137000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>63000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>85200</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-53700</v>
+        <v>-610200</v>
       </c>
       <c r="E26" s="3">
-        <v>296300</v>
+        <v>-49100</v>
       </c>
       <c r="F26" s="3">
-        <v>520400</v>
+        <v>270600</v>
       </c>
       <c r="G26" s="3">
-        <v>495400</v>
+        <v>475300</v>
       </c>
       <c r="H26" s="3">
-        <v>468300</v>
+        <v>452500</v>
       </c>
       <c r="I26" s="3">
-        <v>580400</v>
+        <v>427700</v>
       </c>
       <c r="J26" s="3">
+        <v>530100</v>
+      </c>
+      <c r="K26" s="3">
         <v>674800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>892900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>50000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>71800</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-63900</v>
+        <v>-660100</v>
       </c>
       <c r="E27" s="3">
-        <v>268400</v>
+        <v>-58300</v>
       </c>
       <c r="F27" s="3">
-        <v>468400</v>
+        <v>245100</v>
       </c>
       <c r="G27" s="3">
-        <v>438100</v>
+        <v>427700</v>
       </c>
       <c r="H27" s="3">
-        <v>421500</v>
+        <v>400100</v>
       </c>
       <c r="I27" s="3">
-        <v>555600</v>
+        <v>384900</v>
       </c>
       <c r="J27" s="3">
+        <v>507400</v>
+      </c>
+      <c r="K27" s="3">
         <v>635500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>816400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>45100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>75700</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-41300</v>
+        <v>-58400</v>
       </c>
       <c r="E32" s="3">
-        <v>-24900</v>
+        <v>-37800</v>
       </c>
       <c r="F32" s="3">
-        <v>-30600</v>
+        <v>-22700</v>
       </c>
       <c r="G32" s="3">
-        <v>-66000</v>
+        <v>-28000</v>
       </c>
       <c r="H32" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-52200</v>
       </c>
-      <c r="I32" s="3">
-        <v>-39000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-52200</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-36300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-43200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-136500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-63900</v>
+        <v>-660100</v>
       </c>
       <c r="E33" s="3">
-        <v>268400</v>
+        <v>-58300</v>
       </c>
       <c r="F33" s="3">
-        <v>468400</v>
+        <v>245100</v>
       </c>
       <c r="G33" s="3">
-        <v>438100</v>
+        <v>427700</v>
       </c>
       <c r="H33" s="3">
-        <v>421500</v>
+        <v>400100</v>
       </c>
       <c r="I33" s="3">
-        <v>555600</v>
+        <v>384900</v>
       </c>
       <c r="J33" s="3">
+        <v>507400</v>
+      </c>
+      <c r="K33" s="3">
         <v>635500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>816400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>45100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>75700</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-63900</v>
+        <v>-660100</v>
       </c>
       <c r="E35" s="3">
-        <v>268400</v>
+        <v>-58300</v>
       </c>
       <c r="F35" s="3">
-        <v>468400</v>
+        <v>245100</v>
       </c>
       <c r="G35" s="3">
-        <v>438100</v>
+        <v>427700</v>
       </c>
       <c r="H35" s="3">
-        <v>421500</v>
+        <v>400100</v>
       </c>
       <c r="I35" s="3">
-        <v>555600</v>
+        <v>384900</v>
       </c>
       <c r="J35" s="3">
+        <v>507400</v>
+      </c>
+      <c r="K35" s="3">
         <v>635500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>816400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>45100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>75700</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>37711</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>37346</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>479300</v>
+        <v>516100</v>
       </c>
       <c r="E41" s="3">
-        <v>346700</v>
+        <v>437700</v>
       </c>
       <c r="F41" s="3">
-        <v>353900</v>
+        <v>316600</v>
       </c>
       <c r="G41" s="3">
-        <v>385800</v>
+        <v>323200</v>
       </c>
       <c r="H41" s="3">
-        <v>274200</v>
+        <v>352300</v>
       </c>
       <c r="I41" s="3">
-        <v>295800</v>
+        <v>250400</v>
       </c>
       <c r="J41" s="3">
+        <v>270100</v>
+      </c>
+      <c r="K41" s="3">
         <v>308000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>409800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>394900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>337900</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1798,266 +1887,290 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>22300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>96700</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2761500</v>
+        <v>2403700</v>
       </c>
       <c r="E43" s="3">
-        <v>2750200</v>
+        <v>2521900</v>
       </c>
       <c r="F43" s="3">
-        <v>3264100</v>
+        <v>2511600</v>
       </c>
       <c r="G43" s="3">
-        <v>3065900</v>
+        <v>2981000</v>
       </c>
       <c r="H43" s="3">
-        <v>2659600</v>
+        <v>2800000</v>
       </c>
       <c r="I43" s="3">
-        <v>2382500</v>
+        <v>2428800</v>
       </c>
       <c r="J43" s="3">
+        <v>2175800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2526600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2577900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1891500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2053700</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1711600</v>
+        <v>1761600</v>
       </c>
       <c r="E44" s="3">
-        <v>2235300</v>
+        <v>1563200</v>
       </c>
       <c r="F44" s="3">
-        <v>2239300</v>
+        <v>2041400</v>
       </c>
       <c r="G44" s="3">
-        <v>2068700</v>
+        <v>2045000</v>
       </c>
       <c r="H44" s="3">
-        <v>1736700</v>
+        <v>1889200</v>
       </c>
       <c r="I44" s="3">
-        <v>1637100</v>
+        <v>1586000</v>
       </c>
       <c r="J44" s="3">
+        <v>1495100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1710400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1424100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>594900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>653200</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>239200</v>
+        <v>263300</v>
       </c>
       <c r="E45" s="3">
-        <v>304000</v>
+        <v>218500</v>
       </c>
       <c r="F45" s="3">
-        <v>388300</v>
+        <v>277600</v>
       </c>
       <c r="G45" s="3">
-        <v>553800</v>
+        <v>354600</v>
       </c>
       <c r="H45" s="3">
-        <v>601600</v>
+        <v>505700</v>
       </c>
       <c r="I45" s="3">
-        <v>605500</v>
+        <v>549400</v>
       </c>
       <c r="J45" s="3">
+        <v>553000</v>
+      </c>
+      <c r="K45" s="3">
         <v>556700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>631000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>224600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>206500</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5191600</v>
+        <v>4944700</v>
       </c>
       <c r="E46" s="3">
-        <v>5636200</v>
+        <v>4741200</v>
       </c>
       <c r="F46" s="3">
-        <v>6245700</v>
+        <v>5147300</v>
       </c>
       <c r="G46" s="3">
-        <v>5817300</v>
+        <v>5703800</v>
       </c>
       <c r="H46" s="3">
-        <v>5272000</v>
+        <v>5312700</v>
       </c>
       <c r="I46" s="3">
-        <v>4920900</v>
+        <v>4814700</v>
       </c>
       <c r="J46" s="3">
+        <v>4494000</v>
+      </c>
+      <c r="K46" s="3">
         <v>5101600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5042800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3128200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3348100</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1060300</v>
+        <v>930000</v>
       </c>
       <c r="E47" s="3">
-        <v>926600</v>
+        <v>968300</v>
       </c>
       <c r="F47" s="3">
-        <v>987700</v>
+        <v>846200</v>
       </c>
       <c r="G47" s="3">
-        <v>1997700</v>
+        <v>902100</v>
       </c>
       <c r="H47" s="3">
-        <v>927400</v>
+        <v>1824400</v>
       </c>
       <c r="I47" s="3">
-        <v>875600</v>
+        <v>847000</v>
       </c>
       <c r="J47" s="3">
+        <v>799600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1068700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>910100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>609200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>598300</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3711300</v>
+        <v>3461000</v>
       </c>
       <c r="E48" s="3">
-        <v>3712400</v>
+        <v>3389300</v>
       </c>
       <c r="F48" s="3">
-        <v>3698500</v>
+        <v>3390300</v>
       </c>
       <c r="G48" s="3">
-        <v>4149900</v>
+        <v>3377700</v>
       </c>
       <c r="H48" s="3">
-        <v>3625900</v>
+        <v>3789900</v>
       </c>
       <c r="I48" s="3">
-        <v>3398300</v>
+        <v>3311300</v>
       </c>
       <c r="J48" s="3">
+        <v>3103500</v>
+      </c>
+      <c r="K48" s="3">
         <v>3101400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3003400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2854700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2935000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>229600</v>
+        <v>242500</v>
       </c>
       <c r="E49" s="3">
-        <v>229500</v>
+        <v>209700</v>
       </c>
       <c r="F49" s="3">
-        <v>201500</v>
+        <v>209600</v>
       </c>
       <c r="G49" s="3">
-        <v>361000</v>
+        <v>184000</v>
       </c>
       <c r="H49" s="3">
-        <v>180900</v>
+        <v>329700</v>
       </c>
       <c r="I49" s="3">
-        <v>186800</v>
+        <v>165200</v>
       </c>
       <c r="J49" s="3">
+        <v>170600</v>
+      </c>
+      <c r="K49" s="3">
         <v>173700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>161100</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>311800</v>
+        <v>224300</v>
       </c>
       <c r="E52" s="3">
-        <v>371700</v>
+        <v>284800</v>
       </c>
       <c r="F52" s="3">
-        <v>346400</v>
+        <v>339500</v>
       </c>
       <c r="G52" s="3">
-        <v>328300</v>
+        <v>316400</v>
       </c>
       <c r="H52" s="3">
-        <v>164800</v>
+        <v>299800</v>
       </c>
       <c r="I52" s="3">
-        <v>171000</v>
+        <v>150500</v>
       </c>
       <c r="J52" s="3">
+        <v>156100</v>
+      </c>
+      <c r="K52" s="3">
         <v>144000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>128900</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10504700</v>
+        <v>9802500</v>
       </c>
       <c r="E54" s="3">
-        <v>10876400</v>
+        <v>9593300</v>
       </c>
       <c r="F54" s="3">
-        <v>11479900</v>
+        <v>9932900</v>
       </c>
       <c r="G54" s="3">
-        <v>10970300</v>
+        <v>10483900</v>
       </c>
       <c r="H54" s="3">
-        <v>10171000</v>
+        <v>10018600</v>
       </c>
       <c r="I54" s="3">
-        <v>9552600</v>
+        <v>9288700</v>
       </c>
       <c r="J54" s="3">
+        <v>8723900</v>
+      </c>
+      <c r="K54" s="3">
         <v>9589400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9246300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6542600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6900400</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1956200</v>
+        <v>1953600</v>
       </c>
       <c r="E57" s="3">
-        <v>2040600</v>
+        <v>1786500</v>
       </c>
       <c r="F57" s="3">
-        <v>2409200</v>
+        <v>1863600</v>
       </c>
       <c r="G57" s="3">
-        <v>2618800</v>
+        <v>2200200</v>
       </c>
       <c r="H57" s="3">
-        <v>2263100</v>
+        <v>2391600</v>
       </c>
       <c r="I57" s="3">
-        <v>2162900</v>
+        <v>2066700</v>
       </c>
       <c r="J57" s="3">
+        <v>1975300</v>
+      </c>
+      <c r="K57" s="3">
         <v>2242100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2267000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1021200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>875200</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1413600</v>
+        <v>1196100</v>
       </c>
       <c r="E58" s="3">
-        <v>1641600</v>
+        <v>1291000</v>
       </c>
       <c r="F58" s="3">
-        <v>1732200</v>
+        <v>1499100</v>
       </c>
       <c r="G58" s="3">
-        <v>1459100</v>
+        <v>1581900</v>
       </c>
       <c r="H58" s="3">
-        <v>1340000</v>
+        <v>1332500</v>
       </c>
       <c r="I58" s="3">
-        <v>972400</v>
+        <v>1223800</v>
       </c>
       <c r="J58" s="3">
+        <v>888100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1086600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1173300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2635100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2947700</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1118800</v>
+        <v>1635000</v>
       </c>
       <c r="E59" s="3">
-        <v>1173200</v>
+        <v>1021700</v>
       </c>
       <c r="F59" s="3">
-        <v>1341400</v>
+        <v>1071400</v>
       </c>
       <c r="G59" s="3">
-        <v>1358800</v>
+        <v>1225100</v>
       </c>
       <c r="H59" s="3">
-        <v>1183400</v>
+        <v>1240900</v>
       </c>
       <c r="I59" s="3">
-        <v>1277800</v>
+        <v>1080700</v>
       </c>
       <c r="J59" s="3">
+        <v>1166900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1227500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1299600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>505900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>452800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4488600</v>
+        <v>4784600</v>
       </c>
       <c r="E60" s="3">
-        <v>4855400</v>
+        <v>4099200</v>
       </c>
       <c r="F60" s="3">
-        <v>5482800</v>
+        <v>4434200</v>
       </c>
       <c r="G60" s="3">
-        <v>5373700</v>
+        <v>5007100</v>
       </c>
       <c r="H60" s="3">
-        <v>4786500</v>
+        <v>4907500</v>
       </c>
       <c r="I60" s="3">
-        <v>4413100</v>
+        <v>4371200</v>
       </c>
       <c r="J60" s="3">
+        <v>4030200</v>
+      </c>
+      <c r="K60" s="3">
         <v>4556200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4739900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4162300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4275700</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>140000</v>
+        <v>136000</v>
       </c>
       <c r="E61" s="3">
-        <v>181200</v>
+        <v>127900</v>
       </c>
       <c r="F61" s="3">
-        <v>337900</v>
+        <v>165400</v>
       </c>
       <c r="G61" s="3">
-        <v>263700</v>
+        <v>308600</v>
       </c>
       <c r="H61" s="3">
-        <v>325000</v>
+        <v>240800</v>
       </c>
       <c r="I61" s="3">
-        <v>385000</v>
+        <v>296800</v>
       </c>
       <c r="J61" s="3">
+        <v>351600</v>
+      </c>
+      <c r="K61" s="3">
         <v>348600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>298600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>200900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>372200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>716500</v>
+        <v>862200</v>
       </c>
       <c r="E62" s="3">
-        <v>784400</v>
+        <v>654400</v>
       </c>
       <c r="F62" s="3">
-        <v>571400</v>
+        <v>716300</v>
       </c>
       <c r="G62" s="3">
-        <v>617100</v>
+        <v>521800</v>
       </c>
       <c r="H62" s="3">
-        <v>684500</v>
+        <v>563600</v>
       </c>
       <c r="I62" s="3">
-        <v>712300</v>
+        <v>625100</v>
       </c>
       <c r="J62" s="3">
+        <v>650500</v>
+      </c>
+      <c r="K62" s="3">
         <v>715000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>730700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>477800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>534200</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5776900</v>
+        <v>6233400</v>
       </c>
       <c r="E66" s="3">
-        <v>6251600</v>
+        <v>5275800</v>
       </c>
       <c r="F66" s="3">
-        <v>6851000</v>
+        <v>5709200</v>
       </c>
       <c r="G66" s="3">
-        <v>6684900</v>
+        <v>6256700</v>
       </c>
       <c r="H66" s="3">
-        <v>6201700</v>
+        <v>6105000</v>
       </c>
       <c r="I66" s="3">
-        <v>5888900</v>
+        <v>5663700</v>
       </c>
       <c r="J66" s="3">
+        <v>5378000</v>
+      </c>
+      <c r="K66" s="3">
         <v>6016100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6129300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4910300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5270800</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3210700</v>
+        <v>2174100</v>
       </c>
       <c r="E72" s="3">
-        <v>3333400</v>
+        <v>2932200</v>
       </c>
       <c r="F72" s="3">
-        <v>3202100</v>
+        <v>3044200</v>
       </c>
       <c r="G72" s="3">
-        <v>2883300</v>
+        <v>2924300</v>
       </c>
       <c r="H72" s="3">
-        <v>2583200</v>
+        <v>2633200</v>
       </c>
       <c r="I72" s="3">
-        <v>2304000</v>
+        <v>2359100</v>
       </c>
       <c r="J72" s="3">
+        <v>2104100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1954100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1623600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>273100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>254400</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4727700</v>
+        <v>3569100</v>
       </c>
       <c r="E76" s="3">
-        <v>4624900</v>
+        <v>4317600</v>
       </c>
       <c r="F76" s="3">
-        <v>4628800</v>
+        <v>4223700</v>
       </c>
       <c r="G76" s="3">
-        <v>4285400</v>
+        <v>4227200</v>
       </c>
       <c r="H76" s="3">
-        <v>3969400</v>
+        <v>3913600</v>
       </c>
       <c r="I76" s="3">
-        <v>3663800</v>
+        <v>3625000</v>
       </c>
       <c r="J76" s="3">
+        <v>3345900</v>
+      </c>
+      <c r="K76" s="3">
         <v>3573300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3116900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1632300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1629600</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>37711</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>37346</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-63900</v>
+        <v>-660100</v>
       </c>
       <c r="E81" s="3">
-        <v>268400</v>
+        <v>-58300</v>
       </c>
       <c r="F81" s="3">
-        <v>468400</v>
+        <v>245100</v>
       </c>
       <c r="G81" s="3">
-        <v>438100</v>
+        <v>427700</v>
       </c>
       <c r="H81" s="3">
-        <v>421500</v>
+        <v>400100</v>
       </c>
       <c r="I81" s="3">
-        <v>555600</v>
+        <v>384900</v>
       </c>
       <c r="J81" s="3">
+        <v>507400</v>
+      </c>
+      <c r="K81" s="3">
         <v>635500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>816400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>45100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>75700</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>467100</v>
+        <v>428100</v>
       </c>
       <c r="E83" s="3">
-        <v>494800</v>
+        <v>426500</v>
       </c>
       <c r="F83" s="3">
-        <v>499300</v>
+        <v>451900</v>
       </c>
       <c r="G83" s="3">
-        <v>499500</v>
+        <v>456000</v>
       </c>
       <c r="H83" s="3">
-        <v>435900</v>
+        <v>456200</v>
       </c>
       <c r="I83" s="3">
-        <v>420600</v>
+        <v>398000</v>
       </c>
       <c r="J83" s="3">
+        <v>384200</v>
+      </c>
+      <c r="K83" s="3">
         <v>375000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>407800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>286200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>287300</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>924900</v>
+        <v>831300</v>
       </c>
       <c r="E89" s="3">
-        <v>811900</v>
+        <v>844700</v>
       </c>
       <c r="F89" s="3">
-        <v>408600</v>
+        <v>741400</v>
       </c>
       <c r="G89" s="3">
-        <v>737600</v>
+        <v>373200</v>
       </c>
       <c r="H89" s="3">
-        <v>646200</v>
+        <v>673600</v>
       </c>
       <c r="I89" s="3">
-        <v>949900</v>
+        <v>590200</v>
       </c>
       <c r="J89" s="3">
+        <v>867500</v>
+      </c>
+      <c r="K89" s="3">
         <v>663300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1309300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>763400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>535700</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-430000</v>
+        <v>-385100</v>
       </c>
       <c r="E91" s="3">
-        <v>-515000</v>
+        <v>-392700</v>
       </c>
       <c r="F91" s="3">
-        <v>-502700</v>
+        <v>-470400</v>
       </c>
       <c r="G91" s="3">
-        <v>-512500</v>
+        <v>-459100</v>
       </c>
       <c r="H91" s="3">
-        <v>-749600</v>
+        <v>-468100</v>
       </c>
       <c r="I91" s="3">
-        <v>-674800</v>
+        <v>-684600</v>
       </c>
       <c r="J91" s="3">
+        <v>-616200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-577200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-531200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-272200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-166600</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-479500</v>
+        <v>-484400</v>
       </c>
       <c r="E94" s="3">
-        <v>-571600</v>
+        <v>-437900</v>
       </c>
       <c r="F94" s="3">
-        <v>-616600</v>
+        <v>-522000</v>
       </c>
       <c r="G94" s="3">
-        <v>-535500</v>
+        <v>-563100</v>
       </c>
       <c r="H94" s="3">
-        <v>-789700</v>
+        <v>-489100</v>
       </c>
       <c r="I94" s="3">
-        <v>-748000</v>
+        <v>-721200</v>
       </c>
       <c r="J94" s="3">
+        <v>-683100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-639800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-566200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-218300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7400</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-58800</v>
+        <v>-76000</v>
       </c>
       <c r="E96" s="3">
-        <v>-137100</v>
+        <v>-53700</v>
       </c>
       <c r="F96" s="3">
-        <v>-142000</v>
+        <v>-125200</v>
       </c>
       <c r="G96" s="3">
-        <v>-137100</v>
+        <v>-129700</v>
       </c>
       <c r="H96" s="3">
-        <v>-141900</v>
+        <v>-125200</v>
       </c>
       <c r="I96" s="3">
-        <v>-205400</v>
+        <v>-129600</v>
       </c>
       <c r="J96" s="3">
+        <v>-187600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-185700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-172900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-26100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-327600</v>
+        <v>-305000</v>
       </c>
       <c r="E100" s="3">
-        <v>-240900</v>
+        <v>-299200</v>
       </c>
       <c r="F100" s="3">
-        <v>178300</v>
+        <v>-220000</v>
       </c>
       <c r="G100" s="3">
-        <v>-80600</v>
+        <v>162800</v>
       </c>
       <c r="H100" s="3">
-        <v>148900</v>
+        <v>-73600</v>
       </c>
       <c r="I100" s="3">
-        <v>-188700</v>
+        <v>136000</v>
       </c>
       <c r="J100" s="3">
+        <v>-172300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-223200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-455400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-489600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-577300</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8900</v>
+        <v>20500</v>
       </c>
       <c r="E101" s="3">
-        <v>-7000</v>
+        <v>8200</v>
       </c>
       <c r="F101" s="3">
-        <v>-3500</v>
+        <v>-6300</v>
       </c>
       <c r="G101" s="3">
-        <v>-6700</v>
+        <v>-3200</v>
       </c>
       <c r="H101" s="3">
-        <v>-29500</v>
+        <v>-6100</v>
       </c>
       <c r="I101" s="3">
         <v>-27000</v>
       </c>
       <c r="J101" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="K101" s="3">
         <v>12500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7600</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>126700</v>
+        <v>62400</v>
       </c>
       <c r="E102" s="3">
-        <v>-7600</v>
+        <v>115700</v>
       </c>
       <c r="F102" s="3">
-        <v>-33200</v>
+        <v>-6900</v>
       </c>
       <c r="G102" s="3">
-        <v>114800</v>
+        <v>-30300</v>
       </c>
       <c r="H102" s="3">
-        <v>-24100</v>
+        <v>104800</v>
       </c>
       <c r="I102" s="3">
-        <v>-13700</v>
+        <v>-22000</v>
       </c>
       <c r="J102" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-187300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>292800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>55100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-41500</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11371100</v>
+        <v>10699600</v>
       </c>
       <c r="E8" s="3">
-        <v>11672900</v>
+        <v>10983600</v>
       </c>
       <c r="F8" s="3">
-        <v>14143500</v>
+        <v>13308300</v>
       </c>
       <c r="G8" s="3">
-        <v>15434600</v>
+        <v>14523200</v>
       </c>
       <c r="H8" s="3">
-        <v>14317900</v>
+        <v>13472400</v>
       </c>
       <c r="I8" s="3">
-        <v>13116200</v>
+        <v>12341700</v>
       </c>
       <c r="J8" s="3">
-        <v>13597800</v>
+        <v>12794800</v>
       </c>
       <c r="K8" s="3">
         <v>14375600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9419700</v>
+        <v>8863400</v>
       </c>
       <c r="E9" s="3">
-        <v>10014900</v>
+        <v>9423500</v>
       </c>
       <c r="F9" s="3">
-        <v>12015500</v>
+        <v>11306000</v>
       </c>
       <c r="G9" s="3">
-        <v>13043500</v>
+        <v>12273300</v>
       </c>
       <c r="H9" s="3">
-        <v>12015600</v>
+        <v>11306100</v>
       </c>
       <c r="I9" s="3">
-        <v>10992400</v>
+        <v>10343300</v>
       </c>
       <c r="J9" s="3">
-        <v>11303200</v>
+        <v>10635700</v>
       </c>
       <c r="K9" s="3">
         <v>11854700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1951400</v>
+        <v>1836200</v>
       </c>
       <c r="E10" s="3">
-        <v>1658000</v>
+        <v>1560100</v>
       </c>
       <c r="F10" s="3">
-        <v>2128000</v>
+        <v>2002300</v>
       </c>
       <c r="G10" s="3">
-        <v>2391100</v>
+        <v>2249900</v>
       </c>
       <c r="H10" s="3">
-        <v>2302300</v>
+        <v>2166300</v>
       </c>
       <c r="I10" s="3">
-        <v>2123800</v>
+        <v>1998400</v>
       </c>
       <c r="J10" s="3">
-        <v>2294600</v>
+        <v>2159100</v>
       </c>
       <c r="K10" s="3">
         <v>2520800</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>544900</v>
+        <v>512700</v>
       </c>
       <c r="E14" s="3">
-        <v>115900</v>
+        <v>109000</v>
       </c>
       <c r="F14" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G14" s="3">
-        <v>14800</v>
+        <v>13900</v>
       </c>
       <c r="H14" s="3">
-        <v>12400</v>
+        <v>11700</v>
       </c>
       <c r="I14" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="J14" s="3">
-        <v>-5000</v>
+        <v>-4700</v>
       </c>
       <c r="K14" s="3">
         <v>17100</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11652600</v>
+        <v>10964500</v>
       </c>
       <c r="E17" s="3">
-        <v>11693300</v>
+        <v>11002800</v>
       </c>
       <c r="F17" s="3">
-        <v>13718300</v>
+        <v>12908200</v>
       </c>
       <c r="G17" s="3">
-        <v>14773800</v>
+        <v>13901400</v>
       </c>
       <c r="H17" s="3">
-        <v>13704500</v>
+        <v>12895200</v>
       </c>
       <c r="I17" s="3">
-        <v>12565400</v>
+        <v>11823500</v>
       </c>
       <c r="J17" s="3">
-        <v>12827100</v>
+        <v>12069700</v>
       </c>
       <c r="K17" s="3">
         <v>13492700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-281500</v>
+        <v>-264900</v>
       </c>
       <c r="E18" s="3">
-        <v>-20400</v>
+        <v>-19200</v>
       </c>
       <c r="F18" s="3">
-        <v>425200</v>
+        <v>400100</v>
       </c>
       <c r="G18" s="3">
-        <v>660700</v>
+        <v>621700</v>
       </c>
       <c r="H18" s="3">
-        <v>613400</v>
+        <v>577200</v>
       </c>
       <c r="I18" s="3">
-        <v>550700</v>
+        <v>518200</v>
       </c>
       <c r="J18" s="3">
-        <v>770700</v>
+        <v>725100</v>
       </c>
       <c r="K18" s="3">
         <v>882900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>58400</v>
+        <v>55000</v>
       </c>
       <c r="E20" s="3">
-        <v>37800</v>
+        <v>35500</v>
       </c>
       <c r="F20" s="3">
-        <v>22700</v>
+        <v>21400</v>
       </c>
       <c r="G20" s="3">
-        <v>28000</v>
+        <v>26300</v>
       </c>
       <c r="H20" s="3">
-        <v>60300</v>
+        <v>56700</v>
       </c>
       <c r="I20" s="3">
-        <v>47700</v>
+        <v>44900</v>
       </c>
       <c r="J20" s="3">
-        <v>35600</v>
+        <v>33500</v>
       </c>
       <c r="K20" s="3">
         <v>52200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>199500</v>
+        <v>190700</v>
       </c>
       <c r="E21" s="3">
-        <v>438400</v>
+        <v>415500</v>
       </c>
       <c r="F21" s="3">
-        <v>894000</v>
+        <v>844400</v>
       </c>
       <c r="G21" s="3">
-        <v>1138900</v>
+        <v>1074800</v>
       </c>
       <c r="H21" s="3">
-        <v>1124000</v>
+        <v>1060800</v>
       </c>
       <c r="I21" s="3">
-        <v>991400</v>
+        <v>935600</v>
       </c>
       <c r="J21" s="3">
-        <v>1185500</v>
+        <v>1118100</v>
       </c>
       <c r="K21" s="3">
         <v>1314500</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22200</v>
+        <v>20900</v>
       </c>
       <c r="E22" s="3">
-        <v>32000</v>
+        <v>30100</v>
       </c>
       <c r="F22" s="3">
-        <v>50900</v>
+        <v>47900</v>
       </c>
       <c r="G22" s="3">
-        <v>45900</v>
+        <v>43200</v>
       </c>
       <c r="H22" s="3">
-        <v>37100</v>
+        <v>34900</v>
       </c>
       <c r="I22" s="3">
-        <v>37000</v>
+        <v>34800</v>
       </c>
       <c r="J22" s="3">
-        <v>51500</v>
+        <v>48500</v>
       </c>
       <c r="K22" s="3">
         <v>54500</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-245300</v>
+        <v>-230800</v>
       </c>
       <c r="E23" s="3">
-        <v>-14700</v>
+        <v>-13800</v>
       </c>
       <c r="F23" s="3">
-        <v>397100</v>
+        <v>373600</v>
       </c>
       <c r="G23" s="3">
-        <v>642900</v>
+        <v>604900</v>
       </c>
       <c r="H23" s="3">
-        <v>636600</v>
+        <v>599000</v>
       </c>
       <c r="I23" s="3">
-        <v>561500</v>
+        <v>528300</v>
       </c>
       <c r="J23" s="3">
-        <v>754700</v>
+        <v>710100</v>
       </c>
       <c r="K23" s="3">
         <v>880600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>365000</v>
+        <v>343400</v>
       </c>
       <c r="E24" s="3">
-        <v>34400</v>
+        <v>32400</v>
       </c>
       <c r="F24" s="3">
-        <v>126500</v>
+        <v>119000</v>
       </c>
       <c r="G24" s="3">
-        <v>167600</v>
+        <v>157700</v>
       </c>
       <c r="H24" s="3">
-        <v>184200</v>
+        <v>173300</v>
       </c>
       <c r="I24" s="3">
-        <v>133800</v>
+        <v>125900</v>
       </c>
       <c r="J24" s="3">
-        <v>224600</v>
+        <v>211400</v>
       </c>
       <c r="K24" s="3">
         <v>205800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-610200</v>
+        <v>-574200</v>
       </c>
       <c r="E26" s="3">
-        <v>-49100</v>
+        <v>-46200</v>
       </c>
       <c r="F26" s="3">
-        <v>270600</v>
+        <v>254600</v>
       </c>
       <c r="G26" s="3">
-        <v>475300</v>
+        <v>447200</v>
       </c>
       <c r="H26" s="3">
-        <v>452500</v>
+        <v>425700</v>
       </c>
       <c r="I26" s="3">
-        <v>427700</v>
+        <v>402400</v>
       </c>
       <c r="J26" s="3">
-        <v>530100</v>
+        <v>498800</v>
       </c>
       <c r="K26" s="3">
         <v>674800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-660100</v>
+        <v>-621100</v>
       </c>
       <c r="E27" s="3">
-        <v>-58300</v>
+        <v>-54900</v>
       </c>
       <c r="F27" s="3">
-        <v>245100</v>
+        <v>230700</v>
       </c>
       <c r="G27" s="3">
-        <v>427700</v>
+        <v>402500</v>
       </c>
       <c r="H27" s="3">
-        <v>400100</v>
+        <v>376500</v>
       </c>
       <c r="I27" s="3">
-        <v>384900</v>
+        <v>362200</v>
       </c>
       <c r="J27" s="3">
-        <v>507400</v>
+        <v>477400</v>
       </c>
       <c r="K27" s="3">
         <v>635500</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-58400</v>
+        <v>-55000</v>
       </c>
       <c r="E32" s="3">
-        <v>-37800</v>
+        <v>-35500</v>
       </c>
       <c r="F32" s="3">
-        <v>-22700</v>
+        <v>-21400</v>
       </c>
       <c r="G32" s="3">
-        <v>-28000</v>
+        <v>-26300</v>
       </c>
       <c r="H32" s="3">
-        <v>-60300</v>
+        <v>-56700</v>
       </c>
       <c r="I32" s="3">
-        <v>-47700</v>
+        <v>-44900</v>
       </c>
       <c r="J32" s="3">
-        <v>-35600</v>
+        <v>-33500</v>
       </c>
       <c r="K32" s="3">
         <v>-52200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-660100</v>
+        <v>-621100</v>
       </c>
       <c r="E33" s="3">
-        <v>-58300</v>
+        <v>-54900</v>
       </c>
       <c r="F33" s="3">
-        <v>245100</v>
+        <v>230700</v>
       </c>
       <c r="G33" s="3">
-        <v>427700</v>
+        <v>402500</v>
       </c>
       <c r="H33" s="3">
-        <v>400100</v>
+        <v>376500</v>
       </c>
       <c r="I33" s="3">
-        <v>384900</v>
+        <v>362200</v>
       </c>
       <c r="J33" s="3">
-        <v>507400</v>
+        <v>477400</v>
       </c>
       <c r="K33" s="3">
         <v>635500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-660100</v>
+        <v>-621100</v>
       </c>
       <c r="E35" s="3">
-        <v>-58300</v>
+        <v>-54900</v>
       </c>
       <c r="F35" s="3">
-        <v>245100</v>
+        <v>230700</v>
       </c>
       <c r="G35" s="3">
-        <v>427700</v>
+        <v>402500</v>
       </c>
       <c r="H35" s="3">
-        <v>400100</v>
+        <v>376500</v>
       </c>
       <c r="I35" s="3">
-        <v>384900</v>
+        <v>362200</v>
       </c>
       <c r="J35" s="3">
-        <v>507400</v>
+        <v>477400</v>
       </c>
       <c r="K35" s="3">
         <v>635500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>516100</v>
+        <v>485600</v>
       </c>
       <c r="E41" s="3">
-        <v>437700</v>
+        <v>411900</v>
       </c>
       <c r="F41" s="3">
-        <v>316600</v>
+        <v>297900</v>
       </c>
       <c r="G41" s="3">
-        <v>323200</v>
+        <v>304100</v>
       </c>
       <c r="H41" s="3">
-        <v>352300</v>
+        <v>331500</v>
       </c>
       <c r="I41" s="3">
-        <v>250400</v>
+        <v>235600</v>
       </c>
       <c r="J41" s="3">
-        <v>270100</v>
+        <v>254100</v>
       </c>
       <c r="K41" s="3">
         <v>308000</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2403700</v>
+        <v>2261800</v>
       </c>
       <c r="E43" s="3">
-        <v>2521900</v>
+        <v>2373000</v>
       </c>
       <c r="F43" s="3">
-        <v>2511600</v>
+        <v>2363300</v>
       </c>
       <c r="G43" s="3">
-        <v>2981000</v>
+        <v>2804900</v>
       </c>
       <c r="H43" s="3">
-        <v>2800000</v>
+        <v>2634600</v>
       </c>
       <c r="I43" s="3">
-        <v>2428800</v>
+        <v>2285400</v>
       </c>
       <c r="J43" s="3">
-        <v>2175800</v>
+        <v>2047300</v>
       </c>
       <c r="K43" s="3">
         <v>2526600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1761600</v>
+        <v>1657600</v>
       </c>
       <c r="E44" s="3">
-        <v>1563200</v>
+        <v>1470900</v>
       </c>
       <c r="F44" s="3">
-        <v>2041400</v>
+        <v>1920800</v>
       </c>
       <c r="G44" s="3">
-        <v>2045000</v>
+        <v>1924300</v>
       </c>
       <c r="H44" s="3">
-        <v>1889200</v>
+        <v>1777600</v>
       </c>
       <c r="I44" s="3">
-        <v>1586000</v>
+        <v>1492400</v>
       </c>
       <c r="J44" s="3">
-        <v>1495100</v>
+        <v>1406800</v>
       </c>
       <c r="K44" s="3">
         <v>1710400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>263300</v>
+        <v>247700</v>
       </c>
       <c r="E45" s="3">
-        <v>218500</v>
+        <v>205600</v>
       </c>
       <c r="F45" s="3">
-        <v>277600</v>
+        <v>261200</v>
       </c>
       <c r="G45" s="3">
-        <v>354600</v>
+        <v>333700</v>
       </c>
       <c r="H45" s="3">
-        <v>505700</v>
+        <v>475900</v>
       </c>
       <c r="I45" s="3">
-        <v>549400</v>
+        <v>517000</v>
       </c>
       <c r="J45" s="3">
-        <v>553000</v>
+        <v>520400</v>
       </c>
       <c r="K45" s="3">
         <v>556700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4944700</v>
+        <v>4652800</v>
       </c>
       <c r="E46" s="3">
-        <v>4741200</v>
+        <v>4461300</v>
       </c>
       <c r="F46" s="3">
-        <v>5147300</v>
+        <v>4843300</v>
       </c>
       <c r="G46" s="3">
-        <v>5703800</v>
+        <v>5367000</v>
       </c>
       <c r="H46" s="3">
-        <v>5312700</v>
+        <v>4999000</v>
       </c>
       <c r="I46" s="3">
-        <v>4814700</v>
+        <v>4530400</v>
       </c>
       <c r="J46" s="3">
-        <v>4494000</v>
+        <v>4228600</v>
       </c>
       <c r="K46" s="3">
         <v>5101600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>930000</v>
+        <v>899600</v>
       </c>
       <c r="E47" s="3">
-        <v>968300</v>
+        <v>940500</v>
       </c>
       <c r="F47" s="3">
-        <v>846200</v>
+        <v>825200</v>
       </c>
       <c r="G47" s="3">
-        <v>902100</v>
+        <v>877400</v>
       </c>
       <c r="H47" s="3">
-        <v>1824400</v>
+        <v>1716700</v>
       </c>
       <c r="I47" s="3">
-        <v>847000</v>
+        <v>797000</v>
       </c>
       <c r="J47" s="3">
-        <v>799600</v>
+        <v>752400</v>
       </c>
       <c r="K47" s="3">
         <v>1068700</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3461000</v>
+        <v>3256700</v>
       </c>
       <c r="E48" s="3">
-        <v>3389300</v>
+        <v>3189200</v>
       </c>
       <c r="F48" s="3">
-        <v>3390300</v>
+        <v>3190100</v>
       </c>
       <c r="G48" s="3">
-        <v>3377700</v>
+        <v>3178200</v>
       </c>
       <c r="H48" s="3">
-        <v>3789900</v>
+        <v>3566100</v>
       </c>
       <c r="I48" s="3">
-        <v>3311300</v>
+        <v>3115800</v>
       </c>
       <c r="J48" s="3">
-        <v>3103500</v>
+        <v>2920300</v>
       </c>
       <c r="K48" s="3">
         <v>3101400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>242500</v>
+        <v>228200</v>
       </c>
       <c r="E49" s="3">
-        <v>209700</v>
+        <v>197300</v>
       </c>
       <c r="F49" s="3">
-        <v>209600</v>
+        <v>197200</v>
       </c>
       <c r="G49" s="3">
-        <v>184000</v>
+        <v>173100</v>
       </c>
       <c r="H49" s="3">
-        <v>329700</v>
+        <v>310200</v>
       </c>
       <c r="I49" s="3">
-        <v>165200</v>
+        <v>155500</v>
       </c>
       <c r="J49" s="3">
-        <v>170600</v>
+        <v>160500</v>
       </c>
       <c r="K49" s="3">
         <v>173700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>224300</v>
+        <v>186500</v>
       </c>
       <c r="E52" s="3">
-        <v>284800</v>
+        <v>238600</v>
       </c>
       <c r="F52" s="3">
-        <v>339500</v>
+        <v>290500</v>
       </c>
       <c r="G52" s="3">
-        <v>316400</v>
+        <v>269100</v>
       </c>
       <c r="H52" s="3">
-        <v>299800</v>
+        <v>282100</v>
       </c>
       <c r="I52" s="3">
-        <v>150500</v>
+        <v>141600</v>
       </c>
       <c r="J52" s="3">
-        <v>156100</v>
+        <v>146900</v>
       </c>
       <c r="K52" s="3">
         <v>144000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9802500</v>
+        <v>9223700</v>
       </c>
       <c r="E54" s="3">
-        <v>9593300</v>
+        <v>9026900</v>
       </c>
       <c r="F54" s="3">
-        <v>9932900</v>
+        <v>9346300</v>
       </c>
       <c r="G54" s="3">
-        <v>10483900</v>
+        <v>9864900</v>
       </c>
       <c r="H54" s="3">
-        <v>10018600</v>
+        <v>9427000</v>
       </c>
       <c r="I54" s="3">
-        <v>9288700</v>
+        <v>8740200</v>
       </c>
       <c r="J54" s="3">
-        <v>8723900</v>
+        <v>8208800</v>
       </c>
       <c r="K54" s="3">
         <v>9589400</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1953600</v>
+        <v>1838200</v>
       </c>
       <c r="E57" s="3">
-        <v>1786500</v>
+        <v>1681000</v>
       </c>
       <c r="F57" s="3">
-        <v>1863600</v>
+        <v>1753600</v>
       </c>
       <c r="G57" s="3">
-        <v>2200200</v>
+        <v>2070200</v>
       </c>
       <c r="H57" s="3">
-        <v>2391600</v>
+        <v>2250400</v>
       </c>
       <c r="I57" s="3">
-        <v>2066700</v>
+        <v>1944700</v>
       </c>
       <c r="J57" s="3">
-        <v>1975300</v>
+        <v>1858600</v>
       </c>
       <c r="K57" s="3">
         <v>2242100</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1196100</v>
+        <v>1125400</v>
       </c>
       <c r="E58" s="3">
-        <v>1291000</v>
+        <v>1214800</v>
       </c>
       <c r="F58" s="3">
-        <v>1499100</v>
+        <v>1410600</v>
       </c>
       <c r="G58" s="3">
-        <v>1581900</v>
+        <v>1488500</v>
       </c>
       <c r="H58" s="3">
-        <v>1332500</v>
+        <v>1253800</v>
       </c>
       <c r="I58" s="3">
-        <v>1223800</v>
+        <v>1151500</v>
       </c>
       <c r="J58" s="3">
-        <v>888100</v>
+        <v>835600</v>
       </c>
       <c r="K58" s="3">
         <v>1086600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1635000</v>
+        <v>1538500</v>
       </c>
       <c r="E59" s="3">
-        <v>1021700</v>
+        <v>961400</v>
       </c>
       <c r="F59" s="3">
-        <v>1071400</v>
+        <v>1008100</v>
       </c>
       <c r="G59" s="3">
-        <v>1225100</v>
+        <v>1152700</v>
       </c>
       <c r="H59" s="3">
-        <v>1240900</v>
+        <v>1167700</v>
       </c>
       <c r="I59" s="3">
-        <v>1080700</v>
+        <v>1016900</v>
       </c>
       <c r="J59" s="3">
-        <v>1166900</v>
+        <v>1098000</v>
       </c>
       <c r="K59" s="3">
         <v>1227500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4784600</v>
+        <v>4502100</v>
       </c>
       <c r="E60" s="3">
-        <v>4099200</v>
+        <v>3857100</v>
       </c>
       <c r="F60" s="3">
-        <v>4434200</v>
+        <v>4172300</v>
       </c>
       <c r="G60" s="3">
-        <v>5007100</v>
+        <v>4711500</v>
       </c>
       <c r="H60" s="3">
-        <v>4907500</v>
+        <v>4617700</v>
       </c>
       <c r="I60" s="3">
-        <v>4371200</v>
+        <v>4113100</v>
       </c>
       <c r="J60" s="3">
-        <v>4030200</v>
+        <v>3792300</v>
       </c>
       <c r="K60" s="3">
         <v>4556200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>136000</v>
+        <v>127900</v>
       </c>
       <c r="E61" s="3">
-        <v>127900</v>
+        <v>120300</v>
       </c>
       <c r="F61" s="3">
-        <v>165400</v>
+        <v>155700</v>
       </c>
       <c r="G61" s="3">
-        <v>308600</v>
+        <v>290300</v>
       </c>
       <c r="H61" s="3">
-        <v>240800</v>
+        <v>226600</v>
       </c>
       <c r="I61" s="3">
-        <v>296800</v>
+        <v>279200</v>
       </c>
       <c r="J61" s="3">
-        <v>351600</v>
+        <v>330800</v>
       </c>
       <c r="K61" s="3">
         <v>348600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>862200</v>
+        <v>811300</v>
       </c>
       <c r="E62" s="3">
-        <v>654400</v>
+        <v>615700</v>
       </c>
       <c r="F62" s="3">
-        <v>716300</v>
+        <v>674000</v>
       </c>
       <c r="G62" s="3">
-        <v>521800</v>
+        <v>491000</v>
       </c>
       <c r="H62" s="3">
-        <v>563600</v>
+        <v>530300</v>
       </c>
       <c r="I62" s="3">
-        <v>625100</v>
+        <v>588200</v>
       </c>
       <c r="J62" s="3">
-        <v>650500</v>
+        <v>612100</v>
       </c>
       <c r="K62" s="3">
         <v>715000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6233400</v>
+        <v>5865300</v>
       </c>
       <c r="E66" s="3">
-        <v>5275800</v>
+        <v>4964200</v>
       </c>
       <c r="F66" s="3">
-        <v>5709200</v>
+        <v>5372100</v>
       </c>
       <c r="G66" s="3">
-        <v>6256700</v>
+        <v>5887200</v>
       </c>
       <c r="H66" s="3">
-        <v>6105000</v>
+        <v>5744500</v>
       </c>
       <c r="I66" s="3">
-        <v>5663700</v>
+        <v>5329200</v>
       </c>
       <c r="J66" s="3">
-        <v>5378000</v>
+        <v>5060400</v>
       </c>
       <c r="K66" s="3">
         <v>6016100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2174100</v>
+        <v>2045700</v>
       </c>
       <c r="E72" s="3">
-        <v>2932200</v>
+        <v>2759000</v>
       </c>
       <c r="F72" s="3">
-        <v>3044200</v>
+        <v>2864400</v>
       </c>
       <c r="G72" s="3">
-        <v>2924300</v>
+        <v>2751600</v>
       </c>
       <c r="H72" s="3">
-        <v>2633200</v>
+        <v>2477700</v>
       </c>
       <c r="I72" s="3">
-        <v>2359100</v>
+        <v>2219800</v>
       </c>
       <c r="J72" s="3">
-        <v>2104100</v>
+        <v>1979900</v>
       </c>
       <c r="K72" s="3">
         <v>1954100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3569100</v>
+        <v>3358400</v>
       </c>
       <c r="E76" s="3">
-        <v>4317600</v>
+        <v>4062600</v>
       </c>
       <c r="F76" s="3">
-        <v>4223700</v>
+        <v>3974200</v>
       </c>
       <c r="G76" s="3">
-        <v>4227200</v>
+        <v>3977600</v>
       </c>
       <c r="H76" s="3">
-        <v>3913600</v>
+        <v>3682500</v>
       </c>
       <c r="I76" s="3">
-        <v>3625000</v>
+        <v>3411000</v>
       </c>
       <c r="J76" s="3">
-        <v>3345900</v>
+        <v>3148400</v>
       </c>
       <c r="K76" s="3">
         <v>3573300</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-660100</v>
+        <v>-621100</v>
       </c>
       <c r="E81" s="3">
-        <v>-58300</v>
+        <v>-54900</v>
       </c>
       <c r="F81" s="3">
-        <v>245100</v>
+        <v>230700</v>
       </c>
       <c r="G81" s="3">
-        <v>427700</v>
+        <v>402500</v>
       </c>
       <c r="H81" s="3">
-        <v>400100</v>
+        <v>376500</v>
       </c>
       <c r="I81" s="3">
-        <v>384900</v>
+        <v>362200</v>
       </c>
       <c r="J81" s="3">
-        <v>507400</v>
+        <v>477400</v>
       </c>
       <c r="K81" s="3">
         <v>635500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>428100</v>
+        <v>402800</v>
       </c>
       <c r="E83" s="3">
-        <v>426500</v>
+        <v>401300</v>
       </c>
       <c r="F83" s="3">
-        <v>451900</v>
+        <v>425200</v>
       </c>
       <c r="G83" s="3">
-        <v>456000</v>
+        <v>429100</v>
       </c>
       <c r="H83" s="3">
-        <v>456200</v>
+        <v>429200</v>
       </c>
       <c r="I83" s="3">
-        <v>398000</v>
+        <v>374500</v>
       </c>
       <c r="J83" s="3">
-        <v>384200</v>
+        <v>361500</v>
       </c>
       <c r="K83" s="3">
         <v>375000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>831300</v>
+        <v>782200</v>
       </c>
       <c r="E89" s="3">
-        <v>844700</v>
+        <v>794800</v>
       </c>
       <c r="F89" s="3">
-        <v>741400</v>
+        <v>697600</v>
       </c>
       <c r="G89" s="3">
-        <v>373200</v>
+        <v>351100</v>
       </c>
       <c r="H89" s="3">
-        <v>673600</v>
+        <v>633800</v>
       </c>
       <c r="I89" s="3">
-        <v>590200</v>
+        <v>555300</v>
       </c>
       <c r="J89" s="3">
-        <v>867500</v>
+        <v>816300</v>
       </c>
       <c r="K89" s="3">
         <v>663300</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-385100</v>
+        <v>-362300</v>
       </c>
       <c r="E91" s="3">
-        <v>-392700</v>
+        <v>-369500</v>
       </c>
       <c r="F91" s="3">
-        <v>-470400</v>
+        <v>-442600</v>
       </c>
       <c r="G91" s="3">
-        <v>-459100</v>
+        <v>-432000</v>
       </c>
       <c r="H91" s="3">
-        <v>-468100</v>
+        <v>-440400</v>
       </c>
       <c r="I91" s="3">
-        <v>-684600</v>
+        <v>-644200</v>
       </c>
       <c r="J91" s="3">
-        <v>-616200</v>
+        <v>-579800</v>
       </c>
       <c r="K91" s="3">
         <v>-577200</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-484400</v>
+        <v>-455800</v>
       </c>
       <c r="E94" s="3">
-        <v>-437900</v>
+        <v>-412000</v>
       </c>
       <c r="F94" s="3">
-        <v>-522000</v>
+        <v>-491200</v>
       </c>
       <c r="G94" s="3">
-        <v>-563100</v>
+        <v>-529800</v>
       </c>
       <c r="H94" s="3">
-        <v>-489100</v>
+        <v>-460200</v>
       </c>
       <c r="I94" s="3">
-        <v>-721200</v>
+        <v>-678600</v>
       </c>
       <c r="J94" s="3">
-        <v>-683100</v>
+        <v>-642700</v>
       </c>
       <c r="K94" s="3">
         <v>-639800</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-76000</v>
+        <v>-71500</v>
       </c>
       <c r="E96" s="3">
-        <v>-53700</v>
+        <v>-50500</v>
       </c>
       <c r="F96" s="3">
-        <v>-125200</v>
+        <v>-117800</v>
       </c>
       <c r="G96" s="3">
-        <v>-129700</v>
+        <v>-122000</v>
       </c>
       <c r="H96" s="3">
-        <v>-125200</v>
+        <v>-117800</v>
       </c>
       <c r="I96" s="3">
-        <v>-129600</v>
+        <v>-121900</v>
       </c>
       <c r="J96" s="3">
-        <v>-187600</v>
+        <v>-176500</v>
       </c>
       <c r="K96" s="3">
         <v>-185700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-305000</v>
+        <v>-286900</v>
       </c>
       <c r="E100" s="3">
-        <v>-299200</v>
+        <v>-281500</v>
       </c>
       <c r="F100" s="3">
-        <v>-220000</v>
+        <v>-207000</v>
       </c>
       <c r="G100" s="3">
-        <v>162800</v>
+        <v>153200</v>
       </c>
       <c r="H100" s="3">
-        <v>-73600</v>
+        <v>-69300</v>
       </c>
       <c r="I100" s="3">
-        <v>136000</v>
+        <v>128000</v>
       </c>
       <c r="J100" s="3">
-        <v>-172300</v>
+        <v>-162100</v>
       </c>
       <c r="K100" s="3">
         <v>-223200</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>20500</v>
+        <v>19300</v>
       </c>
       <c r="E101" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="F101" s="3">
-        <v>-6300</v>
+        <v>-6000</v>
       </c>
       <c r="G101" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="H101" s="3">
-        <v>-6100</v>
+        <v>-5800</v>
       </c>
       <c r="I101" s="3">
-        <v>-27000</v>
+        <v>-25400</v>
       </c>
       <c r="J101" s="3">
-        <v>-24700</v>
+        <v>-23200</v>
       </c>
       <c r="K101" s="3">
         <v>12500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>62400</v>
+        <v>58700</v>
       </c>
       <c r="E102" s="3">
-        <v>115700</v>
+        <v>108900</v>
       </c>
       <c r="F102" s="3">
-        <v>-6900</v>
+        <v>-6500</v>
       </c>
       <c r="G102" s="3">
-        <v>-30300</v>
+        <v>-28600</v>
       </c>
       <c r="H102" s="3">
-        <v>104800</v>
+        <v>98600</v>
       </c>
       <c r="I102" s="3">
-        <v>-22000</v>
+        <v>-20700</v>
       </c>
       <c r="J102" s="3">
-        <v>-12500</v>
+        <v>-11800</v>
       </c>
       <c r="K102" s="3">
         <v>-187300</v>

--- a/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10699600</v>
+        <v>10349300</v>
       </c>
       <c r="E8" s="3">
-        <v>10983600</v>
+        <v>10624000</v>
       </c>
       <c r="F8" s="3">
-        <v>13308300</v>
+        <v>12872600</v>
       </c>
       <c r="G8" s="3">
-        <v>14523200</v>
+        <v>14047600</v>
       </c>
       <c r="H8" s="3">
-        <v>13472400</v>
+        <v>13031300</v>
       </c>
       <c r="I8" s="3">
-        <v>12341700</v>
+        <v>11937600</v>
       </c>
       <c r="J8" s="3">
-        <v>12794800</v>
+        <v>12375900</v>
       </c>
       <c r="K8" s="3">
         <v>14375600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8863400</v>
+        <v>8573200</v>
       </c>
       <c r="E9" s="3">
-        <v>9423500</v>
+        <v>9115000</v>
       </c>
       <c r="F9" s="3">
-        <v>11306000</v>
+        <v>10935800</v>
       </c>
       <c r="G9" s="3">
-        <v>12273300</v>
+        <v>11871400</v>
       </c>
       <c r="H9" s="3">
-        <v>11306100</v>
+        <v>10935900</v>
       </c>
       <c r="I9" s="3">
-        <v>10343300</v>
+        <v>10004600</v>
       </c>
       <c r="J9" s="3">
-        <v>10635700</v>
+        <v>10287500</v>
       </c>
       <c r="K9" s="3">
         <v>11854700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1836200</v>
+        <v>1776100</v>
       </c>
       <c r="E10" s="3">
-        <v>1560100</v>
+        <v>1509000</v>
       </c>
       <c r="F10" s="3">
-        <v>2002300</v>
+        <v>1936700</v>
       </c>
       <c r="G10" s="3">
-        <v>2249900</v>
+        <v>2176200</v>
       </c>
       <c r="H10" s="3">
-        <v>2166300</v>
+        <v>2095400</v>
       </c>
       <c r="I10" s="3">
-        <v>1998400</v>
+        <v>1932900</v>
       </c>
       <c r="J10" s="3">
-        <v>2159100</v>
+        <v>2088400</v>
       </c>
       <c r="K10" s="3">
         <v>2520800</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>512700</v>
+        <v>495900</v>
       </c>
       <c r="E14" s="3">
-        <v>109000</v>
+        <v>105400</v>
       </c>
       <c r="F14" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G14" s="3">
-        <v>13900</v>
+        <v>13400</v>
       </c>
       <c r="H14" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="I14" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J14" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="K14" s="3">
         <v>17100</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10964500</v>
+        <v>10605500</v>
       </c>
       <c r="E17" s="3">
-        <v>11002800</v>
+        <v>10642500</v>
       </c>
       <c r="F17" s="3">
-        <v>12908200</v>
+        <v>12485600</v>
       </c>
       <c r="G17" s="3">
-        <v>13901400</v>
+        <v>13446300</v>
       </c>
       <c r="H17" s="3">
-        <v>12895200</v>
+        <v>12473000</v>
       </c>
       <c r="I17" s="3">
-        <v>11823500</v>
+        <v>11436300</v>
       </c>
       <c r="J17" s="3">
-        <v>12069700</v>
+        <v>11674500</v>
       </c>
       <c r="K17" s="3">
         <v>13492700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-264900</v>
+        <v>-256200</v>
       </c>
       <c r="E18" s="3">
-        <v>-19200</v>
+        <v>-18600</v>
       </c>
       <c r="F18" s="3">
-        <v>400100</v>
+        <v>387000</v>
       </c>
       <c r="G18" s="3">
-        <v>621700</v>
+        <v>601400</v>
       </c>
       <c r="H18" s="3">
-        <v>577200</v>
+        <v>558300</v>
       </c>
       <c r="I18" s="3">
-        <v>518200</v>
+        <v>501200</v>
       </c>
       <c r="J18" s="3">
-        <v>725100</v>
+        <v>701400</v>
       </c>
       <c r="K18" s="3">
         <v>882900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>55000</v>
+        <v>53200</v>
       </c>
       <c r="E20" s="3">
-        <v>35500</v>
+        <v>34400</v>
       </c>
       <c r="F20" s="3">
-        <v>21400</v>
+        <v>20700</v>
       </c>
       <c r="G20" s="3">
-        <v>26300</v>
+        <v>25500</v>
       </c>
       <c r="H20" s="3">
-        <v>56700</v>
+        <v>54900</v>
       </c>
       <c r="I20" s="3">
-        <v>44900</v>
+        <v>43400</v>
       </c>
       <c r="J20" s="3">
-        <v>33500</v>
+        <v>32400</v>
       </c>
       <c r="K20" s="3">
         <v>52200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>190700</v>
+        <v>172300</v>
       </c>
       <c r="E21" s="3">
-        <v>415500</v>
+        <v>389700</v>
       </c>
       <c r="F21" s="3">
-        <v>844400</v>
+        <v>803900</v>
       </c>
       <c r="G21" s="3">
-        <v>1074800</v>
+        <v>1026600</v>
       </c>
       <c r="H21" s="3">
-        <v>1060800</v>
+        <v>1013100</v>
       </c>
       <c r="I21" s="3">
-        <v>935600</v>
+        <v>893700</v>
       </c>
       <c r="J21" s="3">
-        <v>1118100</v>
+        <v>1070600</v>
       </c>
       <c r="K21" s="3">
         <v>1314500</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20900</v>
+        <v>20200</v>
       </c>
       <c r="E22" s="3">
-        <v>30100</v>
+        <v>29100</v>
       </c>
       <c r="F22" s="3">
-        <v>47900</v>
+        <v>46300</v>
       </c>
       <c r="G22" s="3">
-        <v>43200</v>
+        <v>41700</v>
       </c>
       <c r="H22" s="3">
-        <v>34900</v>
+        <v>33700</v>
       </c>
       <c r="I22" s="3">
-        <v>34800</v>
+        <v>33600</v>
       </c>
       <c r="J22" s="3">
-        <v>48500</v>
+        <v>46900</v>
       </c>
       <c r="K22" s="3">
         <v>54500</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-230800</v>
+        <v>-223200</v>
       </c>
       <c r="E23" s="3">
-        <v>-13800</v>
+        <v>-13400</v>
       </c>
       <c r="F23" s="3">
-        <v>373600</v>
+        <v>361400</v>
       </c>
       <c r="G23" s="3">
-        <v>604900</v>
+        <v>585100</v>
       </c>
       <c r="H23" s="3">
-        <v>599000</v>
+        <v>579400</v>
       </c>
       <c r="I23" s="3">
-        <v>528300</v>
+        <v>511000</v>
       </c>
       <c r="J23" s="3">
-        <v>710100</v>
+        <v>686900</v>
       </c>
       <c r="K23" s="3">
         <v>880600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>343400</v>
+        <v>332200</v>
       </c>
       <c r="E24" s="3">
-        <v>32400</v>
+        <v>31300</v>
       </c>
       <c r="F24" s="3">
-        <v>119000</v>
+        <v>115100</v>
       </c>
       <c r="G24" s="3">
-        <v>157700</v>
+        <v>152500</v>
       </c>
       <c r="H24" s="3">
-        <v>173300</v>
+        <v>167600</v>
       </c>
       <c r="I24" s="3">
-        <v>125900</v>
+        <v>121800</v>
       </c>
       <c r="J24" s="3">
-        <v>211400</v>
+        <v>204500</v>
       </c>
       <c r="K24" s="3">
         <v>205800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-574200</v>
+        <v>-555400</v>
       </c>
       <c r="E26" s="3">
-        <v>-46200</v>
+        <v>-44600</v>
       </c>
       <c r="F26" s="3">
-        <v>254600</v>
+        <v>246300</v>
       </c>
       <c r="G26" s="3">
-        <v>447200</v>
+        <v>432600</v>
       </c>
       <c r="H26" s="3">
-        <v>425700</v>
+        <v>411800</v>
       </c>
       <c r="I26" s="3">
-        <v>402400</v>
+        <v>389200</v>
       </c>
       <c r="J26" s="3">
-        <v>498800</v>
+        <v>482400</v>
       </c>
       <c r="K26" s="3">
         <v>674800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-621100</v>
+        <v>-600700</v>
       </c>
       <c r="E27" s="3">
-        <v>-54900</v>
+        <v>-53100</v>
       </c>
       <c r="F27" s="3">
-        <v>230700</v>
+        <v>223100</v>
       </c>
       <c r="G27" s="3">
-        <v>402500</v>
+        <v>389300</v>
       </c>
       <c r="H27" s="3">
-        <v>376500</v>
+        <v>364100</v>
       </c>
       <c r="I27" s="3">
-        <v>362200</v>
+        <v>350300</v>
       </c>
       <c r="J27" s="3">
-        <v>477400</v>
+        <v>461800</v>
       </c>
       <c r="K27" s="3">
         <v>635500</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-55000</v>
+        <v>-53200</v>
       </c>
       <c r="E32" s="3">
-        <v>-35500</v>
+        <v>-34400</v>
       </c>
       <c r="F32" s="3">
-        <v>-21400</v>
+        <v>-20700</v>
       </c>
       <c r="G32" s="3">
-        <v>-26300</v>
+        <v>-25500</v>
       </c>
       <c r="H32" s="3">
-        <v>-56700</v>
+        <v>-54900</v>
       </c>
       <c r="I32" s="3">
-        <v>-44900</v>
+        <v>-43400</v>
       </c>
       <c r="J32" s="3">
-        <v>-33500</v>
+        <v>-32400</v>
       </c>
       <c r="K32" s="3">
         <v>-52200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-621100</v>
+        <v>-600700</v>
       </c>
       <c r="E33" s="3">
-        <v>-54900</v>
+        <v>-53100</v>
       </c>
       <c r="F33" s="3">
-        <v>230700</v>
+        <v>223100</v>
       </c>
       <c r="G33" s="3">
-        <v>402500</v>
+        <v>389300</v>
       </c>
       <c r="H33" s="3">
-        <v>376500</v>
+        <v>364100</v>
       </c>
       <c r="I33" s="3">
-        <v>362200</v>
+        <v>350300</v>
       </c>
       <c r="J33" s="3">
-        <v>477400</v>
+        <v>461800</v>
       </c>
       <c r="K33" s="3">
         <v>635500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-621100</v>
+        <v>-600700</v>
       </c>
       <c r="E35" s="3">
-        <v>-54900</v>
+        <v>-53100</v>
       </c>
       <c r="F35" s="3">
-        <v>230700</v>
+        <v>223100</v>
       </c>
       <c r="G35" s="3">
-        <v>402500</v>
+        <v>389300</v>
       </c>
       <c r="H35" s="3">
-        <v>376500</v>
+        <v>364100</v>
       </c>
       <c r="I35" s="3">
-        <v>362200</v>
+        <v>350300</v>
       </c>
       <c r="J35" s="3">
-        <v>477400</v>
+        <v>461800</v>
       </c>
       <c r="K35" s="3">
         <v>635500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>485600</v>
+        <v>469700</v>
       </c>
       <c r="E41" s="3">
-        <v>411900</v>
+        <v>398400</v>
       </c>
       <c r="F41" s="3">
-        <v>297900</v>
+        <v>288200</v>
       </c>
       <c r="G41" s="3">
-        <v>304100</v>
+        <v>294200</v>
       </c>
       <c r="H41" s="3">
-        <v>331500</v>
+        <v>320600</v>
       </c>
       <c r="I41" s="3">
-        <v>235600</v>
+        <v>227900</v>
       </c>
       <c r="J41" s="3">
-        <v>254100</v>
+        <v>245800</v>
       </c>
       <c r="K41" s="3">
         <v>308000</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2261800</v>
+        <v>2187700</v>
       </c>
       <c r="E43" s="3">
-        <v>2373000</v>
+        <v>2295300</v>
       </c>
       <c r="F43" s="3">
-        <v>2363300</v>
+        <v>2285900</v>
       </c>
       <c r="G43" s="3">
-        <v>2804900</v>
+        <v>2713100</v>
       </c>
       <c r="H43" s="3">
-        <v>2634600</v>
+        <v>2548400</v>
       </c>
       <c r="I43" s="3">
-        <v>2285400</v>
+        <v>2210600</v>
       </c>
       <c r="J43" s="3">
-        <v>2047300</v>
+        <v>1980300</v>
       </c>
       <c r="K43" s="3">
         <v>2526600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1657600</v>
+        <v>1603300</v>
       </c>
       <c r="E44" s="3">
-        <v>1470900</v>
+        <v>1422700</v>
       </c>
       <c r="F44" s="3">
-        <v>1920800</v>
+        <v>1858000</v>
       </c>
       <c r="G44" s="3">
-        <v>1924300</v>
+        <v>1861300</v>
       </c>
       <c r="H44" s="3">
-        <v>1777600</v>
+        <v>1719400</v>
       </c>
       <c r="I44" s="3">
-        <v>1492400</v>
+        <v>1443500</v>
       </c>
       <c r="J44" s="3">
-        <v>1406800</v>
+        <v>1360800</v>
       </c>
       <c r="K44" s="3">
         <v>1710400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>247700</v>
+        <v>239600</v>
       </c>
       <c r="E45" s="3">
-        <v>205600</v>
+        <v>198900</v>
       </c>
       <c r="F45" s="3">
-        <v>261200</v>
+        <v>252700</v>
       </c>
       <c r="G45" s="3">
-        <v>333700</v>
+        <v>322800</v>
       </c>
       <c r="H45" s="3">
-        <v>475900</v>
+        <v>460300</v>
       </c>
       <c r="I45" s="3">
-        <v>517000</v>
+        <v>500000</v>
       </c>
       <c r="J45" s="3">
-        <v>520400</v>
+        <v>503300</v>
       </c>
       <c r="K45" s="3">
         <v>556700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4652800</v>
+        <v>4500400</v>
       </c>
       <c r="E46" s="3">
-        <v>4461300</v>
+        <v>4315200</v>
       </c>
       <c r="F46" s="3">
-        <v>4843300</v>
+        <v>4684700</v>
       </c>
       <c r="G46" s="3">
-        <v>5367000</v>
+        <v>5191300</v>
       </c>
       <c r="H46" s="3">
-        <v>4999000</v>
+        <v>4835300</v>
       </c>
       <c r="I46" s="3">
-        <v>4530400</v>
+        <v>4382000</v>
       </c>
       <c r="J46" s="3">
-        <v>4228600</v>
+        <v>4090200</v>
       </c>
       <c r="K46" s="3">
         <v>5101600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>899600</v>
+        <v>870200</v>
       </c>
       <c r="E47" s="3">
-        <v>940500</v>
+        <v>909700</v>
       </c>
       <c r="F47" s="3">
-        <v>825200</v>
+        <v>798200</v>
       </c>
       <c r="G47" s="3">
-        <v>877400</v>
+        <v>848700</v>
       </c>
       <c r="H47" s="3">
-        <v>1716700</v>
+        <v>1660500</v>
       </c>
       <c r="I47" s="3">
-        <v>797000</v>
+        <v>770900</v>
       </c>
       <c r="J47" s="3">
-        <v>752400</v>
+        <v>727800</v>
       </c>
       <c r="K47" s="3">
         <v>1068700</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3256700</v>
+        <v>3150000</v>
       </c>
       <c r="E48" s="3">
-        <v>3189200</v>
+        <v>3084800</v>
       </c>
       <c r="F48" s="3">
-        <v>3190100</v>
+        <v>3085700</v>
       </c>
       <c r="G48" s="3">
-        <v>3178200</v>
+        <v>3074100</v>
       </c>
       <c r="H48" s="3">
-        <v>3566100</v>
+        <v>3449300</v>
       </c>
       <c r="I48" s="3">
-        <v>3115800</v>
+        <v>3013800</v>
       </c>
       <c r="J48" s="3">
-        <v>2920300</v>
+        <v>2824600</v>
       </c>
       <c r="K48" s="3">
         <v>3101400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>228200</v>
+        <v>220700</v>
       </c>
       <c r="E49" s="3">
-        <v>197300</v>
+        <v>190800</v>
       </c>
       <c r="F49" s="3">
-        <v>197200</v>
+        <v>190700</v>
       </c>
       <c r="G49" s="3">
-        <v>173100</v>
+        <v>167500</v>
       </c>
       <c r="H49" s="3">
-        <v>310200</v>
+        <v>300100</v>
       </c>
       <c r="I49" s="3">
-        <v>155500</v>
+        <v>150400</v>
       </c>
       <c r="J49" s="3">
-        <v>160500</v>
+        <v>155300</v>
       </c>
       <c r="K49" s="3">
         <v>173700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>186500</v>
+        <v>180400</v>
       </c>
       <c r="E52" s="3">
-        <v>238600</v>
+        <v>230800</v>
       </c>
       <c r="F52" s="3">
-        <v>290500</v>
+        <v>281000</v>
       </c>
       <c r="G52" s="3">
-        <v>269100</v>
+        <v>260200</v>
       </c>
       <c r="H52" s="3">
-        <v>282100</v>
+        <v>272900</v>
       </c>
       <c r="I52" s="3">
-        <v>141600</v>
+        <v>137000</v>
       </c>
       <c r="J52" s="3">
-        <v>146900</v>
+        <v>142100</v>
       </c>
       <c r="K52" s="3">
         <v>144000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9223700</v>
+        <v>8921700</v>
       </c>
       <c r="E54" s="3">
-        <v>9026900</v>
+        <v>8731300</v>
       </c>
       <c r="F54" s="3">
-        <v>9346300</v>
+        <v>9040300</v>
       </c>
       <c r="G54" s="3">
-        <v>9864900</v>
+        <v>9541900</v>
       </c>
       <c r="H54" s="3">
-        <v>9427000</v>
+        <v>9118300</v>
       </c>
       <c r="I54" s="3">
-        <v>8740200</v>
+        <v>8454000</v>
       </c>
       <c r="J54" s="3">
-        <v>8208800</v>
+        <v>7940000</v>
       </c>
       <c r="K54" s="3">
         <v>9589400</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1838200</v>
+        <v>1778000</v>
       </c>
       <c r="E57" s="3">
-        <v>1681000</v>
+        <v>1625900</v>
       </c>
       <c r="F57" s="3">
-        <v>1753600</v>
+        <v>1696200</v>
       </c>
       <c r="G57" s="3">
-        <v>2070200</v>
+        <v>2002500</v>
       </c>
       <c r="H57" s="3">
-        <v>2250400</v>
+        <v>2176700</v>
       </c>
       <c r="I57" s="3">
-        <v>1944700</v>
+        <v>1881000</v>
       </c>
       <c r="J57" s="3">
-        <v>1858600</v>
+        <v>1797800</v>
       </c>
       <c r="K57" s="3">
         <v>2242100</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1125400</v>
+        <v>1088600</v>
       </c>
       <c r="E58" s="3">
-        <v>1214800</v>
+        <v>1175000</v>
       </c>
       <c r="F58" s="3">
-        <v>1410600</v>
+        <v>1364400</v>
       </c>
       <c r="G58" s="3">
-        <v>1488500</v>
+        <v>1439800</v>
       </c>
       <c r="H58" s="3">
-        <v>1253800</v>
+        <v>1212800</v>
       </c>
       <c r="I58" s="3">
-        <v>1151500</v>
+        <v>1113800</v>
       </c>
       <c r="J58" s="3">
-        <v>835600</v>
+        <v>808300</v>
       </c>
       <c r="K58" s="3">
         <v>1086600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1538500</v>
+        <v>1488100</v>
       </c>
       <c r="E59" s="3">
-        <v>961400</v>
+        <v>929900</v>
       </c>
       <c r="F59" s="3">
-        <v>1008100</v>
+        <v>975100</v>
       </c>
       <c r="G59" s="3">
-        <v>1152700</v>
+        <v>1115000</v>
       </c>
       <c r="H59" s="3">
-        <v>1167700</v>
+        <v>1129400</v>
       </c>
       <c r="I59" s="3">
-        <v>1016900</v>
+        <v>983600</v>
       </c>
       <c r="J59" s="3">
-        <v>1098000</v>
+        <v>1062000</v>
       </c>
       <c r="K59" s="3">
         <v>1227500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4502100</v>
+        <v>4354700</v>
       </c>
       <c r="E60" s="3">
-        <v>3857100</v>
+        <v>3730800</v>
       </c>
       <c r="F60" s="3">
-        <v>4172300</v>
+        <v>4035700</v>
       </c>
       <c r="G60" s="3">
-        <v>4711500</v>
+        <v>4557200</v>
       </c>
       <c r="H60" s="3">
-        <v>4617700</v>
+        <v>4466500</v>
       </c>
       <c r="I60" s="3">
-        <v>4113100</v>
+        <v>3978500</v>
       </c>
       <c r="J60" s="3">
-        <v>3792300</v>
+        <v>3668100</v>
       </c>
       <c r="K60" s="3">
         <v>4556200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>127900</v>
+        <v>123700</v>
       </c>
       <c r="E61" s="3">
-        <v>120300</v>
+        <v>116400</v>
       </c>
       <c r="F61" s="3">
-        <v>155700</v>
+        <v>150600</v>
       </c>
       <c r="G61" s="3">
-        <v>290300</v>
+        <v>280800</v>
       </c>
       <c r="H61" s="3">
-        <v>226600</v>
+        <v>219200</v>
       </c>
       <c r="I61" s="3">
-        <v>279200</v>
+        <v>270100</v>
       </c>
       <c r="J61" s="3">
-        <v>330800</v>
+        <v>320000</v>
       </c>
       <c r="K61" s="3">
         <v>348600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>811300</v>
+        <v>784800</v>
       </c>
       <c r="E62" s="3">
-        <v>615700</v>
+        <v>595600</v>
       </c>
       <c r="F62" s="3">
-        <v>674000</v>
+        <v>651900</v>
       </c>
       <c r="G62" s="3">
-        <v>491000</v>
+        <v>474900</v>
       </c>
       <c r="H62" s="3">
-        <v>530300</v>
+        <v>512900</v>
       </c>
       <c r="I62" s="3">
-        <v>588200</v>
+        <v>568900</v>
       </c>
       <c r="J62" s="3">
-        <v>612100</v>
+        <v>592000</v>
       </c>
       <c r="K62" s="3">
         <v>715000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5865300</v>
+        <v>5673300</v>
       </c>
       <c r="E66" s="3">
-        <v>4964200</v>
+        <v>4801700</v>
       </c>
       <c r="F66" s="3">
-        <v>5372100</v>
+        <v>5196200</v>
       </c>
       <c r="G66" s="3">
-        <v>5887200</v>
+        <v>5694500</v>
       </c>
       <c r="H66" s="3">
-        <v>5744500</v>
+        <v>5556400</v>
       </c>
       <c r="I66" s="3">
-        <v>5329200</v>
+        <v>5154700</v>
       </c>
       <c r="J66" s="3">
-        <v>5060400</v>
+        <v>4894700</v>
       </c>
       <c r="K66" s="3">
         <v>6016100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2045700</v>
+        <v>1978700</v>
       </c>
       <c r="E72" s="3">
-        <v>2759000</v>
+        <v>2668700</v>
       </c>
       <c r="F72" s="3">
-        <v>2864400</v>
+        <v>2770600</v>
       </c>
       <c r="G72" s="3">
-        <v>2751600</v>
+        <v>2661500</v>
       </c>
       <c r="H72" s="3">
-        <v>2477700</v>
+        <v>2396600</v>
       </c>
       <c r="I72" s="3">
-        <v>2219800</v>
+        <v>2147100</v>
       </c>
       <c r="J72" s="3">
-        <v>1979900</v>
+        <v>1915000</v>
       </c>
       <c r="K72" s="3">
         <v>1954100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3358400</v>
+        <v>3248400</v>
       </c>
       <c r="E76" s="3">
-        <v>4062600</v>
+        <v>3929600</v>
       </c>
       <c r="F76" s="3">
-        <v>3974200</v>
+        <v>3844100</v>
       </c>
       <c r="G76" s="3">
-        <v>3977600</v>
+        <v>3847400</v>
       </c>
       <c r="H76" s="3">
-        <v>3682500</v>
+        <v>3561900</v>
       </c>
       <c r="I76" s="3">
-        <v>3411000</v>
+        <v>3299300</v>
       </c>
       <c r="J76" s="3">
-        <v>3148400</v>
+        <v>3045300</v>
       </c>
       <c r="K76" s="3">
         <v>3573300</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-621100</v>
+        <v>-600700</v>
       </c>
       <c r="E81" s="3">
-        <v>-54900</v>
+        <v>-53100</v>
       </c>
       <c r="F81" s="3">
-        <v>230700</v>
+        <v>223100</v>
       </c>
       <c r="G81" s="3">
-        <v>402500</v>
+        <v>389300</v>
       </c>
       <c r="H81" s="3">
-        <v>376500</v>
+        <v>364100</v>
       </c>
       <c r="I81" s="3">
-        <v>362200</v>
+        <v>350300</v>
       </c>
       <c r="J81" s="3">
-        <v>477400</v>
+        <v>461800</v>
       </c>
       <c r="K81" s="3">
         <v>635500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>402800</v>
+        <v>389600</v>
       </c>
       <c r="E83" s="3">
-        <v>401300</v>
+        <v>388200</v>
       </c>
       <c r="F83" s="3">
-        <v>425200</v>
+        <v>411300</v>
       </c>
       <c r="G83" s="3">
-        <v>429100</v>
+        <v>415000</v>
       </c>
       <c r="H83" s="3">
-        <v>429200</v>
+        <v>415200</v>
       </c>
       <c r="I83" s="3">
-        <v>374500</v>
+        <v>362300</v>
       </c>
       <c r="J83" s="3">
-        <v>361500</v>
+        <v>349600</v>
       </c>
       <c r="K83" s="3">
         <v>375000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>782200</v>
+        <v>756600</v>
       </c>
       <c r="E89" s="3">
-        <v>794800</v>
+        <v>768800</v>
       </c>
       <c r="F89" s="3">
-        <v>697600</v>
+        <v>674800</v>
       </c>
       <c r="G89" s="3">
-        <v>351100</v>
+        <v>339600</v>
       </c>
       <c r="H89" s="3">
-        <v>633800</v>
+        <v>613100</v>
       </c>
       <c r="I89" s="3">
-        <v>555300</v>
+        <v>537100</v>
       </c>
       <c r="J89" s="3">
-        <v>816300</v>
+        <v>789600</v>
       </c>
       <c r="K89" s="3">
         <v>663300</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-362300</v>
+        <v>-350500</v>
       </c>
       <c r="E91" s="3">
-        <v>-369500</v>
+        <v>-357400</v>
       </c>
       <c r="F91" s="3">
-        <v>-442600</v>
+        <v>-428100</v>
       </c>
       <c r="G91" s="3">
-        <v>-432000</v>
+        <v>-417900</v>
       </c>
       <c r="H91" s="3">
-        <v>-440400</v>
+        <v>-426000</v>
       </c>
       <c r="I91" s="3">
-        <v>-644200</v>
+        <v>-623100</v>
       </c>
       <c r="J91" s="3">
-        <v>-579800</v>
+        <v>-560900</v>
       </c>
       <c r="K91" s="3">
         <v>-577200</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-455800</v>
+        <v>-440900</v>
       </c>
       <c r="E94" s="3">
-        <v>-412000</v>
+        <v>-398500</v>
       </c>
       <c r="F94" s="3">
-        <v>-491200</v>
+        <v>-475100</v>
       </c>
       <c r="G94" s="3">
-        <v>-529800</v>
+        <v>-512500</v>
       </c>
       <c r="H94" s="3">
-        <v>-460200</v>
+        <v>-445100</v>
       </c>
       <c r="I94" s="3">
-        <v>-678600</v>
+        <v>-656400</v>
       </c>
       <c r="J94" s="3">
-        <v>-642700</v>
+        <v>-621700</v>
       </c>
       <c r="K94" s="3">
         <v>-639800</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-71500</v>
+        <v>-69200</v>
       </c>
       <c r="E96" s="3">
-        <v>-50500</v>
+        <v>-48800</v>
       </c>
       <c r="F96" s="3">
-        <v>-117800</v>
+        <v>-114000</v>
       </c>
       <c r="G96" s="3">
-        <v>-122000</v>
+        <v>-118000</v>
       </c>
       <c r="H96" s="3">
-        <v>-117800</v>
+        <v>-113900</v>
       </c>
       <c r="I96" s="3">
-        <v>-121900</v>
+        <v>-117900</v>
       </c>
       <c r="J96" s="3">
-        <v>-176500</v>
+        <v>-170700</v>
       </c>
       <c r="K96" s="3">
         <v>-185700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-286900</v>
+        <v>-277600</v>
       </c>
       <c r="E100" s="3">
-        <v>-281500</v>
+        <v>-272300</v>
       </c>
       <c r="F100" s="3">
-        <v>-207000</v>
+        <v>-200200</v>
       </c>
       <c r="G100" s="3">
-        <v>153200</v>
+        <v>148200</v>
       </c>
       <c r="H100" s="3">
-        <v>-69300</v>
+        <v>-67000</v>
       </c>
       <c r="I100" s="3">
-        <v>128000</v>
+        <v>123800</v>
       </c>
       <c r="J100" s="3">
-        <v>-162100</v>
+        <v>-156800</v>
       </c>
       <c r="K100" s="3">
         <v>-223200</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19300</v>
+        <v>18600</v>
       </c>
       <c r="E101" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="F101" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="G101" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="H101" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="I101" s="3">
-        <v>-25400</v>
+        <v>-24500</v>
       </c>
       <c r="J101" s="3">
-        <v>-23200</v>
+        <v>-22500</v>
       </c>
       <c r="K101" s="3">
         <v>12500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>58700</v>
+        <v>56800</v>
       </c>
       <c r="E102" s="3">
-        <v>108900</v>
+        <v>105300</v>
       </c>
       <c r="F102" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="G102" s="3">
-        <v>-28600</v>
+        <v>-27600</v>
       </c>
       <c r="H102" s="3">
-        <v>98600</v>
+        <v>95400</v>
       </c>
       <c r="I102" s="3">
-        <v>-20700</v>
+        <v>-20000</v>
       </c>
       <c r="J102" s="3">
-        <v>-11800</v>
+        <v>-11400</v>
       </c>
       <c r="K102" s="3">
         <v>-187300</v>

--- a/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10349300</v>
+        <v>10728800</v>
       </c>
       <c r="E8" s="3">
-        <v>10624000</v>
+        <v>11013500</v>
       </c>
       <c r="F8" s="3">
-        <v>12872600</v>
+        <v>13344600</v>
       </c>
       <c r="G8" s="3">
-        <v>14047600</v>
+        <v>14562800</v>
       </c>
       <c r="H8" s="3">
-        <v>13031300</v>
+        <v>13509200</v>
       </c>
       <c r="I8" s="3">
-        <v>11937600</v>
+        <v>12375300</v>
       </c>
       <c r="J8" s="3">
-        <v>12375900</v>
+        <v>12829700</v>
       </c>
       <c r="K8" s="3">
         <v>14375600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8573200</v>
+        <v>8887600</v>
       </c>
       <c r="E9" s="3">
-        <v>9115000</v>
+        <v>9449200</v>
       </c>
       <c r="F9" s="3">
-        <v>10935800</v>
+        <v>11336900</v>
       </c>
       <c r="G9" s="3">
-        <v>11871400</v>
+        <v>12306800</v>
       </c>
       <c r="H9" s="3">
-        <v>10935900</v>
+        <v>11336900</v>
       </c>
       <c r="I9" s="3">
-        <v>10004600</v>
+        <v>10371500</v>
       </c>
       <c r="J9" s="3">
-        <v>10287500</v>
+        <v>10664700</v>
       </c>
       <c r="K9" s="3">
         <v>11854700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1776100</v>
+        <v>1841200</v>
       </c>
       <c r="E10" s="3">
-        <v>1509000</v>
+        <v>1564300</v>
       </c>
       <c r="F10" s="3">
-        <v>1936700</v>
+        <v>2007800</v>
       </c>
       <c r="G10" s="3">
-        <v>2176200</v>
+        <v>2256000</v>
       </c>
       <c r="H10" s="3">
-        <v>2095400</v>
+        <v>2172200</v>
       </c>
       <c r="I10" s="3">
-        <v>1932900</v>
+        <v>2003800</v>
       </c>
       <c r="J10" s="3">
-        <v>2088400</v>
+        <v>2165000</v>
       </c>
       <c r="K10" s="3">
         <v>2520800</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>495900</v>
+        <v>514100</v>
       </c>
       <c r="E14" s="3">
-        <v>105400</v>
+        <v>109300</v>
       </c>
       <c r="F14" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G14" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="H14" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="I14" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J14" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="K14" s="3">
         <v>17100</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10605500</v>
+        <v>10994400</v>
       </c>
       <c r="E17" s="3">
-        <v>10642500</v>
+        <v>11032800</v>
       </c>
       <c r="F17" s="3">
-        <v>12485600</v>
+        <v>12943400</v>
       </c>
       <c r="G17" s="3">
-        <v>13446300</v>
+        <v>13939400</v>
       </c>
       <c r="H17" s="3">
-        <v>12473000</v>
+        <v>12930400</v>
       </c>
       <c r="I17" s="3">
-        <v>11436300</v>
+        <v>11855700</v>
       </c>
       <c r="J17" s="3">
-        <v>11674500</v>
+        <v>12102600</v>
       </c>
       <c r="K17" s="3">
         <v>13492700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-256200</v>
+        <v>-265600</v>
       </c>
       <c r="E18" s="3">
-        <v>-18600</v>
+        <v>-19300</v>
       </c>
       <c r="F18" s="3">
-        <v>387000</v>
+        <v>401200</v>
       </c>
       <c r="G18" s="3">
-        <v>601400</v>
+        <v>623400</v>
       </c>
       <c r="H18" s="3">
-        <v>558300</v>
+        <v>578700</v>
       </c>
       <c r="I18" s="3">
-        <v>501200</v>
+        <v>519600</v>
       </c>
       <c r="J18" s="3">
-        <v>701400</v>
+        <v>727100</v>
       </c>
       <c r="K18" s="3">
         <v>882900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>53200</v>
+        <v>55100</v>
       </c>
       <c r="E20" s="3">
-        <v>34400</v>
+        <v>35600</v>
       </c>
       <c r="F20" s="3">
-        <v>20700</v>
+        <v>21400</v>
       </c>
       <c r="G20" s="3">
-        <v>25500</v>
+        <v>26400</v>
       </c>
       <c r="H20" s="3">
-        <v>54900</v>
+        <v>56900</v>
       </c>
       <c r="I20" s="3">
-        <v>43400</v>
+        <v>45000</v>
       </c>
       <c r="J20" s="3">
-        <v>32400</v>
+        <v>33600</v>
       </c>
       <c r="K20" s="3">
         <v>52200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>172300</v>
+        <v>189600</v>
       </c>
       <c r="E21" s="3">
-        <v>389700</v>
+        <v>415000</v>
       </c>
       <c r="F21" s="3">
-        <v>803900</v>
+        <v>845000</v>
       </c>
       <c r="G21" s="3">
-        <v>1026600</v>
+        <v>1076000</v>
       </c>
       <c r="H21" s="3">
-        <v>1013100</v>
+        <v>1062000</v>
       </c>
       <c r="I21" s="3">
-        <v>893700</v>
+        <v>936600</v>
       </c>
       <c r="J21" s="3">
-        <v>1070600</v>
+        <v>1119700</v>
       </c>
       <c r="K21" s="3">
         <v>1314500</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20200</v>
+        <v>20900</v>
       </c>
       <c r="E22" s="3">
-        <v>29100</v>
+        <v>30200</v>
       </c>
       <c r="F22" s="3">
-        <v>46300</v>
+        <v>48000</v>
       </c>
       <c r="G22" s="3">
-        <v>41700</v>
+        <v>43300</v>
       </c>
       <c r="H22" s="3">
-        <v>33700</v>
+        <v>35000</v>
       </c>
       <c r="I22" s="3">
-        <v>33600</v>
+        <v>34900</v>
       </c>
       <c r="J22" s="3">
-        <v>46900</v>
+        <v>48600</v>
       </c>
       <c r="K22" s="3">
         <v>54500</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-223200</v>
+        <v>-231400</v>
       </c>
       <c r="E23" s="3">
-        <v>-13400</v>
+        <v>-13800</v>
       </c>
       <c r="F23" s="3">
-        <v>361400</v>
+        <v>374700</v>
       </c>
       <c r="G23" s="3">
-        <v>585100</v>
+        <v>606500</v>
       </c>
       <c r="H23" s="3">
-        <v>579400</v>
+        <v>600700</v>
       </c>
       <c r="I23" s="3">
-        <v>511000</v>
+        <v>529800</v>
       </c>
       <c r="J23" s="3">
-        <v>686900</v>
+        <v>712100</v>
       </c>
       <c r="K23" s="3">
         <v>880600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>332200</v>
+        <v>344400</v>
       </c>
       <c r="E24" s="3">
-        <v>31300</v>
+        <v>32400</v>
       </c>
       <c r="F24" s="3">
-        <v>115100</v>
+        <v>119300</v>
       </c>
       <c r="G24" s="3">
-        <v>152500</v>
+        <v>158100</v>
       </c>
       <c r="H24" s="3">
-        <v>167600</v>
+        <v>173800</v>
       </c>
       <c r="I24" s="3">
-        <v>121800</v>
+        <v>126300</v>
       </c>
       <c r="J24" s="3">
-        <v>204500</v>
+        <v>212000</v>
       </c>
       <c r="K24" s="3">
         <v>205800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-555400</v>
+        <v>-575800</v>
       </c>
       <c r="E26" s="3">
-        <v>-44600</v>
+        <v>-46300</v>
       </c>
       <c r="F26" s="3">
-        <v>246300</v>
+        <v>255300</v>
       </c>
       <c r="G26" s="3">
-        <v>432600</v>
+        <v>448400</v>
       </c>
       <c r="H26" s="3">
-        <v>411800</v>
+        <v>426900</v>
       </c>
       <c r="I26" s="3">
-        <v>389200</v>
+        <v>403500</v>
       </c>
       <c r="J26" s="3">
-        <v>482400</v>
+        <v>500100</v>
       </c>
       <c r="K26" s="3">
         <v>674800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-600700</v>
+        <v>-622800</v>
       </c>
       <c r="E27" s="3">
-        <v>-53100</v>
+        <v>-55000</v>
       </c>
       <c r="F27" s="3">
-        <v>223100</v>
+        <v>231300</v>
       </c>
       <c r="G27" s="3">
-        <v>389300</v>
+        <v>403600</v>
       </c>
       <c r="H27" s="3">
-        <v>364100</v>
+        <v>377500</v>
       </c>
       <c r="I27" s="3">
-        <v>350300</v>
+        <v>363100</v>
       </c>
       <c r="J27" s="3">
-        <v>461800</v>
+        <v>478700</v>
       </c>
       <c r="K27" s="3">
         <v>635500</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-53200</v>
+        <v>-55100</v>
       </c>
       <c r="E32" s="3">
-        <v>-34400</v>
+        <v>-35600</v>
       </c>
       <c r="F32" s="3">
-        <v>-20700</v>
+        <v>-21400</v>
       </c>
       <c r="G32" s="3">
-        <v>-25500</v>
+        <v>-26400</v>
       </c>
       <c r="H32" s="3">
-        <v>-54900</v>
+        <v>-56900</v>
       </c>
       <c r="I32" s="3">
-        <v>-43400</v>
+        <v>-45000</v>
       </c>
       <c r="J32" s="3">
-        <v>-32400</v>
+        <v>-33600</v>
       </c>
       <c r="K32" s="3">
         <v>-52200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-600700</v>
+        <v>-622800</v>
       </c>
       <c r="E33" s="3">
-        <v>-53100</v>
+        <v>-55000</v>
       </c>
       <c r="F33" s="3">
-        <v>223100</v>
+        <v>231300</v>
       </c>
       <c r="G33" s="3">
-        <v>389300</v>
+        <v>403600</v>
       </c>
       <c r="H33" s="3">
-        <v>364100</v>
+        <v>377500</v>
       </c>
       <c r="I33" s="3">
-        <v>350300</v>
+        <v>363100</v>
       </c>
       <c r="J33" s="3">
-        <v>461800</v>
+        <v>478700</v>
       </c>
       <c r="K33" s="3">
         <v>635500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-600700</v>
+        <v>-622800</v>
       </c>
       <c r="E35" s="3">
-        <v>-53100</v>
+        <v>-55000</v>
       </c>
       <c r="F35" s="3">
-        <v>223100</v>
+        <v>231300</v>
       </c>
       <c r="G35" s="3">
-        <v>389300</v>
+        <v>403600</v>
       </c>
       <c r="H35" s="3">
-        <v>364100</v>
+        <v>377500</v>
       </c>
       <c r="I35" s="3">
-        <v>350300</v>
+        <v>363100</v>
       </c>
       <c r="J35" s="3">
-        <v>461800</v>
+        <v>478700</v>
       </c>
       <c r="K35" s="3">
         <v>635500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>469700</v>
+        <v>487000</v>
       </c>
       <c r="E41" s="3">
-        <v>398400</v>
+        <v>413000</v>
       </c>
       <c r="F41" s="3">
-        <v>288200</v>
+        <v>298800</v>
       </c>
       <c r="G41" s="3">
-        <v>294200</v>
+        <v>305000</v>
       </c>
       <c r="H41" s="3">
-        <v>320600</v>
+        <v>332400</v>
       </c>
       <c r="I41" s="3">
-        <v>227900</v>
+        <v>236300</v>
       </c>
       <c r="J41" s="3">
-        <v>245800</v>
+        <v>254800</v>
       </c>
       <c r="K41" s="3">
         <v>308000</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2187700</v>
+        <v>2268000</v>
       </c>
       <c r="E43" s="3">
-        <v>2295300</v>
+        <v>2379400</v>
       </c>
       <c r="F43" s="3">
-        <v>2285900</v>
+        <v>2369800</v>
       </c>
       <c r="G43" s="3">
-        <v>2713100</v>
+        <v>2812600</v>
       </c>
       <c r="H43" s="3">
-        <v>2548400</v>
+        <v>2641800</v>
       </c>
       <c r="I43" s="3">
-        <v>2210600</v>
+        <v>2291600</v>
       </c>
       <c r="J43" s="3">
-        <v>1980300</v>
+        <v>2052900</v>
       </c>
       <c r="K43" s="3">
         <v>2526600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1603300</v>
+        <v>1662100</v>
       </c>
       <c r="E44" s="3">
-        <v>1422700</v>
+        <v>1474900</v>
       </c>
       <c r="F44" s="3">
-        <v>1858000</v>
+        <v>1926100</v>
       </c>
       <c r="G44" s="3">
-        <v>1861300</v>
+        <v>1929500</v>
       </c>
       <c r="H44" s="3">
-        <v>1719400</v>
+        <v>1782500</v>
       </c>
       <c r="I44" s="3">
-        <v>1443500</v>
+        <v>1496400</v>
       </c>
       <c r="J44" s="3">
-        <v>1360800</v>
+        <v>1410700</v>
       </c>
       <c r="K44" s="3">
         <v>1710400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>239600</v>
+        <v>248400</v>
       </c>
       <c r="E45" s="3">
-        <v>198900</v>
+        <v>206200</v>
       </c>
       <c r="F45" s="3">
-        <v>252700</v>
+        <v>261900</v>
       </c>
       <c r="G45" s="3">
-        <v>322800</v>
+        <v>334600</v>
       </c>
       <c r="H45" s="3">
-        <v>460300</v>
+        <v>477200</v>
       </c>
       <c r="I45" s="3">
-        <v>500000</v>
+        <v>518400</v>
       </c>
       <c r="J45" s="3">
-        <v>503300</v>
+        <v>521800</v>
       </c>
       <c r="K45" s="3">
         <v>556700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4500400</v>
+        <v>4665400</v>
       </c>
       <c r="E46" s="3">
-        <v>4315200</v>
+        <v>4473400</v>
       </c>
       <c r="F46" s="3">
-        <v>4684700</v>
+        <v>4856500</v>
       </c>
       <c r="G46" s="3">
-        <v>5191300</v>
+        <v>5381700</v>
       </c>
       <c r="H46" s="3">
-        <v>4835300</v>
+        <v>5012600</v>
       </c>
       <c r="I46" s="3">
-        <v>4382000</v>
+        <v>4542700</v>
       </c>
       <c r="J46" s="3">
-        <v>4090200</v>
+        <v>4240200</v>
       </c>
       <c r="K46" s="3">
         <v>5101600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>870200</v>
+        <v>902100</v>
       </c>
       <c r="E47" s="3">
-        <v>909700</v>
+        <v>943000</v>
       </c>
       <c r="F47" s="3">
-        <v>798200</v>
+        <v>827400</v>
       </c>
       <c r="G47" s="3">
-        <v>848700</v>
+        <v>879800</v>
       </c>
       <c r="H47" s="3">
-        <v>1660500</v>
+        <v>1721400</v>
       </c>
       <c r="I47" s="3">
-        <v>770900</v>
+        <v>799100</v>
       </c>
       <c r="J47" s="3">
-        <v>727800</v>
+        <v>754500</v>
       </c>
       <c r="K47" s="3">
         <v>1068700</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3150000</v>
+        <v>3265600</v>
       </c>
       <c r="E48" s="3">
-        <v>3084800</v>
+        <v>3197900</v>
       </c>
       <c r="F48" s="3">
-        <v>3085700</v>
+        <v>3198800</v>
       </c>
       <c r="G48" s="3">
-        <v>3074100</v>
+        <v>3186900</v>
       </c>
       <c r="H48" s="3">
-        <v>3449300</v>
+        <v>3575800</v>
       </c>
       <c r="I48" s="3">
-        <v>3013800</v>
+        <v>3124300</v>
       </c>
       <c r="J48" s="3">
-        <v>2824600</v>
+        <v>2928200</v>
       </c>
       <c r="K48" s="3">
         <v>3101400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>220700</v>
+        <v>228800</v>
       </c>
       <c r="E49" s="3">
-        <v>190800</v>
+        <v>197800</v>
       </c>
       <c r="F49" s="3">
-        <v>190700</v>
+        <v>197700</v>
       </c>
       <c r="G49" s="3">
-        <v>167500</v>
+        <v>173600</v>
       </c>
       <c r="H49" s="3">
-        <v>300100</v>
+        <v>311100</v>
       </c>
       <c r="I49" s="3">
-        <v>150400</v>
+        <v>155900</v>
       </c>
       <c r="J49" s="3">
-        <v>155300</v>
+        <v>161000</v>
       </c>
       <c r="K49" s="3">
         <v>173700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>180400</v>
+        <v>187000</v>
       </c>
       <c r="E52" s="3">
-        <v>230800</v>
+        <v>239300</v>
       </c>
       <c r="F52" s="3">
-        <v>281000</v>
+        <v>291300</v>
       </c>
       <c r="G52" s="3">
-        <v>260200</v>
+        <v>269800</v>
       </c>
       <c r="H52" s="3">
-        <v>272900</v>
+        <v>282900</v>
       </c>
       <c r="I52" s="3">
-        <v>137000</v>
+        <v>142000</v>
       </c>
       <c r="J52" s="3">
-        <v>142100</v>
+        <v>147300</v>
       </c>
       <c r="K52" s="3">
         <v>144000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8921700</v>
+        <v>9248900</v>
       </c>
       <c r="E54" s="3">
-        <v>8731300</v>
+        <v>9051500</v>
       </c>
       <c r="F54" s="3">
-        <v>9040300</v>
+        <v>9371800</v>
       </c>
       <c r="G54" s="3">
-        <v>9541900</v>
+        <v>9891800</v>
       </c>
       <c r="H54" s="3">
-        <v>9118300</v>
+        <v>9452700</v>
       </c>
       <c r="I54" s="3">
-        <v>8454000</v>
+        <v>8764000</v>
       </c>
       <c r="J54" s="3">
-        <v>7940000</v>
+        <v>8231200</v>
       </c>
       <c r="K54" s="3">
         <v>9589400</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1778000</v>
+        <v>1843200</v>
       </c>
       <c r="E57" s="3">
-        <v>1625900</v>
+        <v>1685600</v>
       </c>
       <c r="F57" s="3">
-        <v>1696200</v>
+        <v>1758400</v>
       </c>
       <c r="G57" s="3">
-        <v>2002500</v>
+        <v>2075900</v>
       </c>
       <c r="H57" s="3">
-        <v>2176700</v>
+        <v>2256500</v>
       </c>
       <c r="I57" s="3">
-        <v>1881000</v>
+        <v>1950000</v>
       </c>
       <c r="J57" s="3">
-        <v>1797800</v>
+        <v>1863700</v>
       </c>
       <c r="K57" s="3">
         <v>2242100</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1088600</v>
+        <v>1128500</v>
       </c>
       <c r="E58" s="3">
-        <v>1175000</v>
+        <v>1218100</v>
       </c>
       <c r="F58" s="3">
-        <v>1364400</v>
+        <v>1414500</v>
       </c>
       <c r="G58" s="3">
-        <v>1439800</v>
+        <v>1492600</v>
       </c>
       <c r="H58" s="3">
-        <v>1212800</v>
+        <v>1257200</v>
       </c>
       <c r="I58" s="3">
-        <v>1113800</v>
+        <v>1154700</v>
       </c>
       <c r="J58" s="3">
-        <v>808300</v>
+        <v>837900</v>
       </c>
       <c r="K58" s="3">
         <v>1086600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1488100</v>
+        <v>1542700</v>
       </c>
       <c r="E59" s="3">
-        <v>929900</v>
+        <v>964000</v>
       </c>
       <c r="F59" s="3">
-        <v>975100</v>
+        <v>1010900</v>
       </c>
       <c r="G59" s="3">
-        <v>1115000</v>
+        <v>1155900</v>
       </c>
       <c r="H59" s="3">
-        <v>1129400</v>
+        <v>1170900</v>
       </c>
       <c r="I59" s="3">
-        <v>983600</v>
+        <v>1019700</v>
       </c>
       <c r="J59" s="3">
-        <v>1062000</v>
+        <v>1101000</v>
       </c>
       <c r="K59" s="3">
         <v>1227500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4354700</v>
+        <v>4514400</v>
       </c>
       <c r="E60" s="3">
-        <v>3730800</v>
+        <v>3867600</v>
       </c>
       <c r="F60" s="3">
-        <v>4035700</v>
+        <v>4183700</v>
       </c>
       <c r="G60" s="3">
-        <v>4557200</v>
+        <v>4724300</v>
       </c>
       <c r="H60" s="3">
-        <v>4466500</v>
+        <v>4630300</v>
       </c>
       <c r="I60" s="3">
-        <v>3978500</v>
+        <v>4124300</v>
       </c>
       <c r="J60" s="3">
-        <v>3668100</v>
+        <v>3802600</v>
       </c>
       <c r="K60" s="3">
         <v>4556200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>123700</v>
+        <v>128300</v>
       </c>
       <c r="E61" s="3">
-        <v>116400</v>
+        <v>120600</v>
       </c>
       <c r="F61" s="3">
-        <v>150600</v>
+        <v>156100</v>
       </c>
       <c r="G61" s="3">
-        <v>280800</v>
+        <v>291100</v>
       </c>
       <c r="H61" s="3">
-        <v>219200</v>
+        <v>227200</v>
       </c>
       <c r="I61" s="3">
-        <v>270100</v>
+        <v>280000</v>
       </c>
       <c r="J61" s="3">
-        <v>320000</v>
+        <v>331700</v>
       </c>
       <c r="K61" s="3">
         <v>348600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>784800</v>
+        <v>813500</v>
       </c>
       <c r="E62" s="3">
-        <v>595600</v>
+        <v>617400</v>
       </c>
       <c r="F62" s="3">
-        <v>651900</v>
+        <v>675800</v>
       </c>
       <c r="G62" s="3">
-        <v>474900</v>
+        <v>492300</v>
       </c>
       <c r="H62" s="3">
-        <v>512900</v>
+        <v>531700</v>
       </c>
       <c r="I62" s="3">
-        <v>568900</v>
+        <v>589800</v>
       </c>
       <c r="J62" s="3">
-        <v>592000</v>
+        <v>613700</v>
       </c>
       <c r="K62" s="3">
         <v>715000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5673300</v>
+        <v>5881300</v>
       </c>
       <c r="E66" s="3">
-        <v>4801700</v>
+        <v>4977800</v>
       </c>
       <c r="F66" s="3">
-        <v>5196200</v>
+        <v>5386700</v>
       </c>
       <c r="G66" s="3">
-        <v>5694500</v>
+        <v>5903300</v>
       </c>
       <c r="H66" s="3">
-        <v>5556400</v>
+        <v>5760200</v>
       </c>
       <c r="I66" s="3">
-        <v>5154700</v>
+        <v>5343800</v>
       </c>
       <c r="J66" s="3">
-        <v>4894700</v>
+        <v>5074200</v>
       </c>
       <c r="K66" s="3">
         <v>6016100</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1978700</v>
+        <v>2051300</v>
       </c>
       <c r="E72" s="3">
-        <v>2668700</v>
+        <v>2766600</v>
       </c>
       <c r="F72" s="3">
-        <v>2770600</v>
+        <v>2872200</v>
       </c>
       <c r="G72" s="3">
-        <v>2661500</v>
+        <v>2759100</v>
       </c>
       <c r="H72" s="3">
-        <v>2396600</v>
+        <v>2484400</v>
       </c>
       <c r="I72" s="3">
-        <v>2147100</v>
+        <v>2225800</v>
       </c>
       <c r="J72" s="3">
-        <v>1915000</v>
+        <v>1985300</v>
       </c>
       <c r="K72" s="3">
         <v>1954100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3248400</v>
+        <v>3367500</v>
       </c>
       <c r="E76" s="3">
-        <v>3929600</v>
+        <v>4073700</v>
       </c>
       <c r="F76" s="3">
-        <v>3844100</v>
+        <v>3985100</v>
       </c>
       <c r="G76" s="3">
-        <v>3847400</v>
+        <v>3988500</v>
       </c>
       <c r="H76" s="3">
-        <v>3561900</v>
+        <v>3692500</v>
       </c>
       <c r="I76" s="3">
-        <v>3299300</v>
+        <v>3420300</v>
       </c>
       <c r="J76" s="3">
-        <v>3045300</v>
+        <v>3156900</v>
       </c>
       <c r="K76" s="3">
         <v>3573300</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-600700</v>
+        <v>-622800</v>
       </c>
       <c r="E81" s="3">
-        <v>-53100</v>
+        <v>-55000</v>
       </c>
       <c r="F81" s="3">
-        <v>223100</v>
+        <v>231300</v>
       </c>
       <c r="G81" s="3">
-        <v>389300</v>
+        <v>403600</v>
       </c>
       <c r="H81" s="3">
-        <v>364100</v>
+        <v>377500</v>
       </c>
       <c r="I81" s="3">
-        <v>350300</v>
+        <v>363100</v>
       </c>
       <c r="J81" s="3">
-        <v>461800</v>
+        <v>478700</v>
       </c>
       <c r="K81" s="3">
         <v>635500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>389600</v>
+        <v>403900</v>
       </c>
       <c r="E83" s="3">
-        <v>388200</v>
+        <v>402400</v>
       </c>
       <c r="F83" s="3">
-        <v>411300</v>
+        <v>426400</v>
       </c>
       <c r="G83" s="3">
-        <v>415000</v>
+        <v>430300</v>
       </c>
       <c r="H83" s="3">
-        <v>415200</v>
+        <v>430400</v>
       </c>
       <c r="I83" s="3">
-        <v>362300</v>
+        <v>375600</v>
       </c>
       <c r="J83" s="3">
-        <v>349600</v>
+        <v>362500</v>
       </c>
       <c r="K83" s="3">
         <v>375000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>756600</v>
+        <v>784300</v>
       </c>
       <c r="E89" s="3">
-        <v>768800</v>
+        <v>797000</v>
       </c>
       <c r="F89" s="3">
-        <v>674800</v>
+        <v>699500</v>
       </c>
       <c r="G89" s="3">
-        <v>339600</v>
+        <v>352100</v>
       </c>
       <c r="H89" s="3">
-        <v>613100</v>
+        <v>635600</v>
       </c>
       <c r="I89" s="3">
-        <v>537100</v>
+        <v>556800</v>
       </c>
       <c r="J89" s="3">
-        <v>789600</v>
+        <v>818500</v>
       </c>
       <c r="K89" s="3">
         <v>663300</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-350500</v>
+        <v>-363300</v>
       </c>
       <c r="E91" s="3">
-        <v>-357400</v>
+        <v>-370500</v>
       </c>
       <c r="F91" s="3">
-        <v>-428100</v>
+        <v>-443800</v>
       </c>
       <c r="G91" s="3">
-        <v>-417900</v>
+        <v>-433200</v>
       </c>
       <c r="H91" s="3">
-        <v>-426000</v>
+        <v>-441600</v>
       </c>
       <c r="I91" s="3">
-        <v>-623100</v>
+        <v>-645900</v>
       </c>
       <c r="J91" s="3">
-        <v>-560900</v>
+        <v>-581400</v>
       </c>
       <c r="K91" s="3">
         <v>-577200</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-440900</v>
+        <v>-457000</v>
       </c>
       <c r="E94" s="3">
-        <v>-398500</v>
+        <v>-413200</v>
       </c>
       <c r="F94" s="3">
-        <v>-475100</v>
+        <v>-492500</v>
       </c>
       <c r="G94" s="3">
-        <v>-512500</v>
+        <v>-531300</v>
       </c>
       <c r="H94" s="3">
-        <v>-445100</v>
+        <v>-461400</v>
       </c>
       <c r="I94" s="3">
-        <v>-656400</v>
+        <v>-680500</v>
       </c>
       <c r="J94" s="3">
-        <v>-621700</v>
+        <v>-644500</v>
       </c>
       <c r="K94" s="3">
         <v>-639800</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-69200</v>
+        <v>-71700</v>
       </c>
       <c r="E96" s="3">
-        <v>-48800</v>
+        <v>-50600</v>
       </c>
       <c r="F96" s="3">
-        <v>-114000</v>
+        <v>-118200</v>
       </c>
       <c r="G96" s="3">
-        <v>-118000</v>
+        <v>-122400</v>
       </c>
       <c r="H96" s="3">
-        <v>-113900</v>
+        <v>-118100</v>
       </c>
       <c r="I96" s="3">
-        <v>-117900</v>
+        <v>-122300</v>
       </c>
       <c r="J96" s="3">
-        <v>-170700</v>
+        <v>-177000</v>
       </c>
       <c r="K96" s="3">
         <v>-185700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-277600</v>
+        <v>-287700</v>
       </c>
       <c r="E100" s="3">
-        <v>-272300</v>
+        <v>-282300</v>
       </c>
       <c r="F100" s="3">
-        <v>-200200</v>
+        <v>-207600</v>
       </c>
       <c r="G100" s="3">
-        <v>148200</v>
+        <v>153600</v>
       </c>
       <c r="H100" s="3">
-        <v>-67000</v>
+        <v>-69400</v>
       </c>
       <c r="I100" s="3">
-        <v>123800</v>
+        <v>128300</v>
       </c>
       <c r="J100" s="3">
-        <v>-156800</v>
+        <v>-162600</v>
       </c>
       <c r="K100" s="3">
         <v>-223200</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>18600</v>
+        <v>19300</v>
       </c>
       <c r="E101" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="F101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-5800</v>
       </c>
-      <c r="G101" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-5600</v>
-      </c>
       <c r="I101" s="3">
-        <v>-24500</v>
+        <v>-25400</v>
       </c>
       <c r="J101" s="3">
-        <v>-22500</v>
+        <v>-23300</v>
       </c>
       <c r="K101" s="3">
         <v>12500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>56800</v>
+        <v>58900</v>
       </c>
       <c r="E102" s="3">
-        <v>105300</v>
+        <v>109200</v>
       </c>
       <c r="F102" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="G102" s="3">
-        <v>-27600</v>
+        <v>-28600</v>
       </c>
       <c r="H102" s="3">
-        <v>95400</v>
+        <v>98900</v>
       </c>
       <c r="I102" s="3">
-        <v>-20000</v>
+        <v>-20800</v>
       </c>
       <c r="J102" s="3">
-        <v>-11400</v>
+        <v>-11800</v>
       </c>
       <c r="K102" s="3">
         <v>-187300</v>

--- a/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>HINOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>37711</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>37346</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10728800</v>
+        <v>10867900</v>
       </c>
       <c r="E8" s="3">
-        <v>11013500</v>
+        <v>10524500</v>
       </c>
       <c r="F8" s="3">
-        <v>13344600</v>
+        <v>10803800</v>
       </c>
       <c r="G8" s="3">
-        <v>14562800</v>
+        <v>13090500</v>
       </c>
       <c r="H8" s="3">
-        <v>13509200</v>
+        <v>14285400</v>
       </c>
       <c r="I8" s="3">
-        <v>12375300</v>
+        <v>13251900</v>
       </c>
       <c r="J8" s="3">
+        <v>12139600</v>
+      </c>
+      <c r="K8" s="3">
         <v>12829700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14375600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15568100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7729400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6858100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8887600</v>
+        <v>9139900</v>
       </c>
       <c r="E9" s="3">
-        <v>9449200</v>
+        <v>8718300</v>
       </c>
       <c r="F9" s="3">
-        <v>11336900</v>
+        <v>9269200</v>
       </c>
       <c r="G9" s="3">
-        <v>12306800</v>
+        <v>11120900</v>
       </c>
       <c r="H9" s="3">
-        <v>11336900</v>
+        <v>12072400</v>
       </c>
       <c r="I9" s="3">
-        <v>10371500</v>
+        <v>11121000</v>
       </c>
       <c r="J9" s="3">
+        <v>10174000</v>
+      </c>
+      <c r="K9" s="3">
         <v>10664700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11854700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12911000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6556000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5772600</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1841200</v>
+        <v>1727900</v>
       </c>
       <c r="E10" s="3">
-        <v>1564300</v>
+        <v>1806100</v>
       </c>
       <c r="F10" s="3">
-        <v>2007800</v>
+        <v>1534500</v>
       </c>
       <c r="G10" s="3">
-        <v>2256000</v>
+        <v>1969500</v>
       </c>
       <c r="H10" s="3">
-        <v>2172200</v>
+        <v>2213000</v>
       </c>
       <c r="I10" s="3">
-        <v>2003800</v>
+        <v>2130900</v>
       </c>
       <c r="J10" s="3">
+        <v>1965700</v>
+      </c>
+      <c r="K10" s="3">
         <v>2165000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2520800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2657000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1173400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1085500</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,48 +944,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>514100</v>
+        <v>764100</v>
       </c>
       <c r="E14" s="3">
-        <v>109300</v>
+        <v>504300</v>
       </c>
       <c r="F14" s="3">
+        <v>107200</v>
+      </c>
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
-        <v>13900</v>
-      </c>
       <c r="H14" s="3">
-        <v>11700</v>
+        <v>13700</v>
       </c>
       <c r="I14" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J14" s="3">
         <v>3500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-4700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>17100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-13700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>70800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3100</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10994400</v>
+        <v>11506500</v>
       </c>
       <c r="E17" s="3">
-        <v>11032800</v>
+        <v>10785000</v>
       </c>
       <c r="F17" s="3">
-        <v>12943400</v>
+        <v>10822700</v>
       </c>
       <c r="G17" s="3">
-        <v>13939400</v>
+        <v>12696900</v>
       </c>
       <c r="H17" s="3">
-        <v>12930400</v>
+        <v>13673800</v>
       </c>
       <c r="I17" s="3">
-        <v>11855700</v>
+        <v>12684100</v>
       </c>
       <c r="J17" s="3">
+        <v>11629900</v>
+      </c>
+      <c r="K17" s="3">
         <v>12102600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13492700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14526800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7625800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6779900</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-265600</v>
+        <v>-638600</v>
       </c>
       <c r="E18" s="3">
-        <v>-19300</v>
+        <v>-260500</v>
       </c>
       <c r="F18" s="3">
-        <v>401200</v>
+        <v>-18900</v>
       </c>
       <c r="G18" s="3">
-        <v>623400</v>
+        <v>393600</v>
       </c>
       <c r="H18" s="3">
-        <v>578700</v>
+        <v>611600</v>
       </c>
       <c r="I18" s="3">
-        <v>519600</v>
+        <v>567700</v>
       </c>
       <c r="J18" s="3">
+        <v>509700</v>
+      </c>
+      <c r="K18" s="3">
         <v>727100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>882900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1041300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>103600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>78200</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>55100</v>
+        <v>42100</v>
       </c>
       <c r="E20" s="3">
-        <v>35600</v>
+        <v>54100</v>
       </c>
       <c r="F20" s="3">
-        <v>21400</v>
+        <v>34900</v>
       </c>
       <c r="G20" s="3">
-        <v>26400</v>
+        <v>21000</v>
       </c>
       <c r="H20" s="3">
-        <v>56900</v>
+        <v>25900</v>
       </c>
       <c r="I20" s="3">
-        <v>45000</v>
+        <v>55800</v>
       </c>
       <c r="J20" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K20" s="3">
         <v>33600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>52200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>36300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>43200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>136500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>189600</v>
+        <v>-180600</v>
       </c>
       <c r="E21" s="3">
-        <v>415000</v>
+        <v>192500</v>
       </c>
       <c r="F21" s="3">
-        <v>845000</v>
+        <v>413500</v>
       </c>
       <c r="G21" s="3">
-        <v>1076000</v>
+        <v>835700</v>
       </c>
       <c r="H21" s="3">
-        <v>1062000</v>
+        <v>1062400</v>
       </c>
       <c r="I21" s="3">
-        <v>936600</v>
+        <v>1048700</v>
       </c>
       <c r="J21" s="3">
+        <v>924800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1119700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1314500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1487200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>433600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>502300</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20900</v>
+        <v>49000</v>
       </c>
       <c r="E22" s="3">
-        <v>30200</v>
+        <v>20500</v>
       </c>
       <c r="F22" s="3">
-        <v>48000</v>
+        <v>29600</v>
       </c>
       <c r="G22" s="3">
-        <v>43300</v>
+        <v>47100</v>
       </c>
       <c r="H22" s="3">
-        <v>35000</v>
+        <v>42400</v>
       </c>
       <c r="I22" s="3">
-        <v>34900</v>
+        <v>34300</v>
       </c>
       <c r="J22" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K22" s="3">
         <v>48600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>54500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>47700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>33800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>57600</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-231400</v>
+        <v>-645500</v>
       </c>
       <c r="E23" s="3">
-        <v>-13800</v>
+        <v>-227000</v>
       </c>
       <c r="F23" s="3">
-        <v>374700</v>
+        <v>-13600</v>
       </c>
       <c r="G23" s="3">
-        <v>606500</v>
+        <v>367500</v>
       </c>
       <c r="H23" s="3">
-        <v>600700</v>
+        <v>595000</v>
       </c>
       <c r="I23" s="3">
-        <v>529800</v>
+        <v>589200</v>
       </c>
       <c r="J23" s="3">
+        <v>519700</v>
+      </c>
+      <c r="K23" s="3">
         <v>712100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>880600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1029900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>113000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>157000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>344400</v>
+        <v>134200</v>
       </c>
       <c r="E24" s="3">
-        <v>32400</v>
+        <v>337800</v>
       </c>
       <c r="F24" s="3">
-        <v>119300</v>
+        <v>31800</v>
       </c>
       <c r="G24" s="3">
-        <v>158100</v>
+        <v>117000</v>
       </c>
       <c r="H24" s="3">
-        <v>173800</v>
+        <v>155100</v>
       </c>
       <c r="I24" s="3">
-        <v>126300</v>
+        <v>170500</v>
       </c>
       <c r="J24" s="3">
+        <v>123800</v>
+      </c>
+      <c r="K24" s="3">
         <v>212000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>205800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>137000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>63000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>85200</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-575800</v>
+        <v>-779700</v>
       </c>
       <c r="E26" s="3">
-        <v>-46300</v>
+        <v>-564800</v>
       </c>
       <c r="F26" s="3">
-        <v>255300</v>
+        <v>-45400</v>
       </c>
       <c r="G26" s="3">
-        <v>448400</v>
+        <v>250500</v>
       </c>
       <c r="H26" s="3">
-        <v>426900</v>
+        <v>439900</v>
       </c>
       <c r="I26" s="3">
-        <v>403500</v>
+        <v>418800</v>
       </c>
       <c r="J26" s="3">
+        <v>395800</v>
+      </c>
+      <c r="K26" s="3">
         <v>500100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>674800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>892900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>50000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>71800</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-622800</v>
+        <v>-848400</v>
       </c>
       <c r="E27" s="3">
-        <v>-55000</v>
+        <v>-610900</v>
       </c>
       <c r="F27" s="3">
-        <v>231300</v>
+        <v>-54000</v>
       </c>
       <c r="G27" s="3">
-        <v>403600</v>
+        <v>226900</v>
       </c>
       <c r="H27" s="3">
-        <v>377500</v>
+        <v>395900</v>
       </c>
       <c r="I27" s="3">
-        <v>363100</v>
+        <v>370300</v>
       </c>
       <c r="J27" s="3">
+        <v>356200</v>
+      </c>
+      <c r="K27" s="3">
         <v>478700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>635500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>816400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>45100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>75700</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-55100</v>
+        <v>-42100</v>
       </c>
       <c r="E32" s="3">
-        <v>-35600</v>
+        <v>-54100</v>
       </c>
       <c r="F32" s="3">
-        <v>-21400</v>
+        <v>-34900</v>
       </c>
       <c r="G32" s="3">
-        <v>-26400</v>
+        <v>-21000</v>
       </c>
       <c r="H32" s="3">
-        <v>-56900</v>
+        <v>-25900</v>
       </c>
       <c r="I32" s="3">
-        <v>-45000</v>
+        <v>-55800</v>
       </c>
       <c r="J32" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-33600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-52200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-36300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-43200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-136500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-622800</v>
+        <v>-848400</v>
       </c>
       <c r="E33" s="3">
-        <v>-55000</v>
+        <v>-610900</v>
       </c>
       <c r="F33" s="3">
-        <v>231300</v>
+        <v>-54000</v>
       </c>
       <c r="G33" s="3">
-        <v>403600</v>
+        <v>226900</v>
       </c>
       <c r="H33" s="3">
-        <v>377500</v>
+        <v>395900</v>
       </c>
       <c r="I33" s="3">
-        <v>363100</v>
+        <v>370300</v>
       </c>
       <c r="J33" s="3">
+        <v>356200</v>
+      </c>
+      <c r="K33" s="3">
         <v>478700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>635500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>816400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>45100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>75700</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-622800</v>
+        <v>-848400</v>
       </c>
       <c r="E35" s="3">
-        <v>-55000</v>
+        <v>-610900</v>
       </c>
       <c r="F35" s="3">
-        <v>231300</v>
+        <v>-54000</v>
       </c>
       <c r="G35" s="3">
-        <v>403600</v>
+        <v>226900</v>
       </c>
       <c r="H35" s="3">
-        <v>377500</v>
+        <v>395900</v>
       </c>
       <c r="I35" s="3">
-        <v>363100</v>
+        <v>370300</v>
       </c>
       <c r="J35" s="3">
+        <v>356200</v>
+      </c>
+      <c r="K35" s="3">
         <v>478700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>635500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>816400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>45100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>75700</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>37711</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>37346</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>487000</v>
+        <v>592300</v>
       </c>
       <c r="E41" s="3">
-        <v>413000</v>
+        <v>477700</v>
       </c>
       <c r="F41" s="3">
-        <v>298800</v>
+        <v>405100</v>
       </c>
       <c r="G41" s="3">
-        <v>305000</v>
+        <v>293100</v>
       </c>
       <c r="H41" s="3">
-        <v>332400</v>
+        <v>299200</v>
       </c>
       <c r="I41" s="3">
-        <v>236300</v>
+        <v>326100</v>
       </c>
       <c r="J41" s="3">
+        <v>231800</v>
+      </c>
+      <c r="K41" s="3">
         <v>254800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>308000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>409800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>394900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>337900</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1890,287 +1979,311 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>22300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>96700</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2268000</v>
+        <v>2280000</v>
       </c>
       <c r="E43" s="3">
-        <v>2379400</v>
+        <v>2224800</v>
       </c>
       <c r="F43" s="3">
-        <v>2369800</v>
+        <v>2334100</v>
       </c>
       <c r="G43" s="3">
-        <v>2812600</v>
+        <v>2324600</v>
       </c>
       <c r="H43" s="3">
-        <v>2641800</v>
+        <v>2759000</v>
       </c>
       <c r="I43" s="3">
-        <v>2291600</v>
+        <v>2591500</v>
       </c>
       <c r="J43" s="3">
+        <v>2248000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2052900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2526600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2577900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1891500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2053700</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1662100</v>
+        <v>2008000</v>
       </c>
       <c r="E44" s="3">
-        <v>1474900</v>
+        <v>1630400</v>
       </c>
       <c r="F44" s="3">
-        <v>1926100</v>
+        <v>1446800</v>
       </c>
       <c r="G44" s="3">
-        <v>1929500</v>
+        <v>1889400</v>
       </c>
       <c r="H44" s="3">
-        <v>1782500</v>
+        <v>1892800</v>
       </c>
       <c r="I44" s="3">
-        <v>1496400</v>
+        <v>1748500</v>
       </c>
       <c r="J44" s="3">
+        <v>1467900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1410700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1710400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1424100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>594900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>653200</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>248400</v>
+        <v>405900</v>
       </c>
       <c r="E45" s="3">
-        <v>206200</v>
+        <v>243700</v>
       </c>
       <c r="F45" s="3">
-        <v>261900</v>
+        <v>202200</v>
       </c>
       <c r="G45" s="3">
-        <v>334600</v>
+        <v>256900</v>
       </c>
       <c r="H45" s="3">
-        <v>477200</v>
+        <v>328200</v>
       </c>
       <c r="I45" s="3">
-        <v>518400</v>
+        <v>468100</v>
       </c>
       <c r="J45" s="3">
+        <v>508500</v>
+      </c>
+      <c r="K45" s="3">
         <v>521800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>556700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>631000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>224600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>206500</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4665400</v>
+        <v>5286200</v>
       </c>
       <c r="E46" s="3">
-        <v>4473400</v>
+        <v>4576600</v>
       </c>
       <c r="F46" s="3">
-        <v>4856500</v>
+        <v>4388200</v>
       </c>
       <c r="G46" s="3">
-        <v>5381700</v>
+        <v>4764000</v>
       </c>
       <c r="H46" s="3">
-        <v>5012600</v>
+        <v>5279200</v>
       </c>
       <c r="I46" s="3">
-        <v>4542700</v>
+        <v>4917100</v>
       </c>
       <c r="J46" s="3">
+        <v>4456200</v>
+      </c>
+      <c r="K46" s="3">
         <v>4240200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5101600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5042800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3128200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3348100</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>902100</v>
+        <v>937500</v>
       </c>
       <c r="E47" s="3">
-        <v>943000</v>
+        <v>884900</v>
       </c>
       <c r="F47" s="3">
-        <v>827400</v>
+        <v>925100</v>
       </c>
       <c r="G47" s="3">
-        <v>879800</v>
+        <v>811700</v>
       </c>
       <c r="H47" s="3">
-        <v>1721400</v>
+        <v>863100</v>
       </c>
       <c r="I47" s="3">
-        <v>799100</v>
+        <v>1688600</v>
       </c>
       <c r="J47" s="3">
+        <v>783900</v>
+      </c>
+      <c r="K47" s="3">
         <v>754500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1068700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>910100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>609200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>598300</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3265600</v>
+        <v>3173700</v>
       </c>
       <c r="E48" s="3">
-        <v>3197900</v>
+        <v>3203400</v>
       </c>
       <c r="F48" s="3">
-        <v>3198800</v>
+        <v>3137000</v>
       </c>
       <c r="G48" s="3">
-        <v>3186900</v>
+        <v>3137900</v>
       </c>
       <c r="H48" s="3">
-        <v>3575800</v>
+        <v>3126200</v>
       </c>
       <c r="I48" s="3">
-        <v>3124300</v>
+        <v>3507700</v>
       </c>
       <c r="J48" s="3">
+        <v>3064800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2928200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3101400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3003400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2854700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2935000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>228800</v>
+        <v>228400</v>
       </c>
       <c r="E49" s="3">
-        <v>197800</v>
+        <v>224400</v>
       </c>
       <c r="F49" s="3">
-        <v>197700</v>
+        <v>194100</v>
       </c>
       <c r="G49" s="3">
-        <v>173600</v>
+        <v>194000</v>
       </c>
       <c r="H49" s="3">
-        <v>311100</v>
+        <v>170300</v>
       </c>
       <c r="I49" s="3">
-        <v>155900</v>
+        <v>305200</v>
       </c>
       <c r="J49" s="3">
+        <v>152900</v>
+      </c>
+      <c r="K49" s="3">
         <v>161000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>173700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>161100</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>187000</v>
+        <v>192200</v>
       </c>
       <c r="E52" s="3">
-        <v>239300</v>
+        <v>183400</v>
       </c>
       <c r="F52" s="3">
-        <v>291300</v>
+        <v>234700</v>
       </c>
       <c r="G52" s="3">
-        <v>269800</v>
+        <v>285800</v>
       </c>
       <c r="H52" s="3">
-        <v>282900</v>
+        <v>264700</v>
       </c>
       <c r="I52" s="3">
-        <v>142000</v>
+        <v>277500</v>
       </c>
       <c r="J52" s="3">
+        <v>139300</v>
+      </c>
+      <c r="K52" s="3">
         <v>147300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>144000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>128900</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>19000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9248900</v>
+        <v>9818100</v>
       </c>
       <c r="E54" s="3">
-        <v>9051500</v>
+        <v>9072700</v>
       </c>
       <c r="F54" s="3">
-        <v>9371800</v>
+        <v>8879100</v>
       </c>
       <c r="G54" s="3">
-        <v>9891800</v>
+        <v>9193300</v>
       </c>
       <c r="H54" s="3">
-        <v>9452700</v>
+        <v>9703400</v>
       </c>
       <c r="I54" s="3">
-        <v>8764000</v>
+        <v>9272600</v>
       </c>
       <c r="J54" s="3">
+        <v>8597100</v>
+      </c>
+      <c r="K54" s="3">
         <v>8231200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9589400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9246300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6542600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6900400</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1843200</v>
+        <v>1756600</v>
       </c>
       <c r="E57" s="3">
-        <v>1685600</v>
+        <v>1808100</v>
       </c>
       <c r="F57" s="3">
-        <v>1758400</v>
+        <v>1653500</v>
       </c>
       <c r="G57" s="3">
-        <v>2075900</v>
+        <v>1724900</v>
       </c>
       <c r="H57" s="3">
-        <v>2256500</v>
+        <v>2036300</v>
       </c>
       <c r="I57" s="3">
-        <v>1950000</v>
+        <v>2213600</v>
       </c>
       <c r="J57" s="3">
+        <v>1912900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1863700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2242100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2267000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1021200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>875200</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1128500</v>
+        <v>1844800</v>
       </c>
       <c r="E58" s="3">
-        <v>1218100</v>
+        <v>1107000</v>
       </c>
       <c r="F58" s="3">
-        <v>1414500</v>
+        <v>1194900</v>
       </c>
       <c r="G58" s="3">
-        <v>1492600</v>
+        <v>1387500</v>
       </c>
       <c r="H58" s="3">
-        <v>1257200</v>
+        <v>1464100</v>
       </c>
       <c r="I58" s="3">
-        <v>1154700</v>
+        <v>1233300</v>
       </c>
       <c r="J58" s="3">
+        <v>1132700</v>
+      </c>
+      <c r="K58" s="3">
         <v>837900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1086600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1173300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2635100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2947700</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1542700</v>
+        <v>1994100</v>
       </c>
       <c r="E59" s="3">
-        <v>964000</v>
+        <v>1513300</v>
       </c>
       <c r="F59" s="3">
-        <v>1010900</v>
+        <v>945600</v>
       </c>
       <c r="G59" s="3">
-        <v>1155900</v>
+        <v>991600</v>
       </c>
       <c r="H59" s="3">
-        <v>1170900</v>
+        <v>1133800</v>
       </c>
       <c r="I59" s="3">
-        <v>1019700</v>
+        <v>1148600</v>
       </c>
       <c r="J59" s="3">
+        <v>1000300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1101000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1227500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1299600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>505900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>452800</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4514400</v>
+        <v>5595600</v>
       </c>
       <c r="E60" s="3">
-        <v>3867600</v>
+        <v>4428400</v>
       </c>
       <c r="F60" s="3">
-        <v>4183700</v>
+        <v>3794000</v>
       </c>
       <c r="G60" s="3">
-        <v>4724300</v>
+        <v>4104000</v>
       </c>
       <c r="H60" s="3">
-        <v>4630300</v>
+        <v>4634300</v>
       </c>
       <c r="I60" s="3">
-        <v>4124300</v>
+        <v>4542100</v>
       </c>
       <c r="J60" s="3">
+        <v>4045800</v>
+      </c>
+      <c r="K60" s="3">
         <v>3802600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4556200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4739900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4162300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4275700</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>128300</v>
+        <v>359800</v>
       </c>
       <c r="E61" s="3">
-        <v>120600</v>
+        <v>125800</v>
       </c>
       <c r="F61" s="3">
-        <v>156100</v>
+        <v>118300</v>
       </c>
       <c r="G61" s="3">
-        <v>291100</v>
+        <v>153100</v>
       </c>
       <c r="H61" s="3">
-        <v>227200</v>
+        <v>285600</v>
       </c>
       <c r="I61" s="3">
-        <v>280000</v>
+        <v>222900</v>
       </c>
       <c r="J61" s="3">
+        <v>274700</v>
+      </c>
+      <c r="K61" s="3">
         <v>331700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>348600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>298600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>200900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>372200</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>813500</v>
+        <v>737800</v>
       </c>
       <c r="E62" s="3">
-        <v>617400</v>
+        <v>798000</v>
       </c>
       <c r="F62" s="3">
-        <v>675800</v>
+        <v>605600</v>
       </c>
       <c r="G62" s="3">
-        <v>492300</v>
+        <v>663000</v>
       </c>
       <c r="H62" s="3">
-        <v>531700</v>
+        <v>483000</v>
       </c>
       <c r="I62" s="3">
-        <v>589800</v>
+        <v>521600</v>
       </c>
       <c r="J62" s="3">
+        <v>578500</v>
+      </c>
+      <c r="K62" s="3">
         <v>613700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>715000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>730700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>477800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>534200</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5881300</v>
+        <v>7165400</v>
       </c>
       <c r="E66" s="3">
-        <v>4977800</v>
+        <v>5769300</v>
       </c>
       <c r="F66" s="3">
-        <v>5386700</v>
+        <v>4883000</v>
       </c>
       <c r="G66" s="3">
-        <v>5903300</v>
+        <v>5284100</v>
       </c>
       <c r="H66" s="3">
-        <v>5760200</v>
+        <v>5790900</v>
       </c>
       <c r="I66" s="3">
-        <v>5343800</v>
+        <v>5650400</v>
       </c>
       <c r="J66" s="3">
+        <v>5242000</v>
+      </c>
+      <c r="K66" s="3">
         <v>5074200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6016100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6129300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4910300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5270800</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2051300</v>
+        <v>1163900</v>
       </c>
       <c r="E72" s="3">
-        <v>2766600</v>
+        <v>2012200</v>
       </c>
       <c r="F72" s="3">
-        <v>2872200</v>
+        <v>2713900</v>
       </c>
       <c r="G72" s="3">
-        <v>2759100</v>
+        <v>2817500</v>
       </c>
       <c r="H72" s="3">
-        <v>2484400</v>
+        <v>2706600</v>
       </c>
       <c r="I72" s="3">
-        <v>2225800</v>
+        <v>2437100</v>
       </c>
       <c r="J72" s="3">
+        <v>2183400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1985300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1954100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1623600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>273100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>254400</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3367500</v>
+        <v>2652700</v>
       </c>
       <c r="E76" s="3">
-        <v>4073700</v>
+        <v>3303400</v>
       </c>
       <c r="F76" s="3">
-        <v>3985100</v>
+        <v>3996100</v>
       </c>
       <c r="G76" s="3">
-        <v>3988500</v>
+        <v>3909200</v>
       </c>
       <c r="H76" s="3">
-        <v>3692500</v>
+        <v>3912500</v>
       </c>
       <c r="I76" s="3">
-        <v>3420300</v>
+        <v>3622200</v>
       </c>
       <c r="J76" s="3">
+        <v>3355100</v>
+      </c>
+      <c r="K76" s="3">
         <v>3156900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3573300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3116900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1632300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1629600</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>37711</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>37346</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-622800</v>
+        <v>-848400</v>
       </c>
       <c r="E81" s="3">
-        <v>-55000</v>
+        <v>-610900</v>
       </c>
       <c r="F81" s="3">
-        <v>231300</v>
+        <v>-54000</v>
       </c>
       <c r="G81" s="3">
-        <v>403600</v>
+        <v>226900</v>
       </c>
       <c r="H81" s="3">
-        <v>377500</v>
+        <v>395900</v>
       </c>
       <c r="I81" s="3">
-        <v>363100</v>
+        <v>370300</v>
       </c>
       <c r="J81" s="3">
+        <v>356200</v>
+      </c>
+      <c r="K81" s="3">
         <v>478700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>635500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>816400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>45100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>75700</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>403900</v>
+        <v>413100</v>
       </c>
       <c r="E83" s="3">
-        <v>402400</v>
+        <v>396200</v>
       </c>
       <c r="F83" s="3">
-        <v>426400</v>
+        <v>394800</v>
       </c>
       <c r="G83" s="3">
-        <v>430300</v>
+        <v>418300</v>
       </c>
       <c r="H83" s="3">
-        <v>430400</v>
+        <v>422100</v>
       </c>
       <c r="I83" s="3">
-        <v>375600</v>
+        <v>422200</v>
       </c>
       <c r="J83" s="3">
+        <v>368400</v>
+      </c>
+      <c r="K83" s="3">
         <v>362500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>375000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>407800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>286200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>287300</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>784300</v>
+        <v>-294200</v>
       </c>
       <c r="E89" s="3">
-        <v>797000</v>
+        <v>769400</v>
       </c>
       <c r="F89" s="3">
-        <v>699500</v>
+        <v>781800</v>
       </c>
       <c r="G89" s="3">
-        <v>352100</v>
+        <v>686200</v>
       </c>
       <c r="H89" s="3">
-        <v>635600</v>
+        <v>345400</v>
       </c>
       <c r="I89" s="3">
-        <v>556800</v>
+        <v>623500</v>
       </c>
       <c r="J89" s="3">
+        <v>546200</v>
+      </c>
+      <c r="K89" s="3">
         <v>818500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>663300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1309300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>763400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>535700</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-363300</v>
+        <v>-420600</v>
       </c>
       <c r="E91" s="3">
-        <v>-370500</v>
+        <v>-356400</v>
       </c>
       <c r="F91" s="3">
-        <v>-443800</v>
+        <v>-363500</v>
       </c>
       <c r="G91" s="3">
+        <v>-435300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-424900</v>
+      </c>
+      <c r="I91" s="3">
         <v>-433200</v>
       </c>
-      <c r="H91" s="3">
-        <v>-441600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-645900</v>
-      </c>
       <c r="J91" s="3">
+        <v>-633600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-581400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-577200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-531200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-272200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-166600</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-457000</v>
+        <v>-434500</v>
       </c>
       <c r="E94" s="3">
-        <v>-413200</v>
+        <v>-448300</v>
       </c>
       <c r="F94" s="3">
-        <v>-492500</v>
+        <v>-405300</v>
       </c>
       <c r="G94" s="3">
-        <v>-531300</v>
+        <v>-483100</v>
       </c>
       <c r="H94" s="3">
-        <v>-461400</v>
+        <v>-521200</v>
       </c>
       <c r="I94" s="3">
-        <v>-680500</v>
+        <v>-452700</v>
       </c>
       <c r="J94" s="3">
+        <v>-667500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-644500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-639800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-566200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-218300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7400</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-71700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-50600</v>
+        <v>-70400</v>
       </c>
       <c r="F96" s="3">
-        <v>-118200</v>
+        <v>-49700</v>
       </c>
       <c r="G96" s="3">
-        <v>-122400</v>
+        <v>-115900</v>
       </c>
       <c r="H96" s="3">
-        <v>-118100</v>
+        <v>-120000</v>
       </c>
       <c r="I96" s="3">
-        <v>-122300</v>
+        <v>-115800</v>
       </c>
       <c r="J96" s="3">
+        <v>-119900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-177000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-185700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-172900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-26100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-287700</v>
+        <v>823400</v>
       </c>
       <c r="E100" s="3">
-        <v>-282300</v>
+        <v>-282200</v>
       </c>
       <c r="F100" s="3">
-        <v>-207600</v>
+        <v>-276900</v>
       </c>
       <c r="G100" s="3">
-        <v>153600</v>
+        <v>-203600</v>
       </c>
       <c r="H100" s="3">
-        <v>-69400</v>
+        <v>150700</v>
       </c>
       <c r="I100" s="3">
-        <v>128300</v>
+        <v>-68100</v>
       </c>
       <c r="J100" s="3">
+        <v>125900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-162600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-223200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-455400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-489600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-577300</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19300</v>
+        <v>-900</v>
       </c>
       <c r="E101" s="3">
-        <v>7700</v>
+        <v>19000</v>
       </c>
       <c r="F101" s="3">
-        <v>-6000</v>
+        <v>7600</v>
       </c>
       <c r="G101" s="3">
-        <v>-3100</v>
+        <v>-5900</v>
       </c>
       <c r="H101" s="3">
-        <v>-5800</v>
+        <v>-3000</v>
       </c>
       <c r="I101" s="3">
-        <v>-25400</v>
+        <v>-5700</v>
       </c>
       <c r="J101" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-23300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>12500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7600</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>58900</v>
+        <v>93900</v>
       </c>
       <c r="E102" s="3">
-        <v>109200</v>
+        <v>57800</v>
       </c>
       <c r="F102" s="3">
-        <v>-6500</v>
+        <v>107100</v>
       </c>
       <c r="G102" s="3">
-        <v>-28600</v>
+        <v>-6400</v>
       </c>
       <c r="H102" s="3">
-        <v>98900</v>
+        <v>-28100</v>
       </c>
       <c r="I102" s="3">
-        <v>-20800</v>
+        <v>97000</v>
       </c>
       <c r="J102" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-11800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-187300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>292800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>55100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-41500</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10867900</v>
+        <v>10355400</v>
       </c>
       <c r="E8" s="3">
-        <v>10524500</v>
+        <v>10028200</v>
       </c>
       <c r="F8" s="3">
-        <v>10803800</v>
+        <v>10294300</v>
       </c>
       <c r="G8" s="3">
-        <v>13090500</v>
+        <v>12473200</v>
       </c>
       <c r="H8" s="3">
-        <v>14285400</v>
+        <v>13611700</v>
       </c>
       <c r="I8" s="3">
-        <v>13251900</v>
+        <v>12626900</v>
       </c>
       <c r="J8" s="3">
-        <v>12139600</v>
+        <v>11567200</v>
       </c>
       <c r="K8" s="3">
         <v>12829700</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9139900</v>
+        <v>8708900</v>
       </c>
       <c r="E9" s="3">
-        <v>8718300</v>
+        <v>8307200</v>
       </c>
       <c r="F9" s="3">
-        <v>9269200</v>
+        <v>8832100</v>
       </c>
       <c r="G9" s="3">
-        <v>11120900</v>
+        <v>10596500</v>
       </c>
       <c r="H9" s="3">
-        <v>12072400</v>
+        <v>11503100</v>
       </c>
       <c r="I9" s="3">
-        <v>11121000</v>
+        <v>10596600</v>
       </c>
       <c r="J9" s="3">
-        <v>10174000</v>
+        <v>9694200</v>
       </c>
       <c r="K9" s="3">
         <v>10664700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1727900</v>
+        <v>1646500</v>
       </c>
       <c r="E10" s="3">
-        <v>1806100</v>
+        <v>1721000</v>
       </c>
       <c r="F10" s="3">
-        <v>1534500</v>
+        <v>1462200</v>
       </c>
       <c r="G10" s="3">
-        <v>1969500</v>
+        <v>1876700</v>
       </c>
       <c r="H10" s="3">
-        <v>2213000</v>
+        <v>2108700</v>
       </c>
       <c r="I10" s="3">
-        <v>2130900</v>
+        <v>2030400</v>
       </c>
       <c r="J10" s="3">
-        <v>1965700</v>
+        <v>1873000</v>
       </c>
       <c r="K10" s="3">
         <v>2165000</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>764100</v>
+        <v>728100</v>
       </c>
       <c r="E14" s="3">
-        <v>504300</v>
+        <v>480500</v>
       </c>
       <c r="F14" s="3">
-        <v>107200</v>
+        <v>102200</v>
       </c>
       <c r="G14" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H14" s="3">
-        <v>13700</v>
+        <v>13000</v>
       </c>
       <c r="I14" s="3">
-        <v>11500</v>
+        <v>10900</v>
       </c>
       <c r="J14" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="K14" s="3">
         <v>-4700</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11506500</v>
+        <v>10963900</v>
       </c>
       <c r="E17" s="3">
-        <v>10785000</v>
+        <v>10276400</v>
       </c>
       <c r="F17" s="3">
-        <v>10822700</v>
+        <v>10312300</v>
       </c>
       <c r="G17" s="3">
-        <v>12696900</v>
+        <v>12098100</v>
       </c>
       <c r="H17" s="3">
-        <v>13673800</v>
+        <v>13029000</v>
       </c>
       <c r="I17" s="3">
-        <v>12684100</v>
+        <v>12086000</v>
       </c>
       <c r="J17" s="3">
-        <v>11629900</v>
+        <v>11081500</v>
       </c>
       <c r="K17" s="3">
         <v>12102600</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-638600</v>
+        <v>-608500</v>
       </c>
       <c r="E18" s="3">
-        <v>-260500</v>
+        <v>-248200</v>
       </c>
       <c r="F18" s="3">
-        <v>-18900</v>
+        <v>-18000</v>
       </c>
       <c r="G18" s="3">
-        <v>393600</v>
+        <v>375000</v>
       </c>
       <c r="H18" s="3">
-        <v>611600</v>
+        <v>582700</v>
       </c>
       <c r="I18" s="3">
-        <v>567700</v>
+        <v>541000</v>
       </c>
       <c r="J18" s="3">
-        <v>509700</v>
+        <v>485700</v>
       </c>
       <c r="K18" s="3">
         <v>727100</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>51500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>33300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>24700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>53200</v>
+      </c>
+      <c r="J20" s="3">
         <v>42100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>54100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>34900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>21000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>25900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>55800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>44100</v>
       </c>
       <c r="K20" s="3">
         <v>33600</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-180600</v>
+        <v>-174800</v>
       </c>
       <c r="E21" s="3">
-        <v>192500</v>
+        <v>180800</v>
       </c>
       <c r="F21" s="3">
-        <v>413500</v>
+        <v>391400</v>
       </c>
       <c r="G21" s="3">
-        <v>835700</v>
+        <v>793600</v>
       </c>
       <c r="H21" s="3">
-        <v>1062400</v>
+        <v>1009500</v>
       </c>
       <c r="I21" s="3">
-        <v>1048700</v>
+        <v>996400</v>
       </c>
       <c r="J21" s="3">
-        <v>924800</v>
+        <v>878800</v>
       </c>
       <c r="K21" s="3">
         <v>1119700</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>49000</v>
+        <v>46700</v>
       </c>
       <c r="E22" s="3">
-        <v>20500</v>
+        <v>19600</v>
       </c>
       <c r="F22" s="3">
-        <v>29600</v>
+        <v>28200</v>
       </c>
       <c r="G22" s="3">
-        <v>47100</v>
+        <v>44900</v>
       </c>
       <c r="H22" s="3">
-        <v>42400</v>
+        <v>40400</v>
       </c>
       <c r="I22" s="3">
-        <v>34300</v>
+        <v>32700</v>
       </c>
       <c r="J22" s="3">
-        <v>34200</v>
+        <v>32600</v>
       </c>
       <c r="K22" s="3">
         <v>48600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-645500</v>
+        <v>-615000</v>
       </c>
       <c r="E23" s="3">
-        <v>-227000</v>
+        <v>-216300</v>
       </c>
       <c r="F23" s="3">
-        <v>-13600</v>
+        <v>-12900</v>
       </c>
       <c r="G23" s="3">
-        <v>367500</v>
+        <v>350200</v>
       </c>
       <c r="H23" s="3">
-        <v>595000</v>
+        <v>566900</v>
       </c>
       <c r="I23" s="3">
-        <v>589200</v>
+        <v>561500</v>
       </c>
       <c r="J23" s="3">
-        <v>519700</v>
+        <v>495200</v>
       </c>
       <c r="K23" s="3">
         <v>712100</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>134200</v>
+        <v>127900</v>
       </c>
       <c r="E24" s="3">
-        <v>337800</v>
+        <v>321900</v>
       </c>
       <c r="F24" s="3">
-        <v>31800</v>
+        <v>30300</v>
       </c>
       <c r="G24" s="3">
-        <v>117000</v>
+        <v>111500</v>
       </c>
       <c r="H24" s="3">
-        <v>155100</v>
+        <v>147800</v>
       </c>
       <c r="I24" s="3">
-        <v>170500</v>
+        <v>162400</v>
       </c>
       <c r="J24" s="3">
-        <v>123800</v>
+        <v>118000</v>
       </c>
       <c r="K24" s="3">
         <v>212000</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-779700</v>
+        <v>-742900</v>
       </c>
       <c r="E26" s="3">
-        <v>-564800</v>
+        <v>-538200</v>
       </c>
       <c r="F26" s="3">
-        <v>-45400</v>
+        <v>-43300</v>
       </c>
       <c r="G26" s="3">
-        <v>250500</v>
+        <v>238700</v>
       </c>
       <c r="H26" s="3">
-        <v>439900</v>
+        <v>419100</v>
       </c>
       <c r="I26" s="3">
-        <v>418800</v>
+        <v>399000</v>
       </c>
       <c r="J26" s="3">
-        <v>395800</v>
+        <v>377100</v>
       </c>
       <c r="K26" s="3">
         <v>500100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-848400</v>
+        <v>-808400</v>
       </c>
       <c r="E27" s="3">
-        <v>-610900</v>
+        <v>-582100</v>
       </c>
       <c r="F27" s="3">
-        <v>-54000</v>
+        <v>-51400</v>
       </c>
       <c r="G27" s="3">
-        <v>226900</v>
+        <v>216200</v>
       </c>
       <c r="H27" s="3">
-        <v>395900</v>
+        <v>377200</v>
       </c>
       <c r="I27" s="3">
-        <v>370300</v>
+        <v>352900</v>
       </c>
       <c r="J27" s="3">
-        <v>356200</v>
+        <v>339400</v>
       </c>
       <c r="K27" s="3">
         <v>478700</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-42100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-54100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-34900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-21000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-25900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-55800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-44100</v>
       </c>
       <c r="K32" s="3">
         <v>-33600</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-848400</v>
+        <v>-808400</v>
       </c>
       <c r="E33" s="3">
-        <v>-610900</v>
+        <v>-582100</v>
       </c>
       <c r="F33" s="3">
-        <v>-54000</v>
+        <v>-51400</v>
       </c>
       <c r="G33" s="3">
-        <v>226900</v>
+        <v>216200</v>
       </c>
       <c r="H33" s="3">
-        <v>395900</v>
+        <v>377200</v>
       </c>
       <c r="I33" s="3">
-        <v>370300</v>
+        <v>352900</v>
       </c>
       <c r="J33" s="3">
-        <v>356200</v>
+        <v>339400</v>
       </c>
       <c r="K33" s="3">
         <v>478700</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-848400</v>
+        <v>-808400</v>
       </c>
       <c r="E35" s="3">
-        <v>-610900</v>
+        <v>-582100</v>
       </c>
       <c r="F35" s="3">
-        <v>-54000</v>
+        <v>-51400</v>
       </c>
       <c r="G35" s="3">
-        <v>226900</v>
+        <v>216200</v>
       </c>
       <c r="H35" s="3">
-        <v>395900</v>
+        <v>377200</v>
       </c>
       <c r="I35" s="3">
-        <v>370300</v>
+        <v>352900</v>
       </c>
       <c r="J35" s="3">
-        <v>356200</v>
+        <v>339400</v>
       </c>
       <c r="K35" s="3">
         <v>478700</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>592300</v>
+        <v>564400</v>
       </c>
       <c r="E41" s="3">
-        <v>477700</v>
+        <v>455200</v>
       </c>
       <c r="F41" s="3">
-        <v>405100</v>
+        <v>386000</v>
       </c>
       <c r="G41" s="3">
-        <v>293100</v>
+        <v>279200</v>
       </c>
       <c r="H41" s="3">
-        <v>299200</v>
+        <v>285100</v>
       </c>
       <c r="I41" s="3">
-        <v>326100</v>
+        <v>310700</v>
       </c>
       <c r="J41" s="3">
-        <v>231800</v>
+        <v>220800</v>
       </c>
       <c r="K41" s="3">
         <v>254800</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2280000</v>
+        <v>2172500</v>
       </c>
       <c r="E43" s="3">
-        <v>2224800</v>
+        <v>2119900</v>
       </c>
       <c r="F43" s="3">
-        <v>2334100</v>
+        <v>2224100</v>
       </c>
       <c r="G43" s="3">
-        <v>2324600</v>
+        <v>2215000</v>
       </c>
       <c r="H43" s="3">
-        <v>2759000</v>
+        <v>2628900</v>
       </c>
       <c r="I43" s="3">
-        <v>2591500</v>
+        <v>2469300</v>
       </c>
       <c r="J43" s="3">
-        <v>2248000</v>
+        <v>2142000</v>
       </c>
       <c r="K43" s="3">
         <v>2052900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2008000</v>
+        <v>1913300</v>
       </c>
       <c r="E44" s="3">
-        <v>1630400</v>
+        <v>1553600</v>
       </c>
       <c r="F44" s="3">
-        <v>1446800</v>
+        <v>1378500</v>
       </c>
       <c r="G44" s="3">
-        <v>1889400</v>
+        <v>1800300</v>
       </c>
       <c r="H44" s="3">
-        <v>1892800</v>
+        <v>1803500</v>
       </c>
       <c r="I44" s="3">
-        <v>1748500</v>
+        <v>1666100</v>
       </c>
       <c r="J44" s="3">
-        <v>1467900</v>
+        <v>1398700</v>
       </c>
       <c r="K44" s="3">
         <v>1410700</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>405900</v>
+        <v>386800</v>
       </c>
       <c r="E45" s="3">
-        <v>243700</v>
+        <v>232200</v>
       </c>
       <c r="F45" s="3">
-        <v>202200</v>
+        <v>192700</v>
       </c>
       <c r="G45" s="3">
-        <v>256900</v>
+        <v>244800</v>
       </c>
       <c r="H45" s="3">
-        <v>328200</v>
+        <v>312700</v>
       </c>
       <c r="I45" s="3">
-        <v>468100</v>
+        <v>446000</v>
       </c>
       <c r="J45" s="3">
-        <v>508500</v>
+        <v>484500</v>
       </c>
       <c r="K45" s="3">
         <v>521800</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5286200</v>
+        <v>5037000</v>
       </c>
       <c r="E46" s="3">
-        <v>4576600</v>
+        <v>4360800</v>
       </c>
       <c r="F46" s="3">
-        <v>4388200</v>
+        <v>4181300</v>
       </c>
       <c r="G46" s="3">
-        <v>4764000</v>
+        <v>4539400</v>
       </c>
       <c r="H46" s="3">
-        <v>5279200</v>
+        <v>5030200</v>
       </c>
       <c r="I46" s="3">
-        <v>4917100</v>
+        <v>4685200</v>
       </c>
       <c r="J46" s="3">
-        <v>4456200</v>
+        <v>4246000</v>
       </c>
       <c r="K46" s="3">
         <v>4240200</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>937500</v>
+        <v>899100</v>
       </c>
       <c r="E47" s="3">
-        <v>884900</v>
+        <v>843200</v>
       </c>
       <c r="F47" s="3">
-        <v>925100</v>
+        <v>881500</v>
       </c>
       <c r="G47" s="3">
-        <v>811700</v>
+        <v>773400</v>
       </c>
       <c r="H47" s="3">
-        <v>863100</v>
+        <v>822400</v>
       </c>
       <c r="I47" s="3">
-        <v>1688600</v>
+        <v>1609000</v>
       </c>
       <c r="J47" s="3">
-        <v>783900</v>
+        <v>746900</v>
       </c>
       <c r="K47" s="3">
         <v>754500</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3173700</v>
+        <v>3024100</v>
       </c>
       <c r="E48" s="3">
-        <v>3203400</v>
+        <v>3052300</v>
       </c>
       <c r="F48" s="3">
-        <v>3137000</v>
+        <v>2989000</v>
       </c>
       <c r="G48" s="3">
-        <v>3137900</v>
+        <v>2989900</v>
       </c>
       <c r="H48" s="3">
-        <v>3126200</v>
+        <v>2978800</v>
       </c>
       <c r="I48" s="3">
-        <v>3507700</v>
+        <v>3342300</v>
       </c>
       <c r="J48" s="3">
-        <v>3064800</v>
+        <v>2920300</v>
       </c>
       <c r="K48" s="3">
         <v>2928200</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>228400</v>
+        <v>217700</v>
       </c>
       <c r="E49" s="3">
-        <v>224400</v>
+        <v>213900</v>
       </c>
       <c r="F49" s="3">
-        <v>194100</v>
+        <v>184900</v>
       </c>
       <c r="G49" s="3">
-        <v>194000</v>
+        <v>184800</v>
       </c>
       <c r="H49" s="3">
-        <v>170300</v>
+        <v>162300</v>
       </c>
       <c r="I49" s="3">
-        <v>305200</v>
+        <v>290800</v>
       </c>
       <c r="J49" s="3">
-        <v>152900</v>
+        <v>145700</v>
       </c>
       <c r="K49" s="3">
         <v>161000</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>192200</v>
+        <v>177300</v>
       </c>
       <c r="E52" s="3">
-        <v>183400</v>
+        <v>174800</v>
       </c>
       <c r="F52" s="3">
-        <v>234700</v>
+        <v>223600</v>
       </c>
       <c r="G52" s="3">
-        <v>285800</v>
+        <v>272300</v>
       </c>
       <c r="H52" s="3">
-        <v>264700</v>
+        <v>252200</v>
       </c>
       <c r="I52" s="3">
-        <v>277500</v>
+        <v>264400</v>
       </c>
       <c r="J52" s="3">
-        <v>139300</v>
+        <v>132700</v>
       </c>
       <c r="K52" s="3">
         <v>147300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9818100</v>
+        <v>9355100</v>
       </c>
       <c r="E54" s="3">
-        <v>9072700</v>
+        <v>8644900</v>
       </c>
       <c r="F54" s="3">
-        <v>8879100</v>
+        <v>8460400</v>
       </c>
       <c r="G54" s="3">
-        <v>9193300</v>
+        <v>8759800</v>
       </c>
       <c r="H54" s="3">
-        <v>9703400</v>
+        <v>9245800</v>
       </c>
       <c r="I54" s="3">
-        <v>9272600</v>
+        <v>8835400</v>
       </c>
       <c r="J54" s="3">
-        <v>8597100</v>
+        <v>8191700</v>
       </c>
       <c r="K54" s="3">
         <v>8231200</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1756600</v>
+        <v>1673800</v>
       </c>
       <c r="E57" s="3">
-        <v>1808100</v>
+        <v>1722900</v>
       </c>
       <c r="F57" s="3">
-        <v>1653500</v>
+        <v>1575500</v>
       </c>
       <c r="G57" s="3">
-        <v>1724900</v>
+        <v>1643500</v>
       </c>
       <c r="H57" s="3">
-        <v>2036300</v>
+        <v>1940300</v>
       </c>
       <c r="I57" s="3">
-        <v>2213600</v>
+        <v>2109200</v>
       </c>
       <c r="J57" s="3">
-        <v>1912900</v>
+        <v>1822700</v>
       </c>
       <c r="K57" s="3">
         <v>1863700</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1844800</v>
+        <v>1757800</v>
       </c>
       <c r="E58" s="3">
-        <v>1107000</v>
+        <v>1054800</v>
       </c>
       <c r="F58" s="3">
-        <v>1194900</v>
+        <v>1138500</v>
       </c>
       <c r="G58" s="3">
-        <v>1387500</v>
+        <v>1322100</v>
       </c>
       <c r="H58" s="3">
-        <v>1464100</v>
+        <v>1395100</v>
       </c>
       <c r="I58" s="3">
-        <v>1233300</v>
+        <v>1175100</v>
       </c>
       <c r="J58" s="3">
-        <v>1132700</v>
+        <v>1079300</v>
       </c>
       <c r="K58" s="3">
         <v>837900</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1994100</v>
+        <v>1900100</v>
       </c>
       <c r="E59" s="3">
-        <v>1513300</v>
+        <v>1441900</v>
       </c>
       <c r="F59" s="3">
-        <v>945600</v>
+        <v>901000</v>
       </c>
       <c r="G59" s="3">
-        <v>991600</v>
+        <v>944900</v>
       </c>
       <c r="H59" s="3">
-        <v>1133800</v>
+        <v>1080400</v>
       </c>
       <c r="I59" s="3">
-        <v>1148600</v>
+        <v>1094400</v>
       </c>
       <c r="J59" s="3">
-        <v>1000300</v>
+        <v>953100</v>
       </c>
       <c r="K59" s="3">
         <v>1101000</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5595600</v>
+        <v>5331700</v>
       </c>
       <c r="E60" s="3">
-        <v>4428400</v>
+        <v>4219600</v>
       </c>
       <c r="F60" s="3">
-        <v>3794000</v>
+        <v>3615100</v>
       </c>
       <c r="G60" s="3">
-        <v>4104000</v>
+        <v>3910500</v>
       </c>
       <c r="H60" s="3">
-        <v>4634300</v>
+        <v>4415800</v>
       </c>
       <c r="I60" s="3">
-        <v>4542100</v>
+        <v>4327900</v>
       </c>
       <c r="J60" s="3">
-        <v>4045800</v>
+        <v>3855000</v>
       </c>
       <c r="K60" s="3">
         <v>3802600</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>359800</v>
+        <v>342800</v>
       </c>
       <c r="E61" s="3">
-        <v>125800</v>
+        <v>119900</v>
       </c>
       <c r="F61" s="3">
-        <v>118300</v>
+        <v>112800</v>
       </c>
       <c r="G61" s="3">
-        <v>153100</v>
+        <v>145900</v>
       </c>
       <c r="H61" s="3">
-        <v>285600</v>
+        <v>272100</v>
       </c>
       <c r="I61" s="3">
-        <v>222900</v>
+        <v>212400</v>
       </c>
       <c r="J61" s="3">
-        <v>274700</v>
+        <v>261700</v>
       </c>
       <c r="K61" s="3">
         <v>331700</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>737800</v>
+        <v>703000</v>
       </c>
       <c r="E62" s="3">
-        <v>798000</v>
+        <v>760400</v>
       </c>
       <c r="F62" s="3">
-        <v>605600</v>
+        <v>577100</v>
       </c>
       <c r="G62" s="3">
-        <v>663000</v>
+        <v>631700</v>
       </c>
       <c r="H62" s="3">
-        <v>483000</v>
+        <v>460200</v>
       </c>
       <c r="I62" s="3">
-        <v>521600</v>
+        <v>497000</v>
       </c>
       <c r="J62" s="3">
-        <v>578500</v>
+        <v>551300</v>
       </c>
       <c r="K62" s="3">
         <v>613700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7165400</v>
+        <v>6827500</v>
       </c>
       <c r="E66" s="3">
-        <v>5769300</v>
+        <v>5497200</v>
       </c>
       <c r="F66" s="3">
-        <v>4883000</v>
+        <v>4652700</v>
       </c>
       <c r="G66" s="3">
-        <v>5284100</v>
+        <v>5035000</v>
       </c>
       <c r="H66" s="3">
-        <v>5790900</v>
+        <v>5517800</v>
       </c>
       <c r="I66" s="3">
-        <v>5650400</v>
+        <v>5384000</v>
       </c>
       <c r="J66" s="3">
-        <v>5242000</v>
+        <v>4994800</v>
       </c>
       <c r="K66" s="3">
         <v>5074200</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1163900</v>
+        <v>1109000</v>
       </c>
       <c r="E72" s="3">
-        <v>2012200</v>
+        <v>1917300</v>
       </c>
       <c r="F72" s="3">
-        <v>2713900</v>
+        <v>2585900</v>
       </c>
       <c r="G72" s="3">
-        <v>2817500</v>
+        <v>2684700</v>
       </c>
       <c r="H72" s="3">
-        <v>2706600</v>
+        <v>2578900</v>
       </c>
       <c r="I72" s="3">
-        <v>2437100</v>
+        <v>2322200</v>
       </c>
       <c r="J72" s="3">
-        <v>2183400</v>
+        <v>2080500</v>
       </c>
       <c r="K72" s="3">
         <v>1985300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2652700</v>
+        <v>2527600</v>
       </c>
       <c r="E76" s="3">
-        <v>3303400</v>
+        <v>3147600</v>
       </c>
       <c r="F76" s="3">
-        <v>3996100</v>
+        <v>3807700</v>
       </c>
       <c r="G76" s="3">
-        <v>3909200</v>
+        <v>3724800</v>
       </c>
       <c r="H76" s="3">
-        <v>3912500</v>
+        <v>3728000</v>
       </c>
       <c r="I76" s="3">
-        <v>3622200</v>
+        <v>3451400</v>
       </c>
       <c r="J76" s="3">
-        <v>3355100</v>
+        <v>3196900</v>
       </c>
       <c r="K76" s="3">
         <v>3156900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-848400</v>
+        <v>-808400</v>
       </c>
       <c r="E81" s="3">
-        <v>-610900</v>
+        <v>-582100</v>
       </c>
       <c r="F81" s="3">
-        <v>-54000</v>
+        <v>-51400</v>
       </c>
       <c r="G81" s="3">
-        <v>226900</v>
+        <v>216200</v>
       </c>
       <c r="H81" s="3">
-        <v>395900</v>
+        <v>377200</v>
       </c>
       <c r="I81" s="3">
-        <v>370300</v>
+        <v>352900</v>
       </c>
       <c r="J81" s="3">
-        <v>356200</v>
+        <v>339400</v>
       </c>
       <c r="K81" s="3">
         <v>478700</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>413100</v>
+        <v>393600</v>
       </c>
       <c r="E83" s="3">
-        <v>396200</v>
+        <v>377500</v>
       </c>
       <c r="F83" s="3">
-        <v>394800</v>
+        <v>376200</v>
       </c>
       <c r="G83" s="3">
-        <v>418300</v>
+        <v>398500</v>
       </c>
       <c r="H83" s="3">
-        <v>422100</v>
+        <v>402200</v>
       </c>
       <c r="I83" s="3">
-        <v>422200</v>
+        <v>402300</v>
       </c>
       <c r="J83" s="3">
-        <v>368400</v>
+        <v>351000</v>
       </c>
       <c r="K83" s="3">
         <v>362500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-294200</v>
+        <v>-280300</v>
       </c>
       <c r="E89" s="3">
-        <v>769400</v>
+        <v>733100</v>
       </c>
       <c r="F89" s="3">
-        <v>781800</v>
+        <v>744900</v>
       </c>
       <c r="G89" s="3">
-        <v>686200</v>
+        <v>653900</v>
       </c>
       <c r="H89" s="3">
-        <v>345400</v>
+        <v>329100</v>
       </c>
       <c r="I89" s="3">
-        <v>623500</v>
+        <v>594100</v>
       </c>
       <c r="J89" s="3">
-        <v>546200</v>
+        <v>520500</v>
       </c>
       <c r="K89" s="3">
         <v>818500</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-420600</v>
+        <v>-400800</v>
       </c>
       <c r="E91" s="3">
-        <v>-356400</v>
+        <v>-339600</v>
       </c>
       <c r="F91" s="3">
-        <v>-363500</v>
+        <v>-346300</v>
       </c>
       <c r="G91" s="3">
-        <v>-435300</v>
+        <v>-414800</v>
       </c>
       <c r="H91" s="3">
-        <v>-424900</v>
+        <v>-404900</v>
       </c>
       <c r="I91" s="3">
-        <v>-433200</v>
+        <v>-412800</v>
       </c>
       <c r="J91" s="3">
-        <v>-633600</v>
+        <v>-603700</v>
       </c>
       <c r="K91" s="3">
         <v>-581400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-434500</v>
+        <v>-414000</v>
       </c>
       <c r="E94" s="3">
-        <v>-448300</v>
+        <v>-427200</v>
       </c>
       <c r="F94" s="3">
-        <v>-405300</v>
+        <v>-386200</v>
       </c>
       <c r="G94" s="3">
-        <v>-483100</v>
+        <v>-460300</v>
       </c>
       <c r="H94" s="3">
-        <v>-521200</v>
+        <v>-496600</v>
       </c>
       <c r="I94" s="3">
-        <v>-452700</v>
+        <v>-431300</v>
       </c>
       <c r="J94" s="3">
-        <v>-667500</v>
+        <v>-636000</v>
       </c>
       <c r="K94" s="3">
         <v>-644500</v>
@@ -4000,22 +4000,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-70400</v>
+        <v>-67100</v>
       </c>
       <c r="F96" s="3">
-        <v>-49700</v>
+        <v>-47300</v>
       </c>
       <c r="G96" s="3">
-        <v>-115900</v>
+        <v>-110400</v>
       </c>
       <c r="H96" s="3">
-        <v>-120000</v>
+        <v>-114400</v>
       </c>
       <c r="I96" s="3">
-        <v>-115800</v>
+        <v>-110400</v>
       </c>
       <c r="J96" s="3">
-        <v>-119900</v>
+        <v>-114300</v>
       </c>
       <c r="K96" s="3">
         <v>-177000</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>823400</v>
+        <v>784600</v>
       </c>
       <c r="E100" s="3">
-        <v>-282200</v>
+        <v>-268900</v>
       </c>
       <c r="F100" s="3">
-        <v>-276900</v>
+        <v>-263900</v>
       </c>
       <c r="G100" s="3">
-        <v>-203600</v>
+        <v>-194000</v>
       </c>
       <c r="H100" s="3">
-        <v>150700</v>
+        <v>143600</v>
       </c>
       <c r="I100" s="3">
-        <v>-68100</v>
+        <v>-64900</v>
       </c>
       <c r="J100" s="3">
-        <v>125900</v>
+        <v>120000</v>
       </c>
       <c r="K100" s="3">
         <v>-162600</v>
@@ -4210,22 +4210,22 @@
         <v>-900</v>
       </c>
       <c r="E101" s="3">
-        <v>19000</v>
+        <v>18100</v>
       </c>
       <c r="F101" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="G101" s="3">
-        <v>-5900</v>
+        <v>-5600</v>
       </c>
       <c r="H101" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="I101" s="3">
-        <v>-5700</v>
+        <v>-5400</v>
       </c>
       <c r="J101" s="3">
-        <v>-25000</v>
+        <v>-23800</v>
       </c>
       <c r="K101" s="3">
         <v>-23300</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>93900</v>
+        <v>89400</v>
       </c>
       <c r="E102" s="3">
-        <v>57800</v>
+        <v>55000</v>
       </c>
       <c r="F102" s="3">
-        <v>107100</v>
+        <v>102100</v>
       </c>
       <c r="G102" s="3">
-        <v>-6400</v>
+        <v>-6100</v>
       </c>
       <c r="H102" s="3">
-        <v>-28100</v>
+        <v>-26800</v>
       </c>
       <c r="I102" s="3">
-        <v>97000</v>
+        <v>92400</v>
       </c>
       <c r="J102" s="3">
-        <v>-20400</v>
+        <v>-19400</v>
       </c>
       <c r="K102" s="3">
         <v>-11800</v>

--- a/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HINOY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10355400</v>
+        <v>10008700</v>
       </c>
       <c r="E8" s="3">
-        <v>10028200</v>
+        <v>9692400</v>
       </c>
       <c r="F8" s="3">
-        <v>10294300</v>
+        <v>9949700</v>
       </c>
       <c r="G8" s="3">
-        <v>12473200</v>
+        <v>12055600</v>
       </c>
       <c r="H8" s="3">
-        <v>13611700</v>
+        <v>13156000</v>
       </c>
       <c r="I8" s="3">
-        <v>12626900</v>
+        <v>12204200</v>
       </c>
       <c r="J8" s="3">
-        <v>11567200</v>
+        <v>11179900</v>
       </c>
       <c r="K8" s="3">
         <v>12829700</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8708900</v>
+        <v>8417400</v>
       </c>
       <c r="E9" s="3">
-        <v>8307200</v>
+        <v>8029100</v>
       </c>
       <c r="F9" s="3">
-        <v>8832100</v>
+        <v>8536400</v>
       </c>
       <c r="G9" s="3">
-        <v>10596500</v>
+        <v>10241700</v>
       </c>
       <c r="H9" s="3">
-        <v>11503100</v>
+        <v>11118000</v>
       </c>
       <c r="I9" s="3">
-        <v>10596600</v>
+        <v>10241800</v>
       </c>
       <c r="J9" s="3">
-        <v>9694200</v>
+        <v>9369600</v>
       </c>
       <c r="K9" s="3">
         <v>10664700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1646500</v>
+        <v>1591300</v>
       </c>
       <c r="E10" s="3">
-        <v>1721000</v>
+        <v>1663400</v>
       </c>
       <c r="F10" s="3">
-        <v>1462200</v>
+        <v>1413200</v>
       </c>
       <c r="G10" s="3">
-        <v>1876700</v>
+        <v>1813800</v>
       </c>
       <c r="H10" s="3">
-        <v>2108700</v>
+        <v>2038100</v>
       </c>
       <c r="I10" s="3">
-        <v>2030400</v>
+        <v>1962400</v>
       </c>
       <c r="J10" s="3">
-        <v>1873000</v>
+        <v>1810300</v>
       </c>
       <c r="K10" s="3">
         <v>2165000</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>728100</v>
+        <v>703700</v>
       </c>
       <c r="E14" s="3">
-        <v>480500</v>
+        <v>464400</v>
       </c>
       <c r="F14" s="3">
-        <v>102200</v>
+        <v>98800</v>
       </c>
       <c r="G14" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H14" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="I14" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="J14" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="K14" s="3">
         <v>-4700</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10963900</v>
+        <v>10596800</v>
       </c>
       <c r="E17" s="3">
-        <v>10276400</v>
+        <v>9932400</v>
       </c>
       <c r="F17" s="3">
-        <v>10312300</v>
+        <v>9967100</v>
       </c>
       <c r="G17" s="3">
-        <v>12098100</v>
+        <v>11693100</v>
       </c>
       <c r="H17" s="3">
-        <v>13029000</v>
+        <v>12592800</v>
       </c>
       <c r="I17" s="3">
-        <v>12086000</v>
+        <v>11681400</v>
       </c>
       <c r="J17" s="3">
-        <v>11081500</v>
+        <v>10710500</v>
       </c>
       <c r="K17" s="3">
         <v>12102600</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-608500</v>
+        <v>-588100</v>
       </c>
       <c r="E18" s="3">
-        <v>-248200</v>
+        <v>-239900</v>
       </c>
       <c r="F18" s="3">
-        <v>-18000</v>
+        <v>-17400</v>
       </c>
       <c r="G18" s="3">
-        <v>375000</v>
+        <v>362500</v>
       </c>
       <c r="H18" s="3">
-        <v>582700</v>
+        <v>563200</v>
       </c>
       <c r="I18" s="3">
-        <v>541000</v>
+        <v>522800</v>
       </c>
       <c r="J18" s="3">
-        <v>485700</v>
+        <v>469400</v>
       </c>
       <c r="K18" s="3">
         <v>727100</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>40100</v>
+        <v>38800</v>
       </c>
       <c r="E20" s="3">
-        <v>51500</v>
+        <v>49800</v>
       </c>
       <c r="F20" s="3">
-        <v>33300</v>
+        <v>32200</v>
       </c>
       <c r="G20" s="3">
-        <v>20000</v>
+        <v>19300</v>
       </c>
       <c r="H20" s="3">
-        <v>24700</v>
+        <v>23800</v>
       </c>
       <c r="I20" s="3">
-        <v>53200</v>
+        <v>51400</v>
       </c>
       <c r="J20" s="3">
-        <v>42100</v>
+        <v>40700</v>
       </c>
       <c r="K20" s="3">
         <v>33600</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-174800</v>
+        <v>-170600</v>
       </c>
       <c r="E21" s="3">
-        <v>180800</v>
+        <v>173100</v>
       </c>
       <c r="F21" s="3">
-        <v>391400</v>
+        <v>376700</v>
       </c>
       <c r="G21" s="3">
-        <v>793600</v>
+        <v>765300</v>
       </c>
       <c r="H21" s="3">
-        <v>1009500</v>
+        <v>974000</v>
       </c>
       <c r="I21" s="3">
-        <v>996400</v>
+        <v>961300</v>
       </c>
       <c r="J21" s="3">
-        <v>878800</v>
+        <v>847800</v>
       </c>
       <c r="K21" s="3">
         <v>1119700</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>46700</v>
+        <v>45100</v>
       </c>
       <c r="E22" s="3">
-        <v>19600</v>
+        <v>18900</v>
       </c>
       <c r="F22" s="3">
-        <v>28200</v>
+        <v>27300</v>
       </c>
       <c r="G22" s="3">
-        <v>44900</v>
+        <v>43400</v>
       </c>
       <c r="H22" s="3">
-        <v>40400</v>
+        <v>39100</v>
       </c>
       <c r="I22" s="3">
-        <v>32700</v>
+        <v>31600</v>
       </c>
       <c r="J22" s="3">
-        <v>32600</v>
+        <v>31500</v>
       </c>
       <c r="K22" s="3">
         <v>48600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-615000</v>
+        <v>-594400</v>
       </c>
       <c r="E23" s="3">
-        <v>-216300</v>
+        <v>-209100</v>
       </c>
       <c r="F23" s="3">
-        <v>-12900</v>
+        <v>-12500</v>
       </c>
       <c r="G23" s="3">
-        <v>350200</v>
+        <v>338500</v>
       </c>
       <c r="H23" s="3">
-        <v>566900</v>
+        <v>548000</v>
       </c>
       <c r="I23" s="3">
-        <v>561500</v>
+        <v>542700</v>
       </c>
       <c r="J23" s="3">
-        <v>495200</v>
+        <v>478600</v>
       </c>
       <c r="K23" s="3">
         <v>712100</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>127900</v>
+        <v>123600</v>
       </c>
       <c r="E24" s="3">
-        <v>321900</v>
+        <v>311100</v>
       </c>
       <c r="F24" s="3">
-        <v>30300</v>
+        <v>29300</v>
       </c>
       <c r="G24" s="3">
-        <v>111500</v>
+        <v>107800</v>
       </c>
       <c r="H24" s="3">
-        <v>147800</v>
+        <v>142800</v>
       </c>
       <c r="I24" s="3">
-        <v>162400</v>
+        <v>157000</v>
       </c>
       <c r="J24" s="3">
-        <v>118000</v>
+        <v>114100</v>
       </c>
       <c r="K24" s="3">
         <v>212000</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-742900</v>
+        <v>-718100</v>
       </c>
       <c r="E26" s="3">
-        <v>-538200</v>
+        <v>-520200</v>
       </c>
       <c r="F26" s="3">
-        <v>-43300</v>
+        <v>-41800</v>
       </c>
       <c r="G26" s="3">
-        <v>238700</v>
+        <v>230700</v>
       </c>
       <c r="H26" s="3">
-        <v>419100</v>
+        <v>405100</v>
       </c>
       <c r="I26" s="3">
-        <v>399000</v>
+        <v>385700</v>
       </c>
       <c r="J26" s="3">
-        <v>377100</v>
+        <v>364500</v>
       </c>
       <c r="K26" s="3">
         <v>500100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-808400</v>
+        <v>-781300</v>
       </c>
       <c r="E27" s="3">
-        <v>-582100</v>
+        <v>-562600</v>
       </c>
       <c r="F27" s="3">
-        <v>-51400</v>
+        <v>-49700</v>
       </c>
       <c r="G27" s="3">
-        <v>216200</v>
+        <v>208900</v>
       </c>
       <c r="H27" s="3">
-        <v>377200</v>
+        <v>364600</v>
       </c>
       <c r="I27" s="3">
-        <v>352900</v>
+        <v>341000</v>
       </c>
       <c r="J27" s="3">
-        <v>339400</v>
+        <v>328100</v>
       </c>
       <c r="K27" s="3">
         <v>478700</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-40100</v>
+        <v>-38800</v>
       </c>
       <c r="E32" s="3">
-        <v>-51500</v>
+        <v>-49800</v>
       </c>
       <c r="F32" s="3">
-        <v>-33300</v>
+        <v>-32200</v>
       </c>
       <c r="G32" s="3">
-        <v>-20000</v>
+        <v>-19300</v>
       </c>
       <c r="H32" s="3">
-        <v>-24700</v>
+        <v>-23800</v>
       </c>
       <c r="I32" s="3">
-        <v>-53200</v>
+        <v>-51400</v>
       </c>
       <c r="J32" s="3">
-        <v>-42100</v>
+        <v>-40700</v>
       </c>
       <c r="K32" s="3">
         <v>-33600</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-808400</v>
+        <v>-781300</v>
       </c>
       <c r="E33" s="3">
-        <v>-582100</v>
+        <v>-562600</v>
       </c>
       <c r="F33" s="3">
-        <v>-51400</v>
+        <v>-49700</v>
       </c>
       <c r="G33" s="3">
-        <v>216200</v>
+        <v>208900</v>
       </c>
       <c r="H33" s="3">
-        <v>377200</v>
+        <v>364600</v>
       </c>
       <c r="I33" s="3">
-        <v>352900</v>
+        <v>341000</v>
       </c>
       <c r="J33" s="3">
-        <v>339400</v>
+        <v>328100</v>
       </c>
       <c r="K33" s="3">
         <v>478700</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-808400</v>
+        <v>-781300</v>
       </c>
       <c r="E35" s="3">
-        <v>-582100</v>
+        <v>-562600</v>
       </c>
       <c r="F35" s="3">
-        <v>-51400</v>
+        <v>-49700</v>
       </c>
       <c r="G35" s="3">
-        <v>216200</v>
+        <v>208900</v>
       </c>
       <c r="H35" s="3">
-        <v>377200</v>
+        <v>364600</v>
       </c>
       <c r="I35" s="3">
-        <v>352900</v>
+        <v>341000</v>
       </c>
       <c r="J35" s="3">
-        <v>339400</v>
+        <v>328100</v>
       </c>
       <c r="K35" s="3">
         <v>478700</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>564400</v>
+        <v>545500</v>
       </c>
       <c r="E41" s="3">
-        <v>455200</v>
+        <v>439900</v>
       </c>
       <c r="F41" s="3">
-        <v>386000</v>
+        <v>373100</v>
       </c>
       <c r="G41" s="3">
-        <v>279200</v>
+        <v>269900</v>
       </c>
       <c r="H41" s="3">
-        <v>285100</v>
+        <v>275500</v>
       </c>
       <c r="I41" s="3">
-        <v>310700</v>
+        <v>300300</v>
       </c>
       <c r="J41" s="3">
-        <v>220800</v>
+        <v>213400</v>
       </c>
       <c r="K41" s="3">
         <v>254800</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2172500</v>
+        <v>2099800</v>
       </c>
       <c r="E43" s="3">
-        <v>2119900</v>
+        <v>2048900</v>
       </c>
       <c r="F43" s="3">
-        <v>2224100</v>
+        <v>2149600</v>
       </c>
       <c r="G43" s="3">
-        <v>2215000</v>
+        <v>2140800</v>
       </c>
       <c r="H43" s="3">
-        <v>2628900</v>
+        <v>2540900</v>
       </c>
       <c r="I43" s="3">
-        <v>2469300</v>
+        <v>2386600</v>
       </c>
       <c r="J43" s="3">
-        <v>2142000</v>
+        <v>2070300</v>
       </c>
       <c r="K43" s="3">
         <v>2052900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1913300</v>
+        <v>1849300</v>
       </c>
       <c r="E44" s="3">
-        <v>1553600</v>
+        <v>1501500</v>
       </c>
       <c r="F44" s="3">
-        <v>1378500</v>
+        <v>1332400</v>
       </c>
       <c r="G44" s="3">
-        <v>1800300</v>
+        <v>1740000</v>
       </c>
       <c r="H44" s="3">
-        <v>1803500</v>
+        <v>1743100</v>
       </c>
       <c r="I44" s="3">
-        <v>1666100</v>
+        <v>1610300</v>
       </c>
       <c r="J44" s="3">
-        <v>1398700</v>
+        <v>1351900</v>
       </c>
       <c r="K44" s="3">
         <v>1410700</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>386800</v>
+        <v>373800</v>
       </c>
       <c r="E45" s="3">
-        <v>232200</v>
+        <v>224400</v>
       </c>
       <c r="F45" s="3">
-        <v>192700</v>
+        <v>186200</v>
       </c>
       <c r="G45" s="3">
-        <v>244800</v>
+        <v>236600</v>
       </c>
       <c r="H45" s="3">
-        <v>312700</v>
+        <v>302300</v>
       </c>
       <c r="I45" s="3">
-        <v>446000</v>
+        <v>431100</v>
       </c>
       <c r="J45" s="3">
-        <v>484500</v>
+        <v>468300</v>
       </c>
       <c r="K45" s="3">
         <v>521800</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5037000</v>
+        <v>4868300</v>
       </c>
       <c r="E46" s="3">
-        <v>4360800</v>
+        <v>4214800</v>
       </c>
       <c r="F46" s="3">
-        <v>4181300</v>
+        <v>4041300</v>
       </c>
       <c r="G46" s="3">
-        <v>4539400</v>
+        <v>4387400</v>
       </c>
       <c r="H46" s="3">
-        <v>5030200</v>
+        <v>4861800</v>
       </c>
       <c r="I46" s="3">
-        <v>4685200</v>
+        <v>4528400</v>
       </c>
       <c r="J46" s="3">
-        <v>4246000</v>
+        <v>4103900</v>
       </c>
       <c r="K46" s="3">
         <v>4240200</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>899100</v>
+        <v>869000</v>
       </c>
       <c r="E47" s="3">
-        <v>843200</v>
+        <v>814900</v>
       </c>
       <c r="F47" s="3">
-        <v>881500</v>
+        <v>851900</v>
       </c>
       <c r="G47" s="3">
-        <v>773400</v>
+        <v>747500</v>
       </c>
       <c r="H47" s="3">
-        <v>822400</v>
+        <v>794800</v>
       </c>
       <c r="I47" s="3">
-        <v>1609000</v>
+        <v>1555100</v>
       </c>
       <c r="J47" s="3">
-        <v>746900</v>
+        <v>721900</v>
       </c>
       <c r="K47" s="3">
         <v>754500</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3024100</v>
+        <v>2922800</v>
       </c>
       <c r="E48" s="3">
-        <v>3052300</v>
+        <v>2950100</v>
       </c>
       <c r="F48" s="3">
-        <v>2989000</v>
+        <v>2889000</v>
       </c>
       <c r="G48" s="3">
-        <v>2989900</v>
+        <v>2889800</v>
       </c>
       <c r="H48" s="3">
-        <v>2978800</v>
+        <v>2879000</v>
       </c>
       <c r="I48" s="3">
-        <v>3342300</v>
+        <v>3230400</v>
       </c>
       <c r="J48" s="3">
-        <v>2920300</v>
+        <v>2822500</v>
       </c>
       <c r="K48" s="3">
         <v>2928200</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>217700</v>
+        <v>210400</v>
       </c>
       <c r="E49" s="3">
-        <v>213900</v>
+        <v>206700</v>
       </c>
       <c r="F49" s="3">
-        <v>184900</v>
+        <v>178700</v>
       </c>
       <c r="G49" s="3">
-        <v>184800</v>
+        <v>178600</v>
       </c>
       <c r="H49" s="3">
-        <v>162300</v>
+        <v>156800</v>
       </c>
       <c r="I49" s="3">
-        <v>290800</v>
+        <v>281000</v>
       </c>
       <c r="J49" s="3">
-        <v>145700</v>
+        <v>140800</v>
       </c>
       <c r="K49" s="3">
         <v>161000</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>177300</v>
+        <v>171400</v>
       </c>
       <c r="E52" s="3">
-        <v>174800</v>
+        <v>168900</v>
       </c>
       <c r="F52" s="3">
-        <v>223600</v>
+        <v>216200</v>
       </c>
       <c r="G52" s="3">
-        <v>272300</v>
+        <v>263200</v>
       </c>
       <c r="H52" s="3">
-        <v>252200</v>
+        <v>243700</v>
       </c>
       <c r="I52" s="3">
-        <v>264400</v>
+        <v>255600</v>
       </c>
       <c r="J52" s="3">
-        <v>132700</v>
+        <v>128300</v>
       </c>
       <c r="K52" s="3">
         <v>147300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9355100</v>
+        <v>9041900</v>
       </c>
       <c r="E54" s="3">
-        <v>8644900</v>
+        <v>8355400</v>
       </c>
       <c r="F54" s="3">
-        <v>8460400</v>
+        <v>8177100</v>
       </c>
       <c r="G54" s="3">
-        <v>8759800</v>
+        <v>8466500</v>
       </c>
       <c r="H54" s="3">
-        <v>9245800</v>
+        <v>8936300</v>
       </c>
       <c r="I54" s="3">
-        <v>8835400</v>
+        <v>8539600</v>
       </c>
       <c r="J54" s="3">
-        <v>8191700</v>
+        <v>7917400</v>
       </c>
       <c r="K54" s="3">
         <v>8231200</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1673800</v>
+        <v>1617800</v>
       </c>
       <c r="E57" s="3">
-        <v>1722900</v>
+        <v>1665200</v>
       </c>
       <c r="F57" s="3">
-        <v>1575500</v>
+        <v>1522700</v>
       </c>
       <c r="G57" s="3">
-        <v>1643500</v>
+        <v>1588500</v>
       </c>
       <c r="H57" s="3">
-        <v>1940300</v>
+        <v>1875400</v>
       </c>
       <c r="I57" s="3">
-        <v>2109200</v>
+        <v>2038600</v>
       </c>
       <c r="J57" s="3">
-        <v>1822700</v>
+        <v>1761600</v>
       </c>
       <c r="K57" s="3">
         <v>1863700</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1757800</v>
+        <v>1699000</v>
       </c>
       <c r="E58" s="3">
-        <v>1054800</v>
+        <v>1019500</v>
       </c>
       <c r="F58" s="3">
-        <v>1138500</v>
+        <v>1100400</v>
       </c>
       <c r="G58" s="3">
-        <v>1322100</v>
+        <v>1277800</v>
       </c>
       <c r="H58" s="3">
-        <v>1395100</v>
+        <v>1348400</v>
       </c>
       <c r="I58" s="3">
-        <v>1175100</v>
+        <v>1135800</v>
       </c>
       <c r="J58" s="3">
-        <v>1079300</v>
+        <v>1043100</v>
       </c>
       <c r="K58" s="3">
         <v>837900</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1900100</v>
+        <v>1836500</v>
       </c>
       <c r="E59" s="3">
-        <v>1441900</v>
+        <v>1393600</v>
       </c>
       <c r="F59" s="3">
-        <v>901000</v>
+        <v>870900</v>
       </c>
       <c r="G59" s="3">
-        <v>944900</v>
+        <v>913200</v>
       </c>
       <c r="H59" s="3">
-        <v>1080400</v>
+        <v>1044200</v>
       </c>
       <c r="I59" s="3">
-        <v>1094400</v>
+        <v>1057800</v>
       </c>
       <c r="J59" s="3">
-        <v>953100</v>
+        <v>921200</v>
       </c>
       <c r="K59" s="3">
         <v>1101000</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5331700</v>
+        <v>5153200</v>
       </c>
       <c r="E60" s="3">
-        <v>4219600</v>
+        <v>4078300</v>
       </c>
       <c r="F60" s="3">
-        <v>3615100</v>
+        <v>3494000</v>
       </c>
       <c r="G60" s="3">
-        <v>3910500</v>
+        <v>3779600</v>
       </c>
       <c r="H60" s="3">
-        <v>4415800</v>
+        <v>4268000</v>
       </c>
       <c r="I60" s="3">
-        <v>4327900</v>
+        <v>4183100</v>
       </c>
       <c r="J60" s="3">
-        <v>3855000</v>
+        <v>3725900</v>
       </c>
       <c r="K60" s="3">
         <v>3802600</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>342800</v>
+        <v>331400</v>
       </c>
       <c r="E61" s="3">
-        <v>119900</v>
+        <v>115900</v>
       </c>
       <c r="F61" s="3">
-        <v>112800</v>
+        <v>109000</v>
       </c>
       <c r="G61" s="3">
-        <v>145900</v>
+        <v>141000</v>
       </c>
       <c r="H61" s="3">
-        <v>272100</v>
+        <v>263000</v>
       </c>
       <c r="I61" s="3">
-        <v>212400</v>
+        <v>205300</v>
       </c>
       <c r="J61" s="3">
-        <v>261700</v>
+        <v>253000</v>
       </c>
       <c r="K61" s="3">
         <v>331700</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>703000</v>
+        <v>679500</v>
       </c>
       <c r="E62" s="3">
-        <v>760400</v>
+        <v>734900</v>
       </c>
       <c r="F62" s="3">
-        <v>577100</v>
+        <v>557800</v>
       </c>
       <c r="G62" s="3">
-        <v>631700</v>
+        <v>610600</v>
       </c>
       <c r="H62" s="3">
-        <v>460200</v>
+        <v>444800</v>
       </c>
       <c r="I62" s="3">
-        <v>497000</v>
+        <v>480400</v>
       </c>
       <c r="J62" s="3">
-        <v>551300</v>
+        <v>532800</v>
       </c>
       <c r="K62" s="3">
         <v>613700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6827500</v>
+        <v>6599000</v>
       </c>
       <c r="E66" s="3">
-        <v>5497200</v>
+        <v>5313200</v>
       </c>
       <c r="F66" s="3">
-        <v>4652700</v>
+        <v>4496900</v>
       </c>
       <c r="G66" s="3">
-        <v>5035000</v>
+        <v>4866400</v>
       </c>
       <c r="H66" s="3">
-        <v>5517800</v>
+        <v>5333100</v>
       </c>
       <c r="I66" s="3">
-        <v>5384000</v>
+        <v>5203700</v>
       </c>
       <c r="J66" s="3">
-        <v>4994800</v>
+        <v>4827600</v>
       </c>
       <c r="K66" s="3">
         <v>5074200</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1109000</v>
+        <v>1071800</v>
       </c>
       <c r="E72" s="3">
-        <v>1917300</v>
+        <v>1853100</v>
       </c>
       <c r="F72" s="3">
-        <v>2585900</v>
+        <v>2499300</v>
       </c>
       <c r="G72" s="3">
-        <v>2684700</v>
+        <v>2594800</v>
       </c>
       <c r="H72" s="3">
-        <v>2578900</v>
+        <v>2492600</v>
       </c>
       <c r="I72" s="3">
-        <v>2322200</v>
+        <v>2244400</v>
       </c>
       <c r="J72" s="3">
-        <v>2080500</v>
+        <v>2010800</v>
       </c>
       <c r="K72" s="3">
         <v>1985300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2527600</v>
+        <v>2443000</v>
       </c>
       <c r="E76" s="3">
-        <v>3147600</v>
+        <v>3042200</v>
       </c>
       <c r="F76" s="3">
-        <v>3807700</v>
+        <v>3680200</v>
       </c>
       <c r="G76" s="3">
-        <v>3724800</v>
+        <v>3600100</v>
       </c>
       <c r="H76" s="3">
-        <v>3728000</v>
+        <v>3603200</v>
       </c>
       <c r="I76" s="3">
-        <v>3451400</v>
+        <v>3335800</v>
       </c>
       <c r="J76" s="3">
-        <v>3196900</v>
+        <v>3089900</v>
       </c>
       <c r="K76" s="3">
         <v>3156900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-808400</v>
+        <v>-781300</v>
       </c>
       <c r="E81" s="3">
-        <v>-582100</v>
+        <v>-562600</v>
       </c>
       <c r="F81" s="3">
-        <v>-51400</v>
+        <v>-49700</v>
       </c>
       <c r="G81" s="3">
-        <v>216200</v>
+        <v>208900</v>
       </c>
       <c r="H81" s="3">
-        <v>377200</v>
+        <v>364600</v>
       </c>
       <c r="I81" s="3">
-        <v>352900</v>
+        <v>341000</v>
       </c>
       <c r="J81" s="3">
-        <v>339400</v>
+        <v>328100</v>
       </c>
       <c r="K81" s="3">
         <v>478700</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>393600</v>
+        <v>380400</v>
       </c>
       <c r="E83" s="3">
-        <v>377500</v>
+        <v>364900</v>
       </c>
       <c r="F83" s="3">
-        <v>376200</v>
+        <v>363600</v>
       </c>
       <c r="G83" s="3">
-        <v>398500</v>
+        <v>385200</v>
       </c>
       <c r="H83" s="3">
-        <v>402200</v>
+        <v>388700</v>
       </c>
       <c r="I83" s="3">
-        <v>402300</v>
+        <v>388800</v>
       </c>
       <c r="J83" s="3">
-        <v>351000</v>
+        <v>339300</v>
       </c>
       <c r="K83" s="3">
         <v>362500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-280300</v>
+        <v>-270900</v>
       </c>
       <c r="E89" s="3">
-        <v>733100</v>
+        <v>708600</v>
       </c>
       <c r="F89" s="3">
-        <v>744900</v>
+        <v>720000</v>
       </c>
       <c r="G89" s="3">
-        <v>653900</v>
+        <v>632000</v>
       </c>
       <c r="H89" s="3">
-        <v>329100</v>
+        <v>318100</v>
       </c>
       <c r="I89" s="3">
-        <v>594100</v>
+        <v>574200</v>
       </c>
       <c r="J89" s="3">
-        <v>520500</v>
+        <v>503000</v>
       </c>
       <c r="K89" s="3">
         <v>818500</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400800</v>
+        <v>-387300</v>
       </c>
       <c r="E91" s="3">
-        <v>-339600</v>
+        <v>-328200</v>
       </c>
       <c r="F91" s="3">
-        <v>-346300</v>
+        <v>-334700</v>
       </c>
       <c r="G91" s="3">
-        <v>-414800</v>
+        <v>-400900</v>
       </c>
       <c r="H91" s="3">
-        <v>-404900</v>
+        <v>-391300</v>
       </c>
       <c r="I91" s="3">
-        <v>-412800</v>
+        <v>-399000</v>
       </c>
       <c r="J91" s="3">
-        <v>-603700</v>
+        <v>-583500</v>
       </c>
       <c r="K91" s="3">
         <v>-581400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-414000</v>
+        <v>-400100</v>
       </c>
       <c r="E94" s="3">
-        <v>-427200</v>
+        <v>-412900</v>
       </c>
       <c r="F94" s="3">
-        <v>-386200</v>
+        <v>-373200</v>
       </c>
       <c r="G94" s="3">
-        <v>-460300</v>
+        <v>-444900</v>
       </c>
       <c r="H94" s="3">
-        <v>-496600</v>
+        <v>-480000</v>
       </c>
       <c r="I94" s="3">
-        <v>-431300</v>
+        <v>-416900</v>
       </c>
       <c r="J94" s="3">
-        <v>-636000</v>
+        <v>-614800</v>
       </c>
       <c r="K94" s="3">
         <v>-644500</v>
@@ -4000,22 +4000,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-67100</v>
+        <v>-64800</v>
       </c>
       <c r="F96" s="3">
-        <v>-47300</v>
+        <v>-45700</v>
       </c>
       <c r="G96" s="3">
+        <v>-106700</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-110500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-106700</v>
+      </c>
+      <c r="J96" s="3">
         <v>-110400</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-114400</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-110400</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-114300</v>
       </c>
       <c r="K96" s="3">
         <v>-177000</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>784600</v>
+        <v>758300</v>
       </c>
       <c r="E100" s="3">
-        <v>-268900</v>
+        <v>-259900</v>
       </c>
       <c r="F100" s="3">
-        <v>-263900</v>
+        <v>-255000</v>
       </c>
       <c r="G100" s="3">
-        <v>-194000</v>
+        <v>-187500</v>
       </c>
       <c r="H100" s="3">
-        <v>143600</v>
+        <v>138800</v>
       </c>
       <c r="I100" s="3">
-        <v>-64900</v>
+        <v>-62700</v>
       </c>
       <c r="J100" s="3">
-        <v>120000</v>
+        <v>115900</v>
       </c>
       <c r="K100" s="3">
         <v>-162600</v>
@@ -4210,22 +4210,22 @@
         <v>-900</v>
       </c>
       <c r="E101" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="F101" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="G101" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="H101" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="I101" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="J101" s="3">
-        <v>-23800</v>
+        <v>-23000</v>
       </c>
       <c r="K101" s="3">
         <v>-23300</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>89400</v>
+        <v>86500</v>
       </c>
       <c r="E102" s="3">
-        <v>55000</v>
+        <v>53200</v>
       </c>
       <c r="F102" s="3">
-        <v>102100</v>
+        <v>98700</v>
       </c>
       <c r="G102" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="H102" s="3">
-        <v>-26800</v>
+        <v>-25900</v>
       </c>
       <c r="I102" s="3">
-        <v>92400</v>
+        <v>89300</v>
       </c>
       <c r="J102" s="3">
-        <v>-19400</v>
+        <v>-18800</v>
       </c>
       <c r="K102" s="3">
         <v>-11800</v>
